--- a/correlation/data/variables.xlsx
+++ b/correlation/data/variables.xlsx
@@ -435,7 +435,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2">
-        <v>43164</v>
+        <v>43185</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -464,7002 +464,7002 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
-        <v>43165</v>
+        <v>43186</v>
       </c>
       <c r="B3">
-        <v>0.9960063771684741</v>
+        <v>1.00225444893913</v>
       </c>
       <c r="C3">
-        <v>1.00263879394621</v>
+        <v>0.9827236651558179</v>
       </c>
       <c r="D3">
-        <v>0.9947988453436662</v>
+        <v>1.003350577639585</v>
       </c>
       <c r="E3">
-        <v>1.002371876323592</v>
+        <v>0.997583655153071</v>
       </c>
       <c r="F3">
-        <v>0.9881974248927038</v>
+        <v>1.031261228889687</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.975438596491228</v>
       </c>
       <c r="H3">
-        <v>1.010946907498632</v>
+        <v>1.01023890784983</v>
       </c>
       <c r="I3">
-        <v>1.011049206423521</v>
+        <v>0.9962641822710081</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2">
-        <v>43166</v>
+        <v>43187</v>
       </c>
       <c r="B4">
-        <v>0.99767959463939</v>
+        <v>1.004940600866604</v>
       </c>
       <c r="C4">
-        <v>1.002153667482561</v>
+        <v>0.9798574410863063</v>
       </c>
       <c r="D4">
-        <v>0.9934985566795829</v>
+        <v>1.002653657490551</v>
       </c>
       <c r="E4">
-        <v>1.003049555273189</v>
+        <v>0.9961813121615498</v>
       </c>
       <c r="F4">
-        <v>0.9985693848354792</v>
+        <v>1.09198706431908</v>
       </c>
       <c r="G4">
-        <v>1.003472222222222</v>
+        <v>0.9719298245614034</v>
       </c>
       <c r="H4">
-        <v>1.005473453749316</v>
+        <v>0.9960182025028443</v>
       </c>
       <c r="I4">
-        <v>1.008614635516644</v>
+        <v>0.9946038188359005</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2">
-        <v>43167</v>
+        <v>43188</v>
       </c>
       <c r="B5">
-        <v>1.001420656343231</v>
+        <v>1.002973953919703</v>
       </c>
       <c r="C5">
-        <v>1.006626386469382</v>
+        <v>0.9933497583269074</v>
       </c>
       <c r="D5">
-        <v>0.9934985566795829</v>
+        <v>1.003993888546385</v>
       </c>
       <c r="E5">
-        <v>1.003960186361711</v>
+        <v>0.9761817436517011</v>
       </c>
       <c r="F5">
-        <v>0.9742489270386265</v>
+        <v>0.9647862019403524</v>
       </c>
       <c r="G5">
-        <v>0.9930555555555556</v>
+        <v>0.9614035087719298</v>
       </c>
       <c r="H5">
-        <v>1.0103995621237</v>
+        <v>1.007963594994312</v>
       </c>
       <c r="I5">
-        <v>1.009831920970083</v>
+        <v>0.991790425237524</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2">
-        <v>43168</v>
+        <v>43189</v>
       </c>
       <c r="B6">
-        <v>0.9985319884453284</v>
+        <v>1.001359064963305</v>
       </c>
       <c r="C6">
-        <v>1.024120340764589</v>
+        <v>0.9933497583269074</v>
       </c>
       <c r="D6">
-        <v>0.9954489896757079</v>
+        <v>1.002680462111668</v>
       </c>
       <c r="E6">
-        <v>1.004023718763236</v>
+        <v>0.9625466548726025</v>
       </c>
       <c r="F6">
-        <v>0.8830472103004292</v>
+        <v>0.9647862019403524</v>
       </c>
       <c r="G6">
-        <v>1.006944444444444</v>
+        <v>0.9614035087719298</v>
       </c>
       <c r="H6">
-        <v>1.016420361247947</v>
+        <v>1.010807736063709</v>
       </c>
       <c r="I6">
-        <v>1.00636733929491</v>
+        <v>0.9939120007379391</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2">
-        <v>43171</v>
+        <v>43192</v>
       </c>
       <c r="B7">
-        <v>0.9983583526700446</v>
+        <v>1.002318404937403</v>
       </c>
       <c r="C7">
-        <v>1.022815644593413</v>
+        <v>0.9711609712061086</v>
       </c>
       <c r="D7">
-        <v>0.9945387876108496</v>
+        <v>1.001340231055834</v>
       </c>
       <c r="E7">
-        <v>1.002753070732741</v>
+        <v>0.9504002071152725</v>
       </c>
       <c r="F7">
-        <v>0.8819742489270386</v>
+        <v>1.133668702838664</v>
       </c>
       <c r="G7">
-        <v>0.9965277777777778</v>
+        <v>0.9578947368421052</v>
       </c>
       <c r="H7">
-        <v>1.022441160372195</v>
+        <v>1.008532423208191</v>
       </c>
       <c r="I7">
-        <v>1.005571421883047</v>
+        <v>0.973895397103588</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2">
-        <v>43172</v>
+        <v>43193</v>
       </c>
       <c r="B8">
-        <v>0.9986740540796514</v>
+        <v>1.003021920918408</v>
       </c>
       <c r="C8">
-        <v>1.016306864539461</v>
+        <v>0.9834120103063699</v>
       </c>
       <c r="D8">
-        <v>0.9976334746313681</v>
+        <v>1.005360924223336</v>
       </c>
       <c r="E8">
-        <v>1.000635324015248</v>
+        <v>0.9386205259864944</v>
       </c>
       <c r="F8">
-        <v>0.8898426323319026</v>
+        <v>1.034495149119655</v>
       </c>
       <c r="G8">
-        <v>0.9861111111111109</v>
+        <v>0.9789473684210526</v>
       </c>
       <c r="H8">
-        <v>1.01751505199781</v>
+        <v>0.9994311717861208</v>
       </c>
       <c r="I8">
-        <v>0.9939135727328058</v>
+        <v>0.9623650954708972</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2">
-        <v>43173</v>
+        <v>43194</v>
       </c>
       <c r="B9">
-        <v>0.9955959653359852</v>
+        <v>1.005100490862286</v>
       </c>
       <c r="C9">
-        <v>1.01048902217616</v>
+        <v>0.9947866318105735</v>
       </c>
       <c r="D9">
-        <v>0.9989597690687333</v>
+        <v>0.9980432626584822</v>
       </c>
       <c r="E9">
-        <v>0.9993646759847525</v>
+        <v>0.9298828504239391</v>
       </c>
       <c r="F9">
-        <v>0.9202432045779685</v>
+        <v>1.003233920229968</v>
       </c>
       <c r="G9">
-        <v>0.9756944444444443</v>
+        <v>0.9789473684210526</v>
       </c>
       <c r="H9">
-        <v>1.010946907498631</v>
+        <v>0.9977246871444826</v>
       </c>
       <c r="I9">
-        <v>0.9937262980476612</v>
+        <v>0.9722811548750115</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2">
-        <v>43174</v>
+        <v>43199</v>
       </c>
       <c r="B10">
-        <v>0.9991318211235813</v>
+        <v>1.007946532785443</v>
       </c>
       <c r="C10">
-        <v>1.00969885407249</v>
+        <v>0.9829267833969645</v>
       </c>
       <c r="D10">
-        <v>0.994902868436793</v>
+        <v>0.9906719918513952</v>
       </c>
       <c r="E10">
-        <v>0.9982846251588312</v>
+        <v>0.9186209574766456</v>
       </c>
       <c r="F10">
-        <v>0.8758941344778254</v>
+        <v>0.9726913402802736</v>
       </c>
       <c r="G10">
-        <v>0.9791666666666664</v>
+        <v>0.9754385964912277</v>
       </c>
       <c r="H10">
-        <v>1.010946907498631</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9999063626574278</v>
+        <v>0.9758324877778801</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2">
-        <v>43175</v>
+        <v>43200</v>
       </c>
       <c r="B11">
-        <v>0.9985635585862891</v>
+        <v>1.003741425898981</v>
       </c>
       <c r="C11">
-        <v>1.011418847898153</v>
+        <v>0.9993680765830997</v>
       </c>
       <c r="D11">
-        <v>0.9922242737887811</v>
+        <v>0.9960329160747313</v>
       </c>
       <c r="E11">
-        <v>0.9978822532825077</v>
+        <v>0.9123859247912667</v>
       </c>
       <c r="F11">
-        <v>0.8161659513590843</v>
+        <v>0.9500538986704999</v>
       </c>
       <c r="G11">
-        <v>0.9895833333333331</v>
+        <v>0.9824561403508767</v>
       </c>
       <c r="H11">
-        <v>1.004378762999453</v>
+        <v>1.017064846416383</v>
       </c>
       <c r="I11">
-        <v>1.000515005384147</v>
+        <v>0.9739876395166496</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2">
-        <v>43178</v>
+        <v>43201</v>
       </c>
       <c r="B12">
-        <v>0.9974428185821851</v>
+        <v>1.003069887917113</v>
       </c>
       <c r="C12">
-        <v>0.9970524892132866</v>
+        <v>0.9938462695830433</v>
       </c>
       <c r="D12">
-        <v>0.9909239851246976</v>
+        <v>0.9946926850188973</v>
       </c>
       <c r="E12">
-        <v>0.9961880559085136</v>
+        <v>0.9080710232788936</v>
       </c>
       <c r="F12">
-        <v>0.9191702432045777</v>
+        <v>0.9266978081207333</v>
       </c>
       <c r="G12">
-        <v>0.9895833333333331</v>
+        <v>0.9789473684210522</v>
       </c>
       <c r="H12">
-        <v>1.00711548987411</v>
+        <v>1.022753128555177</v>
       </c>
       <c r="I12">
-        <v>1.007678262090921</v>
+        <v>0.9767087907019644</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2">
-        <v>43179</v>
+        <v>43202</v>
       </c>
       <c r="B13">
-        <v>0.9997632239427949</v>
+        <v>1.003725436899413</v>
       </c>
       <c r="C13">
-        <v>0.9985299198071256</v>
+        <v>1.002046228207105</v>
       </c>
       <c r="D13">
-        <v>0.9857748420149273</v>
+        <v>0.9946926850188973</v>
       </c>
       <c r="E13">
-        <v>0.9921643371452775</v>
+        <v>0.9059135725227071</v>
       </c>
       <c r="F13">
-        <v>0.9306151645207437</v>
+        <v>0.8936399568810639</v>
       </c>
       <c r="G13">
-        <v>1.003472222222222</v>
+        <v>0.9929824561403504</v>
       </c>
       <c r="H13">
-        <v>1.010946907498631</v>
+        <v>1.014220705346986</v>
       </c>
       <c r="I13">
-        <v>1.012828315932393</v>
+        <v>0.9703440642007192</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2">
-        <v>43180</v>
+        <v>43203</v>
       </c>
       <c r="B14">
-        <v>0.9952013385739769</v>
+        <v>1.003037909917976</v>
       </c>
       <c r="C14">
-        <v>0.9966886443655502</v>
+        <v>0.9991536739952229</v>
       </c>
       <c r="D14">
-        <v>0.9785972485891867</v>
+        <v>0.9934328678264133</v>
       </c>
       <c r="E14">
-        <v>0.9900677678949599</v>
+        <v>0.9015986710103342</v>
       </c>
       <c r="F14">
-        <v>0.8669527896995705</v>
+        <v>0.8717211642112831</v>
       </c>
       <c r="G14">
-        <v>1.003472222222222</v>
+        <v>0.9894736842105257</v>
       </c>
       <c r="H14">
-        <v>1.008210180623974</v>
+        <v>1.007394766780433</v>
       </c>
       <c r="I14">
-        <v>1.023924341027201</v>
+        <v>0.972511760907665</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2">
-        <v>43181</v>
+        <v>43206</v>
       </c>
       <c r="B15">
-        <v>1.000726113242096</v>
+        <v>1.001918679948195</v>
       </c>
       <c r="C15">
-        <v>0.9716090762751108</v>
+        <v>1.007255834947622</v>
       </c>
       <c r="D15">
-        <v>0.9746963825969365</v>
+        <v>0.9800037526469563</v>
       </c>
       <c r="E15">
-        <v>0.9873146971622195</v>
+        <v>0.9003042005566222</v>
       </c>
       <c r="F15">
-        <v>1.026108726752503</v>
+        <v>0.8613007545813872</v>
       </c>
       <c r="G15">
-        <v>0.9826388888888887</v>
+        <v>0.9929824561403504</v>
       </c>
       <c r="H15">
-        <v>1.002189381499726</v>
+        <v>0.9914675767918094</v>
       </c>
       <c r="I15">
-        <v>1.030385317664684</v>
+        <v>0.9892076376718014</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2">
-        <v>43182</v>
+        <v>43207</v>
       </c>
       <c r="B16">
-        <v>0.9964483591419236</v>
+        <v>1.004460930879555</v>
       </c>
       <c r="C16">
-        <v>0.9512374400023522</v>
+        <v>1.017994771586015</v>
       </c>
       <c r="D16">
-        <v>0.9623436402881439</v>
+        <v>0.9786903262122389</v>
       </c>
       <c r="E16">
-        <v>0.9845192714951294</v>
+        <v>0.9005199456322409</v>
       </c>
       <c r="F16">
-        <v>1.095493562231759</v>
+        <v>0.8609414301113909</v>
       </c>
       <c r="G16">
-        <v>0.9791666666666664</v>
+        <v>0.9894736842105257</v>
       </c>
       <c r="H16">
-        <v>0.9688013136288995</v>
+        <v>0.978384527872583</v>
       </c>
       <c r="I16">
-        <v>1.04499274310595</v>
+        <v>0.9840420625403558</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2">
-        <v>43185</v>
+        <v>43208</v>
       </c>
       <c r="B17">
-        <v>0.9872456630518855</v>
+        <v>1.00281406392402</v>
       </c>
       <c r="C17">
-        <v>0.9770704241916397</v>
+        <v>1.018841097590792</v>
       </c>
       <c r="D17">
-        <v>0.9701973838192078</v>
+        <v>0.938510199158335</v>
       </c>
       <c r="E17">
-        <v>0.9815967810249897</v>
+        <v>0.8852020452633167</v>
       </c>
       <c r="F17">
-        <v>0.9953505007153071</v>
+        <v>0.7955443765720448</v>
       </c>
       <c r="G17">
-        <v>0.9895833333333331</v>
+        <v>1.007017543859649</v>
       </c>
       <c r="H17">
-        <v>0.9622331691297206</v>
+        <v>0.9863481228668948</v>
       </c>
       <c r="I17">
-        <v>1.015122430825413</v>
+        <v>1.003689696522461</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2">
-        <v>43186</v>
+        <v>43209</v>
       </c>
       <c r="B18">
-        <v>0.9894713579896134</v>
+        <v>1.00366148090114</v>
       </c>
       <c r="C18">
-        <v>0.9601902283769579</v>
+        <v>1.013007090331195</v>
       </c>
       <c r="D18">
-        <v>0.9734481054794164</v>
+        <v>0.9398772348352857</v>
       </c>
       <c r="E18">
-        <v>0.9792249047013979</v>
+        <v>0.8737675562555284</v>
       </c>
       <c r="F18">
-        <v>1.026466380543633</v>
+        <v>0.7908731584620916</v>
       </c>
       <c r="G18">
-        <v>0.9652777777777776</v>
+        <v>1.024561403508771</v>
       </c>
       <c r="H18">
-        <v>0.9720853858784891</v>
+        <v>0.9948805460750859</v>
       </c>
       <c r="I18">
-        <v>1.011330118451238</v>
+        <v>1.001660363435107</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2">
-        <v>43187</v>
+        <v>43210</v>
       </c>
       <c r="B19">
-        <v>0.9921232498303105</v>
+        <v>1.003965271892938</v>
       </c>
       <c r="C19">
-        <v>0.9573897256095319</v>
+        <v>1.004359519286829</v>
       </c>
       <c r="D19">
-        <v>0.9727719553740931</v>
+        <v>0.9439247326239045</v>
       </c>
       <c r="E19">
-        <v>0.9778483693350277</v>
+        <v>0.8666479687601131</v>
       </c>
       <c r="F19">
-        <v>1.086909871244635</v>
+        <v>0.8253683075817465</v>
       </c>
       <c r="G19">
-        <v>0.9618055555555554</v>
+        <v>1.03859649122807</v>
       </c>
       <c r="H19">
-        <v>0.9584017515051996</v>
+        <v>0.979522184300342</v>
       </c>
       <c r="I19">
-        <v>1.009644646284938</v>
+        <v>0.9949266672816159</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2">
-        <v>43188</v>
+        <v>43213</v>
       </c>
       <c r="B20">
-        <v>0.9901816861612287</v>
+        <v>1.008761971763427</v>
       </c>
       <c r="C20">
-        <v>0.9705726697391343</v>
+        <v>1.004415941020481</v>
       </c>
       <c r="D20">
-        <v>0.9740722440381765</v>
+        <v>0.9654756480017157</v>
       </c>
       <c r="E20">
-        <v>0.9582168572638715</v>
+        <v>0.8638432827770705</v>
       </c>
       <c r="F20">
-        <v>0.9603004291845488</v>
+        <v>0.8074020840819262</v>
       </c>
       <c r="G20">
-        <v>0.9513888888888887</v>
+        <v>1.045614035087719</v>
       </c>
       <c r="H20">
-        <v>0.9698960043787627</v>
+        <v>0.9783845278725832</v>
       </c>
       <c r="I20">
-        <v>1.006788707336485</v>
+        <v>0.9665621252651969</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2">
-        <v>43189</v>
+        <v>43214</v>
       </c>
       <c r="B21">
-        <v>0.9885873940427145</v>
+        <v>1.006731368818253</v>
       </c>
       <c r="C21">
-        <v>0.9705726697391343</v>
+        <v>0.9909762840646216</v>
       </c>
       <c r="D21">
-        <v>0.9727979611473747</v>
+        <v>0.9610796901385801</v>
       </c>
       <c r="E21">
-        <v>0.9448326980093184</v>
+        <v>0.8610385967940281</v>
       </c>
       <c r="F21">
-        <v>0.9603004291845488</v>
+        <v>0.8404599353215956</v>
       </c>
       <c r="G21">
-        <v>0.9513888888888887</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="H21">
-        <v>0.9726327312534205</v>
+        <v>0.9982935153583625</v>
       </c>
       <c r="I21">
-        <v>1.008942366215646</v>
+        <v>0.9782769117240103</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2">
-        <v>43192</v>
+        <v>43215</v>
       </c>
       <c r="B22">
-        <v>0.9895344982715347</v>
+        <v>1.010824552707737</v>
       </c>
       <c r="C22">
-        <v>0.9488926620947173</v>
+        <v>0.9927968253371197</v>
       </c>
       <c r="D22">
-        <v>0.9714976724832913</v>
+        <v>0.9681293054922669</v>
       </c>
       <c r="E22">
-        <v>0.932909783989835</v>
+        <v>0.8595283812646975</v>
       </c>
       <c r="F22">
-        <v>1.128397711015736</v>
+        <v>0.8684872439813154</v>
       </c>
       <c r="G22">
-        <v>0.9479166666666664</v>
+        <v>1.063157894736842</v>
       </c>
       <c r="H22">
-        <v>0.9704433497536943</v>
+        <v>0.994880546075086</v>
       </c>
       <c r="I22">
-        <v>0.9886230628774747</v>
+        <v>0.9655013375149889</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2">
-        <v>43193</v>
+        <v>43216</v>
       </c>
       <c r="B23">
-        <v>0.9902290413726699</v>
+        <v>1.011719936683562</v>
       </c>
       <c r="C23">
-        <v>0.960862790065198</v>
+        <v>1.003155855635591</v>
       </c>
       <c r="D23">
-        <v>0.9753985384755417</v>
+        <v>0.9741871498646366</v>
       </c>
       <c r="E23">
-        <v>0.9213468869123256</v>
+        <v>0.8612543418696468</v>
       </c>
       <c r="F23">
-        <v>1.029685264663805</v>
+        <v>0.8217750628817825</v>
       </c>
       <c r="G23">
-        <v>0.9687499999999997</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="H23">
-        <v>0.9616858237547889</v>
+        <v>0.9812286689419804</v>
       </c>
       <c r="I23">
-        <v>0.9769183950559475</v>
+        <v>0.9474679457614609</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2">
-        <v>43194</v>
+        <v>43217</v>
       </c>
       <c r="B24">
-        <v>0.9922811005351139</v>
+        <v>1.010520761715939</v>
       </c>
       <c r="C24">
-        <v>0.9719765963233296</v>
+        <v>1.004273005961896</v>
       </c>
       <c r="D24">
-        <v>0.9682989623696461</v>
+        <v>0.9747232422869703</v>
       </c>
       <c r="E24">
-        <v>0.9127700127064807</v>
+        <v>0.8644905180039264</v>
       </c>
       <c r="F24">
-        <v>0.9985693848354787</v>
+        <v>0.8009342436219908</v>
       </c>
       <c r="G24">
-        <v>0.9687499999999997</v>
+        <v>1.03859649122807</v>
       </c>
       <c r="H24">
-        <v>0.9600437876299942</v>
+        <v>0.9812286689419804</v>
       </c>
       <c r="I24">
-        <v>0.9869844093824611</v>
+        <v>0.9392583709989851</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2">
-        <v>43199</v>
+        <v>43222</v>
       </c>
       <c r="B25">
-        <v>0.9950908430806144</v>
+        <v>1.019282733479366</v>
       </c>
       <c r="C25">
-        <v>0.960388689202996</v>
+        <v>0.9913938048936449</v>
       </c>
       <c r="D25">
-        <v>0.9611473747171873</v>
+        <v>0.982791433243091</v>
       </c>
       <c r="E25">
-        <v>0.9017153748411694</v>
+        <v>0.8636275377014518</v>
       </c>
       <c r="F25">
-        <v>0.968168812589413</v>
+        <v>0.7955443765720447</v>
       </c>
       <c r="G25">
-        <v>0.9652777777777772</v>
+        <v>1.042105263157894</v>
       </c>
       <c r="H25">
-        <v>0.9622331691297205</v>
+        <v>0.8549488054607515</v>
       </c>
       <c r="I25">
-        <v>0.9905894470714914</v>
+        <v>0.9271284936813945</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2">
-        <v>43200</v>
+        <v>43223</v>
       </c>
       <c r="B26">
-        <v>0.990939369544285</v>
+        <v>1.014342132612762</v>
       </c>
       <c r="C26">
-        <v>0.9764529905106323</v>
+        <v>0.9891595042410336</v>
       </c>
       <c r="D26">
-        <v>0.966348529373521</v>
+        <v>0.9774841182619883</v>
       </c>
       <c r="E26">
-        <v>0.8955950868276158</v>
+        <v>0.8614700869452653</v>
       </c>
       <c r="F26">
-        <v>0.9456366237482113</v>
+        <v>0.8153072224218471</v>
       </c>
       <c r="G26">
-        <v>0.9722222222222217</v>
+        <v>1.031578947368421</v>
       </c>
       <c r="H26">
-        <v>0.9786535303776679</v>
+        <v>0.8606370875995457</v>
       </c>
       <c r="I26">
-        <v>0.9887167002200471</v>
+        <v>0.9364449774006087</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2">
-        <v>43201</v>
+        <v>43224</v>
       </c>
       <c r="B27">
-        <v>0.9902763965841107</v>
+        <v>1.016068944566138</v>
       </c>
       <c r="C27">
-        <v>0.9710577962027829</v>
+        <v>1.001831825619228</v>
       </c>
       <c r="D27">
-        <v>0.9650482407094376</v>
+        <v>0.9735170343367195</v>
       </c>
       <c r="E27">
-        <v>0.8913595933926305</v>
+        <v>0.8614700869452653</v>
       </c>
       <c r="F27">
-        <v>0.9223891273247491</v>
+        <v>0.8030901904419692</v>
       </c>
       <c r="G27">
-        <v>0.9687499999999996</v>
+        <v>1.035087719298245</v>
       </c>
       <c r="H27">
-        <v>0.9841269841269837</v>
+        <v>0.8577929465301486</v>
       </c>
       <c r="I27">
-        <v>0.9914790018259273</v>
+        <v>0.9473295821418687</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2">
-        <v>43202</v>
+        <v>43227</v>
       </c>
       <c r="B28">
-        <v>0.9909235844738046</v>
+        <v>1.01690037254369</v>
       </c>
       <c r="C28">
-        <v>0.9790697332539489</v>
+        <v>1.005296120065449</v>
       </c>
       <c r="D28">
-        <v>0.9650482407094376</v>
+        <v>0.978851153938939</v>
       </c>
       <c r="E28">
-        <v>0.8892418466751379</v>
+        <v>0.8617505555435696</v>
       </c>
       <c r="F28">
-        <v>0.889484978540772</v>
+        <v>0.8156665468918434</v>
       </c>
       <c r="G28">
-        <v>0.9826388888888884</v>
+        <v>1.035087719298245</v>
       </c>
       <c r="H28">
-        <v>0.9759168035030099</v>
+        <v>0.8708759954493751</v>
       </c>
       <c r="I28">
-        <v>0.9850180251884443</v>
+        <v>0.9467300064569688</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2">
-        <v>43203</v>
+        <v>43228</v>
       </c>
       <c r="B29">
-        <v>0.9902448264431499</v>
+        <v>1.017875701517356</v>
       </c>
       <c r="C29">
-        <v>0.9762435040831478</v>
+        <v>1.005029057192831</v>
       </c>
       <c r="D29">
-        <v>0.9638259693651992</v>
+        <v>0.9896802208700779</v>
       </c>
       <c r="E29">
-        <v>0.8850063532401529</v>
+        <v>0.8628508554292247</v>
       </c>
       <c r="F29">
-        <v>0.8676680972818307</v>
+        <v>0.805605461731944</v>
       </c>
       <c r="G29">
-        <v>0.9791666666666661</v>
+        <v>1.042105263157894</v>
       </c>
       <c r="H29">
-        <v>0.969348659003831</v>
+        <v>0.8782707622298074</v>
       </c>
       <c r="I29">
-        <v>0.9872185027388914</v>
+        <v>0.950788672631676</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2">
-        <v>43206</v>
+        <v>43229</v>
       </c>
       <c r="B30">
-        <v>0.9891398715095262</v>
+        <v>1.017683833522537</v>
       </c>
       <c r="C30">
-        <v>0.9841598859217769</v>
+        <v>1.014759925523312</v>
       </c>
       <c r="D30">
-        <v>0.9507970769510832</v>
+        <v>0.9937545232798134</v>
       </c>
       <c r="E30">
-        <v>0.8837357052096573</v>
+        <v>0.8657849884576384</v>
       </c>
       <c r="F30">
-        <v>0.8572961373390552</v>
+        <v>0.7772188286022278</v>
       </c>
       <c r="G30">
-        <v>0.9826388888888885</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="H30">
-        <v>0.9540229885057467</v>
+        <v>0.877701934015928</v>
       </c>
       <c r="I30">
-        <v>1.004166861744463</v>
+        <v>0.9516188543492297</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2">
-        <v>43207</v>
+        <v>43230</v>
       </c>
       <c r="B31">
-        <v>0.9916496977159002</v>
+        <v>1.012039716674928</v>
       </c>
       <c r="C31">
-        <v>0.9946525832984189</v>
+        <v>1.024268868368095</v>
       </c>
       <c r="D31">
-        <v>0.9495227940602814</v>
+        <v>0.9897338301123114</v>
       </c>
       <c r="E31">
-        <v>0.8839474798814065</v>
+        <v>0.87031563504563</v>
       </c>
       <c r="F31">
-        <v>0.856938483547925</v>
+        <v>0.7606899029823933</v>
       </c>
       <c r="G31">
-        <v>0.9791666666666662</v>
+        <v>1.042105263157894</v>
       </c>
       <c r="H31">
-        <v>0.9414340448823203</v>
+        <v>0.8822525597269633</v>
       </c>
       <c r="I31">
-        <v>0.9989231705604186</v>
+        <v>0.9819666082464718</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2">
-        <v>43208</v>
+        <v>43231</v>
       </c>
       <c r="B32">
-        <v>0.9900238354564252</v>
+        <v>1.012951089650321</v>
       </c>
       <c r="C32">
-        <v>0.9954795034069107</v>
+        <v>1.026017942111301</v>
       </c>
       <c r="D32">
-        <v>0.9105401399110603</v>
+        <v>0.9886080360254109</v>
       </c>
       <c r="E32">
-        <v>0.868911478187209</v>
+        <v>0.8737675562555284</v>
       </c>
       <c r="F32">
-        <v>0.7918454935622312</v>
+        <v>0.7096658282429034</v>
       </c>
       <c r="G32">
-        <v>0.9965277777777775</v>
+        <v>1.042105263157894</v>
       </c>
       <c r="H32">
-        <v>0.9490968801313625</v>
+        <v>0.8794084186575662</v>
       </c>
       <c r="I32">
-        <v>1.018867924528301</v>
+        <v>0.9885619407803707</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="2">
-        <v>43209</v>
+        <v>43234</v>
       </c>
       <c r="B33">
-        <v>0.9908604441918833</v>
+        <v>1.013254880642119</v>
       </c>
       <c r="C33">
-        <v>0.9897792674590398</v>
+        <v>1.02692445129864</v>
       </c>
       <c r="D33">
-        <v>0.9118664343484254</v>
+        <v>0.9900822901868285</v>
       </c>
       <c r="E33">
-        <v>0.8576874205844983</v>
+        <v>0.8759250070117148</v>
       </c>
       <c r="F33">
-        <v>0.7871959942775388</v>
+        <v>0.7491915199425082</v>
       </c>
       <c r="G33">
-        <v>1.013888888888888</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="H33">
-        <v>0.9573070607553362</v>
+        <v>0.8828213879408425</v>
       </c>
       <c r="I33">
-        <v>1.016807902991712</v>
+        <v>0.9821972142791253</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2">
-        <v>43210</v>
+        <v>43235</v>
       </c>
       <c r="B34">
-        <v>0.9911603605310099</v>
+        <v>1.017875701517357</v>
       </c>
       <c r="C34">
-        <v>0.9813299815504933</v>
+        <v>1.019898064734535</v>
       </c>
       <c r="D34">
-        <v>0.9157933061139574</v>
+        <v>0.9958184791057981</v>
       </c>
       <c r="E34">
-        <v>0.8506988564167729</v>
+        <v>0.8785139479191388</v>
       </c>
       <c r="F34">
-        <v>0.8215307582260365</v>
+        <v>0.7642831476823573</v>
       </c>
       <c r="G34">
-        <v>1.027777777777777</v>
+        <v>1.080701754385964</v>
       </c>
       <c r="H34">
-        <v>0.9425287356321835</v>
+        <v>0.8879408418657572</v>
       </c>
       <c r="I34">
-        <v>1.00997237698394</v>
+        <v>0.9651784890692742</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2">
-        <v>43213</v>
+        <v>43236</v>
       </c>
       <c r="B35">
-        <v>0.9958958816751118</v>
+        <v>1.015381417584702</v>
       </c>
       <c r="C35">
-        <v>0.9813851095577262</v>
+        <v>1.024039419984578</v>
       </c>
       <c r="D35">
-        <v>0.936701947832419</v>
+        <v>0.993808132522047</v>
       </c>
       <c r="E35">
-        <v>0.8479457856840323</v>
+        <v>0.8806713986753253</v>
       </c>
       <c r="F35">
-        <v>0.8036480686695272</v>
+        <v>0.7394897592526052</v>
       </c>
       <c r="G35">
-        <v>1.034722222222222</v>
+        <v>1.084210526315789</v>
       </c>
       <c r="H35">
-        <v>0.9414340448823204</v>
+        <v>0.8816837315130838</v>
       </c>
       <c r="I35">
-        <v>0.9811788941429836</v>
+        <v>0.9693755188635736</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="2">
-        <v>43214</v>
+        <v>43237</v>
       </c>
       <c r="B36">
-        <v>0.9938911777241086</v>
+        <v>1.016516636554051</v>
       </c>
       <c r="C36">
-        <v>0.9682536182348745</v>
+        <v>1.02316300238852</v>
       </c>
       <c r="D36">
-        <v>0.9324370010142253</v>
+        <v>0.9949875358511809</v>
       </c>
       <c r="E36">
-        <v>0.845192714951292</v>
+        <v>0.8847705551120796</v>
       </c>
       <c r="F36">
-        <v>0.8365522174535043</v>
+        <v>0.7556593604024435</v>
       </c>
       <c r="G36">
-        <v>1.041666666666666</v>
+        <v>1.091228070175438</v>
       </c>
       <c r="H36">
-        <v>0.9605911330049258</v>
+        <v>0.8782707622298073</v>
       </c>
       <c r="I36">
-        <v>0.993070836649655</v>
+        <v>0.9680380038741814</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2">
-        <v>43215</v>
+        <v>43238</v>
       </c>
       <c r="B37">
-        <v>0.9979321557670755</v>
+        <v>1.017300097532898</v>
       </c>
       <c r="C37">
-        <v>0.9700324152682527</v>
+        <v>1.020469804968874</v>
       </c>
       <c r="D37">
-        <v>0.9392765193873041</v>
+        <v>0.9944246388077306</v>
       </c>
       <c r="E37">
-        <v>0.8437102922490471</v>
+        <v>0.8946948285905374</v>
       </c>
       <c r="F37">
-        <v>0.8644492131616588</v>
+        <v>0.7369744879626304</v>
       </c>
       <c r="G37">
-        <v>1.052083333333333</v>
+        <v>1.073684210526315</v>
       </c>
       <c r="H37">
-        <v>0.9573070607553362</v>
+        <v>0.889078498293516</v>
       </c>
       <c r="I37">
-        <v>0.9801020647034027</v>
+        <v>0.9706669126464347</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2">
-        <v>43216</v>
+        <v>43241</v>
       </c>
       <c r="B38">
-        <v>0.9988161197139745</v>
+        <v>1.016484658554915</v>
       </c>
       <c r="C38">
-        <v>0.9801539173961938</v>
+        <v>1.028007748584755</v>
       </c>
       <c r="D38">
-        <v>0.945153824148961</v>
+        <v>0.9901358994290617</v>
       </c>
       <c r="E38">
-        <v>0.8454044896230413</v>
+        <v>0.895557808893012</v>
       </c>
       <c r="F38">
-        <v>0.8179542203147346</v>
+        <v>0.7430830039525692</v>
       </c>
       <c r="G38">
-        <v>1.041666666666667</v>
+        <v>1.073684210526315</v>
       </c>
       <c r="H38">
-        <v>0.9441707717569784</v>
+        <v>0.8953356086461896</v>
       </c>
       <c r="I38">
-        <v>0.9617959642305344</v>
+        <v>0.9829351535836177</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2">
-        <v>43217</v>
+        <v>43242</v>
       </c>
       <c r="B39">
-        <v>0.9976322394279491</v>
+        <v>1.015813120573046</v>
       </c>
       <c r="C39">
-        <v>0.9812454519394032</v>
+        <v>1.024784186868782</v>
       </c>
       <c r="D39">
-        <v>0.9456739396145944</v>
+        <v>0.983729594982175</v>
       </c>
       <c r="E39">
-        <v>0.84858110969928</v>
+        <v>0.8974995145735799</v>
       </c>
       <c r="F39">
-        <v>0.7972103004291838</v>
+        <v>0.7211642112827884</v>
       </c>
       <c r="G39">
-        <v>1.027777777777778</v>
+        <v>1.073684210526315</v>
       </c>
       <c r="H39">
-        <v>0.9441707717569784</v>
+        <v>0.8953356086461896</v>
       </c>
       <c r="I39">
-        <v>0.953462240741607</v>
+        <v>0.9939581219444701</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="2">
-        <v>43222</v>
+        <v>43243</v>
       </c>
       <c r="B40">
-        <v>1.006282458051175</v>
+        <v>1.019618502470301</v>
       </c>
       <c r="C40">
-        <v>0.9686615654883973</v>
+        <v>1.028113069154238</v>
       </c>
       <c r="D40">
-        <v>0.9535016773723766</v>
+        <v>0.975688208647171</v>
       </c>
       <c r="E40">
-        <v>0.8477340110122831</v>
+        <v>0.9003042005566224</v>
       </c>
       <c r="F40">
-        <v>0.791845493562231</v>
+        <v>0.7685950413223142</v>
       </c>
       <c r="G40">
-        <v>1.03125</v>
+        <v>1.056140350877192</v>
       </c>
       <c r="H40">
-        <v>0.8226600985221671</v>
+        <v>0.8822525597269631</v>
       </c>
       <c r="I40">
-        <v>0.9411489301933603</v>
+        <v>1.006964302186145</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="2">
-        <v>43223</v>
+        <v>43244</v>
       </c>
       <c r="B41">
-        <v>1.00140487127275</v>
+        <v>1.019202788481525</v>
       </c>
       <c r="C41">
-        <v>0.9664784964019787</v>
+        <v>1.026032987906942</v>
       </c>
       <c r="D41">
-        <v>0.9483525342626062</v>
+        <v>0.9783954753799556</v>
       </c>
       <c r="E41">
-        <v>0.8456162642947904</v>
+        <v>0.9046191020689953</v>
       </c>
       <c r="F41">
-        <v>0.8115164520743912</v>
+        <v>0.7696730147323034</v>
       </c>
       <c r="G41">
-        <v>1.020833333333333</v>
+        <v>1.045614035087719</v>
       </c>
       <c r="H41">
-        <v>0.8281335522714831</v>
+        <v>0.8782707622298073</v>
       </c>
       <c r="I41">
-        <v>0.9506063017931544</v>
+        <v>0.9933585462595701</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="2">
-        <v>43224</v>
+        <v>43245</v>
       </c>
       <c r="B42">
-        <v>1.003109658884627</v>
+        <v>1.021521193418928</v>
       </c>
       <c r="C42">
-        <v>0.9788602468264643</v>
+        <v>1.023614376257735</v>
       </c>
       <c r="D42">
-        <v>0.9445036798169193</v>
+        <v>0.9683437424612005</v>
       </c>
       <c r="E42">
-        <v>0.8456162642947904</v>
+        <v>0.9093654937326057</v>
       </c>
       <c r="F42">
-        <v>0.7993562231759649</v>
+        <v>0.7362558390226375</v>
       </c>
       <c r="G42">
-        <v>1.024305555555556</v>
+        <v>1.028070175438596</v>
       </c>
       <c r="H42">
-        <v>0.8253968253968251</v>
+        <v>0.8748577929465309</v>
       </c>
       <c r="I42">
-        <v>0.961655508216676</v>
+        <v>1.006134120468592</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="2">
-        <v>43227</v>
+        <v>43248</v>
       </c>
       <c r="B43">
-        <v>1.003930482549605</v>
+        <v>1.022864269382665</v>
       </c>
       <c r="C43">
-        <v>0.982245106470558</v>
+        <v>1.023614376257735</v>
       </c>
       <c r="D43">
-        <v>0.9496788286999713</v>
+        <v>0.9676736269332835</v>
       </c>
       <c r="E43">
-        <v>0.8458915713680646</v>
+        <v>0.9151906107743092</v>
       </c>
       <c r="F43">
-        <v>0.8118741058655214</v>
+        <v>0.7362558390226375</v>
       </c>
       <c r="G43">
-        <v>1.024305555555556</v>
+        <v>1.028070175438596</v>
       </c>
       <c r="H43">
-        <v>0.8379857690202516</v>
+        <v>0.8731513083048926</v>
       </c>
       <c r="I43">
-        <v>0.9610468654899565</v>
+        <v>1.016419149524952</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="2">
-        <v>43228</v>
+        <v>43249</v>
       </c>
       <c r="B44">
-        <v>1.004893371848905</v>
+        <v>1.027197288265674</v>
       </c>
       <c r="C44">
-        <v>0.9819841672363228</v>
+        <v>1.011777096537586</v>
       </c>
       <c r="D44">
-        <v>0.9601851611057654</v>
+        <v>0.9649931648216153</v>
       </c>
       <c r="E44">
-        <v>0.8469716221939858</v>
+        <v>0.9238204137990551</v>
       </c>
       <c r="F44">
-        <v>0.8018597997138763</v>
+        <v>0.846209126841538</v>
       </c>
       <c r="G44">
-        <v>1.03125</v>
+        <v>0.9719298245614031</v>
       </c>
       <c r="H44">
-        <v>0.8451012588943621</v>
+        <v>0.8697383390216161</v>
       </c>
       <c r="I44">
-        <v>0.9651669085631341</v>
+        <v>1.046674661009132</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="2">
-        <v>43229</v>
+        <v>43250</v>
       </c>
       <c r="B45">
-        <v>1.004703951003141</v>
+        <v>1.023391906368419</v>
       </c>
       <c r="C45">
-        <v>0.9914919108837387</v>
+        <v>1.024622444565647</v>
       </c>
       <c r="D45">
-        <v>0.9641380386445789</v>
+        <v>0.9643230492936983</v>
       </c>
       <c r="E45">
-        <v>0.8498517577297758</v>
+        <v>0.9302927660676147</v>
       </c>
       <c r="F45">
-        <v>0.7736051502145915</v>
+        <v>0.790513833992095</v>
       </c>
       <c r="G45">
-        <v>1.041666666666667</v>
+        <v>0.9964912280701749</v>
       </c>
       <c r="H45">
-        <v>0.8445539135194304</v>
+        <v>0.8475540386803193</v>
       </c>
       <c r="I45">
-        <v>0.966009644646284</v>
+        <v>1.05317775112997</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="2">
-        <v>43230</v>
+        <v>43251</v>
       </c>
       <c r="B46">
-        <v>0.9991318211235813</v>
+        <v>1.024750971331724</v>
       </c>
       <c r="C46">
-        <v>1.000782817702706</v>
+        <v>1.017573489308082</v>
       </c>
       <c r="D46">
-        <v>0.9602371726523288</v>
+        <v>0.9684241563245504</v>
       </c>
       <c r="E46">
-        <v>0.8542990258365103</v>
+        <v>0.9339604323531316</v>
       </c>
       <c r="F46">
-        <v>0.7571530758226032</v>
+        <v>0.7412863816025872</v>
       </c>
       <c r="G46">
-        <v>1.03125</v>
+        <v>0.9929824561403504</v>
       </c>
       <c r="H46">
-        <v>0.8489326765188832</v>
+        <v>0.8629124004550633</v>
       </c>
       <c r="I46">
-        <v>0.9968163303525438</v>
+        <v>1.054330781293239</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="2">
-        <v>43231</v>
+        <v>43252</v>
       </c>
       <c r="B47">
-        <v>1.000031570140961</v>
+        <v>1.025534432310571</v>
       </c>
       <c r="C47">
-        <v>1.002491785926922</v>
+        <v>1.028613341859284</v>
       </c>
       <c r="D47">
-        <v>0.9591449301744988</v>
+        <v>0.9703808936660681</v>
       </c>
       <c r="E47">
-        <v>0.8576874205844984</v>
+        <v>0.9361178831093182</v>
       </c>
       <c r="F47">
-        <v>0.7063662374821167</v>
+        <v>0.7128997484728711</v>
       </c>
       <c r="G47">
-        <v>1.03125</v>
+        <v>1.014035087719298</v>
       </c>
       <c r="H47">
-        <v>0.8461959496442253</v>
+        <v>0.8572241183162693</v>
       </c>
       <c r="I47">
-        <v>1.003511400346457</v>
+        <v>1.055668296282631</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="2">
-        <v>43234</v>
+        <v>43255</v>
       </c>
       <c r="B48">
-        <v>1.000331486480087</v>
+        <v>1.024143389348129</v>
       </c>
       <c r="C48">
-        <v>1.003377509243129</v>
+        <v>1.033221116774182</v>
       </c>
       <c r="D48">
-        <v>0.9605752477049906</v>
+        <v>0.9792264186345727</v>
       </c>
       <c r="E48">
-        <v>0.859805167301991</v>
+        <v>0.9365493732605554</v>
       </c>
       <c r="F48">
-        <v>0.7457081545064371</v>
+        <v>0.7125404240028747</v>
       </c>
       <c r="G48">
-        <v>1.041666666666667</v>
+        <v>1.03157894736842</v>
       </c>
       <c r="H48">
-        <v>0.8494800218938147</v>
+        <v>0.8617747440273046</v>
       </c>
       <c r="I48">
-        <v>0.9970504237089739</v>
+        <v>1.051932478553639</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="2">
-        <v>43235</v>
+        <v>43256</v>
       </c>
       <c r="B49">
-        <v>1.004893371848905</v>
+        <v>1.022512511392163</v>
       </c>
       <c r="C49">
-        <v>0.9965122347424052</v>
+        <v>1.033947076413835</v>
       </c>
       <c r="D49">
-        <v>0.9661404831872676</v>
+        <v>0.9811027421127404</v>
       </c>
       <c r="E49">
-        <v>0.8623464633629823</v>
+        <v>0.9376280986386487</v>
       </c>
       <c r="F49">
-        <v>0.7607296137339049</v>
+        <v>0.6931369026230687</v>
       </c>
       <c r="G49">
-        <v>1.069444444444445</v>
+        <v>1.024561403508771</v>
       </c>
       <c r="H49">
-        <v>0.8544061302681989</v>
+        <v>0.8686006825938575</v>
       </c>
       <c r="I49">
-        <v>0.9797743340044001</v>
+        <v>1.053269993543031</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="2">
-        <v>43236</v>
+        <v>43257</v>
       </c>
       <c r="B50">
-        <v>1.002430900853972</v>
+        <v>1.019682458468574</v>
       </c>
       <c r="C50">
-        <v>1.000558630473293</v>
+        <v>1.042805288597168</v>
       </c>
       <c r="D50">
-        <v>0.9641900501911423</v>
+        <v>0.9811027421127404</v>
       </c>
       <c r="E50">
-        <v>0.8644642100804748</v>
+        <v>0.9393540592435978</v>
       </c>
       <c r="F50">
-        <v>0.7360515021459221</v>
+        <v>0.6679841897233202</v>
       </c>
       <c r="G50">
-        <v>1.072916666666667</v>
+        <v>1.042105263157894</v>
       </c>
       <c r="H50">
-        <v>0.8483853311439515</v>
+        <v>0.8686006825938575</v>
       </c>
       <c r="I50">
-        <v>0.984034833091436</v>
+        <v>1.040678904160133</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="2">
-        <v>43237</v>
+        <v>43258</v>
       </c>
       <c r="B51">
-        <v>1.003551640858076</v>
+        <v>1.021617127416338</v>
       </c>
       <c r="C51">
-        <v>0.9997023087609432</v>
+        <v>1.042060521712964</v>
       </c>
       <c r="D51">
-        <v>0.9653343042155358</v>
+        <v>0.9837832042244085</v>
       </c>
       <c r="E51">
-        <v>0.8684879288437107</v>
+        <v>0.9384910789411232</v>
       </c>
       <c r="F51">
-        <v>0.7521459227467805</v>
+        <v>0.6866690621631333</v>
       </c>
       <c r="G51">
-        <v>1.079861111111111</v>
+        <v>1.028070175438596</v>
       </c>
       <c r="H51">
-        <v>0.8451012588943621</v>
+        <v>0.8674630261660987</v>
       </c>
       <c r="I51">
-        <v>0.9826770916241387</v>
+        <v>1.038972419518495</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="2">
-        <v>43238</v>
+        <v>43259</v>
       </c>
       <c r="B52">
-        <v>1.004325109311613</v>
+        <v>1.023232016372736</v>
       </c>
       <c r="C52">
-        <v>0.9970708652156978</v>
+        <v>1.045317936469128</v>
       </c>
       <c r="D52">
-        <v>0.9647881829766207</v>
+        <v>0.9771088535663551</v>
       </c>
       <c r="E52">
-        <v>0.8782295637441766</v>
+        <v>0.9387068240167419</v>
       </c>
       <c r="F52">
-        <v>0.7335479256080109</v>
+        <v>0.6949335249730507</v>
       </c>
       <c r="G52">
-        <v>1.0625</v>
+        <v>1.028070175438596</v>
       </c>
       <c r="H52">
-        <v>0.8555008210180621</v>
+        <v>0.859499431171787</v>
       </c>
       <c r="I52">
-        <v>0.9853457558874468</v>
+        <v>1.041186237431972</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="2">
-        <v>43241</v>
+        <v>43262</v>
       </c>
       <c r="B53">
-        <v>1.003520070717116</v>
+        <v>1.022976192379643</v>
       </c>
       <c r="C53">
-        <v>1.004435966981999</v>
+        <v>1.046435086795434</v>
       </c>
       <c r="D53">
-        <v>0.9606272592515537</v>
+        <v>0.9784222800010725</v>
       </c>
       <c r="E53">
-        <v>0.8790766624311735</v>
+        <v>0.939138314167979</v>
       </c>
       <c r="F53">
-        <v>0.7396280400572238</v>
+        <v>0.6970894717930292</v>
       </c>
       <c r="G53">
-        <v>1.0625</v>
+        <v>1.03859649122807</v>
       </c>
       <c r="H53">
-        <v>0.8615216201423095</v>
+        <v>0.8566552901023899</v>
       </c>
       <c r="I53">
-        <v>0.9977995224495518</v>
+        <v>1.034083571626234</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="2">
-        <v>43242</v>
+        <v>43263</v>
       </c>
       <c r="B54">
-        <v>1.002857097756941</v>
+        <v>1.024239323345539</v>
       </c>
       <c r="C54">
-        <v>1.001286320168766</v>
+        <v>1.048259389516842</v>
       </c>
       <c r="D54">
-        <v>0.9544118794372349</v>
+        <v>0.9878307020130274</v>
       </c>
       <c r="E54">
-        <v>0.880982634476917</v>
+        <v>0.9389225690923605</v>
       </c>
       <c r="F54">
-        <v>0.7178111587982825</v>
+        <v>0.6579231045634208</v>
       </c>
       <c r="G54">
-        <v>1.0625</v>
+        <v>1.03859649122807</v>
       </c>
       <c r="H54">
-        <v>0.8615216201423095</v>
+        <v>0.8657565415244605</v>
       </c>
       <c r="I54">
-        <v>1.008989184886932</v>
+        <v>1.017895028133936</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="2">
-        <v>43243</v>
+        <v>43264</v>
       </c>
       <c r="B55">
-        <v>1.006613944531262</v>
+        <v>1.021521193418928</v>
       </c>
       <c r="C55">
-        <v>1.0045388725955</v>
+        <v>1.044039043839687</v>
       </c>
       <c r="D55">
-        <v>0.9466101474527344</v>
+        <v>0.9817728576406576</v>
       </c>
       <c r="E55">
-        <v>0.8837357052096575</v>
+        <v>0.9387068240167418</v>
       </c>
       <c r="F55">
-        <v>0.7650214592274671</v>
+        <v>0.67301473230327</v>
       </c>
       <c r="G55">
-        <v>1.045138888888889</v>
+        <v>1.045614035087719</v>
       </c>
       <c r="H55">
-        <v>0.8489326765188832</v>
+        <v>0.8583617747440281</v>
       </c>
       <c r="I55">
-        <v>1.022192050189614</v>
+        <v>1.036112904713588</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="2">
-        <v>43244</v>
+        <v>43265</v>
       </c>
       <c r="B56">
-        <v>1.006203532698773</v>
+        <v>1.026078058295893</v>
       </c>
       <c r="C56">
-        <v>1.002506486728852</v>
+        <v>1.04661939779203</v>
       </c>
       <c r="D56">
-        <v>0.9492367305541829</v>
+        <v>0.9710510091939855</v>
       </c>
       <c r="E56">
-        <v>0.8879711986446427</v>
+        <v>0.9387068240167418</v>
       </c>
       <c r="F56">
-        <v>0.7660944206008576</v>
+        <v>0.6572044556234281</v>
       </c>
       <c r="G56">
-        <v>1.034722222222223</v>
+        <v>1.031578947368421</v>
       </c>
       <c r="H56">
-        <v>0.8451012588943621</v>
+        <v>0.855517633674631</v>
       </c>
       <c r="I56">
-        <v>1.008380542160212</v>
+        <v>1.075408172677798</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="2">
-        <v>43245</v>
+        <v>43266</v>
       </c>
       <c r="B57">
-        <v>1.008492367918423</v>
+        <v>1.029147946213006</v>
       </c>
       <c r="C57">
-        <v>1.000143332818806</v>
+        <v>1.045554907750466</v>
       </c>
       <c r="D57">
-        <v>0.9394845655735572</v>
+        <v>0.965716889591766</v>
       </c>
       <c r="E57">
-        <v>0.8926302414231265</v>
+        <v>0.9389225690923605</v>
       </c>
       <c r="F57">
-        <v>0.7328326180257503</v>
+        <v>0.6737333812432629</v>
       </c>
       <c r="G57">
-        <v>1.017361111111112</v>
+        <v>1.028070175438596</v>
       </c>
       <c r="H57">
-        <v>0.8418171866447727</v>
+        <v>0.8492605233219575</v>
       </c>
       <c r="I57">
-        <v>1.021349314106465</v>
+        <v>1.084724656397012</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="2">
-        <v>43248</v>
+        <v>43270</v>
       </c>
       <c r="B58">
-        <v>1.009818313838771</v>
+        <v>1.035655469037303</v>
       </c>
       <c r="C58">
-        <v>1.000143332818806</v>
+        <v>1.039134114460891</v>
       </c>
       <c r="D58">
-        <v>0.9388344212415155</v>
+        <v>0.9543249256171767</v>
       </c>
       <c r="E58">
-        <v>0.8983481575603566</v>
+        <v>0.9376280986386485</v>
       </c>
       <c r="F58">
-        <v>0.7328326180257503</v>
+        <v>0.7524254401724761</v>
       </c>
       <c r="G58">
-        <v>1.017361111111112</v>
+        <v>1.014035087719298</v>
       </c>
       <c r="H58">
-        <v>0.8401751505199779</v>
+        <v>0.8168373151308311</v>
       </c>
       <c r="I58">
-        <v>1.031789877803267</v>
+        <v>1.115164652707315</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="2">
-        <v>43249</v>
+        <v>43271</v>
       </c>
       <c r="B59">
-        <v>1.014096067938943</v>
+        <v>1.036279040020466</v>
       </c>
       <c r="C59">
-        <v>0.9885774769013653</v>
+        <v>1.040913279795378</v>
       </c>
       <c r="D59">
-        <v>0.9362338439133485</v>
+        <v>0.9664138097407997</v>
       </c>
       <c r="E59">
-        <v>0.9068191444303269</v>
+        <v>0.9350391577312246</v>
       </c>
       <c r="F59">
-        <v>0.8422746781115872</v>
+        <v>0.7527847646424726</v>
       </c>
       <c r="G59">
-        <v>0.961805555555556</v>
+        <v>1.028070175438596</v>
       </c>
       <c r="H59">
-        <v>0.8368910782703884</v>
+        <v>0.8191126279863488</v>
       </c>
       <c r="I59">
-        <v>1.062502926166955</v>
+        <v>1.098745503182364</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="2">
-        <v>43250</v>
+        <v>43272</v>
       </c>
       <c r="B60">
-        <v>1.010339221164622</v>
+        <v>1.039364916937147</v>
       </c>
       <c r="C60">
-        <v>1.001128286548032</v>
+        <v>1.034308175509207</v>
       </c>
       <c r="D60">
-        <v>0.9355836995813067</v>
+        <v>0.9583456187846789</v>
       </c>
       <c r="E60">
-        <v>0.9131723845828047</v>
+        <v>0.9339604323531313</v>
       </c>
       <c r="F60">
-        <v>0.7868383404864084</v>
+        <v>0.8120733021918799</v>
       </c>
       <c r="G60">
-        <v>0.9861111111111115</v>
+        <v>1.017543859649123</v>
       </c>
       <c r="H60">
-        <v>0.8155446086480569</v>
+        <v>0.8071672354948811</v>
       </c>
       <c r="I60">
-        <v>1.069104358818296</v>
+        <v>1.119500046121207</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="2">
-        <v>43251</v>
+        <v>43273</v>
       </c>
       <c r="B61">
-        <v>1.011680952155452</v>
+        <v>1.040931838894841</v>
       </c>
       <c r="C61">
-        <v>0.9942409608444143</v>
+        <v>1.036234037351188</v>
       </c>
       <c r="D61">
-        <v>0.939562582893402</v>
+        <v>0.9543517302382936</v>
       </c>
       <c r="E61">
-        <v>0.9167725540025421</v>
+        <v>0.9287825505382837</v>
       </c>
       <c r="F61">
-        <v>0.7378397711015729</v>
+        <v>0.7542220625224583</v>
       </c>
       <c r="G61">
-        <v>0.9826388888888894</v>
+        <v>1.017543859649123</v>
       </c>
       <c r="H61">
-        <v>0.8303229337712096</v>
+        <v>0.8122866894197959</v>
       </c>
       <c r="I61">
-        <v>1.070274825600449</v>
+        <v>1.119453924914676</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="2">
-        <v>43252</v>
+        <v>43276</v>
       </c>
       <c r="B62">
-        <v>1.012454420608988</v>
+        <v>1.045936395759718</v>
       </c>
       <c r="C62">
-        <v>1.005027674259631</v>
+        <v>1.022011999022024</v>
       </c>
       <c r="D62">
-        <v>0.9414610043429638</v>
+        <v>0.959685849840513</v>
       </c>
       <c r="E62">
-        <v>0.9188903007200349</v>
+        <v>0.9216629630428684</v>
       </c>
       <c r="F62">
-        <v>0.7095851216022883</v>
+        <v>0.8627380524613733</v>
       </c>
       <c r="G62">
-        <v>1.003472222222223</v>
+        <v>1.007017543859649</v>
       </c>
       <c r="H62">
-        <v>0.8248494800218938</v>
+        <v>0.8037542662116048</v>
       </c>
       <c r="I62">
-        <v>1.071632567067746</v>
+        <v>1.118439258370999</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="2">
-        <v>43255</v>
+        <v>43277</v>
       </c>
       <c r="B63">
-        <v>1.011081119477199</v>
+        <v>1.052427929584447</v>
       </c>
       <c r="C63">
-        <v>1.009529794850309</v>
+        <v>1.024265106919186</v>
       </c>
       <c r="D63">
-        <v>0.9500429095259144</v>
+        <v>0.9597126544616298</v>
       </c>
       <c r="E63">
-        <v>0.9193138500635333</v>
+        <v>0.9192897672110633</v>
       </c>
       <c r="F63">
-        <v>0.709227467811158</v>
+        <v>0.8127919511318726</v>
       </c>
       <c r="G63">
-        <v>1.020833333333334</v>
+        <v>1.010526315789474</v>
       </c>
       <c r="H63">
-        <v>0.8292282430213465</v>
+        <v>0.799772468714449</v>
       </c>
       <c r="I63">
-        <v>1.067840254693571</v>
+        <v>1.131030347753897</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="2">
-        <v>43256</v>
+        <v>43278</v>
       </c>
       <c r="B64">
-        <v>1.009471042288204</v>
+        <v>1.058104024431192</v>
       </c>
       <c r="C64">
-        <v>1.010239108543371</v>
+        <v>1.015452032122774</v>
       </c>
       <c r="D64">
-        <v>0.9518633136556313</v>
+        <v>0.9523413836545427</v>
       </c>
       <c r="E64">
-        <v>0.9203727234222796</v>
+        <v>0.9151906107743089</v>
       </c>
       <c r="F64">
-        <v>0.689914163090128</v>
+        <v>0.9389148401006114</v>
       </c>
       <c r="G64">
-        <v>1.01388888888889</v>
+        <v>0.992982456140351</v>
       </c>
       <c r="H64">
-        <v>0.8357963875205254</v>
+        <v>0.7912400455062578</v>
       </c>
       <c r="I64">
-        <v>1.069197996160868</v>
+        <v>1.150493496909879</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="2">
-        <v>43257</v>
+        <v>43279</v>
       </c>
       <c r="B65">
-        <v>1.006677084813184</v>
+        <v>1.060998033353054</v>
       </c>
       <c r="C65">
-        <v>1.01889420567892</v>
+        <v>1.021726128904855</v>
       </c>
       <c r="D65">
-        <v>0.9518633136556313</v>
+        <v>0.9463103439032896</v>
       </c>
       <c r="E65">
-        <v>0.9220669207962736</v>
+        <v>0.9044033569933764</v>
       </c>
       <c r="F65">
-        <v>0.664878397711015</v>
+        <v>0.9116061803808846</v>
       </c>
       <c r="G65">
-        <v>1.031250000000001</v>
+        <v>0.9964912280701755</v>
       </c>
       <c r="H65">
-        <v>0.8357963875205254</v>
+        <v>0.7832764505119461</v>
       </c>
       <c r="I65">
-        <v>1.05641649889976</v>
+        <v>1.148325800202934</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="2">
-        <v>43258</v>
+        <v>43280</v>
       </c>
       <c r="B66">
-        <v>1.008587078341305</v>
+        <v>1.06093407735478</v>
       </c>
       <c r="C66">
-        <v>1.018166515983447</v>
+        <v>1.022500987380339</v>
       </c>
       <c r="D66">
-        <v>0.9544638909837981</v>
+        <v>0.9316214115313486</v>
       </c>
       <c r="E66">
-        <v>0.9212198221092766</v>
+        <v>0.8964207891954864</v>
       </c>
       <c r="F66">
-        <v>0.6834763948497846</v>
+        <v>0.8648939992813517</v>
       </c>
       <c r="G66">
-        <v>1.017361111111112</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>0.8347016967706623</v>
+        <v>0.8003412969283283</v>
       </c>
       <c r="I66">
-        <v>1.054684208062174</v>
+        <v>1.180656765980998</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="2">
-        <v>43259</v>
+        <v>43283</v>
       </c>
       <c r="B67">
-        <v>1.010181370459819</v>
+        <v>1.068944566138497</v>
       </c>
       <c r="C67">
-        <v>1.02134923960102</v>
+        <v>1.02563803577138</v>
       </c>
       <c r="D67">
-        <v>0.9479884534366627</v>
+        <v>0.9292626048730807</v>
       </c>
       <c r="E67">
-        <v>0.9214315967810259</v>
+        <v>0.8854177903389352</v>
       </c>
       <c r="F67">
-        <v>0.691702432045779</v>
+        <v>0.9579590370104211</v>
       </c>
       <c r="G67">
-        <v>1.017361111111112</v>
+        <v>1.007017543859649</v>
       </c>
       <c r="H67">
-        <v>0.8270388615216201</v>
+        <v>0.780432309442549</v>
       </c>
       <c r="I67">
-        <v>1.056931504283907</v>
+        <v>1.1716631307075</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="2">
-        <v>43262</v>
+        <v>43284</v>
       </c>
       <c r="B68">
-        <v>1.009928809332134</v>
+        <v>1.065842700222248</v>
       </c>
       <c r="C68">
-        <v>1.02244077414423</v>
+        <v>1.020563841191628</v>
       </c>
       <c r="D68">
-        <v>0.9492627363274644</v>
+        <v>0.9369555311335678</v>
       </c>
       <c r="E68">
-        <v>0.9218551461245243</v>
+        <v>0.8617721300511313</v>
       </c>
       <c r="F68">
-        <v>0.6938483547925601</v>
+        <v>0.946460653970536</v>
       </c>
       <c r="G68">
-        <v>1.027777777777778</v>
+        <v>0.9929824561403511</v>
       </c>
       <c r="H68">
-        <v>0.8243021346469622</v>
+        <v>0.7832764505119461</v>
       </c>
       <c r="I68">
-        <v>1.049721428905847</v>
+        <v>1.156120284106633</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="2">
-        <v>43263</v>
+        <v>43285</v>
       </c>
       <c r="B69">
-        <v>1.011175829900081</v>
+        <v>1.062165230321539</v>
       </c>
       <c r="C69">
-        <v>1.02422324637809</v>
+        <v>1.020563841191628</v>
       </c>
       <c r="D69">
-        <v>0.9583907627493301</v>
+        <v>0.9410298335433032</v>
       </c>
       <c r="E69">
-        <v>0.9216433714527752</v>
+        <v>0.8455049513494852</v>
       </c>
       <c r="F69">
-        <v>0.6548640915593699</v>
+        <v>0.946460653970536</v>
       </c>
       <c r="G69">
-        <v>1.027777777777778</v>
+        <v>0.9929824561403511</v>
       </c>
       <c r="H69">
-        <v>0.8330596606458676</v>
+        <v>0.7758816837315138</v>
       </c>
       <c r="I69">
-        <v>1.033288075284422</v>
+        <v>1.148187436583342</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="2">
-        <v>43264</v>
+        <v>43286</v>
       </c>
       <c r="B70">
-        <v>1.008492367918423</v>
+        <v>1.064547591257216</v>
       </c>
       <c r="C70">
-        <v>1.020099671437077</v>
+        <v>1.029361870192399</v>
       </c>
       <c r="D70">
-        <v>0.9525134579876731</v>
+        <v>0.9382957621894018</v>
       </c>
       <c r="E70">
-        <v>0.9214315967810258</v>
+        <v>0.8237146987120018</v>
       </c>
       <c r="F70">
-        <v>0.6698855507868376</v>
+        <v>0.9787998562702125</v>
       </c>
       <c r="G70">
-        <v>1.034722222222223</v>
+        <v>0.9964912280701756</v>
       </c>
       <c r="H70">
-        <v>0.825944170771757</v>
+        <v>0.7690557451649608</v>
       </c>
       <c r="I70">
-        <v>1.051781450442435</v>
+        <v>1.138594225624943</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="2">
-        <v>43265</v>
+        <v>43287</v>
       </c>
       <c r="B71">
-        <v>1.01299111300532</v>
+        <v>1.065219129239084</v>
       </c>
       <c r="C71">
-        <v>1.022620858967857</v>
+        <v>1.038092193112788</v>
       </c>
       <c r="D71">
-        <v>0.9421111486750057</v>
+        <v>0.9451041359530387</v>
       </c>
       <c r="E71">
-        <v>0.9214315967810258</v>
+        <v>0.8068865828137471</v>
       </c>
       <c r="F71">
-        <v>0.6541487839771095</v>
+        <v>0.8954365792310461</v>
       </c>
       <c r="G71">
-        <v>1.020833333333334</v>
+        <v>0.9894736842105265</v>
       </c>
       <c r="H71">
-        <v>0.823207443897099</v>
+        <v>0.7741751990898755</v>
       </c>
       <c r="I71">
-        <v>1.0916709583782</v>
+        <v>1.130476893275529</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="2">
-        <v>43266</v>
+        <v>43290</v>
       </c>
       <c r="B72">
-        <v>1.016021846537545</v>
+        <v>1.05887149641047</v>
       </c>
       <c r="C72">
-        <v>1.021580777231399</v>
+        <v>1.04725132120893</v>
       </c>
       <c r="D72">
-        <v>0.9369359997919536</v>
+        <v>0.9497413354062244</v>
       </c>
       <c r="E72">
-        <v>0.9216433714527751</v>
+        <v>0.7943733684278654</v>
       </c>
       <c r="F72">
-        <v>0.6706008583690981</v>
+        <v>0.8638160258713623</v>
       </c>
       <c r="G72">
-        <v>1.017361111111112</v>
+        <v>1.003508771929825</v>
       </c>
       <c r="H72">
-        <v>0.8171866447728516</v>
+        <v>0.7940841865756549</v>
       </c>
       <c r="I72">
-        <v>1.101128329977994</v>
+        <v>1.114518955815884</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="2">
-        <v>43270</v>
+        <v>43291</v>
       </c>
       <c r="B73">
-        <v>1.022446370223043</v>
+        <v>1.06318852629391</v>
       </c>
       <c r="C73">
-        <v>1.015307210008306</v>
+        <v>1.050888642305017</v>
       </c>
       <c r="D73">
-        <v>0.9258835461472444</v>
+        <v>0.9497145307851077</v>
       </c>
       <c r="E73">
-        <v>0.9203727234222795</v>
+        <v>0.7872537809324501</v>
       </c>
       <c r="F73">
-        <v>0.7489270386266088</v>
+        <v>0.8131512756018688</v>
       </c>
       <c r="G73">
-        <v>1.003472222222223</v>
+        <v>1.007017543859649</v>
       </c>
       <c r="H73">
-        <v>0.7859879584017514</v>
+        <v>0.7974971558589313</v>
       </c>
       <c r="I73">
-        <v>1.132028653026826</v>
+        <v>1.092795867539895</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="2">
-        <v>43271</v>
+        <v>43292</v>
       </c>
       <c r="B74">
-        <v>1.023061987971777</v>
+        <v>1.07502038597445</v>
       </c>
       <c r="C74">
-        <v>1.017045579836381</v>
+        <v>1.043433450565159</v>
       </c>
       <c r="D74">
-        <v>0.937612149897277</v>
+        <v>0.9410298335433032</v>
       </c>
       <c r="E74">
-        <v>0.9178314273612883</v>
+        <v>0.7835861146469332</v>
       </c>
       <c r="F74">
-        <v>0.749284692417739</v>
+        <v>0.8710025152712904</v>
       </c>
       <c r="G74">
-        <v>1.017361111111112</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>0.7881773399014776</v>
+        <v>0.7832764505119462</v>
       </c>
       <c r="I74">
-        <v>1.115361206048971</v>
+        <v>1.098607139562771</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="2">
-        <v>43272</v>
+        <v>43293</v>
       </c>
       <c r="B75">
-        <v>1.026108506574482</v>
+        <v>1.070127752106552</v>
       </c>
       <c r="C75">
-        <v>1.010591927789662</v>
+        <v>1.05256248707002</v>
       </c>
       <c r="D75">
-        <v>0.9297844121394948</v>
+        <v>0.9423968692202538</v>
       </c>
       <c r="E75">
-        <v>0.916772554002542</v>
+        <v>0.7822916441932213</v>
       </c>
       <c r="F75">
-        <v>0.8082975679542198</v>
+        <v>0.8117139777218833</v>
       </c>
       <c r="G75">
-        <v>1.006944444444445</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>0.7766830870279143</v>
+        <v>0.8003412969283284</v>
       </c>
       <c r="I75">
-        <v>1.13642960812772</v>
+        <v>1.082603080896597</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="2">
-        <v>43273</v>
+        <v>43294</v>
       </c>
       <c r="B76">
-        <v>1.027655443481556</v>
+        <v>1.07314967302496</v>
       </c>
       <c r="C76">
-        <v>1.012473630436541</v>
+        <v>1.053698444640877</v>
       </c>
       <c r="D76">
-        <v>0.9259095519205263</v>
+        <v>0.9343554828852495</v>
       </c>
       <c r="E76">
-        <v>0.9116899618805597</v>
+        <v>0.7794869582101789</v>
       </c>
       <c r="F76">
-        <v>0.7507153075822598</v>
+        <v>0.7833273445921671</v>
       </c>
       <c r="G76">
-        <v>1.006944444444445</v>
+        <v>0.9929824561403511</v>
       </c>
       <c r="H76">
-        <v>0.7816091954022987</v>
+        <v>0.7986348122866902</v>
       </c>
       <c r="I76">
-        <v>1.136382789456434</v>
+        <v>1.095194170279495</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="2">
-        <v>43276</v>
+        <v>43297</v>
       </c>
       <c r="B77">
-        <v>1.032596170541902</v>
+        <v>1.071710663063813</v>
       </c>
       <c r="C77">
-        <v>0.9985776974133945</v>
+        <v>1.052615147354762</v>
       </c>
       <c r="D77">
-        <v>0.9310847008035783</v>
+        <v>0.9330152518294156</v>
       </c>
       <c r="E77">
-        <v>0.9047013977128343</v>
+        <v>0.7784082328320856</v>
       </c>
       <c r="F77">
-        <v>0.858726752503576</v>
+        <v>0.7998562702120019</v>
       </c>
       <c r="G77">
-        <v>0.9965277777777785</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>0.7733990147783251</v>
+        <v>0.794084186575655</v>
       </c>
       <c r="I77">
-        <v>1.135352778688139</v>
+        <v>1.075223687851675</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="2">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="B78">
-        <v>1.03900490915692</v>
+        <v>1.074892473977904</v>
       </c>
       <c r="C78">
-        <v>1.000779142502224</v>
+        <v>1.056797878542816</v>
       </c>
       <c r="D78">
-        <v>0.9311107065768601</v>
+        <v>0.9330152518294156</v>
       </c>
       <c r="E78">
-        <v>0.9023718763235924</v>
+        <v>0.7768980173027551</v>
       </c>
       <c r="F78">
-        <v>0.8090128755364802</v>
+        <v>0.7660797700323396</v>
       </c>
       <c r="G78">
-        <v>1.000000000000001</v>
+        <v>1.003508771929825</v>
       </c>
       <c r="H78">
-        <v>0.769567597153804</v>
+        <v>0.7895335608646198</v>
       </c>
       <c r="I78">
-        <v>1.148134275949247</v>
+        <v>1.084447929157827</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="2">
-        <v>43278</v>
+        <v>43299</v>
       </c>
       <c r="B79">
-        <v>1.04460860917744</v>
+        <v>1.078681866875591</v>
       </c>
       <c r="C79">
-        <v>0.9921681477724617</v>
+        <v>1.059081078031259</v>
       </c>
       <c r="D79">
-        <v>0.9239591189244013</v>
+        <v>0.9303347897177475</v>
       </c>
       <c r="E79">
-        <v>0.8983481575603565</v>
+        <v>0.7740933313197127</v>
       </c>
       <c r="F79">
-        <v>0.9345493562231754</v>
+        <v>0.7897951850521026</v>
       </c>
       <c r="G79">
-        <v>0.9826388888888896</v>
+        <v>1.010526315789474</v>
       </c>
       <c r="H79">
-        <v>0.7613574165298301</v>
+        <v>0.7872582480091022</v>
       </c>
       <c r="I79">
-        <v>1.167891755231985</v>
+        <v>1.088506595332534</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="2">
-        <v>43279</v>
+        <v>43300</v>
       </c>
       <c r="B80">
-        <v>1.047465706934382</v>
+        <v>1.085764993684346</v>
       </c>
       <c r="C80">
-        <v>0.9982983821767484</v>
+        <v>1.054894585394295</v>
       </c>
       <c r="D80">
-        <v>0.9181078199360259</v>
+        <v>0.9223202080038601</v>
       </c>
       <c r="E80">
-        <v>0.8877594239728935</v>
+        <v>0.7682682142780092</v>
       </c>
       <c r="F80">
-        <v>0.9073676680972813</v>
+        <v>0.8142292490118582</v>
       </c>
       <c r="G80">
-        <v>0.9861111111111118</v>
+        <v>0.9964912280701756</v>
       </c>
       <c r="H80">
-        <v>0.7536945812807879</v>
+        <v>0.7827076222980669</v>
       </c>
       <c r="I80">
-        <v>1.165691277681538</v>
+        <v>1.087445807582327</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="2">
-        <v>43280</v>
+        <v>43301</v>
       </c>
       <c r="B81">
-        <v>1.047402566652461</v>
+        <v>1.083782357737877</v>
       </c>
       <c r="C81">
-        <v>0.9990554734760788</v>
+        <v>1.053894039984203</v>
       </c>
       <c r="D81">
-        <v>0.9038566561776714</v>
+        <v>0.9417803629345701</v>
       </c>
       <c r="E81">
-        <v>0.8799237611181711</v>
+        <v>0.762874587387543</v>
       </c>
       <c r="F81">
-        <v>0.8608726752503572</v>
+        <v>0.8117139777218834</v>
       </c>
       <c r="G81">
-        <v>0.9895833333333341</v>
+        <v>1.014035087719299</v>
       </c>
       <c r="H81">
-        <v>0.7701149425287355</v>
+        <v>0.7992036405005698</v>
       </c>
       <c r="I81">
-        <v>1.1985111662531</v>
+        <v>1.050548842357717</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="2">
-        <v>43283</v>
+        <v>43304</v>
       </c>
       <c r="B82">
-        <v>1.055310886963111</v>
+        <v>1.088147354620022</v>
       </c>
       <c r="C82">
-        <v>1.002120590678222</v>
+        <v>1.055831186172915</v>
       </c>
       <c r="D82">
-        <v>0.9015681481288845</v>
+        <v>0.943147398611521</v>
       </c>
       <c r="E82">
-        <v>0.8691232528589588</v>
+        <v>0.7557549998921276</v>
       </c>
       <c r="F82">
-        <v>0.9535050071530752</v>
+        <v>0.8242903341717577</v>
       </c>
       <c r="G82">
-        <v>0.9965277777777786</v>
+        <v>1.03859649122807</v>
       </c>
       <c r="H82">
-        <v>0.7509578544061302</v>
+        <v>0.8077360637087608</v>
       </c>
       <c r="I82">
-        <v>1.189381525352309</v>
+        <v>1.047550963933217</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="2">
-        <v>43284</v>
+        <v>43305</v>
       </c>
       <c r="B83">
-        <v>1.052248583289925</v>
+        <v>1.08901076059671</v>
       </c>
       <c r="C83">
-        <v>0.9971627452277528</v>
+        <v>1.060879050610296</v>
       </c>
       <c r="D83">
-        <v>0.9090318050607232</v>
+        <v>0.9546465810705769</v>
       </c>
       <c r="E83">
-        <v>0.84591274883524</v>
+        <v>0.7497141377748054</v>
       </c>
       <c r="F83">
-        <v>0.9420600858369093</v>
+        <v>0.8278835788717217</v>
       </c>
       <c r="G83">
-        <v>0.9826388888888896</v>
+        <v>1.035087719298246</v>
       </c>
       <c r="H83">
-        <v>0.753694581280788</v>
+        <v>0.8208191126279873</v>
       </c>
       <c r="I83">
-        <v>1.173603633128891</v>
+        <v>1.030117147864589</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="2">
-        <v>43285</v>
+        <v>43306</v>
       </c>
       <c r="B84">
-        <v>1.048618017079447</v>
+        <v>1.080296755831988</v>
       </c>
       <c r="C84">
-        <v>0.9971627452277528</v>
+        <v>1.070534689962575</v>
       </c>
       <c r="D84">
-        <v>0.9129846825995368</v>
+        <v>0.9546197764494601</v>
       </c>
       <c r="E84">
-        <v>0.8299449385853459</v>
+        <v>0.7376324135401611</v>
       </c>
       <c r="F84">
-        <v>0.9420600858369093</v>
+        <v>0.7905138339920954</v>
       </c>
       <c r="G84">
-        <v>0.9826388888888896</v>
+        <v>1.031578947368421</v>
       </c>
       <c r="H84">
-        <v>0.7465790914066776</v>
+        <v>0.8208191126279873</v>
       </c>
       <c r="I84">
-        <v>1.16555082166768</v>
+        <v>1.032515450604188</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="2">
-        <v>43286</v>
+        <v>43307</v>
       </c>
       <c r="B85">
-        <v>1.050969992581018</v>
+        <v>1.091345154533682</v>
       </c>
       <c r="C85">
-        <v>1.005759039155587</v>
+        <v>1.067288559553141</v>
       </c>
       <c r="D85">
-        <v>0.9103320937248066</v>
+        <v>0.9478382073069399</v>
       </c>
       <c r="E85">
-        <v>0.8085556967386708</v>
+        <v>0.7255506893055167</v>
       </c>
       <c r="F85">
-        <v>0.9742489270386259</v>
+        <v>0.7959037010420416</v>
       </c>
       <c r="G85">
-        <v>0.9861111111111118</v>
+        <v>1.045614035087719</v>
       </c>
       <c r="H85">
-        <v>0.7400109469074985</v>
+        <v>0.8145620022753138</v>
       </c>
       <c r="I85">
-        <v>1.155812538040169</v>
+        <v>1.039571995203395</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="2">
-        <v>43287</v>
+        <v>43308</v>
       </c>
       <c r="B86">
-        <v>1.051632965541192</v>
+        <v>1.091089330540589</v>
       </c>
       <c r="C86">
-        <v>1.014289179474741</v>
+        <v>1.060284741682497</v>
       </c>
       <c r="D86">
-        <v>0.9169375601383504</v>
+        <v>0.9438443187605545</v>
       </c>
       <c r="E86">
-        <v>0.7920372723422286</v>
+        <v>0.7126059847683978</v>
       </c>
       <c r="F86">
-        <v>0.8912732474964229</v>
+        <v>0.7887172116421134</v>
       </c>
       <c r="G86">
-        <v>0.9791666666666674</v>
+        <v>1.03859649122807</v>
       </c>
       <c r="H86">
-        <v>0.7449370552818827</v>
+        <v>0.8122866894197962</v>
       </c>
       <c r="I86">
-        <v>1.147572451893814</v>
+        <v>1.041831934323403</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="2">
-        <v>43290</v>
+        <v>43311</v>
       </c>
       <c r="B87">
-        <v>1.045366292560497</v>
+        <v>1.092272516508643</v>
       </c>
       <c r="C87">
-        <v>1.023238292648865</v>
+        <v>1.054183671550282</v>
       </c>
       <c r="D87">
-        <v>0.921436558916079</v>
+        <v>0.9438711233816713</v>
       </c>
       <c r="E87">
-        <v>0.7797543413807715</v>
+        <v>0.6975038294750924</v>
       </c>
       <c r="F87">
-        <v>0.8597997138769665</v>
+        <v>0.8009342436219913</v>
       </c>
       <c r="G87">
-        <v>0.9930555555555564</v>
+        <v>1.045614035087719</v>
       </c>
       <c r="H87">
-        <v>0.7640941434044881</v>
+        <v>0.8111490329920374</v>
       </c>
       <c r="I87">
-        <v>1.13137319162882</v>
+        <v>1.04409187344341</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="2">
-        <v>43291</v>
+        <v>43312</v>
       </c>
       <c r="B88">
-        <v>1.049628261590189</v>
+        <v>1.088099387621318</v>
       </c>
       <c r="C88">
-        <v>1.026792211515139</v>
+        <v>1.059333095108236</v>
       </c>
       <c r="D88">
-        <v>0.9214105531427973</v>
+        <v>0.9331224703138824</v>
       </c>
       <c r="E88">
-        <v>0.772765777213046</v>
+        <v>0.6847748700135921</v>
       </c>
       <c r="F88">
-        <v>0.8093705293276103</v>
+        <v>0.7707509881422931</v>
       </c>
       <c r="G88">
-        <v>0.9965277777777787</v>
+        <v>1.03859649122807</v>
       </c>
       <c r="H88">
-        <v>0.7673782156540775</v>
+        <v>0.8134243458475551</v>
       </c>
       <c r="I88">
-        <v>1.109321597453063</v>
+        <v>1.041970297942995</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="2">
-        <v>43292</v>
+        <v>43313</v>
       </c>
       <c r="B89">
-        <v>1.06130921374564</v>
+        <v>1.091441088531092</v>
       </c>
       <c r="C89">
-        <v>1.019507964159446</v>
+        <v>1.058230990577571</v>
       </c>
       <c r="D89">
-        <v>0.9129846825995367</v>
+        <v>0.9284584662395801</v>
       </c>
       <c r="E89">
-        <v>0.7691656077933087</v>
+        <v>0.6729088908545664</v>
       </c>
       <c r="F89">
-        <v>0.8669527896995702</v>
+        <v>0.7804527488321962</v>
       </c>
       <c r="G89">
-        <v>0.9895833333333341</v>
+        <v>1.052631578947369</v>
       </c>
       <c r="H89">
-        <v>0.7536945812807879</v>
+        <v>0.7986348122866903</v>
       </c>
       <c r="I89">
-        <v>1.115220750035113</v>
+        <v>1.04893460012914</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="2">
-        <v>43293</v>
+        <v>43314</v>
       </c>
       <c r="B90">
-        <v>1.056478982178656</v>
+        <v>1.100458884287611</v>
       </c>
       <c r="C90">
-        <v>1.028427675729712</v>
+        <v>1.063444358766998</v>
       </c>
       <c r="D90">
-        <v>0.9143109770369017</v>
+        <v>0.9304688128233309</v>
       </c>
       <c r="E90">
-        <v>0.7678949597628131</v>
+        <v>0.6593169510905914</v>
       </c>
       <c r="F90">
-        <v>0.8079399141630896</v>
+        <v>0.831476823571686</v>
       </c>
       <c r="G90">
-        <v>0.9895833333333341</v>
+        <v>1.045614035087719</v>
       </c>
       <c r="H90">
-        <v>0.7701149425287355</v>
+        <v>0.7821387940841875</v>
       </c>
       <c r="I90">
-        <v>1.098974671098833</v>
+        <v>1.016695876764137</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="2">
-        <v>43294</v>
+        <v>43315</v>
       </c>
       <c r="B91">
-        <v>1.05946236049944</v>
+        <v>1.094846745439139</v>
       </c>
       <c r="C91">
-        <v>1.029537586275332</v>
+        <v>1.068383141185985</v>
       </c>
       <c r="D91">
-        <v>0.906509245052401</v>
+        <v>0.9265553381402957</v>
       </c>
       <c r="E91">
-        <v>0.7651418890300727</v>
+        <v>0.6478824620828031</v>
       </c>
       <c r="F91">
-        <v>0.7796852646638051</v>
+        <v>0.7897951850521028</v>
       </c>
       <c r="G91">
-        <v>0.9826388888888897</v>
+        <v>1.035087719298246</v>
       </c>
       <c r="H91">
-        <v>0.7684729064039407</v>
+        <v>0.7747440273037551</v>
       </c>
       <c r="I91">
-        <v>1.111756168359941</v>
+        <v>1.019647633982106</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="2">
-        <v>43297</v>
+        <v>43318</v>
       </c>
       <c r="B92">
-        <v>1.05804170415621</v>
+        <v>1.097756743360569</v>
       </c>
       <c r="C92">
-        <v>1.028479128536462</v>
+        <v>1.072163397340656</v>
       </c>
       <c r="D92">
-        <v>0.9052089563883177</v>
+        <v>0.9265821427614124</v>
       </c>
       <c r="E92">
-        <v>0.7640830156713264</v>
+        <v>0.6373109533774893</v>
       </c>
       <c r="F92">
-        <v>0.7961373390557936</v>
+        <v>0.802371541501977</v>
       </c>
       <c r="G92">
-        <v>0.9895833333333343</v>
+        <v>1.031578947368421</v>
       </c>
       <c r="H92">
-        <v>0.7640941434044881</v>
+        <v>0.7645051194539257</v>
       </c>
       <c r="I92">
-        <v>1.091483683693056</v>
+        <v>0.9941887279771248</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="2">
-        <v>43298</v>
+        <v>43319</v>
       </c>
       <c r="B93">
-        <v>1.061182933181797</v>
+        <v>1.09070559455095</v>
       </c>
       <c r="C93">
-        <v>1.032565951472654</v>
+        <v>1.075191363713303</v>
       </c>
       <c r="D93">
-        <v>0.9052089563883177</v>
+        <v>0.9348379660653501</v>
       </c>
       <c r="E93">
-        <v>0.7626005929690816</v>
+        <v>0.624581993915989</v>
       </c>
       <c r="F93">
-        <v>0.7625178826895561</v>
+        <v>0.7682357168523183</v>
       </c>
       <c r="G93">
-        <v>0.9930555555555565</v>
+        <v>1.045614035087719</v>
       </c>
       <c r="H93">
-        <v>0.7597153804050355</v>
+        <v>0.7861205915813433</v>
       </c>
       <c r="I93">
-        <v>1.100847417950277</v>
+        <v>0.9838575777142338</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="2">
-        <v>43299</v>
+        <v>43320</v>
       </c>
       <c r="B94">
-        <v>1.064923994885638</v>
+        <v>1.091057352541452</v>
       </c>
       <c r="C94">
-        <v>1.03479679816534</v>
+        <v>1.074909255045044</v>
       </c>
       <c r="D94">
-        <v>0.9026083790601509</v>
+        <v>0.9441123649717217</v>
       </c>
       <c r="E94">
-        <v>0.7598475222363412</v>
+        <v>0.6131475049082006</v>
       </c>
       <c r="F94">
-        <v>0.7861230329041484</v>
+        <v>0.7531440891124693</v>
       </c>
       <c r="G94">
-        <v>1.000000000000001</v>
+        <v>1.03859649122807</v>
       </c>
       <c r="H94">
-        <v>0.7575259989053091</v>
+        <v>0.7764505119453933</v>
       </c>
       <c r="I94">
-        <v>1.104967461023455</v>
+        <v>0.975002306060327</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="2">
-        <v>43300</v>
+        <v>43321</v>
       </c>
       <c r="B95">
-        <v>1.071916781108429</v>
+        <v>1.094622899445183</v>
       </c>
       <c r="C95">
-        <v>1.030706300028667</v>
+        <v>1.073359538094074</v>
       </c>
       <c r="D95">
-        <v>0.894832652848932</v>
+        <v>0.9509207387353585</v>
       </c>
       <c r="E95">
-        <v>0.7541296060991112</v>
+        <v>0.6075381329421157</v>
       </c>
       <c r="F95">
-        <v>0.810443490701001</v>
+        <v>0.7366151634926346</v>
       </c>
       <c r="G95">
-        <v>0.9861111111111122</v>
+        <v>1.028070175438597</v>
       </c>
       <c r="H95">
-        <v>0.7531472359058564</v>
+        <v>0.7906712172923784</v>
       </c>
       <c r="I95">
-        <v>1.103890631583875</v>
+        <v>0.9818743658334107</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="2">
-        <v>43301</v>
+        <v>43322</v>
       </c>
       <c r="B96">
-        <v>1.069959432368867</v>
+        <v>1.098252402347186</v>
       </c>
       <c r="C96">
-        <v>1.029728696700405</v>
+        <v>1.065723796806531</v>
       </c>
       <c r="D96">
-        <v>0.9137128442514233</v>
+        <v>0.952234165170076</v>
       </c>
       <c r="E96">
-        <v>0.7488352393053798</v>
+        <v>0.6043019568078359</v>
       </c>
       <c r="F96">
-        <v>0.8079399141630896</v>
+        <v>0.7829680201221711</v>
       </c>
       <c r="G96">
-        <v>1.003472222222223</v>
+        <v>1.007017543859649</v>
       </c>
       <c r="H96">
-        <v>0.7690202517788723</v>
+        <v>0.7906712172923784</v>
       </c>
       <c r="I96">
-        <v>1.066435694554987</v>
+        <v>0.9909602435199713</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="2">
-        <v>43304</v>
+        <v>43325</v>
       </c>
       <c r="B97">
-        <v>1.074268756609999</v>
+        <v>1.102521465231921</v>
       </c>
       <c r="C97">
-        <v>1.031621424948731</v>
+        <v>1.061454552293544</v>
       </c>
       <c r="D97">
-        <v>0.9150391386887885</v>
+        <v>0.9603023561261967</v>
       </c>
       <c r="E97">
-        <v>0.7418466751376542</v>
+        <v>0.6021445060516494</v>
       </c>
       <c r="F97">
-        <v>0.8204577968526462</v>
+        <v>0.8181818181818191</v>
       </c>
       <c r="G97">
-        <v>1.027777777777779</v>
+        <v>1.010526315789474</v>
       </c>
       <c r="H97">
-        <v>0.7772304324028459</v>
+        <v>0.7878270762229813</v>
       </c>
       <c r="I97">
-        <v>1.063392480921391</v>
+        <v>0.9860713956277105</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="2">
-        <v>43305</v>
+        <v>43326</v>
       </c>
       <c r="B98">
-        <v>1.075121150415937</v>
+        <v>1.102697344227173</v>
       </c>
       <c r="C98">
-        <v>1.036553543995826</v>
+        <v>1.068236444678491</v>
       </c>
       <c r="D98">
-        <v>0.9261956154266243</v>
+        <v>0.9520733374433759</v>
       </c>
       <c r="E98">
-        <v>0.735916984328675</v>
+        <v>0.6038704666565986</v>
       </c>
       <c r="F98">
-        <v>0.8240343347639481</v>
+        <v>0.7973409989220276</v>
       </c>
       <c r="G98">
-        <v>1.024305555555557</v>
+        <v>1.014035087719298</v>
       </c>
       <c r="H98">
-        <v>0.7898193760262724</v>
+        <v>0.7866894197952224</v>
       </c>
       <c r="I98">
-        <v>1.045695023175241</v>
+        <v>1.007656120284107</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="2">
-        <v>43306</v>
+        <v>43327</v>
       </c>
       <c r="B99">
-        <v>1.066518287004152</v>
+        <v>1.110707833010889</v>
       </c>
       <c r="C99">
-        <v>1.045987783633598</v>
+        <v>1.060115476481541</v>
       </c>
       <c r="D99">
-        <v>0.9261696096533426</v>
+        <v>0.960382769989547</v>
       </c>
       <c r="E99">
-        <v>0.7240576027107165</v>
+        <v>0.6055964272615478</v>
       </c>
       <c r="F99">
-        <v>0.7868383404864088</v>
+        <v>0.9403521379805977</v>
       </c>
       <c r="G99">
-        <v>1.020833333333335</v>
+        <v>1.003508771929825</v>
       </c>
       <c r="H99">
-        <v>0.7898193760262724</v>
+        <v>0.7701934015927195</v>
       </c>
       <c r="I99">
-        <v>1.048129594082119</v>
+        <v>0.9881007287150637</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="2">
-        <v>43307</v>
+        <v>43328</v>
       </c>
       <c r="B100">
-        <v>1.077425770706067</v>
+        <v>1.0970852053787</v>
       </c>
       <c r="C100">
-        <v>1.042816085617471</v>
+        <v>1.06851103044893</v>
       </c>
       <c r="D100">
-        <v>0.9195901490130804</v>
+        <v>0.9687458117779514</v>
       </c>
       <c r="E100">
-        <v>0.712198221092758</v>
+        <v>0.6068908977152597</v>
       </c>
       <c r="F100">
-        <v>0.7922031473533616</v>
+        <v>0.8774703557312264</v>
       </c>
       <c r="G100">
-        <v>1.034722222222223</v>
+        <v>1.007017543859649</v>
       </c>
       <c r="H100">
-        <v>0.783798576902025</v>
+        <v>0.7650739476678049</v>
       </c>
       <c r="I100">
-        <v>1.055292850788894</v>
+        <v>0.9887925468130252</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="2">
-        <v>43308</v>
+        <v>43329</v>
       </c>
       <c r="B101">
-        <v>1.077173209578381</v>
+        <v>1.092848120493102</v>
       </c>
       <c r="C101">
-        <v>1.03597286231964</v>
+        <v>1.072061838220083</v>
       </c>
       <c r="D101">
-        <v>0.9157152887941119</v>
+        <v>0.9790119816656401</v>
       </c>
       <c r="E101">
-        <v>0.6994917407878024</v>
+        <v>0.6077538780177344</v>
       </c>
       <c r="F101">
-        <v>0.7850500715307579</v>
+        <v>0.9105282069708959</v>
       </c>
       <c r="G101">
-        <v>1.027777777777779</v>
+        <v>1.007017543859649</v>
       </c>
       <c r="H101">
-        <v>0.7816091954022987</v>
+        <v>0.7548350398179755</v>
       </c>
       <c r="I101">
-        <v>1.057586965681913</v>
+        <v>0.9930356978138556</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="2">
-        <v>43311</v>
+        <v>43332</v>
       </c>
       <c r="B102">
-        <v>1.078341304793927</v>
+        <v>1.092896087491807</v>
       </c>
       <c r="C102">
-        <v>1.030011687137534</v>
+        <v>1.074664760865886</v>
       </c>
       <c r="D102">
-        <v>0.9157412945673937</v>
+        <v>0.9737046666845373</v>
       </c>
       <c r="E102">
-        <v>0.6846675137653543</v>
+        <v>0.6105585640007769</v>
       </c>
       <c r="F102">
-        <v>0.7972103004291843</v>
+        <v>0.8361480416816396</v>
       </c>
       <c r="G102">
-        <v>1.034722222222223</v>
+        <v>0.9894736842105263</v>
       </c>
       <c r="H102">
-        <v>0.7805145046524355</v>
+        <v>0.7633674630261666</v>
       </c>
       <c r="I102">
-        <v>1.059881080574932</v>
+        <v>1.020385573286598</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="2">
-        <v>43312</v>
+        <v>43333</v>
       </c>
       <c r="B103">
-        <v>1.074221401398558</v>
+        <v>1.091808835521162</v>
       </c>
       <c r="C103">
-        <v>1.035043036597647</v>
+        <v>1.076887777171767</v>
       </c>
       <c r="D103">
-        <v>0.9053129794814446</v>
+        <v>0.9730077465355036</v>
       </c>
       <c r="E103">
-        <v>0.672172808132148</v>
+        <v>0.6161679359668617</v>
       </c>
       <c r="F103">
-        <v>0.7671673819742487</v>
+        <v>0.7678763923823222</v>
       </c>
       <c r="G103">
-        <v>1.027777777777779</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>0.7827038861521619</v>
+        <v>0.7730375426621166</v>
       </c>
       <c r="I103">
-        <v>1.057727421695771</v>
+        <v>1.031500784060512</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="2">
-        <v>43313</v>
+        <v>43334</v>
       </c>
       <c r="B104">
-        <v>1.077520481128949</v>
+        <v>1.094766800441297</v>
       </c>
       <c r="C104">
-        <v>1.033966202856367</v>
+        <v>1.076458971996013</v>
       </c>
       <c r="D104">
-        <v>0.9007879749304344</v>
+        <v>0.9669767067842504</v>
       </c>
       <c r="E104">
-        <v>0.6605252011859388</v>
+        <v>0.6209143276304721</v>
       </c>
       <c r="F104">
-        <v>0.7768240343347638</v>
+        <v>0.7646424721523545</v>
       </c>
       <c r="G104">
-        <v>1.041666666666668</v>
+        <v>0.9894736842105263</v>
       </c>
       <c r="H104">
-        <v>0.7684729064039407</v>
+        <v>0.7684869169510813</v>
       </c>
       <c r="I104">
-        <v>1.064797041059974</v>
+        <v>1.064938658795315</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="2">
-        <v>43314</v>
+        <v>43335</v>
       </c>
       <c r="B105">
-        <v>1.086423260879861</v>
+        <v>1.102233663239692</v>
       </c>
       <c r="C105">
-        <v>1.039060030724677</v>
+        <v>1.074638430723515</v>
       </c>
       <c r="D105">
-        <v>0.9027384079265595</v>
+        <v>0.9676736269332841</v>
       </c>
       <c r="E105">
-        <v>0.6471833968657354</v>
+        <v>0.6228560333110398</v>
       </c>
       <c r="F105">
-        <v>0.8276108726752501</v>
+        <v>0.7689543657923112</v>
       </c>
       <c r="G105">
-        <v>1.034722222222224</v>
+        <v>0.9894736842105263</v>
       </c>
       <c r="H105">
-        <v>0.7525998905309249</v>
+        <v>0.7713310580204784</v>
       </c>
       <c r="I105">
-        <v>1.032070789830984</v>
+        <v>1.084447929157828</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="2">
-        <v>43315</v>
+        <v>43336</v>
       </c>
       <c r="B106">
-        <v>1.080882701141261</v>
+        <v>1.088131365620454</v>
       </c>
       <c r="C106">
-        <v>1.043885568957787</v>
+        <v>1.081299956743338</v>
       </c>
       <c r="D106">
-        <v>0.8989415650274359</v>
+        <v>0.9724180448709364</v>
       </c>
       <c r="E106">
-        <v>0.6359593392630247</v>
+        <v>0.623287523462277</v>
       </c>
       <c r="F106">
-        <v>0.7861230329041486</v>
+        <v>0.749191519942509</v>
       </c>
       <c r="G106">
-        <v>1.024305555555557</v>
+        <v>0.9894736842105263</v>
       </c>
       <c r="H106">
-        <v>0.7454844006568143</v>
+        <v>0.7724687144482372</v>
       </c>
       <c r="I106">
-        <v>1.035067184793295</v>
+        <v>1.075777142330044</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="2">
-        <v>43318</v>
+        <v>43339</v>
       </c>
       <c r="B107">
-        <v>1.083755583968683</v>
+        <v>1.086436531666214</v>
       </c>
       <c r="C107">
-        <v>1.047579145442385</v>
+        <v>1.089593951590153</v>
       </c>
       <c r="D107">
-        <v>0.8989675708007177</v>
+        <v>0.9730881603988535</v>
       </c>
       <c r="E107">
-        <v>0.6255823803473111</v>
+        <v>0.624581993915989</v>
       </c>
       <c r="F107">
-        <v>0.7986409155937051</v>
+        <v>0.8038088393819629</v>
       </c>
       <c r="G107">
-        <v>1.020833333333335</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>0.7356321839080459</v>
+        <v>0.7872582480091017</v>
       </c>
       <c r="I107">
-        <v>1.009223278243363</v>
+        <v>1.074670233373306</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="2">
-        <v>43319</v>
+        <v>43340</v>
       </c>
       <c r="B108">
-        <v>1.076794367886853</v>
+        <v>1.0876037286347</v>
       </c>
       <c r="C108">
-        <v>1.050537681830544</v>
+        <v>1.089887344605142</v>
       </c>
       <c r="D108">
-        <v>0.9069773489714716</v>
+        <v>0.967673626933284</v>
       </c>
       <c r="E108">
-        <v>0.6130876747141047</v>
+        <v>0.6254449742184637</v>
       </c>
       <c r="F108">
-        <v>0.7646638054363375</v>
+        <v>0.7624865253323759</v>
       </c>
       <c r="G108">
-        <v>1.034722222222224</v>
+        <v>1.010526315789474</v>
       </c>
       <c r="H108">
-        <v>0.756431308155446</v>
+        <v>0.7866894197952223</v>
       </c>
       <c r="I108">
-        <v>0.9987358958752742</v>
+        <v>1.088552716539065</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="2">
-        <v>43320</v>
+        <v>43341</v>
       </c>
       <c r="B109">
-        <v>1.077141639437421</v>
+        <v>1.090369825560015</v>
       </c>
       <c r="C109">
-        <v>1.05026204179438</v>
+        <v>1.096101258204661</v>
       </c>
       <c r="D109">
-        <v>0.915975346526929</v>
+        <v>0.967673626933284</v>
       </c>
       <c r="E109">
-        <v>0.601863617111394</v>
+        <v>0.6250134840672263</v>
       </c>
       <c r="F109">
-        <v>0.7496423462088698</v>
+        <v>0.7535034135824658</v>
       </c>
       <c r="G109">
-        <v>1.027777777777779</v>
+        <v>1.014035087719298</v>
       </c>
       <c r="H109">
-        <v>0.7471264367816091</v>
+        <v>0.7849829351535841</v>
       </c>
       <c r="I109">
-        <v>0.9897467109883411</v>
+        <v>1.090904898072134</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="2">
-        <v>43321</v>
+        <v>43342</v>
       </c>
       <c r="B110">
-        <v>1.080661710154536</v>
+        <v>1.098012567353661</v>
       </c>
       <c r="C110">
-        <v>1.04874785919572</v>
+        <v>1.091245227661695</v>
       </c>
       <c r="D110">
-        <v>0.9225808129404729</v>
+        <v>0.9596322405982797</v>
       </c>
       <c r="E110">
-        <v>0.5963574756459132</v>
+        <v>0.6243662488403705</v>
       </c>
       <c r="F110">
-        <v>0.7331902718168812</v>
+        <v>0.8584261588214167</v>
       </c>
       <c r="G110">
-        <v>1.017361111111112</v>
+        <v>1.003508771929825</v>
       </c>
       <c r="H110">
-        <v>0.7608100711548985</v>
+        <v>0.7764505119453929</v>
       </c>
       <c r="I110">
-        <v>0.9967226930099714</v>
+        <v>1.09547089751868</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="2">
-        <v>43322</v>
+        <v>43343</v>
       </c>
       <c r="B111">
-        <v>1.084244921153574</v>
+        <v>1.094415042450794</v>
       </c>
       <c r="C111">
-        <v>1.041287202216882</v>
+        <v>1.09139192416919</v>
       </c>
       <c r="D111">
-        <v>0.9238550958312747</v>
+        <v>0.9582920095424456</v>
       </c>
       <c r="E111">
-        <v>0.5931808555696744</v>
+        <v>0.6243662488403705</v>
       </c>
       <c r="F111">
-        <v>0.7793276108726752</v>
+        <v>0.8235716852317653</v>
       </c>
       <c r="G111">
-        <v>0.9965277777777791</v>
+        <v>1.003508771929825</v>
       </c>
       <c r="H111">
-        <v>0.7608100711548985</v>
+        <v>0.7730375426621166</v>
       </c>
       <c r="I111">
-        <v>1.005945971253335</v>
+        <v>1.091227746517849</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="2">
-        <v>43325</v>
+        <v>43346</v>
       </c>
       <c r="B112">
-        <v>1.088459534971824</v>
+        <v>1.092880098492238</v>
       </c>
       <c r="C112">
-        <v>1.0371158496696</v>
+        <v>1.09139192416919</v>
       </c>
       <c r="D112">
-        <v>0.9316828335890569</v>
+        <v>0.9636529337657818</v>
       </c>
       <c r="E112">
-        <v>0.5910631088521817</v>
+        <v>0.6228560333110399</v>
       </c>
       <c r="F112">
-        <v>0.8143776824034334</v>
+        <v>0.8235716852317653</v>
       </c>
       <c r="G112">
-        <v>1.000000000000001</v>
+        <v>1.003508771929825</v>
       </c>
       <c r="H112">
-        <v>0.7580733442802405</v>
+        <v>0.7718998862343578</v>
       </c>
       <c r="I112">
-        <v>1.000983192097008</v>
+        <v>1.081957384005166</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="2">
-        <v>43326</v>
+        <v>43347</v>
       </c>
       <c r="B113">
-        <v>1.088633170747108</v>
+        <v>1.095182514430072</v>
       </c>
       <c r="C113">
-        <v>1.043742236138982</v>
+        <v>1.089586428692332</v>
       </c>
       <c r="D113">
-        <v>0.9236990611915847</v>
+        <v>0.9676736269332838</v>
       </c>
       <c r="E113">
-        <v>0.5927573062261758</v>
+        <v>0.6209143276304721</v>
       </c>
       <c r="F113">
-        <v>0.7936337625178826</v>
+        <v>0.8512396694214887</v>
       </c>
       <c r="G113">
-        <v>1.003472222222224</v>
+        <v>1.017543859649123</v>
       </c>
       <c r="H113">
-        <v>0.7569786535303774</v>
+        <v>0.7804323094425489</v>
       </c>
       <c r="I113">
-        <v>1.022894330258907</v>
+        <v>1.075039203025552</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="2">
-        <v>43327</v>
+        <v>43348</v>
       </c>
       <c r="B114">
-        <v>1.096541491057758</v>
+        <v>1.093999328462018</v>
       </c>
       <c r="C114">
-        <v>1.035807478297942</v>
+        <v>1.086532132177315</v>
       </c>
       <c r="D114">
-        <v>0.9317608509089021</v>
+        <v>0.9676736269332838</v>
       </c>
       <c r="E114">
-        <v>0.59445150360017</v>
+        <v>0.6148734655131499</v>
       </c>
       <c r="F114">
-        <v>0.9359799713876967</v>
+        <v>0.8832195472511688</v>
       </c>
       <c r="G114">
-        <v>0.9930555555555569</v>
+        <v>1.017543859649123</v>
       </c>
       <c r="H114">
-        <v>0.7411056376573615</v>
+        <v>0.7673492605233225</v>
       </c>
       <c r="I114">
-        <v>1.003043213633596</v>
+        <v>1.060787750207546</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="2">
-        <v>43328</v>
+        <v>43349</v>
       </c>
       <c r="B115">
-        <v>1.083092611008509</v>
+        <v>1.094399053451226</v>
       </c>
       <c r="C115">
-        <v>1.044010525774182</v>
+        <v>1.082563803577138</v>
       </c>
       <c r="D115">
-        <v>0.9398746521727829</v>
+        <v>0.9676736269332838</v>
       </c>
       <c r="E115">
-        <v>0.5957221516306656</v>
+        <v>0.6137947401350566</v>
       </c>
       <c r="F115">
-        <v>0.8733905579399142</v>
+        <v>0.8796263025512048</v>
       </c>
       <c r="G115">
-        <v>0.9965277777777792</v>
+        <v>1.010526315789474</v>
       </c>
       <c r="H115">
-        <v>0.7361795292829773</v>
+        <v>0.763936291240046</v>
       </c>
       <c r="I115">
-        <v>1.003745493702888</v>
+        <v>1.05617562955447</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="2">
-        <v>43329</v>
+        <v>43350</v>
       </c>
       <c r="B116">
-        <v>1.078909567331219</v>
+        <v>1.09830036934589</v>
       </c>
       <c r="C116">
-        <v>1.047479915029366</v>
+        <v>1.080167760621391</v>
       </c>
       <c r="D116">
-        <v>0.9498348633396619</v>
+        <v>0.97303455115662</v>
       </c>
       <c r="E116">
-        <v>0.5965692503176626</v>
+        <v>0.6150892105887685</v>
       </c>
       <c r="F116">
-        <v>0.9062947067238912</v>
+        <v>0.8882500898311185</v>
       </c>
       <c r="G116">
-        <v>0.9965277777777792</v>
+        <v>1.031578947368421</v>
       </c>
       <c r="H116">
-        <v>0.7263273125342088</v>
+        <v>0.7667804323094431</v>
       </c>
       <c r="I116">
-        <v>1.00805281146121</v>
+        <v>1.047366479107094</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="2">
-        <v>43332</v>
+        <v>43353</v>
       </c>
       <c r="B117">
-        <v>1.07895692254266</v>
+        <v>1.098476248341141</v>
       </c>
       <c r="C117">
-        <v>1.050023153763039</v>
+        <v>1.082217750277407</v>
       </c>
       <c r="D117">
-        <v>0.9446857202298915</v>
+        <v>0.9797357064357901</v>
       </c>
       <c r="E117">
-        <v>0.5993223210504031</v>
+        <v>0.6131475049082007</v>
       </c>
       <c r="F117">
-        <v>0.8322603719599427</v>
+        <v>0.8875314408911258</v>
       </c>
       <c r="G117">
-        <v>0.9791666666666681</v>
+        <v>1.031578947368421</v>
       </c>
       <c r="H117">
-        <v>0.7345374931581825</v>
+        <v>0.7576791808873726</v>
       </c>
       <c r="I117">
-        <v>1.035816283533872</v>
+        <v>1.03685084401808</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="2">
-        <v>43333</v>
+        <v>43354</v>
       </c>
       <c r="B118">
-        <v>1.077883537749996</v>
+        <v>1.099275698319556</v>
       </c>
       <c r="C118">
-        <v>1.052195197248011</v>
+        <v>1.086265069304696</v>
       </c>
       <c r="D118">
-        <v>0.9440095701245681</v>
+        <v>0.9850966306591261</v>
       </c>
       <c r="E118">
-        <v>0.6048284625158837</v>
+        <v>0.6144419753619126</v>
       </c>
       <c r="F118">
-        <v>0.7643061516452074</v>
+        <v>0.8993891484010073</v>
       </c>
       <c r="G118">
-        <v>0.9895833333333348</v>
+        <v>1.045614035087719</v>
       </c>
       <c r="H118">
-        <v>0.7438423645320194</v>
+        <v>0.7565415244596138</v>
       </c>
       <c r="I118">
-        <v>1.047099583313825</v>
+        <v>1.039525873996864</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="2">
-        <v>43334</v>
+        <v>43355</v>
       </c>
       <c r="B119">
-        <v>1.080803775788859</v>
+        <v>1.092832131493533</v>
       </c>
       <c r="C119">
-        <v>1.051776224393042</v>
+        <v>1.086652498542439</v>
       </c>
       <c r="D119">
-        <v>0.9381582711361927</v>
+        <v>0.97973570643579</v>
       </c>
       <c r="E119">
-        <v>0.6094875052943676</v>
+        <v>0.6140104852106754</v>
       </c>
       <c r="F119">
-        <v>0.7610872675250357</v>
+        <v>0.8878907653611222</v>
       </c>
       <c r="G119">
-        <v>0.9791666666666681</v>
+        <v>1.042105263157895</v>
       </c>
       <c r="H119">
-        <v>0.7394636015325667</v>
+        <v>0.7536973833902167</v>
       </c>
       <c r="I119">
-        <v>1.081043119996254</v>
+        <v>1.053039387510378</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="2">
-        <v>43335</v>
+        <v>43356</v>
       </c>
       <c r="B120">
-        <v>1.088175403703178</v>
+        <v>1.094447020449931</v>
       </c>
       <c r="C120">
-        <v>1.049997427359663</v>
+        <v>1.092392469579282</v>
       </c>
       <c r="D120">
-        <v>0.9388344212415161</v>
+        <v>0.9790655909078729</v>
       </c>
       <c r="E120">
-        <v>0.6113934773401108</v>
+        <v>0.6133632499838194</v>
       </c>
       <c r="F120">
-        <v>0.7653791130185978</v>
+        <v>0.8505210204814958</v>
       </c>
       <c r="G120">
-        <v>0.9791666666666681</v>
+        <v>1.042105263157895</v>
       </c>
       <c r="H120">
-        <v>0.7422003284072247</v>
+        <v>0.7627986348122874</v>
       </c>
       <c r="I120">
-        <v>1.100847417950278</v>
+        <v>1.054791993358547</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="2">
-        <v>43336</v>
+        <v>43357</v>
       </c>
       <c r="B121">
-        <v>1.074252971539518</v>
+        <v>1.100075148297971</v>
       </c>
       <c r="C121">
-        <v>1.056506207413615</v>
+        <v>1.092693385492092</v>
       </c>
       <c r="D121">
-        <v>0.9434374431123713</v>
+        <v>0.9743747822124539</v>
       </c>
       <c r="E121">
-        <v>0.6118170266836093</v>
+        <v>0.610558564000777</v>
       </c>
       <c r="F121">
-        <v>0.7457081545064377</v>
+        <v>0.8271649299317292</v>
       </c>
       <c r="G121">
-        <v>0.9791666666666681</v>
+        <v>1.049122807017544</v>
       </c>
       <c r="H121">
-        <v>0.7432950191570878</v>
+        <v>0.7610921501706492</v>
       </c>
       <c r="I121">
-        <v>1.092045507748489</v>
+        <v>1.060833871414077</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="2">
-        <v>43339</v>
+        <v>43360</v>
       </c>
       <c r="B122">
-        <v>1.072579754068602</v>
+        <v>1.09849223734071</v>
       </c>
       <c r="C122">
-        <v>1.064610024476836</v>
+        <v>1.086607361155517</v>
       </c>
       <c r="D122">
-        <v>0.9440875874444131</v>
+        <v>0.9737314713056535</v>
       </c>
       <c r="E122">
-        <v>0.6130876747141049</v>
+        <v>0.6088326033958279</v>
       </c>
       <c r="F122">
-        <v>0.800071530758226</v>
+        <v>0.8559108875314418</v>
       </c>
       <c r="G122">
-        <v>0.9895833333333348</v>
+        <v>1.049122807017544</v>
       </c>
       <c r="H122">
-        <v>0.7575259989053089</v>
+        <v>0.7531285551763375</v>
       </c>
       <c r="I122">
-        <v>1.090921859637623</v>
+        <v>1.049810903053225</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="2">
-        <v>43340</v>
+        <v>43361</v>
       </c>
       <c r="B123">
-        <v>1.073732064213667</v>
+        <v>1.097021249380427</v>
       </c>
       <c r="C123">
-        <v>1.064896690114446</v>
+        <v>1.092441368415114</v>
       </c>
       <c r="D123">
-        <v>0.9388344212415161</v>
+        <v>0.9770820489452386</v>
       </c>
       <c r="E123">
-        <v>0.6139347734011019</v>
+        <v>0.6084011132445906</v>
       </c>
       <c r="F123">
-        <v>0.7589413447782546</v>
+        <v>0.818181818181819</v>
       </c>
       <c r="G123">
-        <v>1.000000000000002</v>
+        <v>1.070175438596491</v>
       </c>
       <c r="H123">
-        <v>0.7569786535303773</v>
+        <v>0.7667804323094434</v>
       </c>
       <c r="I123">
-        <v>1.105014279694741</v>
+        <v>1.041186237431972</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="2">
-        <v>43341</v>
+        <v>43362</v>
       </c>
       <c r="B124">
-        <v>1.076462881406766</v>
+        <v>1.095598228418848</v>
       </c>
       <c r="C124">
-        <v>1.070968121311018</v>
+        <v>1.093810535818397</v>
       </c>
       <c r="D124">
-        <v>0.9388344212415161</v>
+        <v>0.9844533197523258</v>
       </c>
       <c r="E124">
-        <v>0.6135112240576034</v>
+        <v>0.6079696230933533</v>
       </c>
       <c r="F124">
-        <v>0.7499999999999999</v>
+        <v>0.7919511318720812</v>
       </c>
       <c r="G124">
-        <v>1.003472222222224</v>
+        <v>1.080701754385965</v>
       </c>
       <c r="H124">
-        <v>0.7553366174055826</v>
+        <v>0.7753128555176346</v>
       </c>
       <c r="I124">
-        <v>1.107402031930333</v>
+        <v>1.023429572917628</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="2">
-        <v>43342</v>
+        <v>43363</v>
       </c>
       <c r="B125">
-        <v>1.084008145096368</v>
+        <v>1.092960043490079</v>
       </c>
       <c r="C125">
-        <v>1.066223437488516</v>
+        <v>1.102386639333471</v>
       </c>
       <c r="D125">
-        <v>0.9310326892570154</v>
+        <v>0.9918513951805297</v>
       </c>
       <c r="E125">
-        <v>0.6128759000423557</v>
+        <v>0.6066751526396413</v>
       </c>
       <c r="F125">
-        <v>0.8544349070100142</v>
+        <v>0.7797340998922033</v>
       </c>
       <c r="G125">
-        <v>0.9930555555555571</v>
+        <v>1.07719298245614</v>
       </c>
       <c r="H125">
-        <v>0.7471264367816088</v>
+        <v>0.7753128555176346</v>
       </c>
       <c r="I125">
-        <v>1.112037080387658</v>
+        <v>1.01383636195923</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="2">
-        <v>43343</v>
+        <v>43364</v>
       </c>
       <c r="B126">
-        <v>1.080456504238292</v>
+        <v>1.094958668436117</v>
       </c>
       <c r="C126">
-        <v>1.066366770307321</v>
+        <v>1.101980402851178</v>
       </c>
       <c r="D126">
-        <v>0.9297324005929321</v>
+        <v>0.9851234352802428</v>
       </c>
       <c r="E126">
-        <v>0.6128759000423557</v>
+        <v>0.6073223878664973</v>
       </c>
       <c r="F126">
-        <v>0.8197424892703862</v>
+        <v>0.811354653251887</v>
       </c>
       <c r="G126">
-        <v>0.9930555555555571</v>
+        <v>1.07719298245614</v>
       </c>
       <c r="H126">
-        <v>0.7438423645320194</v>
+        <v>0.7946530147895345</v>
       </c>
       <c r="I126">
-        <v>1.107729762629335</v>
+        <v>1.020800664145375</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="2">
-        <v>43346</v>
+        <v>43368</v>
       </c>
       <c r="B127">
-        <v>1.078941137472179</v>
+        <v>1.098236413347617</v>
       </c>
       <c r="C127">
-        <v>1.066366770307321</v>
+        <v>1.096672998438999</v>
       </c>
       <c r="D127">
-        <v>0.9349335552492658</v>
+        <v>0.9851770445224761</v>
       </c>
       <c r="E127">
-        <v>0.6113934773401108</v>
+        <v>0.6099113287739211</v>
       </c>
       <c r="F127">
-        <v>0.8197424892703862</v>
+        <v>0.8206970894717935</v>
       </c>
       <c r="G127">
-        <v>0.9930555555555571</v>
+        <v>1.087719298245614</v>
       </c>
       <c r="H127">
-        <v>0.7427476737821562</v>
+        <v>0.7901023890784993</v>
       </c>
       <c r="I127">
-        <v>1.098319209700828</v>
+        <v>1.030901208375612</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="2">
-        <v>43347</v>
+        <v>43369</v>
       </c>
       <c r="B128">
-        <v>1.081214187621348</v>
+        <v>1.099419599315671</v>
       </c>
       <c r="C128">
-        <v>1.064602674075871</v>
+        <v>1.093065768934193</v>
       </c>
       <c r="D128">
-        <v>0.9388344212415161</v>
+        <v>0.9784490846221895</v>
       </c>
       <c r="E128">
-        <v>0.6094875052943676</v>
+        <v>0.610558564000777</v>
       </c>
       <c r="F128">
-        <v>0.8472818311874105</v>
+        <v>0.8109953287818906</v>
       </c>
       <c r="G128">
-        <v>1.006944444444446</v>
+        <v>1.073684210526316</v>
       </c>
       <c r="H128">
-        <v>0.7509578544061299</v>
+        <v>0.7969283276450523</v>
       </c>
       <c r="I128">
-        <v>1.091296409007911</v>
+        <v>1.040033207268703</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="2">
-        <v>43348</v>
+        <v>43370</v>
       </c>
       <c r="B129">
-        <v>1.080046092405803</v>
+        <v>1.101290312265162</v>
       </c>
       <c r="C129">
-        <v>1.061618411284336</v>
+        <v>1.09608621240902</v>
       </c>
       <c r="D129">
-        <v>0.9388344212415161</v>
+        <v>0.9717479293430193</v>
       </c>
       <c r="E129">
-        <v>0.6035578144853884</v>
+        <v>0.6122845246057262</v>
       </c>
       <c r="F129">
-        <v>0.879113018597997</v>
+        <v>0.7782968020122176</v>
       </c>
       <c r="G129">
-        <v>1.006944444444446</v>
+        <v>1.073684210526316</v>
       </c>
       <c r="H129">
-        <v>0.7383689107827036</v>
+        <v>0.792377701934017</v>
       </c>
       <c r="I129">
-        <v>1.076829439580504</v>
+        <v>1.046444054976479</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="2">
-        <v>43349</v>
+        <v>43371</v>
       </c>
       <c r="B130">
-        <v>1.080440719167811</v>
+        <v>1.099851302304015</v>
       </c>
       <c r="C130">
-        <v>1.057741074775629</v>
+        <v>1.0960786895112</v>
       </c>
       <c r="D130">
-        <v>0.9388344212415161</v>
+        <v>0.9690674672313512</v>
       </c>
       <c r="E130">
-        <v>0.602498941126642</v>
+        <v>0.6133632499838195</v>
       </c>
       <c r="F130">
-        <v>0.8755364806866951</v>
+        <v>0.7563780093424368</v>
       </c>
       <c r="G130">
-        <v>1.000000000000002</v>
+        <v>1.070175438596491</v>
       </c>
       <c r="H130">
-        <v>0.7350848385331141</v>
+        <v>0.8009101251422082</v>
       </c>
       <c r="I130">
-        <v>1.072147572451893</v>
+        <v>1.046582418596071</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="2">
-        <v>43350</v>
+        <v>43381</v>
       </c>
       <c r="B131">
-        <v>1.084292276365014</v>
+        <v>1.106326847129175</v>
       </c>
       <c r="C131">
-        <v>1.055399972068477</v>
+        <v>1.084963607981795</v>
       </c>
       <c r="D131">
-        <v>0.9440355758978498</v>
+        <v>0.9691210764735847</v>
       </c>
       <c r="E131">
-        <v>0.6037695891571376</v>
+        <v>0.6118530344544889</v>
       </c>
       <c r="F131">
-        <v>0.8841201716738195</v>
+        <v>0.9184333453108162</v>
       </c>
       <c r="G131">
-        <v>1.020833333333335</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="H131">
-        <v>0.7378215654077721</v>
+        <v>0.7707622298065995</v>
       </c>
       <c r="I131">
-        <v>1.063205206236246</v>
+        <v>1.038096116594411</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="2">
-        <v>43353</v>
+        <v>43382</v>
       </c>
       <c r="B132">
-        <v>1.084465912140298</v>
+        <v>1.105863166141695</v>
       </c>
       <c r="C132">
-        <v>1.057402956331268</v>
+        <v>1.083425175377555</v>
       </c>
       <c r="D132">
-        <v>0.9505370192182669</v>
+        <v>0.9691478810947015</v>
       </c>
       <c r="E132">
-        <v>0.6018636171113944</v>
+        <v>0.6075381329421159</v>
       </c>
       <c r="F132">
-        <v>0.8834048640915592</v>
+        <v>0.9151994250808485</v>
       </c>
       <c r="G132">
-        <v>1.020833333333335</v>
+        <v>1.126315789473684</v>
       </c>
       <c r="H132">
-        <v>0.7290640394088668</v>
+        <v>0.7610921501706496</v>
       </c>
       <c r="I132">
-        <v>1.052530549183013</v>
+        <v>1.034175814039296</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="2">
-        <v>43354</v>
+        <v>43383</v>
       </c>
       <c r="B133">
-        <v>1.085255165664315</v>
+        <v>1.10712629710759</v>
       </c>
       <c r="C133">
-        <v>1.061357472050101</v>
+        <v>1.047819299994358</v>
       </c>
       <c r="D133">
-        <v>0.9557381738746006</v>
+        <v>0.9691478810947015</v>
       </c>
       <c r="E133">
-        <v>0.6031342651418898</v>
+        <v>0.606243662488404</v>
       </c>
       <c r="F133">
-        <v>0.8952074391988554</v>
+        <v>1.035213798059648</v>
       </c>
       <c r="G133">
-        <v>1.034722222222224</v>
+        <v>1.129824561403509</v>
       </c>
       <c r="H133">
-        <v>0.7279693486590036</v>
+        <v>0.7736063708759966</v>
       </c>
       <c r="I133">
-        <v>1.055246032117608</v>
+        <v>1.031085693201735</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="2">
-        <v>43355</v>
+        <v>43384</v>
       </c>
       <c r="B134">
-        <v>1.078893782260738</v>
+        <v>1.099819324304878</v>
       </c>
       <c r="C134">
-        <v>1.061736017699766</v>
+        <v>1.026262436290459</v>
       </c>
       <c r="D134">
-        <v>0.9505370192182668</v>
+        <v>0.9597662637038633</v>
       </c>
       <c r="E134">
-        <v>0.6027107157983913</v>
+        <v>0.6043019568078362</v>
       </c>
       <c r="F134">
-        <v>0.8837625178826893</v>
+        <v>1.078692058929213</v>
       </c>
       <c r="G134">
-        <v>1.031250000000002</v>
+        <v>1.101754385964912</v>
       </c>
       <c r="H134">
-        <v>0.7252326217843457</v>
+        <v>0.7332195676905586</v>
       </c>
       <c r="I134">
-        <v>1.068963902804437</v>
+        <v>1.036251268333181</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="2">
-        <v>43356</v>
+        <v>43385</v>
       </c>
       <c r="B135">
-        <v>1.080488074379252</v>
+        <v>1.106630638120973</v>
       </c>
       <c r="C135">
-        <v>1.067344373635582</v>
+        <v>1.040841812266085</v>
       </c>
       <c r="D135">
-        <v>0.9498868748862251</v>
+        <v>0.9604363792317803</v>
       </c>
       <c r="E135">
-        <v>0.6020753917831435</v>
+        <v>0.6040862117322174</v>
       </c>
       <c r="F135">
-        <v>0.8465665236051499</v>
+        <v>1.024434063959756</v>
       </c>
       <c r="G135">
-        <v>1.031250000000002</v>
+        <v>1.105263157894737</v>
       </c>
       <c r="H135">
-        <v>0.733990147783251</v>
+        <v>0.7400455062571115</v>
       </c>
       <c r="I135">
-        <v>1.07074301231331</v>
+        <v>1.027303754266213</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="2">
-        <v>43357</v>
+        <v>43388</v>
       </c>
       <c r="B136">
-        <v>1.086044419188332</v>
+        <v>1.106934429112771</v>
       </c>
       <c r="C136">
-        <v>1.067638389674157</v>
+        <v>1.034695604746948</v>
       </c>
       <c r="D136">
-        <v>0.9453358645619332</v>
+        <v>0.961133299380814</v>
       </c>
       <c r="E136">
-        <v>0.5993223210504032</v>
+        <v>0.6043019568078362</v>
       </c>
       <c r="F136">
-        <v>0.8233190271816878</v>
+        <v>1.017606899029824</v>
       </c>
       <c r="G136">
-        <v>1.038194444444446</v>
+        <v>1.108771929824561</v>
       </c>
       <c r="H136">
-        <v>0.7323481116584563</v>
+        <v>0.7292377701934027</v>
       </c>
       <c r="I136">
-        <v>1.07687625825179</v>
+        <v>1.024536481874367</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="2">
-        <v>43360</v>
+        <v>43389</v>
       </c>
       <c r="B137">
-        <v>1.084481697210778</v>
+        <v>1.105335529155941</v>
       </c>
       <c r="C137">
-        <v>1.06169191529398</v>
+        <v>1.056937052152489</v>
       </c>
       <c r="D137">
-        <v>0.9447117260031731</v>
+        <v>0.958452837269146</v>
       </c>
       <c r="E137">
-        <v>0.5976281236764092</v>
+        <v>0.6040862117322174</v>
       </c>
       <c r="F137">
-        <v>0.8519313304721027</v>
+        <v>0.9640675530003597</v>
       </c>
       <c r="G137">
-        <v>1.038194444444446</v>
+        <v>1.108771929824561</v>
       </c>
       <c r="H137">
-        <v>0.7246852764094142</v>
+        <v>0.7292377701934027</v>
       </c>
       <c r="I137">
-        <v>1.06568659581441</v>
+        <v>1.029148602527443</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="2">
-        <v>43361</v>
+        <v>43390</v>
       </c>
       <c r="B138">
-        <v>1.083029470726587</v>
+        <v>1.108101626081256</v>
       </c>
       <c r="C138">
-        <v>1.067392151241851</v>
+        <v>1.05666998927987</v>
       </c>
       <c r="D138">
-        <v>0.9479624476633818</v>
+        <v>0.9597930683249801</v>
       </c>
       <c r="E138">
-        <v>0.5972045743329106</v>
+        <v>0.6079696230933531</v>
       </c>
       <c r="F138">
-        <v>0.8143776824034331</v>
+        <v>0.9985627021200147</v>
       </c>
       <c r="G138">
-        <v>1.059027777777779</v>
+        <v>1.119298245614035</v>
       </c>
       <c r="H138">
-        <v>0.7378215654077722</v>
+        <v>0.7275312855517645</v>
       </c>
       <c r="I138">
-        <v>1.056931504283907</v>
+        <v>1.017387694862099</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="2">
-        <v>43362</v>
+        <v>43391</v>
       </c>
       <c r="B139">
-        <v>1.081624599453836</v>
+        <v>1.109396735046288</v>
       </c>
       <c r="C139">
-        <v>1.068729924217366</v>
+        <v>1.041462451336254</v>
       </c>
       <c r="D139">
-        <v>0.9551140353158406</v>
+        <v>0.9517784866110925</v>
       </c>
       <c r="E139">
-        <v>0.5967810249894121</v>
+        <v>0.6109900541520142</v>
       </c>
       <c r="F139">
-        <v>0.7882689556509295</v>
+        <v>1.098095580309019</v>
       </c>
       <c r="G139">
-        <v>1.069444444444446</v>
+        <v>1.112280701754386</v>
       </c>
       <c r="H139">
-        <v>0.746031746031746</v>
+        <v>0.7059158134243469</v>
       </c>
       <c r="I139">
-        <v>1.038906315838755</v>
+        <v>1.029194723733974</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="2">
-        <v>43363</v>
+        <v>43392</v>
       </c>
       <c r="B140">
-        <v>1.079020062824581</v>
+        <v>1.108773164063125</v>
       </c>
       <c r="C140">
-        <v>1.077109381316751</v>
+        <v>1.041086306445242</v>
       </c>
       <c r="D140">
-        <v>0.9622916287415811</v>
+        <v>0.9557991797785946</v>
       </c>
       <c r="E140">
-        <v>0.5955103769589165</v>
+        <v>0.6131475049082008</v>
       </c>
       <c r="F140">
-        <v>0.7761087267525031</v>
+        <v>1.031620553359684</v>
       </c>
       <c r="G140">
-        <v>1.065972222222223</v>
+        <v>1.12280701754386</v>
       </c>
       <c r="H140">
-        <v>0.746031746031746</v>
+        <v>0.7246871444823675</v>
       </c>
       <c r="I140">
-        <v>1.029168032211245</v>
+        <v>1.017526058481691</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="2">
-        <v>43364</v>
+        <v>43395</v>
       </c>
       <c r="B141">
-        <v>1.080993196634623</v>
+        <v>1.109236845050605</v>
       </c>
       <c r="C141">
-        <v>1.076712459664675</v>
+        <v>1.036610182242199</v>
       </c>
       <c r="D141">
-        <v>0.9557641796478823</v>
+        <v>0.9625539442999982</v>
       </c>
       <c r="E141">
-        <v>0.5961457009741643</v>
+        <v>0.6194041121011415</v>
       </c>
       <c r="F141">
-        <v>0.8075822603719593</v>
+        <v>1.028386633129716</v>
       </c>
       <c r="G141">
-        <v>1.065972222222223</v>
+        <v>1.12280701754386</v>
       </c>
       <c r="H141">
-        <v>0.7646414887794197</v>
+        <v>0.7542662116040968</v>
       </c>
       <c r="I141">
-        <v>1.036237651575447</v>
+        <v>1.010377271469423</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="2">
-        <v>43368</v>
+        <v>43396</v>
       </c>
       <c r="B142">
-        <v>1.084229136083093</v>
+        <v>1.109396735046288</v>
       </c>
       <c r="C142">
-        <v>1.07152675178431</v>
+        <v>1.030896541347727</v>
       </c>
       <c r="D142">
-        <v>0.9558161911944455</v>
+        <v>0.9571662154555454</v>
       </c>
       <c r="E142">
-        <v>0.5986869970351554</v>
+        <v>0.6263079545209383</v>
       </c>
       <c r="F142">
-        <v>0.8168812589413442</v>
+        <v>1.072224218469278</v>
       </c>
       <c r="G142">
-        <v>1.07638888888889</v>
+        <v>1.112280701754386</v>
       </c>
       <c r="H142">
-        <v>0.7602627257799671</v>
+        <v>0.7372013651877146</v>
       </c>
       <c r="I142">
-        <v>1.046490940587105</v>
+        <v>1.024213633428652</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="2">
-        <v>43369</v>
+        <v>43397</v>
       </c>
       <c r="B143">
-        <v>1.085397231298638</v>
+        <v>1.110276130022545</v>
       </c>
       <c r="C143">
-        <v>1.068002234521893</v>
+        <v>0.9990784450170203</v>
       </c>
       <c r="D143">
-        <v>0.9492887421007469</v>
+        <v>0.9491248291205412</v>
       </c>
       <c r="E143">
-        <v>0.5993223210504032</v>
+        <v>0.63083860110893</v>
       </c>
       <c r="F143">
-        <v>0.8072246065808293</v>
+        <v>1.174631692418254</v>
       </c>
       <c r="G143">
-        <v>1.062500000000001</v>
+        <v>1.087719298245614</v>
       </c>
       <c r="H143">
-        <v>0.7668308702791461</v>
+        <v>0.7394766780432322</v>
       </c>
       <c r="I143">
-        <v>1.055761037501755</v>
+        <v>1.024444239461306</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="2">
-        <v>43370</v>
+        <v>43398</v>
       </c>
       <c r="B144">
-        <v>1.087244084544838</v>
+        <v>1.11219480997074</v>
       </c>
       <c r="C144">
-        <v>1.070953420509089</v>
+        <v>1.017686332775385</v>
       </c>
       <c r="D144">
-        <v>0.9427872987803297</v>
+        <v>0.9491248291205412</v>
       </c>
       <c r="E144">
-        <v>0.6010165184243973</v>
+        <v>0.6360164829237775</v>
       </c>
       <c r="F144">
-        <v>0.7746781115879824</v>
+        <v>1.098095580309019</v>
       </c>
       <c r="G144">
-        <v>1.062500000000001</v>
+        <v>1.101754385964912</v>
       </c>
       <c r="H144">
-        <v>0.7624521072796935</v>
+        <v>0.7400455062571117</v>
       </c>
       <c r="I144">
-        <v>1.062268832810524</v>
+        <v>1.01987824001476</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="2">
-        <v>43371</v>
+        <v>43399</v>
       </c>
       <c r="B145">
-        <v>1.085823428201607</v>
+        <v>1.111683161984555</v>
       </c>
       <c r="C145">
-        <v>1.070946070108125</v>
+        <v>1.000052660284741</v>
       </c>
       <c r="D145">
-        <v>0.9401867214521628</v>
+        <v>0.9491516337416578</v>
       </c>
       <c r="E145">
-        <v>0.6020753917831436</v>
+        <v>0.6368794632262522</v>
       </c>
       <c r="F145">
-        <v>0.7528612303290411</v>
+        <v>1.154150197628459</v>
       </c>
       <c r="G145">
-        <v>1.059027777777779</v>
+        <v>1.080701754385965</v>
       </c>
       <c r="H145">
-        <v>0.7706622879036672</v>
+        <v>0.7383390216154735</v>
       </c>
       <c r="I145">
-        <v>1.062409288824382</v>
+        <v>1.019924361221291</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="2">
-        <v>43381</v>
+        <v>43402</v>
       </c>
       <c r="B146">
-        <v>1.092216381746145</v>
+        <v>1.115264697887854</v>
       </c>
       <c r="C146">
-        <v>1.060085852683264</v>
+        <v>0.993492693385492</v>
       </c>
       <c r="D146">
-        <v>0.9402387329987262</v>
+        <v>0.9411370520277703</v>
       </c>
       <c r="E146">
-        <v>0.6005929690808988</v>
+        <v>0.6381739336799642</v>
       </c>
       <c r="F146">
-        <v>0.9141630901287546</v>
+        <v>1.196550485088035</v>
       </c>
       <c r="G146">
-        <v>1.121527777777779</v>
+        <v>1.080701754385965</v>
       </c>
       <c r="H146">
-        <v>0.7416529830322934</v>
+        <v>0.72241183162685</v>
       </c>
       <c r="I146">
-        <v>1.053794653307738</v>
+        <v>1.022230421547829</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="2">
-        <v>43382</v>
+        <v>43403</v>
       </c>
       <c r="B147">
-        <v>1.091758614702215</v>
+        <v>1.114401291911165</v>
       </c>
       <c r="C147">
-        <v>1.05858269568605</v>
+        <v>1.009057568975569</v>
       </c>
       <c r="D147">
-        <v>0.940264738772008</v>
+        <v>0.9424772830836042</v>
       </c>
       <c r="E147">
-        <v>0.5963574756459136</v>
+        <v>0.6379581886043455</v>
       </c>
       <c r="F147">
-        <v>0.9109442060085829</v>
+        <v>1.123607617678764</v>
       </c>
       <c r="G147">
-        <v>1.114583333333335</v>
+        <v>1.094736842105263</v>
       </c>
       <c r="H147">
-        <v>0.7323481116584566</v>
+        <v>0.7298065984072823</v>
       </c>
       <c r="I147">
-        <v>1.049815066248419</v>
+        <v>1.008071211142885</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="2">
-        <v>43383</v>
+        <v>43404</v>
       </c>
       <c r="B148">
-        <v>1.093005635270162</v>
+        <v>1.11510480789217</v>
       </c>
       <c r="C148">
-        <v>1.023793247921674</v>
+        <v>1.020007146752929</v>
       </c>
       <c r="D148">
-        <v>0.940264738772008</v>
+        <v>0.9404669364998532</v>
       </c>
       <c r="E148">
-        <v>0.5950868276154181</v>
+        <v>0.6392526590580574</v>
       </c>
       <c r="F148">
-        <v>1.030400572246065</v>
+        <v>1.053898670499461</v>
       </c>
       <c r="G148">
-        <v>1.118055555555557</v>
+        <v>1.105263157894737</v>
       </c>
       <c r="H148">
-        <v>0.7443897099069514</v>
+        <v>0.7394766780432324</v>
       </c>
       <c r="I148">
-        <v>1.04667821527225</v>
+        <v>1.009224241306154</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="2">
-        <v>43384</v>
+        <v>43405</v>
       </c>
       <c r="B149">
-        <v>1.085791858060646</v>
+        <v>1.105959100139104</v>
       </c>
       <c r="C149">
-        <v>1.002730673958264</v>
+        <v>1.030776174982603</v>
       </c>
       <c r="D149">
-        <v>0.931162718123424</v>
+        <v>0.9364462433323512</v>
       </c>
       <c r="E149">
-        <v>0.5931808555696748</v>
+        <v>0.6420573450410998</v>
       </c>
       <c r="F149">
-        <v>1.073676680972817</v>
+        <v>1.058210564139418</v>
       </c>
       <c r="G149">
-        <v>1.090277777777779</v>
+        <v>1.101754385964912</v>
       </c>
       <c r="H149">
-        <v>0.7055281882868092</v>
+        <v>0.7406143344709911</v>
       </c>
       <c r="I149">
-        <v>1.051921906456294</v>
+        <v>1.008255695969008</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="2">
-        <v>43385</v>
+        <v>43406</v>
       </c>
       <c r="B150">
-        <v>1.092516298085271</v>
+        <v>1.103272948211631</v>
       </c>
       <c r="C150">
-        <v>1.016975751027219</v>
+        <v>1.024265106919185</v>
       </c>
       <c r="D150">
-        <v>0.9318128624554657</v>
+        <v>0.9505186694186084</v>
       </c>
       <c r="E150">
-        <v>0.5929690808979255</v>
+        <v>0.6431360704191931</v>
       </c>
       <c r="F150">
-        <v>1.019670958512159</v>
+        <v>1.109593963348904</v>
       </c>
       <c r="G150">
-        <v>1.093750000000002</v>
+        <v>1.129824561403509</v>
       </c>
       <c r="H150">
-        <v>0.7120963327859882</v>
+        <v>0.7610921501706499</v>
       </c>
       <c r="I150">
-        <v>1.042839084226789</v>
+        <v>0.9900378193893569</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="2">
-        <v>43388</v>
+        <v>43409</v>
       </c>
       <c r="B151">
-        <v>1.092816214424397</v>
+        <v>1.105479430152056</v>
       </c>
       <c r="C151">
-        <v>1.010970473439326</v>
+        <v>1.030001316507118</v>
       </c>
       <c r="D151">
-        <v>0.9324890125607892</v>
+        <v>0.946524780872223</v>
       </c>
       <c r="E151">
-        <v>0.5931808555696748</v>
+        <v>0.6442147957972864</v>
       </c>
       <c r="F151">
-        <v>1.012875536480686</v>
+        <v>1.087315846209127</v>
       </c>
       <c r="G151">
-        <v>1.097222222222224</v>
+        <v>1.12280701754386</v>
       </c>
       <c r="H151">
-        <v>0.7016967706622882</v>
+        <v>0.7576791808873734</v>
       </c>
       <c r="I151">
-        <v>1.040029963949622</v>
+        <v>0.9958952126187636</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="2">
-        <v>43389</v>
+        <v>43410</v>
       </c>
       <c r="B152">
-        <v>1.091237707376363</v>
+        <v>1.106886462114066</v>
       </c>
       <c r="C152">
-        <v>1.032701933890494</v>
+        <v>1.036448439939064</v>
       </c>
       <c r="D152">
-        <v>0.9298884352326223</v>
+        <v>0.9411906612700036</v>
       </c>
       <c r="E152">
-        <v>0.5929690808979255</v>
+        <v>0.6452935211753795</v>
       </c>
       <c r="F152">
-        <v>0.9595851216022879</v>
+        <v>1.067912324829321</v>
       </c>
       <c r="G152">
-        <v>1.097222222222224</v>
+        <v>1.129824561403509</v>
       </c>
       <c r="H152">
-        <v>0.7016967706622882</v>
+        <v>0.7559726962457352</v>
       </c>
       <c r="I152">
-        <v>1.044711831078233</v>
+        <v>1.003874181348586</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="2">
-        <v>43390</v>
+        <v>43411</v>
       </c>
       <c r="B153">
-        <v>1.093968524569462</v>
+        <v>1.106134979134356</v>
       </c>
       <c r="C153">
-        <v>1.032440994656258</v>
+        <v>1.058430347369806</v>
       </c>
       <c r="D153">
-        <v>0.9311887238967059</v>
+        <v>0.9331492749349996</v>
       </c>
       <c r="E153">
-        <v>0.5967810249894122</v>
+        <v>0.6465879916290913</v>
       </c>
       <c r="F153">
-        <v>0.9939198855507857</v>
+        <v>0.9834710743801657</v>
       </c>
       <c r="G153">
-        <v>1.10763888888889</v>
+        <v>1.129824561403509</v>
       </c>
       <c r="H153">
-        <v>0.7000547345374935</v>
+        <v>0.7508532423208205</v>
       </c>
       <c r="I153">
-        <v>1.032773069900275</v>
+        <v>1.0107923623282</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="2">
-        <v>43391</v>
+        <v>43412</v>
       </c>
       <c r="B154">
-        <v>1.09524711527837</v>
+        <v>1.109764482036359</v>
       </c>
       <c r="C154">
-        <v>1.017582159106779</v>
+        <v>1.055774764439261</v>
       </c>
       <c r="D154">
-        <v>0.923412997685487</v>
+        <v>0.9331492749349996</v>
       </c>
       <c r="E154">
-        <v>0.5997458703939018</v>
+        <v>0.6472352268559474</v>
       </c>
       <c r="F154">
-        <v>1.092989985693847</v>
+        <v>0.9759252605102411</v>
       </c>
       <c r="G154">
-        <v>1.100694444444446</v>
+        <v>1.136842105263158</v>
       </c>
       <c r="H154">
-        <v>0.6792556102900934</v>
+        <v>0.7491467576791824</v>
       </c>
       <c r="I154">
-        <v>1.044758649749519</v>
+        <v>0.9994926667281628</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="2">
-        <v>43392</v>
+        <v>43413</v>
       </c>
       <c r="B155">
-        <v>1.094631497529637</v>
+        <v>1.11097964600355</v>
       </c>
       <c r="C155">
-        <v>1.017214639058561</v>
+        <v>1.046062703353331</v>
       </c>
       <c r="D155">
-        <v>0.9273138636777373</v>
+        <v>0.9318090438791655</v>
       </c>
       <c r="E155">
-        <v>0.6018636171113945</v>
+        <v>0.647450971931566</v>
       </c>
       <c r="F155">
-        <v>1.026824034334763</v>
+        <v>1.018325547969817</v>
       </c>
       <c r="G155">
-        <v>1.111111111111113</v>
+        <v>1.119298245614035</v>
       </c>
       <c r="H155">
-        <v>0.6973180076628357</v>
+        <v>0.738907849829353</v>
       </c>
       <c r="I155">
-        <v>1.032913525914134</v>
+        <v>1.003459090489809</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="2">
-        <v>43395</v>
+        <v>43416</v>
       </c>
       <c r="B156">
-        <v>1.095089264573566</v>
+        <v>1.113537885934478</v>
       </c>
       <c r="C156">
-        <v>1.012841150484759</v>
+        <v>1.025453724774783</v>
       </c>
       <c r="D156">
-        <v>0.9338673185447178</v>
+        <v>0.9345431152330669</v>
       </c>
       <c r="E156">
-        <v>0.6080050825921229</v>
+        <v>0.647450971931566</v>
       </c>
       <c r="F156">
-        <v>1.023605150214591</v>
+        <v>1.096658282429034</v>
       </c>
       <c r="G156">
-        <v>1.111111111111113</v>
+        <v>1.119298245614035</v>
       </c>
       <c r="H156">
-        <v>0.725779967159278</v>
+        <v>0.7474402730375441</v>
       </c>
       <c r="I156">
-        <v>1.025656631864787</v>
+        <v>1.001014666543678</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="2">
-        <v>43396</v>
+        <v>43417</v>
       </c>
       <c r="B157">
-        <v>1.09524711527837</v>
+        <v>1.110643877012616</v>
       </c>
       <c r="C157">
-        <v>1.007258520952318</v>
+        <v>1.023934099415094</v>
       </c>
       <c r="D157">
-        <v>0.9286401581151024</v>
+        <v>0.931192537593482</v>
       </c>
       <c r="E157">
-        <v>0.6147818720880992</v>
+        <v>0.6480982071584219</v>
       </c>
       <c r="F157">
-        <v>1.067238912732474</v>
+        <v>1.106360043118937</v>
       </c>
       <c r="G157">
-        <v>1.100694444444446</v>
+        <v>1.101754385964912</v>
       </c>
       <c r="H157">
-        <v>0.7093596059113305</v>
+        <v>0.7542662116040969</v>
       </c>
       <c r="I157">
-        <v>1.03970223325062</v>
+        <v>1.000092242413063</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="2">
-        <v>43397</v>
+        <v>43418</v>
       </c>
       <c r="B158">
-        <v>1.096115294154788</v>
+        <v>1.110356075020386</v>
       </c>
       <c r="C158">
-        <v>0.9761700000735037</v>
+        <v>1.016185514660247</v>
       </c>
       <c r="D158">
-        <v>0.9208384261306019</v>
+        <v>0.9172005253705747</v>
       </c>
       <c r="E158">
-        <v>0.6192291401948337</v>
+        <v>0.6489611874608966</v>
       </c>
       <c r="F158">
-        <v>1.169170243204576</v>
+        <v>1.136183974128639</v>
       </c>
       <c r="G158">
-        <v>1.076388888888891</v>
+        <v>1.094736842105263</v>
       </c>
       <c r="H158">
-        <v>0.7115489874110569</v>
+        <v>0.7480091012514234</v>
       </c>
       <c r="I158">
-        <v>1.03993632660705</v>
+        <v>1.012083756111061</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="2">
-        <v>43398</v>
+        <v>43419</v>
       </c>
       <c r="B159">
-        <v>1.098009502612429</v>
+        <v>1.107829813088596</v>
       </c>
       <c r="C159">
-        <v>0.9943512168588795</v>
+        <v>1.02695078144101</v>
       </c>
       <c r="D159">
-        <v>0.9208384261306019</v>
+        <v>0.9090787251722205</v>
       </c>
       <c r="E159">
-        <v>0.6243117323168159</v>
+        <v>0.6493926776121339</v>
       </c>
       <c r="F159">
-        <v>1.092989985693847</v>
+        <v>1.149478979518506</v>
       </c>
       <c r="G159">
-        <v>1.090277777777779</v>
+        <v>1.091228070175438</v>
       </c>
       <c r="H159">
-        <v>0.7120963327859885</v>
+        <v>0.7582480091012528</v>
       </c>
       <c r="I159">
-        <v>1.035301278149726</v>
+        <v>1.023936906189467</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="2">
-        <v>43399</v>
+        <v>43420</v>
       </c>
       <c r="B160">
-        <v>1.097504380357059</v>
+        <v>1.106742561117951</v>
       </c>
       <c r="C160">
-        <v>0.97712187699839</v>
+        <v>1.029233980929453</v>
       </c>
       <c r="D160">
-        <v>0.9208644319038835</v>
+        <v>0.8983568767255483</v>
       </c>
       <c r="E160">
-        <v>0.625158831003813</v>
+        <v>0.6521973635951765</v>
       </c>
       <c r="F160">
-        <v>1.148783977110156</v>
+        <v>1.127560186848725</v>
       </c>
       <c r="G160">
-        <v>1.069444444444446</v>
+        <v>1.080701754385965</v>
       </c>
       <c r="H160">
-        <v>0.7104542966611938</v>
+        <v>0.7610921501706498</v>
       </c>
       <c r="I160">
-        <v>1.035348096821012</v>
+        <v>1.024351997048244</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="2">
-        <v>43402</v>
+        <v>43423</v>
       </c>
       <c r="B161">
-        <v>1.101040236144655</v>
+        <v>1.108661241066147</v>
       </c>
       <c r="C161">
-        <v>0.9707123273574572</v>
+        <v>1.012104342592766</v>
       </c>
       <c r="D161">
-        <v>0.9130887056926645</v>
+        <v>0.9052456643525352</v>
       </c>
       <c r="E161">
-        <v>0.6264294790343087</v>
+        <v>0.6547863045026003</v>
       </c>
       <c r="F161">
-        <v>1.190987124463517</v>
+        <v>1.122888968738772</v>
       </c>
       <c r="G161">
-        <v>1.069444444444446</v>
+        <v>1.073684210526316</v>
       </c>
       <c r="H161">
-        <v>0.6951286261631094</v>
+        <v>0.768486916951082</v>
       </c>
       <c r="I161">
-        <v>1.037689030385317</v>
+        <v>0.9975555760538709</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="2">
-        <v>43403</v>
+        <v>43424</v>
       </c>
       <c r="B162">
-        <v>1.100187842338716</v>
+        <v>1.110436020018228</v>
       </c>
       <c r="C162">
-        <v>0.9859203069527441</v>
+        <v>0.9937334261157391</v>
       </c>
       <c r="D162">
-        <v>0.9143889943567479</v>
+        <v>0.9052188597314185</v>
       </c>
       <c r="E162">
-        <v>0.6262177043625593</v>
+        <v>0.6586697158637359</v>
       </c>
       <c r="F162">
-        <v>1.11838340486409</v>
+        <v>1.152353575278477</v>
       </c>
       <c r="G162">
-        <v>1.083333333333335</v>
+        <v>1.073684210526316</v>
       </c>
       <c r="H162">
-        <v>0.7022441160372201</v>
+        <v>0.7531285551763379</v>
       </c>
       <c r="I162">
-        <v>1.023315698300482</v>
+        <v>0.9988469698367324</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="2">
-        <v>43404</v>
+        <v>43425</v>
       </c>
       <c r="B163">
-        <v>1.100882385439851</v>
+        <v>1.107462066098525</v>
       </c>
       <c r="C163">
-        <v>0.9966188155563882</v>
+        <v>0.9967576310394758</v>
       </c>
       <c r="D163">
-        <v>0.9124385613606228</v>
+        <v>0.903744605570001</v>
       </c>
       <c r="E163">
-        <v>0.6274883523930549</v>
+        <v>0.6601799313930665</v>
       </c>
       <c r="F163">
-        <v>1.048998569384834</v>
+        <v>1.085878548329142</v>
       </c>
       <c r="G163">
-        <v>1.093750000000002</v>
+        <v>1.073684210526316</v>
       </c>
       <c r="H163">
-        <v>0.7115489874110571</v>
+        <v>0.7548350398179761</v>
       </c>
       <c r="I163">
-        <v>1.024486165082634</v>
+        <v>1.003412969283278</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="2">
-        <v>43405</v>
+        <v>43426</v>
       </c>
       <c r="B164">
-        <v>1.091853325125097</v>
+        <v>1.107398110100251</v>
       </c>
       <c r="C164">
-        <v>1.007140914536888</v>
+        <v>0.9967576310394758</v>
       </c>
       <c r="D164">
-        <v>0.9085376953683725</v>
+        <v>0.9091323344144538</v>
       </c>
       <c r="E164">
-        <v>0.6302414231257952</v>
+        <v>0.6610429116955411</v>
       </c>
       <c r="F164">
-        <v>1.053290414878396</v>
+        <v>1.085878548329142</v>
       </c>
       <c r="G164">
-        <v>1.09027777777778</v>
+        <v>1.073684210526316</v>
       </c>
       <c r="H164">
-        <v>0.7126436781609202</v>
+        <v>0.7536973833902173</v>
       </c>
       <c r="I164">
-        <v>1.023502972985626</v>
+        <v>0.9929434554007947</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="2">
-        <v>43406</v>
+        <v>43427</v>
       </c>
       <c r="B165">
-        <v>1.0892014332844</v>
+        <v>1.110340086020818</v>
       </c>
       <c r="C165">
-        <v>1.000779142502223</v>
+        <v>0.9902239942825971</v>
       </c>
       <c r="D165">
-        <v>0.9221907263412484</v>
+        <v>0.9091323344144538</v>
       </c>
       <c r="E165">
-        <v>0.6313002964845416</v>
+        <v>0.6629846173761088</v>
       </c>
       <c r="F165">
-        <v>1.104434907010013</v>
+        <v>1.077614085519224</v>
       </c>
       <c r="G165">
-        <v>1.118055555555558</v>
+        <v>1.070175438596491</v>
       </c>
       <c r="H165">
-        <v>0.7323481116584573</v>
+        <v>0.7360637087599555</v>
       </c>
       <c r="I165">
-        <v>1.005009597827613</v>
+        <v>0.9933124250530407</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="2">
-        <v>43409</v>
+        <v>43430</v>
       </c>
       <c r="B166">
-        <v>1.091379773010687</v>
+        <v>1.111299425994916</v>
       </c>
       <c r="C166">
-        <v>1.006383823237557</v>
+        <v>1.005604558876078</v>
       </c>
       <c r="D166">
-        <v>0.9183158661222799</v>
+        <v>0.915404615755757</v>
       </c>
       <c r="E166">
-        <v>0.6323591698432879</v>
+        <v>0.6655735582835326</v>
       </c>
       <c r="F166">
-        <v>1.082260371959941</v>
+        <v>1.034135824649659</v>
       </c>
       <c r="G166">
-        <v>1.111111111111113</v>
+        <v>1.07719298245614</v>
       </c>
       <c r="H166">
-        <v>0.7290640394088678</v>
+        <v>0.7343572241183174</v>
       </c>
       <c r="I166">
-        <v>1.010955569080949</v>
+        <v>0.9819666082464733</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="2">
-        <v>43410</v>
+        <v>43431</v>
       </c>
       <c r="B167">
-        <v>1.092768859212957</v>
+        <v>1.111875029979374</v>
       </c>
       <c r="C167">
-        <v>1.012683116864024</v>
+        <v>1.008884542325703</v>
       </c>
       <c r="D167">
-        <v>0.9131407172392279</v>
+        <v>0.9113571179671383</v>
       </c>
       <c r="E167">
-        <v>0.6334180432020341</v>
+        <v>0.6679467541153378</v>
       </c>
       <c r="F167">
-        <v>1.062947067238911</v>
+        <v>1.032339202299677</v>
       </c>
       <c r="G167">
-        <v>1.118055555555558</v>
+        <v>1.073684210526316</v>
       </c>
       <c r="H167">
-        <v>0.7274220032840729</v>
+        <v>0.733788395904438</v>
       </c>
       <c r="I167">
-        <v>1.019055199213446</v>
+        <v>0.9907296374873181</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="2">
-        <v>43411</v>
+        <v>43432</v>
       </c>
       <c r="B168">
-        <v>1.092026960900381</v>
+        <v>1.109748493036791</v>
       </c>
       <c r="C168">
-        <v>1.034160988481921</v>
+        <v>1.032062590509864</v>
       </c>
       <c r="D168">
-        <v>0.9053389852547273</v>
+        <v>0.9033157316321341</v>
       </c>
       <c r="E168">
-        <v>0.6346886912325296</v>
+        <v>0.669672714720287</v>
       </c>
       <c r="F168">
-        <v>0.9788984263233177</v>
+        <v>1.066475026949336</v>
       </c>
       <c r="G168">
-        <v>1.118055555555558</v>
+        <v>1.073684210526316</v>
       </c>
       <c r="H168">
-        <v>0.7224958949096887</v>
+        <v>0.7610921501706497</v>
       </c>
       <c r="I168">
-        <v>1.026077999906362</v>
+        <v>1.002813393598378</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="2">
-        <v>43412</v>
+        <v>43433</v>
       </c>
       <c r="B169">
-        <v>1.095610171899418</v>
+        <v>1.108965032057944</v>
       </c>
       <c r="C169">
-        <v>1.031566296941498</v>
+        <v>1.029794436817062</v>
       </c>
       <c r="D169">
-        <v>0.9053389852547273</v>
+        <v>0.9006352695204659</v>
       </c>
       <c r="E169">
-        <v>0.6353240152477774</v>
+        <v>0.6708377381286277</v>
       </c>
       <c r="F169">
-        <v>0.9713876967095838</v>
+        <v>1.026949335249731</v>
       </c>
       <c r="G169">
-        <v>1.125000000000002</v>
+        <v>1.063157894736842</v>
       </c>
       <c r="H169">
-        <v>0.7208538587848939</v>
+        <v>0.7315130830489203</v>
       </c>
       <c r="I169">
-        <v>1.014607425441265</v>
+        <v>1.007333271838393</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="2">
-        <v>43413</v>
+        <v>43434</v>
       </c>
       <c r="B170">
-        <v>1.096809837255924</v>
+        <v>1.111459315990599</v>
       </c>
       <c r="C170">
-        <v>1.022076929296493</v>
+        <v>1.038223843824641</v>
       </c>
       <c r="D170">
-        <v>0.904038696590644</v>
+        <v>0.8992950384646319</v>
       </c>
       <c r="E170">
-        <v>0.6355357899195266</v>
+        <v>0.6716144204008547</v>
       </c>
       <c r="F170">
-        <v>1.013590844062946</v>
+        <v>1.0100610851599</v>
       </c>
       <c r="G170">
-        <v>1.107638888888891</v>
+        <v>1.056140350877193</v>
       </c>
       <c r="H170">
-        <v>0.7110016420361255</v>
+        <v>0.7377701934015938</v>
       </c>
       <c r="I170">
-        <v>1.018633831171871</v>
+        <v>1.000968545337147</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="2">
-        <v>43416</v>
+        <v>43437</v>
       </c>
       <c r="B171">
-        <v>1.099335448532778</v>
+        <v>1.09943558831524</v>
       </c>
       <c r="C171">
-        <v>1.001940505854594</v>
+        <v>1.049583419533203</v>
       </c>
       <c r="D171">
-        <v>0.906691285465374</v>
+        <v>0.8979548074087979</v>
       </c>
       <c r="E171">
-        <v>0.6355357899195266</v>
+        <v>0.6724774007033294</v>
       </c>
       <c r="F171">
-        <v>1.091559370529326</v>
+        <v>0.8512396694214881</v>
       </c>
       <c r="G171">
-        <v>1.107638888888891</v>
+        <v>1.045614035087719</v>
       </c>
       <c r="H171">
-        <v>0.7192118226600992</v>
+        <v>0.7565415244596143</v>
       </c>
       <c r="I171">
-        <v>1.016152441593707</v>
+        <v>1.011899271284938</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="2">
-        <v>43417</v>
+        <v>43438</v>
       </c>
       <c r="B172">
-        <v>1.096478350775837</v>
+        <v>1.095134547431368</v>
       </c>
       <c r="C172">
-        <v>1.00045572485979</v>
+        <v>1.015613774425908</v>
       </c>
       <c r="D172">
-        <v>0.9034405638051656</v>
+        <v>0.8858927279062916</v>
       </c>
       <c r="E172">
-        <v>0.6361711139347744</v>
+        <v>0.6744191063838971</v>
       </c>
       <c r="F172">
-        <v>1.101216022889841</v>
+        <v>0.9446640316205538</v>
       </c>
       <c r="G172">
-        <v>1.09027777777778</v>
+        <v>1.021052631578948</v>
       </c>
       <c r="H172">
-        <v>0.7257799671592781</v>
+        <v>0.7593856655290113</v>
       </c>
       <c r="I172">
-        <v>1.015216068167984</v>
+        <v>1.030901208375612</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="2">
-        <v>43418</v>
+        <v>43439</v>
       </c>
       <c r="B173">
-        <v>1.096194219507191</v>
+        <v>1.096733447388198</v>
       </c>
       <c r="C173">
-        <v>0.9928848118664866</v>
+        <v>1.015613774425908</v>
       </c>
       <c r="D173">
-        <v>0.8898655501521345</v>
+        <v>0.8778513415712873</v>
       </c>
       <c r="E173">
-        <v>0.6370182126217715</v>
+        <v>0.6759293219132276</v>
       </c>
       <c r="F173">
-        <v>1.130901287553647</v>
+        <v>0.9446640316205538</v>
       </c>
       <c r="G173">
-        <v>1.083333333333336</v>
+        <v>1.021052631578948</v>
       </c>
       <c r="H173">
-        <v>0.7197591680350307</v>
+        <v>0.7548350398179761</v>
       </c>
       <c r="I173">
-        <v>1.027388922702373</v>
+        <v>1.014528180057192</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="2">
-        <v>43419</v>
+        <v>43440</v>
       </c>
       <c r="B174">
-        <v>1.093700178371297</v>
+        <v>1.100298994291928</v>
       </c>
       <c r="C174">
-        <v>1.003403235646504</v>
+        <v>1.014067818923849</v>
       </c>
       <c r="D174">
-        <v>0.881985800847789</v>
+        <v>0.877878146192404</v>
       </c>
       <c r="E174">
-        <v>0.63744176196527</v>
+        <v>0.6759293219132276</v>
       </c>
       <c r="F174">
-        <v>1.144134477825463</v>
+        <v>0.9726913402802736</v>
       </c>
       <c r="G174">
-        <v>1.079861111111113</v>
+        <v>1.007017543859649</v>
       </c>
       <c r="H174">
-        <v>0.7296113847837992</v>
+        <v>0.742320819112629</v>
       </c>
       <c r="I174">
-        <v>1.039421321222903</v>
+        <v>1.014159210404945</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="2">
-        <v>43420</v>
+        <v>43441</v>
       </c>
       <c r="B175">
-        <v>1.092626793578634</v>
+        <v>1.101082455270774</v>
       </c>
       <c r="C175">
-        <v>1.005634082339191</v>
+        <v>0.990419589625923</v>
       </c>
       <c r="D175">
-        <v>0.8715834915351215</v>
+        <v>0.8806122175463054</v>
       </c>
       <c r="E175">
-        <v>0.6401948326980106</v>
+        <v>0.6765765571400836</v>
       </c>
       <c r="F175">
-        <v>1.122317596566522</v>
+        <v>1.002515271289975</v>
       </c>
       <c r="G175">
-        <v>1.069444444444447</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <v>0.732348111658457</v>
+        <v>0.742320819112629</v>
       </c>
       <c r="I175">
-        <v>1.039842689264478</v>
+        <v>1.001383636195924</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="2">
-        <v>43423</v>
+        <v>43444</v>
       </c>
       <c r="B176">
-        <v>1.094521002036275</v>
+        <v>1.105575364149466</v>
       </c>
       <c r="C176">
-        <v>0.9888972193433143</v>
+        <v>0.9921649019202188</v>
       </c>
       <c r="D176">
-        <v>0.8782669752685103</v>
+        <v>0.8759214088508862</v>
       </c>
       <c r="E176">
-        <v>0.6427361287590017</v>
+        <v>0.6778710275937955</v>
       </c>
       <c r="F176">
-        <v>1.11766809728183</v>
+        <v>0.9741286381602593</v>
       </c>
       <c r="G176">
-        <v>1.062500000000002</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>0.7394636015325675</v>
+        <v>0.7366325369738349</v>
       </c>
       <c r="I176">
-        <v>1.012641041247249</v>
+        <v>1.004981090305324</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="2">
-        <v>43424</v>
+        <v>43445</v>
       </c>
       <c r="B177">
-        <v>1.096273144859592</v>
+        <v>1.104376189181844</v>
       </c>
       <c r="C177">
-        <v>0.9709475401883164</v>
+        <v>0.9918113257226676</v>
       </c>
       <c r="D177">
-        <v>0.8782409694952286</v>
+        <v>0.8752244887018527</v>
       </c>
       <c r="E177">
-        <v>0.6465480728504882</v>
+        <v>0.6785182628206514</v>
       </c>
       <c r="F177">
-        <v>1.146995708154505</v>
+        <v>0.9798778296802018</v>
       </c>
       <c r="G177">
-        <v>1.062500000000002</v>
+        <v>1.014035087719299</v>
       </c>
       <c r="H177">
-        <v>0.7246852764094148</v>
+        <v>0.7389078498293526</v>
       </c>
       <c r="I177">
-        <v>1.01395196404326</v>
+        <v>0.9951111521077401</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="2">
-        <v>43425</v>
+        <v>43446</v>
       </c>
       <c r="B178">
-        <v>1.093337121750249</v>
+        <v>1.098348336344596</v>
       </c>
       <c r="C178">
-        <v>0.9739024013759943</v>
+        <v>0.9971864362152294</v>
       </c>
       <c r="D178">
-        <v>0.8768106519647368</v>
+        <v>0.8765915243788035</v>
       </c>
       <c r="E178">
-        <v>0.6480304955527331</v>
+        <v>0.6789497529718886</v>
       </c>
       <c r="F178">
-        <v>1.080829756795421</v>
+        <v>0.9457420050305431</v>
       </c>
       <c r="G178">
-        <v>1.062500000000002</v>
+        <v>1.021052631578948</v>
       </c>
       <c r="H178">
-        <v>0.7263273125342095</v>
+        <v>0.7411831626848703</v>
       </c>
       <c r="I178">
-        <v>1.018587012500585</v>
+        <v>0.9904529102481331</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="2">
-        <v>43426</v>
+        <v>43447</v>
       </c>
       <c r="B179">
-        <v>1.093273981468328</v>
+        <v>1.099739379307037</v>
       </c>
       <c r="C179">
-        <v>0.9739024013759943</v>
+        <v>0.9969870794229929</v>
       </c>
       <c r="D179">
-        <v>0.8820378123943523</v>
+        <v>0.8928887340177453</v>
       </c>
       <c r="E179">
-        <v>0.6488775942397301</v>
+        <v>0.679381243123126</v>
       </c>
       <c r="F179">
-        <v>1.080829756795421</v>
+        <v>0.9076536112109239</v>
       </c>
       <c r="G179">
-        <v>1.062500000000002</v>
+        <v>1.021052631578948</v>
       </c>
       <c r="H179">
-        <v>0.7252326217843463</v>
+        <v>0.7508532423208202</v>
       </c>
       <c r="I179">
-        <v>1.007959174118638</v>
+        <v>0.9615810349598758</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="2">
-        <v>43427</v>
+        <v>43448</v>
       </c>
       <c r="B180">
-        <v>1.09617843443671</v>
+        <v>1.103624706202134</v>
       </c>
       <c r="C180">
-        <v>0.9675185781384367</v>
+        <v>0.9779579093866949</v>
       </c>
       <c r="D180">
-        <v>0.8820378123943523</v>
+        <v>0.8970970595330641</v>
       </c>
       <c r="E180">
-        <v>0.6507835662854734</v>
+        <v>0.6808914586524566</v>
       </c>
       <c r="F180">
-        <v>1.072603719599426</v>
+        <v>0.9486166007905142</v>
       </c>
       <c r="G180">
-        <v>1.05902777777778</v>
+        <v>1.014035087719299</v>
       </c>
       <c r="H180">
-        <v>0.7082649151614673</v>
+        <v>0.7389078498293526</v>
       </c>
       <c r="I180">
-        <v>1.008333723488927</v>
+        <v>0.9646711557974367</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="2">
-        <v>43430</v>
+        <v>43451</v>
       </c>
       <c r="B181">
-        <v>1.097125538665531</v>
+        <v>1.103368882209041</v>
       </c>
       <c r="C181">
-        <v>0.9825464729100964</v>
+        <v>0.957642323823136</v>
       </c>
       <c r="D181">
-        <v>0.8881231633422627</v>
+        <v>0.9036641917066509</v>
       </c>
       <c r="E181">
-        <v>0.6533248623464645</v>
+        <v>0.6826174192574058</v>
       </c>
       <c r="F181">
-        <v>1.029327610872674</v>
+        <v>1.006108515989939</v>
       </c>
       <c r="G181">
-        <v>1.065972222222225</v>
+        <v>1.003508771929825</v>
       </c>
       <c r="H181">
-        <v>0.7066228790366726</v>
+        <v>0.7406143344709908</v>
       </c>
       <c r="I181">
-        <v>0.9968163303525441</v>
+        <v>0.9519417027949461</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="2">
-        <v>43431</v>
+        <v>43452</v>
       </c>
       <c r="B182">
-        <v>1.097693801202823</v>
+        <v>1.102041795244872</v>
       </c>
       <c r="C182">
-        <v>0.985751247730563</v>
+        <v>0.9577250756991584</v>
       </c>
       <c r="D182">
-        <v>0.8841962915767307</v>
+        <v>0.9036909963277674</v>
       </c>
       <c r="E182">
-        <v>0.6556543837357063</v>
+        <v>0.6847748700135923</v>
       </c>
       <c r="F182">
-        <v>1.027539341917023</v>
+        <v>0.9985627021200146</v>
       </c>
       <c r="G182">
-        <v>1.062500000000002</v>
+        <v>0.9894736842105266</v>
       </c>
       <c r="H182">
-        <v>0.706075533661741</v>
+        <v>0.7343572241183173</v>
       </c>
       <c r="I182">
-        <v>1.005711877896905</v>
+        <v>0.940918734434094</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="2">
-        <v>43432</v>
+        <v>43453</v>
       </c>
       <c r="B183">
-        <v>1.095594386828937</v>
+        <v>1.104184321187024</v>
       </c>
       <c r="C183">
-        <v>1.008397833101795</v>
+        <v>0.9429801959714874</v>
       </c>
       <c r="D183">
-        <v>0.8763945595922302</v>
+        <v>0.8955960007505299</v>
       </c>
       <c r="E183">
-        <v>0.6573485811097004</v>
+        <v>0.6862850855429229</v>
       </c>
       <c r="F183">
-        <v>1.06151645207439</v>
+        <v>0.9920948616600793</v>
       </c>
       <c r="G183">
-        <v>1.062500000000002</v>
+        <v>0.9719298245614039</v>
       </c>
       <c r="H183">
-        <v>0.732348111658457</v>
+        <v>0.7269624573378849</v>
       </c>
       <c r="I183">
-        <v>1.017978369773865</v>
+        <v>0.9594594594594607</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="2">
-        <v>43433</v>
+        <v>43454</v>
       </c>
       <c r="B184">
-        <v>1.094820918375401</v>
+        <v>1.102137729242282</v>
       </c>
       <c r="C184">
-        <v>1.006181687211037</v>
+        <v>0.9281074269808723</v>
       </c>
       <c r="D184">
-        <v>0.8737939822640632</v>
+        <v>0.8846329107138076</v>
       </c>
       <c r="E184">
-        <v>0.6584921643371463</v>
+        <v>0.6901684969040585</v>
       </c>
       <c r="F184">
-        <v>1.02217453505007</v>
+        <v>1.030542579949695</v>
       </c>
       <c r="G184">
-        <v>1.052083333333336</v>
+        <v>0.9789473684210531</v>
       </c>
       <c r="H184">
-        <v>0.7038861521620147</v>
+        <v>0.7229806598407291</v>
       </c>
       <c r="I184">
-        <v>1.022566599559904</v>
+        <v>0.9680841250807134</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="2">
-        <v>43434</v>
+        <v>43455</v>
       </c>
       <c r="B185">
-        <v>1.097283389370334</v>
+        <v>1.107062341109317</v>
       </c>
       <c r="C185">
-        <v>1.014417811491616</v>
+        <v>0.9089992665174618</v>
       </c>
       <c r="D185">
-        <v>0.8724936935999799</v>
+        <v>0.8890556731980599</v>
       </c>
       <c r="E185">
-        <v>0.6592545531554436</v>
+        <v>0.6923259476602449</v>
       </c>
       <c r="F185">
-        <v>1.005364806866951</v>
+        <v>1.042400287459576</v>
       </c>
       <c r="G185">
-        <v>1.045138888888891</v>
+        <v>0.9789473684210531</v>
       </c>
       <c r="H185">
-        <v>0.7099069512862621</v>
+        <v>0.717292377701935</v>
       </c>
       <c r="I185">
-        <v>1.016105622922421</v>
+        <v>0.9590443686006838</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="2">
-        <v>43437</v>
+        <v>43458</v>
       </c>
       <c r="B186">
-        <v>1.085413016369118</v>
+        <v>1.103688662200407</v>
       </c>
       <c r="C186">
-        <v>1.025516916947819</v>
+        <v>0.8843542532583545</v>
       </c>
       <c r="D186">
-        <v>0.8711934049358965</v>
+        <v>0.8974991288498142</v>
       </c>
       <c r="E186">
-        <v>0.6601016518424406</v>
+        <v>0.6968565942482364</v>
       </c>
       <c r="F186">
-        <v>0.8472818311874093</v>
+        <v>1.114983830398851</v>
       </c>
       <c r="G186">
-        <v>1.034722222222225</v>
+        <v>0.9614035087719304</v>
       </c>
       <c r="H186">
-        <v>0.7279693486590044</v>
+        <v>0.720136518771332</v>
       </c>
       <c r="I186">
-        <v>1.027201648017229</v>
+        <v>0.9476063093810544</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="2">
-        <v>43438</v>
+        <v>43459</v>
       </c>
       <c r="B187">
-        <v>1.081166832409907</v>
+        <v>1.102665366228036</v>
       </c>
       <c r="C187">
-        <v>0.9923261813931942</v>
+        <v>0.8843542532583545</v>
       </c>
       <c r="D187">
-        <v>0.8594908069591457</v>
+        <v>0.8875814190366424</v>
       </c>
       <c r="E187">
-        <v>0.6620076238881839</v>
+        <v>0.7061336324998383</v>
       </c>
       <c r="F187">
-        <v>0.9402718168812574</v>
+        <v>1.114983830398851</v>
       </c>
       <c r="G187">
-        <v>1.010416666666669</v>
+        <v>0.9614035087719304</v>
       </c>
       <c r="H187">
-        <v>0.7307060755336623</v>
+        <v>0.720136518771332</v>
       </c>
       <c r="I187">
-        <v>1.046490940587106</v>
+        <v>0.9731574577990969</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="2">
-        <v>43439</v>
+        <v>43460</v>
       </c>
       <c r="B188">
-        <v>1.082745339457941</v>
+        <v>1.102361575236238</v>
       </c>
       <c r="C188">
-        <v>0.9923261813931942</v>
+        <v>0.9282127475503557</v>
       </c>
       <c r="D188">
-        <v>0.8516890749746451</v>
+        <v>0.884847347682741</v>
       </c>
       <c r="E188">
-        <v>0.6634900465904287</v>
+        <v>0.7139004552221097</v>
       </c>
       <c r="F188">
-        <v>0.9402718168812574</v>
+        <v>1.026590010779735</v>
       </c>
       <c r="G188">
-        <v>1.010416666666669</v>
+        <v>0.9859649122807024</v>
       </c>
       <c r="H188">
-        <v>0.7263273125342097</v>
+        <v>0.720136518771332</v>
       </c>
       <c r="I188">
-        <v>1.029870312280537</v>
+        <v>0.9762014574301277</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="2">
-        <v>43440</v>
+        <v>43461</v>
       </c>
       <c r="B189">
-        <v>1.086265410175057</v>
+        <v>1.09914778632301</v>
       </c>
       <c r="C189">
-        <v>0.9908156739950155</v>
+        <v>0.9361606890974395</v>
       </c>
       <c r="D189">
-        <v>0.8517150807479268</v>
+        <v>0.8767523521055035</v>
       </c>
       <c r="E189">
-        <v>0.6634900465904287</v>
+        <v>0.720372807490669</v>
       </c>
       <c r="F189">
-        <v>0.968168812589412</v>
+        <v>1.037729069349623</v>
       </c>
       <c r="G189">
-        <v>0.99652777777778</v>
+        <v>0.9719298245614041</v>
       </c>
       <c r="H189">
-        <v>0.7142857142857149</v>
+        <v>0.7081911262798644</v>
       </c>
       <c r="I189">
-        <v>1.029495762910248</v>
+        <v>0.9983857577714245</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="2">
-        <v>43441</v>
+        <v>43462</v>
       </c>
       <c r="B190">
-        <v>1.087038878628594</v>
+        <v>1.100346961290633</v>
       </c>
       <c r="C190">
-        <v>0.9677096885635103</v>
+        <v>0.9349984013842123</v>
       </c>
       <c r="D190">
-        <v>0.8543676696226569</v>
+        <v>0.8661913313855313</v>
       </c>
       <c r="E190">
-        <v>0.6641253706056764</v>
+        <v>0.7242562188518048</v>
       </c>
       <c r="F190">
-        <v>0.9978540772532174</v>
+        <v>1.001796622349983</v>
       </c>
       <c r="G190">
-        <v>0.9895833333333355</v>
+        <v>0.9543859649122813</v>
       </c>
       <c r="H190">
-        <v>0.7142857142857149</v>
+        <v>0.7110352673492615</v>
       </c>
       <c r="I190">
-        <v>1.016526990963996</v>
+        <v>1.0095932109584</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="2">
-        <v>43444</v>
+        <v>43467</v>
       </c>
       <c r="B191">
-        <v>1.091474483433569</v>
+        <v>1.09999520330013</v>
       </c>
       <c r="C191">
-        <v>0.9694149815872447</v>
+        <v>0.9441349607868944</v>
       </c>
       <c r="D191">
-        <v>0.8498166592983648</v>
+        <v>0.8506178465167398</v>
       </c>
       <c r="E191">
-        <v>0.665396018636172</v>
+        <v>0.7087225734072621</v>
       </c>
       <c r="F191">
-        <v>0.9695994277539328</v>
+        <v>0.9525691699604749</v>
       </c>
       <c r="G191">
-        <v>0.9895833333333355</v>
+        <v>0.933333333333334</v>
       </c>
       <c r="H191">
-        <v>0.708812260536399</v>
+        <v>0.7025028441410703</v>
       </c>
       <c r="I191">
-        <v>1.020178847324313</v>
+        <v>1.020616179319252</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="2">
-        <v>43445</v>
+        <v>43468</v>
       </c>
       <c r="B192">
-        <v>1.090290603147543</v>
+        <v>1.100378939289769</v>
       </c>
       <c r="C192">
-        <v>0.9690695127419193</v>
+        <v>0.9207613172594076</v>
       </c>
       <c r="D192">
-        <v>0.8491405091930415</v>
+        <v>0.8419331492749352</v>
       </c>
       <c r="E192">
-        <v>0.6660313426514198</v>
+        <v>0.7003085154581347</v>
       </c>
       <c r="F192">
-        <v>0.9753218884120157</v>
+        <v>0.9849083722601514</v>
       </c>
       <c r="G192">
-        <v>1.003472222222225</v>
+        <v>0.8982456140350883</v>
       </c>
       <c r="H192">
-        <v>0.7110016420361255</v>
+        <v>0.7025028441410703</v>
       </c>
       <c r="I192">
-        <v>1.010159651669085</v>
+        <v>1.025505027211513</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="2">
-        <v>43446</v>
+        <v>43469</v>
       </c>
       <c r="B193">
-        <v>1.084339631576456</v>
+        <v>1.097692787362295</v>
       </c>
       <c r="C193">
-        <v>0.9743213742309637</v>
+        <v>0.9523762953489676</v>
       </c>
       <c r="D193">
-        <v>0.8504668036304067</v>
+        <v>0.8446940252499534</v>
       </c>
       <c r="E193">
-        <v>0.6664548919949183</v>
+        <v>0.6936204181139565</v>
       </c>
       <c r="F193">
-        <v>0.9413447782546481</v>
+        <v>0.8993891484010065</v>
       </c>
       <c r="G193">
-        <v>1.010416666666669</v>
+        <v>0.9368421052631585</v>
       </c>
       <c r="H193">
-        <v>0.7131910235358518</v>
+        <v>0.717292377701935</v>
       </c>
       <c r="I193">
-        <v>1.005430965869188</v>
+        <v>1.009039756480031</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="2">
-        <v>43447</v>
+        <v>43472</v>
       </c>
       <c r="B194">
-        <v>1.085712932708245</v>
+        <v>1.094574932446477</v>
       </c>
       <c r="C194">
-        <v>0.9741265886054077</v>
+        <v>0.9590528671644308</v>
       </c>
       <c r="D194">
-        <v>0.8662783137856612</v>
+        <v>0.8445331975232533</v>
       </c>
       <c r="E194">
-        <v>0.6668784413384169</v>
+        <v>0.6776552825181765</v>
       </c>
       <c r="F194">
-        <v>0.9034334763948485</v>
+        <v>0.8922026590010782</v>
       </c>
       <c r="G194">
-        <v>1.010416666666669</v>
+        <v>0.9473684210526322</v>
       </c>
       <c r="H194">
-        <v>0.7224958949096887</v>
+        <v>0.7224118316268496</v>
       </c>
       <c r="I194">
-        <v>0.9761224776440843</v>
+        <v>0.9953417581403941</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="2">
-        <v>43448</v>
+        <v>43473</v>
       </c>
       <c r="B195">
-        <v>1.089548704834968</v>
+        <v>1.095918008410214</v>
       </c>
       <c r="C195">
-        <v>0.9555337493660272</v>
+        <v>0.9683511688702479</v>
       </c>
       <c r="D195">
-        <v>0.8703612201908831</v>
+        <v>0.8365990296727159</v>
       </c>
       <c r="E195">
-        <v>0.6683608640406618</v>
+        <v>0.6672995188884814</v>
       </c>
       <c r="F195">
-        <v>0.9442060085836895</v>
+        <v>0.8774703557312257</v>
       </c>
       <c r="G195">
-        <v>1.003472222222225</v>
+        <v>0.9578947368421058</v>
       </c>
       <c r="H195">
-        <v>0.7110016420361255</v>
+        <v>0.7207053469852115</v>
       </c>
       <c r="I195">
-        <v>0.9792593286202533</v>
+        <v>0.990499031454664</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="2">
-        <v>43451</v>
+        <v>43474</v>
       </c>
       <c r="B196">
-        <v>1.089296143707282</v>
+        <v>1.089250595590235</v>
       </c>
       <c r="C196">
-        <v>0.9356839915617391</v>
+        <v>0.9723194974704248</v>
       </c>
       <c r="D196">
-        <v>0.876732634644892</v>
+        <v>0.8337845444554643</v>
       </c>
       <c r="E196">
-        <v>0.6700550614146559</v>
+        <v>0.6612586567711591</v>
       </c>
       <c r="F196">
-        <v>1.001430615164519</v>
+        <v>0.8436938555515634</v>
       </c>
       <c r="G196">
-        <v>0.993055555555558</v>
+        <v>0.9614035087719304</v>
       </c>
       <c r="H196">
-        <v>0.7126436781609201</v>
+        <v>0.7258248009101261</v>
       </c>
       <c r="I196">
-        <v>0.9663373753452873</v>
+        <v>0.994050364357533</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="2">
-        <v>43452</v>
+        <v>43475</v>
       </c>
       <c r="B197">
-        <v>1.087985982857414</v>
+        <v>1.086164718673553</v>
       </c>
       <c r="C197">
-        <v>0.9357648459723471</v>
+        <v>0.9767128697974451</v>
       </c>
       <c r="D197">
-        <v>0.8767586404181735</v>
+        <v>0.8311040823437964</v>
       </c>
       <c r="E197">
-        <v>0.6721728081321484</v>
+        <v>0.6539233242001251</v>
       </c>
       <c r="F197">
-        <v>0.9939198855507851</v>
+        <v>0.8063241106719371</v>
       </c>
       <c r="G197">
-        <v>0.9791666666666692</v>
+        <v>0.9614035087719304</v>
       </c>
       <c r="H197">
-        <v>0.7066228790366728</v>
+        <v>0.7235494880546086</v>
       </c>
       <c r="I197">
-        <v>0.9551477129079076</v>
+        <v>1.001983211880824</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="2">
-        <v>43453</v>
+        <v>43476</v>
       </c>
       <c r="B198">
-        <v>1.09010118230178</v>
+        <v>1.081000271812993</v>
       </c>
       <c r="C198">
-        <v>0.9213580600821768</v>
+        <v>0.9765699347388607</v>
       </c>
       <c r="D198">
-        <v>0.8689048968871097</v>
+        <v>0.8324979226418638</v>
       </c>
       <c r="E198">
-        <v>0.6736552308343933</v>
+        <v>0.6487454423852775</v>
       </c>
       <c r="F198">
-        <v>0.9874821173104419</v>
+        <v>0.765720445562343</v>
       </c>
       <c r="G198">
-        <v>0.961805555555558</v>
+        <v>0.9508771929824567</v>
       </c>
       <c r="H198">
-        <v>0.6995073891625622</v>
+        <v>0.7286689419795233</v>
       </c>
       <c r="I198">
-        <v>0.9739688187649232</v>
+        <v>0.9989853334563246</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="2">
-        <v>43454</v>
+        <v>43479</v>
       </c>
       <c r="B199">
-        <v>1.088080693280296</v>
+        <v>1.081352029803496</v>
       </c>
       <c r="C199">
-        <v>0.9068263173756123</v>
+        <v>0.9714355569765466</v>
       </c>
       <c r="D199">
-        <v>0.8582685356149072</v>
+        <v>0.8389042270887506</v>
       </c>
       <c r="E199">
-        <v>0.6774671749258798</v>
+        <v>0.6437833056460486</v>
       </c>
       <c r="F199">
-        <v>1.025751072961372</v>
+        <v>0.7933884297520664</v>
       </c>
       <c r="G199">
-        <v>0.9687500000000026</v>
+        <v>0.9508771929824567</v>
       </c>
       <c r="H199">
-        <v>0.6956759715380412</v>
+        <v>0.724118316268488</v>
       </c>
       <c r="I199">
-        <v>0.9827239102954257</v>
+        <v>0.9969560003689708</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="2">
-        <v>43455</v>
+        <v>43480</v>
       </c>
       <c r="B200">
-        <v>1.092942494988241</v>
+        <v>1.083062852757304</v>
       </c>
       <c r="C200">
-        <v>0.8881562989261058</v>
+        <v>0.9818510090086695</v>
       </c>
       <c r="D200">
-        <v>0.8625594882063825</v>
+        <v>0.841209424504785</v>
       </c>
       <c r="E200">
-        <v>0.6795849216433724</v>
+        <v>0.6390369139824383</v>
       </c>
       <c r="F200">
-        <v>1.037553648068668</v>
+        <v>0.7635644987423647</v>
       </c>
       <c r="G200">
-        <v>0.9687500000000026</v>
+        <v>0.9543859649122813</v>
       </c>
       <c r="H200">
-        <v>0.6902025177887253</v>
+        <v>0.7337883959044379</v>
       </c>
       <c r="I200">
-        <v>0.9735474507233484</v>
+        <v>0.9976016972604019</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="2">
-        <v>43458</v>
+        <v>43481</v>
       </c>
       <c r="B201">
-        <v>1.089611845116889</v>
+        <v>1.081352029803496</v>
       </c>
       <c r="C201">
-        <v>0.8640763853668212</v>
+        <v>0.9840326493765391</v>
       </c>
       <c r="D201">
-        <v>0.870751306790108</v>
+        <v>0.8241080762323428</v>
       </c>
       <c r="E201">
-        <v>0.6840321897501067</v>
+        <v>0.6347220124700653</v>
       </c>
       <c r="F201">
-        <v>1.109799713876966</v>
+        <v>0.7815307222421849</v>
       </c>
       <c r="G201">
-        <v>0.9513888888888914</v>
+        <v>0.9578947368421059</v>
       </c>
       <c r="H201">
-        <v>0.6929392446633832</v>
+        <v>0.7337883959044379</v>
       </c>
       <c r="I201">
-        <v>0.9619364202443932</v>
+        <v>1.025873996863759</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="2">
-        <v>43459</v>
+        <v>43482</v>
       </c>
       <c r="B202">
-        <v>1.088601600606147</v>
+        <v>1.083606478742626</v>
       </c>
       <c r="C202">
-        <v>0.8640763853668212</v>
+        <v>0.9915028869120378</v>
       </c>
       <c r="D202">
-        <v>0.8611291706758907</v>
+        <v>0.8245101455490931</v>
       </c>
       <c r="E202">
-        <v>0.6931385006353248</v>
+        <v>0.6321330715626415</v>
       </c>
       <c r="F202">
-        <v>1.109799713876966</v>
+        <v>0.7811713977721885</v>
       </c>
       <c r="G202">
-        <v>0.9513888888888914</v>
+        <v>0.9649122807017551</v>
       </c>
       <c r="H202">
-        <v>0.6929392446633832</v>
+        <v>0.7309442548350409</v>
       </c>
       <c r="I202">
-        <v>0.9878739641368974</v>
+        <v>1.02227654275436</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="2">
-        <v>43460</v>
+        <v>43483</v>
       </c>
       <c r="B203">
-        <v>1.088301684267021</v>
+        <v>1.087683673632542</v>
       </c>
       <c r="C203">
-        <v>0.9069292229891134</v>
+        <v>1.004573921874705</v>
       </c>
       <c r="D203">
-        <v>0.8584765818011604</v>
+        <v>0.8285308387165953</v>
       </c>
       <c r="E203">
-        <v>0.7007623888182981</v>
+        <v>0.6295441306552177</v>
       </c>
       <c r="F203">
-        <v>1.02181688125894</v>
+        <v>0.7553000359324472</v>
       </c>
       <c r="G203">
-        <v>0.9756944444444471</v>
+        <v>0.9789473684210535</v>
       </c>
       <c r="H203">
-        <v>0.6929392446633832</v>
+        <v>0.7417519908987497</v>
       </c>
       <c r="I203">
-        <v>0.990963996441781</v>
+        <v>1.018263997786183</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="2">
-        <v>43461</v>
+        <v>43486</v>
       </c>
       <c r="B204">
-        <v>1.085128885100473</v>
+        <v>1.087347904641607</v>
       </c>
       <c r="C204">
-        <v>0.9146949216079729</v>
+        <v>1.004573921874705</v>
       </c>
       <c r="D204">
-        <v>0.8506228382700965</v>
+        <v>0.8319350255984137</v>
       </c>
       <c r="E204">
-        <v>0.7071156289707757</v>
+        <v>0.6288968954283618</v>
       </c>
       <c r="F204">
-        <v>1.032904148783976</v>
+        <v>0.7553000359324472</v>
       </c>
       <c r="G204">
-        <v>0.9618055555555581</v>
+        <v>0.9789473684210535</v>
       </c>
       <c r="H204">
-        <v>0.6814449917898199</v>
+        <v>0.7457337883959055</v>
       </c>
       <c r="I204">
-        <v>1.013483777330399</v>
+        <v>1.015588967807399</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="2">
-        <v>43462</v>
+        <v>43487</v>
       </c>
       <c r="B205">
-        <v>1.086312765386498</v>
+        <v>1.089842188574262</v>
       </c>
       <c r="C205">
-        <v>0.9135592846589773</v>
+        <v>0.990351883545541</v>
       </c>
       <c r="D205">
-        <v>0.8403765635971191</v>
+        <v>0.8328463827163809</v>
       </c>
       <c r="E205">
-        <v>0.7109275730622625</v>
+        <v>0.6286811503527432</v>
       </c>
       <c r="F205">
-        <v>0.997138769670957</v>
+        <v>0.8250089831117501</v>
       </c>
       <c r="G205">
-        <v>0.9444444444444471</v>
+        <v>0.9614035087719307</v>
       </c>
       <c r="H205">
-        <v>0.6841817186644779</v>
+        <v>0.7372013651877145</v>
       </c>
       <c r="I205">
-        <v>1.024860714452924</v>
+        <v>1.023245088091506</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="2">
-        <v>43467</v>
+        <v>43488</v>
       </c>
       <c r="B206">
-        <v>1.085965493835931</v>
+        <v>1.08619669667269</v>
       </c>
       <c r="C206">
-        <v>0.9224863466302079</v>
+        <v>0.9925335239134105</v>
       </c>
       <c r="D206">
-        <v>0.8252672093204696</v>
+        <v>0.836036132629266</v>
       </c>
       <c r="E206">
-        <v>0.6956797966963159</v>
+        <v>0.6276024249746499</v>
       </c>
       <c r="F206">
-        <v>0.9481402002861218</v>
+        <v>0.7786561264822136</v>
       </c>
       <c r="G206">
-        <v>0.9236111111111137</v>
+        <v>0.9684210526315797</v>
       </c>
       <c r="H206">
-        <v>0.6759715380405041</v>
+        <v>0.7377701934015939</v>
       </c>
       <c r="I206">
-        <v>1.036050376890304</v>
+        <v>1.013513513513515</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="2">
-        <v>43468</v>
+        <v>43489</v>
       </c>
       <c r="B207">
-        <v>1.086344335527459</v>
+        <v>1.086484498664919</v>
       </c>
       <c r="C207">
-        <v>0.8996486508339021</v>
+        <v>0.9938989298677842</v>
       </c>
       <c r="D207">
-        <v>0.816841338777209</v>
+        <v>0.8400032165545347</v>
       </c>
       <c r="E207">
-        <v>0.6874205844980947</v>
+        <v>0.6265236995965566</v>
       </c>
       <c r="F207">
-        <v>0.9803290414878383</v>
+        <v>0.7531440891124687</v>
       </c>
       <c r="G207">
-        <v>0.8888888888888914</v>
+        <v>0.9543859649122817</v>
       </c>
       <c r="H207">
-        <v>0.6759715380405041</v>
+        <v>0.7411831626848703</v>
       </c>
       <c r="I207">
-        <v>1.041013156046632</v>
+        <v>1.016326907111891</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="2">
-        <v>43469</v>
+        <v>43490</v>
       </c>
       <c r="B208">
-        <v>1.083692443686762</v>
+        <v>1.079737140847098</v>
       </c>
       <c r="C208">
-        <v>0.9305387108866779</v>
+        <v>1.002335859773184</v>
       </c>
       <c r="D208">
-        <v>0.8195199334252209</v>
+        <v>0.8416114938215356</v>
       </c>
       <c r="E208">
-        <v>0.6808555696738676</v>
+        <v>0.6260922094453193</v>
       </c>
       <c r="F208">
-        <v>0.8952074391988541</v>
+        <v>0.7678763923823213</v>
       </c>
       <c r="G208">
-        <v>0.9270833333333359</v>
+        <v>0.9684210526315798</v>
       </c>
       <c r="H208">
-        <v>0.6902025177887253</v>
+        <v>0.7440273037542674</v>
       </c>
       <c r="I208">
-        <v>1.024298890397491</v>
+        <v>1.012913937828615</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="2">
-        <v>43472</v>
+        <v>43493</v>
       </c>
       <c r="B209">
-        <v>1.080614354943096</v>
+        <v>1.080056920838464</v>
       </c>
       <c r="C209">
-        <v>0.9370621917425586</v>
+        <v>0.9944706701021225</v>
       </c>
       <c r="D209">
-        <v>0.8193638987855308</v>
+        <v>0.8415846892004188</v>
       </c>
       <c r="E209">
-        <v>0.6651842439644226</v>
+        <v>0.6258764643697006</v>
       </c>
       <c r="F209">
-        <v>0.8880543633762503</v>
+        <v>0.7980596478620194</v>
       </c>
       <c r="G209">
-        <v>0.9375000000000027</v>
+        <v>0.9649122807017554</v>
       </c>
       <c r="H209">
-        <v>0.6951286261631096</v>
+        <v>0.7423208191126293</v>
       </c>
       <c r="I209">
-        <v>1.010393745025516</v>
+        <v>1.018263997786184</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="2">
-        <v>43473</v>
+        <v>43494</v>
       </c>
       <c r="B210">
-        <v>1.081940300863445</v>
+        <v>1.078857745870841</v>
       </c>
       <c r="C210">
-        <v>0.946147287334523</v>
+        <v>0.9930225122717263</v>
       </c>
       <c r="D210">
-        <v>0.8116661898941571</v>
+        <v>0.8375371914118001</v>
       </c>
       <c r="E210">
-        <v>0.6550190597204582</v>
+        <v>0.625660719294082</v>
       </c>
       <c r="F210">
-        <v>0.8733905579399128</v>
+        <v>0.7984189723320158</v>
       </c>
       <c r="G210">
-        <v>0.9479166666666693</v>
+        <v>0.9543859649122818</v>
       </c>
       <c r="H210">
-        <v>0.6934865900383148</v>
+        <v>0.7417519908987498</v>
       </c>
       <c r="I210">
-        <v>1.005477784540475</v>
+        <v>1.02407526980906</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="2">
-        <v>43474</v>
+        <v>43495</v>
       </c>
       <c r="B211">
-        <v>1.075357926473143</v>
+        <v>1.073117695025823</v>
       </c>
       <c r="C211">
-        <v>0.9500246238432297</v>
+        <v>1.00846326004777</v>
       </c>
       <c r="D211">
-        <v>0.8089355836995817</v>
+        <v>0.8349907524057154</v>
       </c>
       <c r="E211">
-        <v>0.6490893689114788</v>
+        <v>0.6258764643697006</v>
       </c>
       <c r="F211">
-        <v>0.8397711015736754</v>
+        <v>0.7876392382321237</v>
       </c>
       <c r="G211">
-        <v>0.9513888888888915</v>
+        <v>0.9473684210526326</v>
       </c>
       <c r="H211">
-        <v>0.698412698412699</v>
+        <v>0.7366325369738351</v>
       </c>
       <c r="I211">
-        <v>1.009082822229506</v>
+        <v>1.038049995387881</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="2">
-        <v>43475</v>
+        <v>43496</v>
       </c>
       <c r="B212">
-        <v>1.072311407870437</v>
+        <v>1.07276593703532</v>
       </c>
       <c r="C212">
-        <v>0.9543172580064232</v>
+        <v>1.017133399785596</v>
       </c>
       <c r="D212">
-        <v>0.806335006371415</v>
+        <v>0.8319350255984138</v>
       </c>
       <c r="E212">
-        <v>0.641889030072004</v>
+        <v>0.625660719294082</v>
       </c>
       <c r="F212">
-        <v>0.8025751072961362</v>
+        <v>0.7700323392022996</v>
       </c>
       <c r="G212">
-        <v>0.9513888888888915</v>
+        <v>0.9228070175438606</v>
       </c>
       <c r="H212">
-        <v>0.6962233169129728</v>
+        <v>0.7394766780432321</v>
       </c>
       <c r="I212">
-        <v>1.017135633690717</v>
+        <v>1.044230237063003</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="2">
-        <v>43476</v>
+        <v>43497</v>
       </c>
       <c r="B213">
-        <v>1.067212830105288</v>
+        <v>1.08037670082983</v>
       </c>
       <c r="C213">
-        <v>0.9541776003881002</v>
+        <v>1.018047431870756</v>
       </c>
       <c r="D213">
-        <v>0.8076873065820618</v>
+        <v>0.8318010024928305</v>
       </c>
       <c r="E213">
-        <v>0.6368064379500218</v>
+        <v>0.625660719294082</v>
       </c>
       <c r="F213">
-        <v>0.7621602288984252</v>
+        <v>0.7775781530722242</v>
       </c>
       <c r="G213">
-        <v>0.9409722222222248</v>
+        <v>0.9473684210526327</v>
       </c>
       <c r="H213">
-        <v>0.701149425287357</v>
+        <v>0.749146757679182</v>
       </c>
       <c r="I213">
-        <v>1.01409242005712</v>
+        <v>1.038695692279312</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="2">
-        <v>43479</v>
+        <v>43507</v>
       </c>
       <c r="B214">
-        <v>1.067560101655855</v>
+        <v>1.087491805637722</v>
       </c>
       <c r="C214">
-        <v>0.9491609517299158</v>
+        <v>1.019277425664365</v>
       </c>
       <c r="D214">
-        <v>0.8139026863963806</v>
+        <v>0.8220977296485921</v>
       </c>
       <c r="E214">
-        <v>0.6319356204997888</v>
+        <v>0.6252292291428447</v>
       </c>
       <c r="F214">
-        <v>0.7896995708154495</v>
+        <v>0.7434423284225655</v>
       </c>
       <c r="G214">
-        <v>0.9409722222222248</v>
+        <v>0.9298245614035098</v>
       </c>
       <c r="H214">
-        <v>0.6967706622879044</v>
+        <v>0.7593856655290114</v>
       </c>
       <c r="I214">
-        <v>1.012032398520531</v>
+        <v>1.044184115856473</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="2">
-        <v>43480</v>
+        <v>43508</v>
       </c>
       <c r="B215">
-        <v>1.069249104197251</v>
+        <v>1.083046863757736</v>
       </c>
       <c r="C215">
-        <v>0.9593375818650898</v>
+        <v>1.032416166707415</v>
       </c>
       <c r="D215">
-        <v>0.816139182898604</v>
+        <v>0.8241884900956931</v>
       </c>
       <c r="E215">
-        <v>0.6272765777213052</v>
+        <v>0.6196198571767598</v>
       </c>
       <c r="F215">
-        <v>0.7600143061516441</v>
+        <v>0.7236794825727632</v>
       </c>
       <c r="G215">
-        <v>0.9444444444444472</v>
+        <v>0.9403508771929835</v>
       </c>
       <c r="H215">
-        <v>0.7060755336617413</v>
+        <v>0.7645051194539262</v>
       </c>
       <c r="I215">
-        <v>1.012687859918536</v>
+        <v>1.044691449128311</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="2">
-        <v>43481</v>
+        <v>43509</v>
       </c>
       <c r="B216">
-        <v>1.067560101655855</v>
+        <v>1.084581807716292</v>
       </c>
       <c r="C216">
-        <v>0.9614691981447577</v>
+        <v>1.035538169302815</v>
       </c>
       <c r="D216">
-        <v>0.7995474995448995</v>
+        <v>0.8234111560833093</v>
       </c>
       <c r="E216">
-        <v>0.62304108428632</v>
+        <v>0.6153049556643868</v>
       </c>
       <c r="F216">
-        <v>0.7778969957081533</v>
+        <v>0.7236794825727632</v>
       </c>
       <c r="G216">
-        <v>0.9479166666666694</v>
+        <v>0.9508771929824572</v>
       </c>
       <c r="H216">
-        <v>0.7060755336617413</v>
+        <v>0.7775881683731527</v>
       </c>
       <c r="I216">
-        <v>1.041387705416921</v>
+        <v>1.054100175260587</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="2">
-        <v>43482</v>
+        <v>43510</v>
       </c>
       <c r="B217">
-        <v>1.069785796593583</v>
+        <v>1.083910269734424</v>
       </c>
       <c r="C217">
-        <v>0.9687681463023797</v>
+        <v>1.032792311598427</v>
       </c>
       <c r="D217">
-        <v>0.7999375861441246</v>
+        <v>0.8235987884311261</v>
       </c>
       <c r="E217">
-        <v>0.6204997882253289</v>
+        <v>0.6105585640007766</v>
       </c>
       <c r="F217">
-        <v>0.7775393419170231</v>
+        <v>0.7301473230326984</v>
       </c>
       <c r="G217">
-        <v>0.9548611111111138</v>
+        <v>0.9333333333333345</v>
       </c>
       <c r="H217">
-        <v>0.7033388067870834</v>
+        <v>0.7770193401592733</v>
       </c>
       <c r="I217">
-        <v>1.037735849056605</v>
+        <v>1.055345447836917</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="2">
-        <v>43483</v>
+        <v>43511</v>
       </c>
       <c r="B218">
-        <v>1.07381098956607</v>
+        <v>1.082503237772414</v>
       </c>
       <c r="C218">
-        <v>0.981539467977977</v>
+        <v>1.044027759492956</v>
       </c>
       <c r="D218">
-        <v>0.8038384521363749</v>
+        <v>0.8254215026670605</v>
       </c>
       <c r="E218">
-        <v>0.6179584921643378</v>
+        <v>0.6045177018834544</v>
       </c>
       <c r="F218">
-        <v>0.7517882689556498</v>
+        <v>0.7344592166726552</v>
       </c>
       <c r="G218">
-        <v>0.9687500000000029</v>
+        <v>0.9333333333333345</v>
       </c>
       <c r="H218">
-        <v>0.7137383689107835</v>
+        <v>0.7662116040955645</v>
       </c>
       <c r="I218">
-        <v>1.033662624654713</v>
+        <v>1.057236417304678</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="2">
-        <v>43486</v>
+        <v>43514</v>
       </c>
       <c r="B219">
-        <v>1.073479503085983</v>
+        <v>1.082998896759031</v>
       </c>
       <c r="C219">
-        <v>0.981539467977977</v>
+        <v>1.044027759492956</v>
       </c>
       <c r="D219">
-        <v>0.8071411853431468</v>
+        <v>0.8334628890020646</v>
       </c>
       <c r="E219">
-        <v>0.6173231681490901</v>
+        <v>0.6034389765053613</v>
       </c>
       <c r="F219">
-        <v>0.7517882689556498</v>
+        <v>0.7344592166726552</v>
       </c>
       <c r="G219">
-        <v>0.9687500000000029</v>
+        <v>0.9333333333333345</v>
       </c>
       <c r="H219">
-        <v>0.7175697865353046</v>
+        <v>0.7883959044368615</v>
       </c>
       <c r="I219">
-        <v>1.030947141720119</v>
+        <v>1.050272115118533</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="2">
-        <v>43487</v>
+        <v>43515</v>
       </c>
       <c r="B220">
-        <v>1.075941974080916</v>
+        <v>1.078601921877749</v>
       </c>
       <c r="C220">
-        <v>0.9676435349548306</v>
+        <v>1.045592522239566</v>
       </c>
       <c r="D220">
-        <v>0.8080253816347236</v>
+        <v>0.8384217439086504</v>
       </c>
       <c r="E220">
-        <v>0.6171113934773408</v>
+        <v>0.5993398200686069</v>
       </c>
       <c r="F220">
-        <v>0.8211731044349057</v>
+        <v>0.761767876392382</v>
       </c>
       <c r="G220">
-        <v>0.9513888888888917</v>
+        <v>0.9298245614035098</v>
       </c>
       <c r="H220">
-        <v>0.709359605911331</v>
+        <v>0.7889647326507409</v>
       </c>
       <c r="I220">
-        <v>1.038719041153613</v>
+        <v>1.041186237431973</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="2">
-        <v>43488</v>
+        <v>43516</v>
       </c>
       <c r="B221">
-        <v>1.072342978011398</v>
+        <v>1.074300880993877</v>
       </c>
       <c r="C221">
-        <v>0.9697751512344984</v>
+        <v>1.047450678001165</v>
       </c>
       <c r="D221">
-        <v>0.8111200686552422</v>
+        <v>0.836196960355966</v>
       </c>
       <c r="E221">
-        <v>0.6160525201185945</v>
+        <v>0.5952406636318526</v>
       </c>
       <c r="F221">
-        <v>0.7750357653791118</v>
+        <v>0.7628458498023712</v>
       </c>
       <c r="G221">
-        <v>0.958333333333336</v>
+        <v>0.9298245614035098</v>
       </c>
       <c r="H221">
-        <v>0.7099069512862625</v>
+        <v>0.7901023890784997</v>
       </c>
       <c r="I221">
-        <v>1.028840301512244</v>
+        <v>1.043907388617288</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="2">
-        <v>43489</v>
+        <v>43517</v>
       </c>
       <c r="B222">
-        <v>1.072627109280044</v>
+        <v>1.075372143964953</v>
       </c>
       <c r="C222">
-        <v>0.971109249009532</v>
+        <v>1.043756935171427</v>
       </c>
       <c r="D222">
-        <v>0.8149689231009292</v>
+        <v>0.8406197228402181</v>
       </c>
       <c r="E222">
-        <v>0.6149936467598481</v>
+        <v>0.5930832128756661</v>
       </c>
       <c r="F222">
-        <v>0.7496423462088686</v>
+        <v>0.7517067912324827</v>
       </c>
       <c r="G222">
-        <v>0.9444444444444473</v>
+        <v>0.9438596491228081</v>
       </c>
       <c r="H222">
-        <v>0.713191023535852</v>
+        <v>0.7901023890784997</v>
       </c>
       <c r="I222">
-        <v>1.031696240460696</v>
+        <v>1.043123328106265</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" s="2">
-        <v>43490</v>
+        <v>43518</v>
       </c>
       <c r="B223">
-        <v>1.065965809537341</v>
+        <v>1.071630718065972</v>
       </c>
       <c r="C223">
-        <v>0.9793527236910761</v>
+        <v>1.050448552782531</v>
       </c>
       <c r="D223">
-        <v>0.8165292694978293</v>
+        <v>0.8430321387407193</v>
       </c>
       <c r="E223">
-        <v>0.6145700974163496</v>
+        <v>0.5930832128756661</v>
       </c>
       <c r="F223">
-        <v>0.7643061516452062</v>
+        <v>0.7473948975925259</v>
       </c>
       <c r="G223">
-        <v>0.9583333333333361</v>
+        <v>0.9298245614035098</v>
       </c>
       <c r="H223">
-        <v>0.7159277504105099</v>
+        <v>0.8026166097838466</v>
       </c>
       <c r="I223">
-        <v>1.028231658785524</v>
+        <v>1.044230237063004</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="2">
-        <v>43493</v>
+        <v>43521</v>
       </c>
       <c r="B224">
-        <v>1.066281510946948</v>
+        <v>1.068624786147132</v>
       </c>
       <c r="C224">
-        <v>0.9716678794828244</v>
+        <v>1.051742491207612</v>
       </c>
       <c r="D224">
-        <v>0.8165032637245476</v>
+        <v>0.852038491435924</v>
       </c>
       <c r="E224">
-        <v>0.6143583227446002</v>
+        <v>0.5937304481025221</v>
       </c>
       <c r="F224">
-        <v>0.7943490701001418</v>
+        <v>0.7872799137621269</v>
       </c>
       <c r="G224">
-        <v>0.954861111111114</v>
+        <v>0.9368421052631589</v>
       </c>
       <c r="H224">
-        <v>0.7142857142857152</v>
+        <v>0.8481228668941995</v>
       </c>
       <c r="I224">
-        <v>1.033662624654713</v>
+        <v>1.032792177843374</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="2">
-        <v>43494</v>
+        <v>43522</v>
       </c>
       <c r="B225">
-        <v>1.065097630660922</v>
+        <v>1.069088467134613</v>
       </c>
       <c r="C225">
-        <v>0.9702529272971827</v>
+        <v>1.050911210998476</v>
       </c>
       <c r="D225">
-        <v>0.8125763919590157</v>
+        <v>0.854477711957542</v>
       </c>
       <c r="E225">
-        <v>0.614146548072851</v>
+        <v>0.5945934284049966</v>
       </c>
       <c r="F225">
-        <v>0.7947067238912719</v>
+        <v>0.8048868127919508</v>
       </c>
       <c r="G225">
-        <v>0.9444444444444474</v>
+        <v>0.9263157894736853</v>
       </c>
       <c r="H225">
-        <v>0.7137383689107835</v>
+        <v>0.8424345847554054</v>
       </c>
       <c r="I225">
-        <v>1.039561777236763</v>
+        <v>1.050502721151187</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" s="2">
-        <v>43495</v>
+        <v>43523</v>
       </c>
       <c r="B226">
-        <v>1.05943079035848</v>
+        <v>1.069088467134613</v>
       </c>
       <c r="C226">
-        <v>0.9853396252765575</v>
+        <v>1.050339470764137</v>
       </c>
       <c r="D226">
-        <v>0.8101058434972571</v>
+        <v>0.8494116385664893</v>
       </c>
       <c r="E226">
-        <v>0.6143583227446001</v>
+        <v>0.5945934284049966</v>
       </c>
       <c r="F226">
-        <v>0.7839771101573665</v>
+        <v>0.8117139777218826</v>
       </c>
       <c r="G226">
-        <v>0.937500000000003</v>
+        <v>0.9438596491228081</v>
       </c>
       <c r="H226">
-        <v>0.7088122605363992</v>
+        <v>0.8458475540386817</v>
       </c>
       <c r="I226">
-        <v>1.053747834636454</v>
+        <v>1.055668296282632</v>
       </c>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" s="2">
-        <v>43496</v>
+        <v>43524</v>
       </c>
       <c r="B227">
-        <v>1.059083518807913</v>
+        <v>1.071806597061223</v>
       </c>
       <c r="C227">
-        <v>0.9938109623879967</v>
+        <v>1.047371687574052</v>
       </c>
       <c r="D227">
-        <v>0.8071411853431468</v>
+        <v>0.8505374326533899</v>
       </c>
       <c r="E227">
-        <v>0.6141465480728509</v>
+        <v>0.5935147030269033</v>
       </c>
       <c r="F227">
-        <v>0.7664520743919874</v>
+        <v>0.8002155946819975</v>
       </c>
       <c r="G227">
-        <v>0.9131944444444473</v>
+        <v>0.9578947368421064</v>
       </c>
       <c r="H227">
-        <v>0.7115489874110571</v>
+        <v>0.8424345847554053</v>
       </c>
       <c r="I227">
-        <v>1.060021536588792</v>
+        <v>1.063647265012455</v>
       </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="2">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B228">
-        <v>1.066597212356555</v>
+        <v>1.073485442015894</v>
       </c>
       <c r="C228">
-        <v>0.994704036105168</v>
+        <v>1.054593669481483</v>
       </c>
       <c r="D228">
-        <v>0.8070111564767385</v>
+        <v>0.8542632749886084</v>
       </c>
       <c r="E228">
-        <v>0.6141465480728509</v>
+        <v>0.5932989579512847</v>
       </c>
       <c r="F228">
-        <v>0.7739628040057213</v>
+        <v>0.7517067912324827</v>
       </c>
       <c r="G228">
-        <v>0.937500000000003</v>
+        <v>0.96842105263158</v>
       </c>
       <c r="H228">
-        <v>0.7208538587848939</v>
+        <v>0.8577929465301494</v>
       </c>
       <c r="I228">
-        <v>1.054403296034459</v>
+        <v>1.066460658610831</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" s="2">
-        <v>43507</v>
+        <v>43528</v>
       </c>
       <c r="B229">
-        <v>1.073621568720306</v>
+        <v>1.072430168044387</v>
       </c>
       <c r="C229">
-        <v>0.995905826662843</v>
+        <v>1.050501213067272</v>
       </c>
       <c r="D229">
-        <v>0.7975970665487744</v>
+        <v>0.8583643820194606</v>
       </c>
       <c r="E229">
-        <v>0.6137229987293524</v>
+        <v>0.5932989579512847</v>
       </c>
       <c r="F229">
-        <v>0.7399856938483537</v>
+        <v>0.7955443765720442</v>
       </c>
       <c r="G229">
-        <v>0.9201388888888918</v>
+        <v>0.9543859649122819</v>
       </c>
       <c r="H229">
-        <v>0.7307060755336624</v>
+        <v>0.8674630261660993</v>
       </c>
       <c r="I229">
-        <v>1.059974717917506</v>
+        <v>1.070104233926761</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" s="2">
-        <v>43508</v>
+        <v>43529</v>
       </c>
       <c r="B230">
-        <v>1.069233319126772</v>
+        <v>1.071982476056474</v>
       </c>
       <c r="C230">
-        <v>1.008743301947119</v>
+        <v>1.049312595211674</v>
       </c>
       <c r="D230">
-        <v>0.7996255168647445</v>
+        <v>0.8617417642801622</v>
       </c>
       <c r="E230">
-        <v>0.6082168572638716</v>
+        <v>0.5932989579512847</v>
       </c>
       <c r="F230">
-        <v>0.7203147353361935</v>
+        <v>0.7761408551922384</v>
       </c>
       <c r="G230">
-        <v>0.9305555555555586</v>
+        <v>0.9543859649122819</v>
       </c>
       <c r="H230">
-        <v>0.7356321839080466</v>
+        <v>0.8748577929465318</v>
       </c>
       <c r="I230">
-        <v>1.060489723301653</v>
+        <v>1.072041324601053</v>
       </c>
     </row>
     <row r="231" spans="1:9">
       <c r="A231" s="2">
-        <v>43509</v>
+        <v>43530</v>
       </c>
       <c r="B231">
-        <v>1.070748685892884</v>
+        <v>1.073917145004238</v>
       </c>
       <c r="C231">
-        <v>1.011793718347334</v>
+        <v>1.042466758195256</v>
       </c>
       <c r="D231">
-        <v>0.7988713494395761</v>
+        <v>0.8583107727772272</v>
       </c>
       <c r="E231">
-        <v>0.6039813638288865</v>
+        <v>0.5932989579512847</v>
       </c>
       <c r="F231">
-        <v>0.7203147353361935</v>
+        <v>0.7883578871721163</v>
       </c>
       <c r="G231">
-        <v>0.9409722222222252</v>
+        <v>0.9438596491228082</v>
       </c>
       <c r="H231">
-        <v>0.7482211275314731</v>
+        <v>0.8885096700796375</v>
       </c>
       <c r="I231">
-        <v>1.07004073224402</v>
+        <v>1.07245641545983</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="2">
-        <v>43510</v>
+        <v>43531</v>
       </c>
       <c r="B232">
-        <v>1.07008571293271</v>
+        <v>1.07671521992869</v>
       </c>
       <c r="C232">
-        <v>1.009110821995338</v>
+        <v>1.033995975249665</v>
       </c>
       <c r="D232">
-        <v>0.7990533898525478</v>
+        <v>0.8462754978958377</v>
       </c>
       <c r="E232">
-        <v>0.5993223210504028</v>
+        <v>0.5935147030269033</v>
       </c>
       <c r="F232">
-        <v>0.7267525035765368</v>
+        <v>0.8293208767517066</v>
       </c>
       <c r="G232">
-        <v>0.923611111111114</v>
+        <v>0.9263157894736854</v>
       </c>
       <c r="H232">
-        <v>0.7476737821565416</v>
+        <v>0.8896473265073965</v>
       </c>
       <c r="I232">
-        <v>1.071304836368745</v>
+        <v>1.097269624573381</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="2">
-        <v>43511</v>
+        <v>43532</v>
       </c>
       <c r="B233">
-        <v>1.06869662673044</v>
+        <v>1.076235549941641</v>
       </c>
       <c r="C233">
-        <v>1.020088645835629</v>
+        <v>1.031791766188335</v>
       </c>
       <c r="D233">
-        <v>0.8008217824357013</v>
+        <v>0.8422816093494523</v>
       </c>
       <c r="E233">
-        <v>0.5933926302414236</v>
+        <v>0.5943776833293779</v>
       </c>
       <c r="F233">
-        <v>0.731044349070099</v>
+        <v>0.8350700682716491</v>
       </c>
       <c r="G233">
-        <v>0.923611111111114</v>
+        <v>0.9192982456140363</v>
       </c>
       <c r="H233">
-        <v>0.7372742200328415</v>
+        <v>0.8503981797497172</v>
       </c>
       <c r="I233">
-        <v>1.073224401891475</v>
+        <v>1.103357623835441</v>
       </c>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="2">
-        <v>43514</v>
+        <v>43535</v>
       </c>
       <c r="B234">
-        <v>1.069185963915331</v>
+        <v>1.076427417936461</v>
       </c>
       <c r="C234">
-        <v>1.020088645835629</v>
+        <v>1.046924075153748</v>
       </c>
       <c r="D234">
-        <v>0.8086235144202019</v>
+        <v>0.8409681829147349</v>
       </c>
       <c r="E234">
-        <v>0.5923337568826774</v>
+        <v>0.5947013009428058</v>
       </c>
       <c r="F234">
-        <v>0.731044349070099</v>
+        <v>0.7948257276320516</v>
       </c>
       <c r="G234">
-        <v>0.923611111111114</v>
+        <v>0.9263157894736853</v>
       </c>
       <c r="H234">
-        <v>0.7586206896551732</v>
+        <v>0.8668941979522201</v>
       </c>
       <c r="I234">
-        <v>1.066154782527273</v>
+        <v>1.104418411585649</v>
       </c>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="2">
-        <v>43515</v>
+        <v>43536</v>
       </c>
       <c r="B235">
-        <v>1.064845069533238</v>
+        <v>1.072350223046545</v>
       </c>
       <c r="C235">
-        <v>1.021617529236218</v>
+        <v>1.050015986157867</v>
       </c>
       <c r="D235">
-        <v>0.8134345824773105</v>
+        <v>0.8423084139705689</v>
       </c>
       <c r="E235">
-        <v>0.5883100381194415</v>
+        <v>0.5956721537830898</v>
       </c>
       <c r="F235">
-        <v>0.7582260371959929</v>
+        <v>0.7883578871721163</v>
       </c>
       <c r="G235">
-        <v>0.9201388888888917</v>
+        <v>0.9157894736842115</v>
       </c>
       <c r="H235">
-        <v>0.7591680350301047</v>
+        <v>0.87656427758817</v>
       </c>
       <c r="I235">
-        <v>1.056931504283909</v>
+        <v>1.108661562586479</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="2">
-        <v>43516</v>
+        <v>43537</v>
       </c>
       <c r="B236">
-        <v>1.060598885574026</v>
+        <v>1.071486817069857</v>
       </c>
       <c r="C236">
-        <v>1.023433078274418</v>
+        <v>1.0573131970435</v>
       </c>
       <c r="D236">
-        <v>0.811276103294932</v>
+        <v>0.8409949875358517</v>
       </c>
       <c r="E236">
-        <v>0.5842863193562056</v>
+        <v>0.5971823693124202</v>
       </c>
       <c r="F236">
-        <v>0.7592989985693835</v>
+        <v>0.7754222062522456</v>
       </c>
       <c r="G236">
-        <v>0.9201388888888917</v>
+        <v>0.9157894736842115</v>
       </c>
       <c r="H236">
-        <v>0.7602627257799679</v>
+        <v>0.86689419795222</v>
       </c>
       <c r="I236">
-        <v>1.05969380588979</v>
+        <v>1.118577621990593</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="2">
-        <v>43517</v>
+        <v>43538</v>
       </c>
       <c r="B237">
-        <v>1.061656485296209</v>
+        <v>1.074764561981358</v>
       </c>
       <c r="C237">
-        <v>1.019824031400911</v>
+        <v>1.056395403509431</v>
       </c>
       <c r="D237">
-        <v>0.8155670558864072</v>
+        <v>0.8436754496475196</v>
       </c>
       <c r="E237">
-        <v>0.582168572638713</v>
+        <v>0.5991240749929881</v>
       </c>
       <c r="F237">
-        <v>0.7482117310443479</v>
+        <v>0.7340998922026588</v>
       </c>
       <c r="G237">
-        <v>0.9340277777777807</v>
+        <v>0.9228070175438606</v>
       </c>
       <c r="H237">
-        <v>0.7602627257799679</v>
+        <v>0.8566552901023906</v>
       </c>
       <c r="I237">
-        <v>1.058897888477926</v>
+        <v>1.118070288718755</v>
       </c>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="2">
-        <v>43518</v>
+        <v>43539</v>
       </c>
       <c r="B238">
-        <v>1.05796277880381</v>
+        <v>1.073421486017621</v>
       </c>
       <c r="C238">
-        <v>1.02636221305872</v>
+        <v>1.061661431983599</v>
       </c>
       <c r="D238">
-        <v>0.8179075754817573</v>
+        <v>0.8410217921569683</v>
       </c>
       <c r="E238">
-        <v>0.582168572638713</v>
+        <v>0.6038704666565984</v>
       </c>
       <c r="F238">
-        <v>0.7439198855507856</v>
+        <v>0.7190082644628097</v>
       </c>
       <c r="G238">
-        <v>0.9201388888888917</v>
+        <v>0.9087719298245623</v>
       </c>
       <c r="H238">
-        <v>0.7723043240284627</v>
+        <v>0.8651877133105818</v>
       </c>
       <c r="I238">
-        <v>1.060021536588793</v>
+        <v>1.12139101558897</v>
       </c>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="2">
-        <v>43521</v>
+        <v>43542</v>
       </c>
       <c r="B239">
-        <v>1.054995185553506</v>
+        <v>1.074604671985675</v>
       </c>
       <c r="C239">
-        <v>1.027626482024593</v>
+        <v>1.065595907543585</v>
       </c>
       <c r="D239">
-        <v>0.826645515304398</v>
+        <v>0.841048596778085</v>
       </c>
       <c r="E239">
-        <v>0.5828038966539608</v>
+        <v>0.6071066427908782</v>
       </c>
       <c r="F239">
-        <v>0.7836194563662361</v>
+        <v>0.7049946101329498</v>
       </c>
       <c r="G239">
-        <v>0.9270833333333361</v>
+        <v>0.9122807017543869</v>
       </c>
       <c r="H239">
-        <v>0.8160919540229894</v>
+        <v>0.8868031854379993</v>
       </c>
       <c r="I239">
-        <v>1.048410506109837</v>
+        <v>1.123374227469793</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" s="2">
-        <v>43522</v>
+        <v>43543</v>
       </c>
       <c r="B240">
-        <v>1.055452952597435</v>
+        <v>1.07409302399949</v>
       </c>
       <c r="C240">
-        <v>1.026814262718029</v>
+        <v>1.06545673393391</v>
       </c>
       <c r="D240">
-        <v>0.8290120406730298</v>
+        <v>0.841048596778085</v>
       </c>
       <c r="E240">
-        <v>0.5836509953409578</v>
+        <v>0.6090483484714461</v>
       </c>
       <c r="F240">
-        <v>0.8011444921316151</v>
+        <v>0.723679482572763</v>
       </c>
       <c r="G240">
-        <v>0.9166666666666695</v>
+        <v>0.9157894736842115</v>
       </c>
       <c r="H240">
-        <v>0.8106185002736735</v>
+        <v>0.8850967007963612</v>
       </c>
       <c r="I240">
-        <v>1.066388875883703</v>
+        <v>1.116871137348955</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="2">
-        <v>43523</v>
+        <v>43544</v>
       </c>
       <c r="B241">
-        <v>1.055452952597435</v>
+        <v>1.069440225125115</v>
       </c>
       <c r="C241">
-        <v>1.026255632244737</v>
+        <v>1.06231968554287</v>
       </c>
       <c r="D241">
-        <v>0.8240969495227943</v>
+        <v>0.8430857479829528</v>
       </c>
       <c r="E241">
-        <v>0.5836509953409578</v>
+        <v>0.6112057992276326</v>
       </c>
       <c r="F241">
-        <v>0.8079399141630886</v>
+        <v>0.7581746316924182</v>
       </c>
       <c r="G241">
-        <v>0.9340277777777806</v>
+        <v>0.8912280701754396</v>
       </c>
       <c r="H241">
-        <v>0.8139025725232629</v>
+        <v>0.8845278725824818</v>
       </c>
       <c r="I241">
-        <v>1.071632567067748</v>
+        <v>1.102711926944011</v>
       </c>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" s="2">
-        <v>43524</v>
+        <v>43545</v>
       </c>
       <c r="B242">
-        <v>1.058136414579093</v>
+        <v>1.072430168044387</v>
       </c>
       <c r="C242">
-        <v>1.023355899064292</v>
+        <v>1.073848526452388</v>
       </c>
       <c r="D242">
-        <v>0.8251891920006245</v>
+        <v>0.8387433993620506</v>
       </c>
       <c r="E242">
-        <v>0.5825921219822114</v>
+        <v>0.6122845246057258</v>
       </c>
       <c r="F242">
-        <v>0.7964949928469227</v>
+        <v>0.7463169241825367</v>
       </c>
       <c r="G242">
-        <v>0.9479166666666695</v>
+        <v>0.8912280701754396</v>
       </c>
       <c r="H242">
-        <v>0.8106185002736735</v>
+        <v>0.8879408418657582</v>
       </c>
       <c r="I242">
-        <v>1.079732197200245</v>
+        <v>1.110183562401994</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="2">
-        <v>43525</v>
+        <v>43546</v>
       </c>
       <c r="B243">
-        <v>1.059793846979529</v>
+        <v>1.075036374974019</v>
       </c>
       <c r="C243">
-        <v>1.03041228399009</v>
+        <v>1.053472757706267</v>
       </c>
       <c r="D243">
-        <v>0.8288039944867763</v>
+        <v>0.8330876243064309</v>
       </c>
       <c r="E243">
-        <v>0.5823803473104622</v>
+        <v>0.6120687795301072</v>
       </c>
       <c r="F243">
-        <v>0.7964949928469227</v>
+        <v>0.7463169241825367</v>
       </c>
       <c r="G243">
-        <v>0.9583333333333361</v>
+        <v>0.8561403508771939</v>
       </c>
       <c r="H243">
-        <v>0.8253968253968262</v>
+        <v>0.8885096700796377</v>
       </c>
       <c r="I243">
-        <v>1.082588136148697</v>
+        <v>1.129646711557976</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" s="2">
-        <v>43528</v>
+        <v>43549</v>
       </c>
       <c r="B244">
-        <v>1.059793846979529</v>
+        <v>1.075036374974019</v>
       </c>
       <c r="C244">
-        <v>1.03041228399009</v>
+        <v>1.053472757706267</v>
       </c>
     </row>
   </sheetData>

--- a/correlation/data/variables.xlsx
+++ b/correlation/data/variables.xlsx
@@ -435,7 +435,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2">
-        <v>43185</v>
+        <v>43192</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -464,7002 +464,7002 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
-        <v>43186</v>
+        <v>43193</v>
       </c>
       <c r="B3">
-        <v>1.00225444893913</v>
+        <v>1.000701888718734</v>
       </c>
       <c r="C3">
-        <v>0.9827236651558179</v>
+        <v>1.012614838799634</v>
       </c>
       <c r="D3">
-        <v>1.003350577639585</v>
+        <v>1.004015311722033</v>
       </c>
       <c r="E3">
-        <v>0.997583655153071</v>
+        <v>0.9876055570689186</v>
       </c>
       <c r="F3">
-        <v>1.031261228889687</v>
+        <v>0.9125198098256735</v>
       </c>
       <c r="G3">
-        <v>0.975438596491228</v>
+        <v>1.021978021978022</v>
       </c>
       <c r="H3">
-        <v>1.01023890784983</v>
+        <v>0.990975747320925</v>
       </c>
       <c r="I3">
-        <v>0.9962641822710081</v>
+        <v>0.9881606364841826</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2">
-        <v>43187</v>
+        <v>43194</v>
       </c>
       <c r="B4">
-        <v>1.004940600866604</v>
+        <v>1.002775650842266</v>
       </c>
       <c r="C4">
-        <v>0.9798574410863063</v>
+        <v>1.024327234418331</v>
       </c>
       <c r="D4">
-        <v>1.002653657490551</v>
+        <v>0.9967074443879326</v>
       </c>
       <c r="E4">
-        <v>0.9961813121615498</v>
+        <v>0.9784118768727869</v>
       </c>
       <c r="F4">
-        <v>1.09198706431908</v>
+        <v>0.8849445324881142</v>
       </c>
       <c r="G4">
-        <v>0.9719298245614034</v>
+        <v>1.021978021978022</v>
       </c>
       <c r="H4">
-        <v>0.9960182025028443</v>
+        <v>0.9892836999435983</v>
       </c>
       <c r="I4">
-        <v>0.9946038188359005</v>
+        <v>0.9983424891077859</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2">
-        <v>43188</v>
+        <v>43199</v>
       </c>
       <c r="B5">
-        <v>1.002973953919703</v>
+        <v>1.005615109749872</v>
       </c>
       <c r="C5">
-        <v>0.9933497583269074</v>
+        <v>1.012115202875424</v>
       </c>
       <c r="D5">
-        <v>1.003993888546385</v>
+        <v>0.9893460395642049</v>
       </c>
       <c r="E5">
-        <v>0.9761817436517011</v>
+        <v>0.9665622446199946</v>
       </c>
       <c r="F5">
-        <v>0.9647862019403524</v>
+        <v>0.858003169572108</v>
       </c>
       <c r="G5">
-        <v>0.9614035087719298</v>
+        <v>1.018315018315018</v>
       </c>
       <c r="H5">
-        <v>1.007963594994312</v>
+        <v>0.991539763113367</v>
       </c>
       <c r="I5">
-        <v>0.991790425237524</v>
+        <v>1.001989013070657</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2">
-        <v>43189</v>
+        <v>43200</v>
       </c>
       <c r="B6">
-        <v>1.001359064963305</v>
+        <v>1.001419729453803</v>
       </c>
       <c r="C6">
-        <v>0.9933497583269074</v>
+        <v>1.029044727098084</v>
       </c>
       <c r="D6">
-        <v>1.002680462111668</v>
+        <v>0.994699788526916</v>
       </c>
       <c r="E6">
-        <v>0.9625466548726025</v>
+        <v>0.9600018160355943</v>
       </c>
       <c r="F6">
-        <v>0.9647862019403524</v>
+        <v>0.8380348652931856</v>
       </c>
       <c r="G6">
-        <v>0.9614035087719298</v>
+        <v>1.025641025641025</v>
       </c>
       <c r="H6">
-        <v>1.010807736063709</v>
+        <v>1.008460236886633</v>
       </c>
       <c r="I6">
-        <v>0.9939120007379391</v>
+        <v>1.000094714908127</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2">
-        <v>43192</v>
+        <v>43201</v>
       </c>
       <c r="B7">
-        <v>1.002318404937403</v>
+        <v>1.000749744767739</v>
       </c>
       <c r="C7">
-        <v>0.9711609712061086</v>
+        <v>1.023358947743505</v>
       </c>
       <c r="D7">
-        <v>1.001340231055834</v>
+        <v>0.9933613512862383</v>
       </c>
       <c r="E7">
-        <v>0.9504002071152725</v>
+        <v>0.95546172704985</v>
       </c>
       <c r="F7">
-        <v>1.133668702838664</v>
+        <v>0.8174326465927101</v>
       </c>
       <c r="G7">
-        <v>0.9578947368421052</v>
+        <v>1.021978021978022</v>
       </c>
       <c r="H7">
-        <v>1.008532423208191</v>
+        <v>1.014100394811055</v>
       </c>
       <c r="I7">
-        <v>0.973895397103588</v>
+        <v>1.002888804697859</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2">
-        <v>43193</v>
+        <v>43202</v>
       </c>
       <c r="B8">
-        <v>1.003021920918408</v>
+        <v>1.001403777437468</v>
       </c>
       <c r="C8">
-        <v>0.9834120103063699</v>
+        <v>1.031802407547988</v>
       </c>
       <c r="D8">
-        <v>1.005360924223336</v>
+        <v>0.9933613512862383</v>
       </c>
       <c r="E8">
-        <v>0.9386205259864944</v>
+        <v>0.9531916825569779</v>
       </c>
       <c r="F8">
-        <v>1.034495149119655</v>
+        <v>0.788272583201268</v>
       </c>
       <c r="G8">
-        <v>0.9789473684210526</v>
+        <v>1.036630036630036</v>
       </c>
       <c r="H8">
-        <v>0.9994311717861208</v>
+        <v>1.005640157924422</v>
       </c>
       <c r="I8">
-        <v>0.9623650954708972</v>
+        <v>0.9963534760371283</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2">
-        <v>43194</v>
+        <v>43203</v>
       </c>
       <c r="B9">
-        <v>1.005100490862286</v>
+        <v>1.000717840735069</v>
       </c>
       <c r="C9">
-        <v>0.9947866318105735</v>
+        <v>1.028823957736223</v>
       </c>
       <c r="D9">
-        <v>0.9980432626584822</v>
+        <v>0.9921032202800011</v>
       </c>
       <c r="E9">
-        <v>0.9298828504239391</v>
+        <v>0.948651593571234</v>
       </c>
       <c r="F9">
-        <v>1.003233920229968</v>
+        <v>0.7689381933438988</v>
       </c>
       <c r="G9">
-        <v>0.9789473684210526</v>
+        <v>1.032967032967032</v>
       </c>
       <c r="H9">
-        <v>0.9977246871444826</v>
+        <v>0.9988719684151157</v>
       </c>
       <c r="I9">
-        <v>0.9722811548750115</v>
+        <v>0.998579276378102</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2">
-        <v>43199</v>
+        <v>43206</v>
       </c>
       <c r="B10">
-        <v>1.007946532785443</v>
+        <v>0.9996011995916283</v>
       </c>
       <c r="C10">
-        <v>0.9829267833969645</v>
+        <v>1.037166715726525</v>
       </c>
       <c r="D10">
-        <v>0.9906719918513952</v>
+        <v>0.9786920791284096</v>
       </c>
       <c r="E10">
-        <v>0.9186209574766456</v>
+        <v>0.9472895668755107</v>
       </c>
       <c r="F10">
-        <v>0.9726913402802736</v>
+        <v>0.7597464342313789</v>
       </c>
       <c r="G10">
-        <v>0.9754385964912277</v>
+        <v>1.036630036630036</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.9830795262267344</v>
       </c>
       <c r="I10">
-        <v>0.9758324877778801</v>
+        <v>1.015722674749006</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2">
-        <v>43200</v>
+        <v>43207</v>
       </c>
       <c r="B11">
-        <v>1.003741425898981</v>
+        <v>1.002137570188872</v>
       </c>
       <c r="C11">
-        <v>0.9993680765830997</v>
+        <v>1.048224549553039</v>
       </c>
       <c r="D11">
-        <v>0.9960329160747313</v>
+        <v>0.9773804106325454</v>
       </c>
       <c r="E11">
-        <v>0.9123859247912667</v>
+        <v>0.9475165713247979</v>
       </c>
       <c r="F11">
-        <v>0.9500538986704999</v>
+        <v>0.7594294770206024</v>
       </c>
       <c r="G11">
-        <v>0.9824561403508767</v>
+        <v>1.032967032967032</v>
       </c>
       <c r="H11">
-        <v>1.017064846416383</v>
+        <v>0.9701071630005641</v>
       </c>
       <c r="I11">
-        <v>0.9739876395166496</v>
+        <v>1.010418639893919</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2">
-        <v>43201</v>
+        <v>43208</v>
       </c>
       <c r="B12">
-        <v>1.003069887917113</v>
+        <v>1.000494512506381</v>
       </c>
       <c r="C12">
-        <v>0.9938462695830433</v>
+        <v>1.049096007560382</v>
       </c>
       <c r="D12">
-        <v>0.9946926850188973</v>
+        <v>0.9372540621570256</v>
       </c>
       <c r="E12">
-        <v>0.9080710232788936</v>
+        <v>0.9313992554254062</v>
       </c>
       <c r="F12">
-        <v>0.9266978081207333</v>
+        <v>0.7017432646592712</v>
       </c>
       <c r="G12">
-        <v>0.9789473684210522</v>
+        <v>1.051282051282051</v>
       </c>
       <c r="H12">
-        <v>1.022753128555177</v>
+        <v>0.9780033840947548</v>
       </c>
       <c r="I12">
-        <v>0.9767087907019644</v>
+        <v>1.030592915324872</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2">
-        <v>43202</v>
+        <v>43209</v>
       </c>
       <c r="B13">
-        <v>1.003725436899413</v>
+        <v>1.001339969372129</v>
       </c>
       <c r="C13">
-        <v>1.002046228207105</v>
+        <v>1.043088757029761</v>
       </c>
       <c r="D13">
-        <v>0.9946926850188973</v>
+        <v>0.9386192681425168</v>
       </c>
       <c r="E13">
-        <v>0.9059135725227071</v>
+        <v>0.9193680196131844</v>
       </c>
       <c r="F13">
-        <v>0.8936399568810639</v>
+        <v>0.6976228209191762</v>
       </c>
       <c r="G13">
-        <v>0.9929824561403504</v>
+        <v>1.069597069597069</v>
       </c>
       <c r="H13">
-        <v>1.014220705346986</v>
+        <v>0.9864636209813877</v>
       </c>
       <c r="I13">
-        <v>0.9703440642007192</v>
+        <v>1.028509187346089</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2">
-        <v>43203</v>
+        <v>43210</v>
       </c>
       <c r="B14">
-        <v>1.003037909917976</v>
+        <v>1.001643057682491</v>
       </c>
       <c r="C14">
-        <v>0.9991536739952229</v>
+        <v>1.03418439276806</v>
       </c>
       <c r="D14">
-        <v>0.9934328678264133</v>
+        <v>0.9426613486093638</v>
       </c>
       <c r="E14">
-        <v>0.9015986710103342</v>
+        <v>0.9118768727867067</v>
       </c>
       <c r="F14">
-        <v>0.8717211642112831</v>
+        <v>0.7280507131537244</v>
       </c>
       <c r="G14">
-        <v>0.9894736842105257</v>
+        <v>1.084249084249084</v>
       </c>
       <c r="H14">
-        <v>1.007394766780433</v>
+        <v>0.9712351945854487</v>
       </c>
       <c r="I14">
-        <v>0.972511760907665</v>
+        <v>1.021594999052851</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2">
-        <v>43206</v>
+        <v>43213</v>
       </c>
       <c r="B15">
-        <v>1.001918679948195</v>
+        <v>1.00642866258295</v>
       </c>
       <c r="C15">
-        <v>1.007255834947622</v>
+        <v>1.03424248996855</v>
       </c>
       <c r="D15">
-        <v>0.9800037526469563</v>
+        <v>0.9641834194394626</v>
       </c>
       <c r="E15">
-        <v>0.9003042005566222</v>
+        <v>0.9089258149459729</v>
       </c>
       <c r="F15">
-        <v>0.8613007545813872</v>
+        <v>0.7122028526148971</v>
       </c>
       <c r="G15">
-        <v>0.9929824561403504</v>
+        <v>1.091575091575091</v>
       </c>
       <c r="H15">
-        <v>0.9914675767918094</v>
+        <v>0.9701071630005643</v>
       </c>
       <c r="I15">
-        <v>0.9892076376718014</v>
+        <v>0.9924701648039406</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2">
-        <v>43207</v>
+        <v>43214</v>
       </c>
       <c r="B16">
-        <v>1.004460930879555</v>
+        <v>1.004402756508423</v>
       </c>
       <c r="C16">
-        <v>1.017994771586015</v>
+        <v>1.020403736811935</v>
       </c>
       <c r="D16">
-        <v>0.9786903262122389</v>
+        <v>0.9597933452900395</v>
       </c>
       <c r="E16">
-        <v>0.9005199456322409</v>
+        <v>0.9059747571052393</v>
       </c>
       <c r="F16">
-        <v>0.8609414301113909</v>
+        <v>0.7413629160063393</v>
       </c>
       <c r="G16">
-        <v>0.9894736842105257</v>
+        <v>1.098901098901099</v>
       </c>
       <c r="H16">
-        <v>0.978384527872583</v>
+        <v>0.9898477157360409</v>
       </c>
       <c r="I16">
-        <v>0.9840420625403558</v>
+        <v>1.004498958136011</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2">
-        <v>43208</v>
+        <v>43215</v>
       </c>
       <c r="B17">
-        <v>1.00281406392402</v>
+        <v>1.008486472690148</v>
       </c>
       <c r="C17">
-        <v>1.018841097590792</v>
+        <v>1.022278339814398</v>
       </c>
       <c r="D17">
-        <v>0.938510199158335</v>
+        <v>0.9668335251760045</v>
       </c>
       <c r="E17">
-        <v>0.8852020452633167</v>
+        <v>0.9043857259602289</v>
       </c>
       <c r="F17">
-        <v>0.7955443765720448</v>
+        <v>0.7660855784469098</v>
       </c>
       <c r="G17">
-        <v>1.007017543859649</v>
+        <v>1.109890109890109</v>
       </c>
       <c r="H17">
-        <v>0.9863481228668948</v>
+        <v>0.9864636209813877</v>
       </c>
       <c r="I17">
-        <v>1.003689696522461</v>
+        <v>0.9913809433604848</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2">
-        <v>43209</v>
+        <v>43216</v>
       </c>
       <c r="B18">
-        <v>1.00366148090114</v>
+        <v>1.0093797856049</v>
       </c>
       <c r="C18">
-        <v>1.013007090331195</v>
+        <v>1.032944985824283</v>
       </c>
       <c r="D18">
-        <v>0.9398772348352857</v>
+        <v>0.9728832615038679</v>
       </c>
       <c r="E18">
-        <v>0.8737675562555284</v>
+        <v>0.9062017615545266</v>
       </c>
       <c r="F18">
-        <v>0.7908731584620916</v>
+        <v>0.7248811410459589</v>
       </c>
       <c r="G18">
-        <v>1.024561403508771</v>
+        <v>1.098901098901099</v>
       </c>
       <c r="H18">
-        <v>0.9948805460750859</v>
+        <v>0.9729272419627754</v>
       </c>
       <c r="I18">
-        <v>1.001660363435107</v>
+        <v>0.9728641788217466</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2">
-        <v>43210</v>
+        <v>43217</v>
       </c>
       <c r="B19">
-        <v>1.003965271892938</v>
+        <v>1.008183384379785</v>
       </c>
       <c r="C19">
-        <v>1.004359519286829</v>
+        <v>1.034095310393976</v>
       </c>
       <c r="D19">
-        <v>0.9439247326239045</v>
+        <v>0.9734186364001391</v>
       </c>
       <c r="E19">
-        <v>0.8666479687601131</v>
+        <v>0.9096068282938345</v>
       </c>
       <c r="F19">
-        <v>0.8253683075817465</v>
+        <v>0.7064976228209192</v>
       </c>
       <c r="G19">
-        <v>1.03859649122807</v>
+        <v>1.084249084249084</v>
       </c>
       <c r="H19">
-        <v>0.979522184300342</v>
+        <v>0.9729272419627754</v>
       </c>
       <c r="I19">
-        <v>0.9949266672816159</v>
+        <v>0.9644345519984846</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2">
-        <v>43213</v>
+        <v>43222</v>
       </c>
       <c r="B20">
-        <v>1.008761971763427</v>
+        <v>1.016925089331291</v>
       </c>
       <c r="C20">
-        <v>1.004415941020481</v>
+        <v>1.020833656095558</v>
       </c>
       <c r="D20">
-        <v>0.9654756480017157</v>
+        <v>0.9814760285890194</v>
       </c>
       <c r="E20">
-        <v>0.8638432827770705</v>
+        <v>0.9086988104966858</v>
       </c>
       <c r="F20">
-        <v>0.8074020840819262</v>
+        <v>0.7017432646592709</v>
       </c>
       <c r="G20">
-        <v>1.045614035087719</v>
+        <v>1.087912087912088</v>
       </c>
       <c r="H20">
-        <v>0.9783845278725832</v>
+        <v>0.8477157360406095</v>
       </c>
       <c r="I20">
-        <v>0.9665621252651969</v>
+        <v>0.9519795415798447</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2">
-        <v>43214</v>
+        <v>43223</v>
       </c>
       <c r="B21">
-        <v>1.006731368818253</v>
+        <v>1.011995916283818</v>
       </c>
       <c r="C21">
-        <v>0.9909762840646216</v>
+        <v>1.018533006956171</v>
       </c>
       <c r="D21">
-        <v>0.9610796901385801</v>
+        <v>0.9761758171159354</v>
       </c>
       <c r="E21">
-        <v>0.8610385967940281</v>
+        <v>0.9064287660038136</v>
       </c>
       <c r="F21">
-        <v>0.8404599353215956</v>
+        <v>0.7191759112519809</v>
       </c>
       <c r="G21">
-        <v>1.052631578947368</v>
+        <v>1.076923076923077</v>
       </c>
       <c r="H21">
-        <v>0.9982935153583625</v>
+        <v>0.8533558939650315</v>
       </c>
       <c r="I21">
-        <v>0.9782769117240103</v>
+        <v>0.9615457473006253</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2">
-        <v>43215</v>
+        <v>43224</v>
       </c>
       <c r="B22">
-        <v>1.010824552707737</v>
+        <v>1.013718734047983</v>
       </c>
       <c r="C22">
-        <v>0.9927968253371197</v>
+        <v>1.031581638186128</v>
       </c>
       <c r="D22">
-        <v>0.9681293054922669</v>
+        <v>0.9722140428835291</v>
       </c>
       <c r="E22">
-        <v>0.8595283812646975</v>
+        <v>0.9064287660038136</v>
       </c>
       <c r="F22">
-        <v>0.8684872439813154</v>
+        <v>0.7083993660855783</v>
       </c>
       <c r="G22">
-        <v>1.063157894736842</v>
+        <v>1.080586080586081</v>
       </c>
       <c r="H22">
-        <v>0.994880546075086</v>
+        <v>0.8505358150028205</v>
       </c>
       <c r="I22">
-        <v>0.9655013375149889</v>
+        <v>0.9727221064595568</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2">
-        <v>43216</v>
+        <v>43227</v>
       </c>
       <c r="B23">
-        <v>1.011719936683562</v>
+        <v>1.014548238897397</v>
       </c>
       <c r="C23">
-        <v>1.003155855635591</v>
+        <v>1.035148806296187</v>
       </c>
       <c r="D23">
-        <v>0.9741871498646366</v>
+        <v>0.9775410231014267</v>
       </c>
       <c r="E23">
-        <v>0.8612543418696468</v>
+        <v>0.906723871787887</v>
       </c>
       <c r="F23">
-        <v>0.8217750628817825</v>
+        <v>0.7194928684627574</v>
       </c>
       <c r="G23">
-        <v>1.052631578947368</v>
+        <v>1.080586080586081</v>
       </c>
       <c r="H23">
-        <v>0.9812286689419804</v>
+        <v>0.863508178228991</v>
       </c>
       <c r="I23">
-        <v>0.9474679457614609</v>
+        <v>0.9721064595567344</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2">
-        <v>43217</v>
+        <v>43228</v>
       </c>
       <c r="B24">
-        <v>1.010520761715939</v>
+        <v>1.015521311893823</v>
       </c>
       <c r="C24">
-        <v>1.004273005961896</v>
+        <v>1.034873812880536</v>
       </c>
       <c r="D24">
-        <v>0.9747232422869703</v>
+        <v>0.9883555960061031</v>
       </c>
       <c r="E24">
-        <v>0.8644905180039264</v>
+        <v>0.9078815944792518</v>
       </c>
       <c r="F24">
-        <v>0.8009342436219908</v>
+        <v>0.7106180665610142</v>
       </c>
       <c r="G24">
-        <v>1.03859649122807</v>
+        <v>1.087912087912088</v>
       </c>
       <c r="H24">
-        <v>0.9812286689419804</v>
+        <v>0.8708403835307393</v>
       </c>
       <c r="I24">
-        <v>0.9392583709989851</v>
+        <v>0.9762739155143021</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2">
-        <v>43222</v>
+        <v>43229</v>
       </c>
       <c r="B25">
-        <v>1.019282733479366</v>
+        <v>1.015329887697805</v>
       </c>
       <c r="C25">
-        <v>0.9913938048936449</v>
+        <v>1.044893643391637</v>
       </c>
       <c r="D25">
-        <v>0.982791433243091</v>
+        <v>0.9924244452177636</v>
       </c>
       <c r="E25">
-        <v>0.8636275377014518</v>
+        <v>0.9109688549895578</v>
       </c>
       <c r="F25">
-        <v>0.7955443765720447</v>
+        <v>0.6855784469096671</v>
       </c>
       <c r="G25">
-        <v>1.042105263157894</v>
+        <v>1.098901098901099</v>
       </c>
       <c r="H25">
-        <v>0.8549488054607515</v>
+        <v>0.8702763677382972</v>
       </c>
       <c r="I25">
-        <v>0.9271284936813945</v>
+        <v>0.9771263496874408</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2">
-        <v>43223</v>
+        <v>43230</v>
       </c>
       <c r="B26">
-        <v>1.014342132612762</v>
+        <v>1.009698825931598</v>
       </c>
       <c r="C26">
-        <v>0.9891595042410336</v>
+        <v>1.054684958247478</v>
       </c>
       <c r="D26">
-        <v>0.9774841182619883</v>
+        <v>0.9884091334957303</v>
       </c>
       <c r="E26">
-        <v>0.8614700869452653</v>
+        <v>0.9157359484245892</v>
       </c>
       <c r="F26">
-        <v>0.8153072224218471</v>
+        <v>0.6709984152139461</v>
       </c>
       <c r="G26">
-        <v>1.031578947368421</v>
+        <v>1.087912087912088</v>
       </c>
       <c r="H26">
-        <v>0.8606370875995457</v>
+        <v>0.8747884940778348</v>
       </c>
       <c r="I26">
-        <v>0.9364449774006087</v>
+        <v>1.008287554461072</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2">
-        <v>43224</v>
+        <v>43231</v>
       </c>
       <c r="B27">
-        <v>1.016068944566138</v>
+        <v>1.010608090862685</v>
       </c>
       <c r="C27">
-        <v>1.001831825619228</v>
+        <v>1.056485971462655</v>
       </c>
       <c r="D27">
-        <v>0.9735170343367195</v>
+        <v>0.9872848462135611</v>
       </c>
       <c r="E27">
-        <v>0.8614700869452653</v>
+        <v>0.9193680196131845</v>
       </c>
       <c r="F27">
-        <v>0.8030901904419692</v>
+        <v>0.6259904912836766</v>
       </c>
       <c r="G27">
-        <v>1.035087719298245</v>
+        <v>1.087912087912088</v>
       </c>
       <c r="H27">
-        <v>0.8577929465301486</v>
+        <v>0.8719684151156238</v>
       </c>
       <c r="I27">
-        <v>0.9473295821418687</v>
+        <v>1.01505967039212</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2">
-        <v>43227</v>
+        <v>43234</v>
       </c>
       <c r="B28">
-        <v>1.01690037254369</v>
+        <v>1.010911179173048</v>
       </c>
       <c r="C28">
-        <v>1.005296120065449</v>
+        <v>1.057419399817187</v>
       </c>
       <c r="D28">
-        <v>0.978851153938939</v>
+        <v>0.9887571271783068</v>
       </c>
       <c r="E28">
-        <v>0.8617505555435696</v>
+        <v>0.9216380641060565</v>
       </c>
       <c r="F28">
-        <v>0.8156665468918434</v>
+        <v>0.6608557844690965</v>
       </c>
       <c r="G28">
-        <v>1.035087719298245</v>
+        <v>1.098901098901099</v>
       </c>
       <c r="H28">
-        <v>0.8708759954493751</v>
+        <v>0.8753525098702768</v>
       </c>
       <c r="I28">
-        <v>0.9467300064569688</v>
+        <v>1.008524341731388</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2">
-        <v>43228</v>
+        <v>43235</v>
       </c>
       <c r="B29">
-        <v>1.017875701517356</v>
+        <v>1.015521311893824</v>
       </c>
       <c r="C29">
-        <v>1.005029057192831</v>
+        <v>1.050184361782886</v>
       </c>
       <c r="D29">
-        <v>0.9896802208700779</v>
+        <v>0.9944856385684077</v>
       </c>
       <c r="E29">
-        <v>0.8628508554292247</v>
+        <v>0.9243621174975032</v>
       </c>
       <c r="F29">
-        <v>0.805605461731944</v>
+        <v>0.6741679873217115</v>
       </c>
       <c r="G29">
-        <v>1.042105263157894</v>
+        <v>1.128205128205128</v>
       </c>
       <c r="H29">
-        <v>0.8782707622298074</v>
+        <v>0.8804286520022565</v>
       </c>
       <c r="I29">
-        <v>0.950788672631676</v>
+        <v>0.9910494411820422</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2">
-        <v>43229</v>
+        <v>43236</v>
       </c>
       <c r="B30">
-        <v>1.017683833522537</v>
+        <v>1.013032797345585</v>
       </c>
       <c r="C30">
-        <v>1.014759925523312</v>
+        <v>1.05444869629882</v>
       </c>
       <c r="D30">
-        <v>0.9937545232798134</v>
+        <v>0.9924779827073908</v>
       </c>
       <c r="E30">
-        <v>0.8657849884576384</v>
+        <v>0.9266321619903751</v>
       </c>
       <c r="F30">
-        <v>0.7772188286022278</v>
+        <v>0.6522979397781298</v>
       </c>
       <c r="G30">
-        <v>1.052631578947368</v>
+        <v>1.131868131868132</v>
       </c>
       <c r="H30">
-        <v>0.877701934015928</v>
+        <v>0.8742244782853925</v>
       </c>
       <c r="I30">
-        <v>0.9516188543492297</v>
+        <v>0.9953589695017998</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2">
-        <v>43230</v>
+        <v>43237</v>
       </c>
       <c r="B31">
-        <v>1.012039716674928</v>
+        <v>1.01416539050536</v>
       </c>
       <c r="C31">
-        <v>1.024268868368095</v>
+        <v>1.053546253117883</v>
       </c>
       <c r="D31">
-        <v>0.9897338301123114</v>
+        <v>0.9936558074791874</v>
       </c>
       <c r="E31">
-        <v>0.87031563504563</v>
+        <v>0.9309452465268321</v>
       </c>
       <c r="F31">
-        <v>0.7606899029823933</v>
+        <v>0.6665610142630743</v>
       </c>
       <c r="G31">
-        <v>1.042105263157894</v>
+        <v>1.139194139194139</v>
       </c>
       <c r="H31">
-        <v>0.8822525597269633</v>
+        <v>0.8708403835307393</v>
       </c>
       <c r="I31">
-        <v>0.9819666082464718</v>
+        <v>0.9939856033339649</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2">
-        <v>43231</v>
+        <v>43238</v>
       </c>
       <c r="B32">
-        <v>1.012951089650321</v>
+        <v>1.014947039305768</v>
       </c>
       <c r="C32">
-        <v>1.026017942111301</v>
+        <v>1.050773080081181</v>
       </c>
       <c r="D32">
-        <v>0.9886080360254109</v>
+        <v>0.9930936638381027</v>
       </c>
       <c r="E32">
-        <v>0.8737675562555284</v>
+        <v>0.9413874511940435</v>
       </c>
       <c r="F32">
-        <v>0.7096658282429034</v>
+        <v>0.6500792393026941</v>
       </c>
       <c r="G32">
-        <v>1.042105263157894</v>
+        <v>1.120879120879121</v>
       </c>
       <c r="H32">
-        <v>0.8794084186575662</v>
+        <v>0.881556683587141</v>
       </c>
       <c r="I32">
-        <v>0.9885619407803707</v>
+        <v>0.9966849782155711</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="2">
-        <v>43234</v>
+        <v>43241</v>
       </c>
       <c r="B33">
-        <v>1.013254880642119</v>
+        <v>1.01413348647269</v>
       </c>
       <c r="C33">
-        <v>1.02692445129864</v>
+        <v>1.058534866066587</v>
       </c>
       <c r="D33">
-        <v>0.9900822901868285</v>
+        <v>0.9888106646679338</v>
       </c>
       <c r="E33">
-        <v>0.8759250070117148</v>
+        <v>0.9422954689911923</v>
       </c>
       <c r="F33">
-        <v>0.7491915199425082</v>
+        <v>0.6554675118858952</v>
       </c>
       <c r="G33">
-        <v>1.052631578947368</v>
+        <v>1.120879120879121</v>
       </c>
       <c r="H33">
-        <v>0.8828213879408425</v>
+        <v>0.8877608573040051</v>
       </c>
       <c r="I33">
-        <v>0.9821972142791253</v>
+        <v>1.009282060996401</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2">
-        <v>43235</v>
+        <v>43242</v>
       </c>
       <c r="B34">
-        <v>1.017875701517357</v>
+        <v>1.013463501786626</v>
       </c>
       <c r="C34">
-        <v>1.019898064734535</v>
+        <v>1.055215579345283</v>
       </c>
       <c r="D34">
-        <v>0.9958184791057981</v>
+        <v>0.9824129346574939</v>
       </c>
       <c r="E34">
-        <v>0.8785139479191388</v>
+        <v>0.9443385090347773</v>
       </c>
       <c r="F34">
-        <v>0.7642831476823573</v>
+        <v>0.636133122028526</v>
       </c>
       <c r="G34">
-        <v>1.080701754385964</v>
+        <v>1.120879120879121</v>
       </c>
       <c r="H34">
-        <v>0.8879408418657572</v>
+        <v>0.8877608573040051</v>
       </c>
       <c r="I34">
-        <v>0.9651784890692742</v>
+        <v>1.020600492517522</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2">
-        <v>43236</v>
+        <v>43243</v>
       </c>
       <c r="B35">
-        <v>1.015381417584702</v>
+        <v>1.017260081674323</v>
       </c>
       <c r="C35">
-        <v>1.024039419984578</v>
+        <v>1.058643314174167</v>
       </c>
       <c r="D35">
-        <v>0.993808132522047</v>
+        <v>0.9743823112134273</v>
       </c>
       <c r="E35">
-        <v>0.8806713986753253</v>
+        <v>0.947289566875511</v>
       </c>
       <c r="F35">
-        <v>0.7394897592526052</v>
+        <v>0.6779714738510301</v>
       </c>
       <c r="G35">
-        <v>1.084210526315789</v>
+        <v>1.102564102564102</v>
       </c>
       <c r="H35">
-        <v>0.8816837315130838</v>
+        <v>0.8747884940778348</v>
       </c>
       <c r="I35">
-        <v>0.9693755188635736</v>
+        <v>1.033955294563364</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="2">
-        <v>43237</v>
+        <v>43244</v>
       </c>
       <c r="B36">
-        <v>1.016516636554051</v>
+        <v>1.016845329249617</v>
       </c>
       <c r="C36">
-        <v>1.02316300238852</v>
+        <v>1.056501464049452</v>
       </c>
       <c r="D36">
-        <v>0.9949875358511809</v>
+        <v>0.9770859544395964</v>
       </c>
       <c r="E36">
-        <v>0.8847705551120796</v>
+        <v>0.9518296558612551</v>
       </c>
       <c r="F36">
-        <v>0.7556593604024435</v>
+        <v>0.6789223454833597</v>
       </c>
       <c r="G36">
-        <v>1.091228070175438</v>
+        <v>1.091575091575091</v>
       </c>
       <c r="H36">
-        <v>0.8782707622298073</v>
+        <v>0.8708403835307394</v>
       </c>
       <c r="I36">
-        <v>0.9680380038741814</v>
+        <v>1.0199848456147</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2">
-        <v>43238</v>
+        <v>43245</v>
       </c>
       <c r="B37">
-        <v>1.017300097532898</v>
+        <v>1.019158371618172</v>
       </c>
       <c r="C37">
-        <v>1.020469804968874</v>
+        <v>1.054011030721799</v>
       </c>
       <c r="D37">
-        <v>0.9944246388077306</v>
+        <v>0.9670476751345131</v>
       </c>
       <c r="E37">
-        <v>0.8946948285905374</v>
+        <v>0.9568237537455737</v>
       </c>
       <c r="F37">
-        <v>0.7369744879626304</v>
+        <v>0.6494453248811409</v>
       </c>
       <c r="G37">
-        <v>1.073684210526315</v>
+        <v>1.073260073260073</v>
       </c>
       <c r="H37">
-        <v>0.889078498293516</v>
+        <v>0.8674562887760864</v>
       </c>
       <c r="I37">
-        <v>0.9706669126464347</v>
+        <v>1.033102860390226</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2">
-        <v>43241</v>
+        <v>43248</v>
       </c>
       <c r="B38">
-        <v>1.016484658554915</v>
+        <v>1.020498340990301</v>
       </c>
       <c r="C38">
-        <v>1.028007748584755</v>
+        <v>1.054011030721799</v>
       </c>
       <c r="D38">
-        <v>0.9901358994290617</v>
+        <v>0.9663784565141742</v>
       </c>
       <c r="E38">
-        <v>0.895557808893012</v>
+        <v>0.9629528738763283</v>
       </c>
       <c r="F38">
-        <v>0.7430830039525692</v>
+        <v>0.6494453248811409</v>
       </c>
       <c r="G38">
-        <v>1.073684210526315</v>
+        <v>1.073260073260073</v>
       </c>
       <c r="H38">
-        <v>0.8953356086461896</v>
+        <v>0.8657642413987598</v>
       </c>
       <c r="I38">
-        <v>0.9829351535836177</v>
+        <v>1.043663572646335</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2">
-        <v>43242</v>
+        <v>43249</v>
       </c>
       <c r="B39">
-        <v>1.015813120573046</v>
+        <v>1.024821337417049</v>
       </c>
       <c r="C39">
-        <v>1.024784186868782</v>
+        <v>1.041822238059088</v>
       </c>
       <c r="D39">
-        <v>0.983729594982175</v>
+        <v>0.9637015820328185</v>
       </c>
       <c r="E39">
-        <v>0.8974995145735799</v>
+        <v>0.9720330518478165</v>
       </c>
       <c r="F39">
-        <v>0.7211642112827884</v>
+        <v>0.7464342313787639</v>
       </c>
       <c r="G39">
-        <v>1.073684210526315</v>
+        <v>1.014652014652014</v>
       </c>
       <c r="H39">
-        <v>0.8953356086461896</v>
+        <v>0.8623801466441067</v>
       </c>
       <c r="I39">
-        <v>0.9939581219444701</v>
+        <v>1.07473006251184</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="2">
-        <v>43243</v>
+        <v>43250</v>
       </c>
       <c r="B40">
-        <v>1.019618502470301</v>
+        <v>1.021024757529352</v>
       </c>
       <c r="C40">
-        <v>1.028113069154238</v>
+        <v>1.055049034037213</v>
       </c>
       <c r="D40">
-        <v>0.975688208647171</v>
+        <v>0.9630323634124796</v>
       </c>
       <c r="E40">
-        <v>0.9003042005566224</v>
+        <v>0.9788431853264328</v>
       </c>
       <c r="F40">
-        <v>0.7685950413223142</v>
+        <v>0.6973058637083994</v>
       </c>
       <c r="G40">
-        <v>1.056140350877192</v>
+        <v>1.04029304029304</v>
       </c>
       <c r="H40">
-        <v>0.8822525597269631</v>
+        <v>0.8403835307388614</v>
       </c>
       <c r="I40">
-        <v>1.006964302186145</v>
+        <v>1.081407463534761</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="2">
-        <v>43244</v>
+        <v>43251</v>
       </c>
       <c r="B41">
-        <v>1.019202788481525</v>
+        <v>1.022380678917815</v>
       </c>
       <c r="C41">
-        <v>1.026032987906942</v>
+        <v>1.047790757122716</v>
       </c>
       <c r="D41">
-        <v>0.9783954753799556</v>
+        <v>0.9671279813689535</v>
       </c>
       <c r="E41">
-        <v>0.9046191020689953</v>
+        <v>0.9827022609643152</v>
       </c>
       <c r="F41">
-        <v>0.7696730147323034</v>
+        <v>0.6538827258320127</v>
       </c>
       <c r="G41">
-        <v>1.045614035087719</v>
+        <v>1.036630036630036</v>
       </c>
       <c r="H41">
-        <v>0.8782707622298073</v>
+        <v>0.8556119571348005</v>
       </c>
       <c r="I41">
-        <v>0.9933585462595701</v>
+        <v>1.082591399886343</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="2">
-        <v>43245</v>
+        <v>43252</v>
       </c>
       <c r="B42">
-        <v>1.021521193418928</v>
+        <v>1.023162327718224</v>
       </c>
       <c r="C42">
-        <v>1.023614376257735</v>
+        <v>1.059158442685175</v>
       </c>
       <c r="D42">
-        <v>0.9683437424612005</v>
+        <v>0.9690820997403431</v>
       </c>
       <c r="E42">
-        <v>0.9093654937326057</v>
+        <v>0.9849723054571874</v>
       </c>
       <c r="F42">
-        <v>0.7362558390226375</v>
+        <v>0.6288431061806656</v>
       </c>
       <c r="G42">
-        <v>1.028070175438596</v>
+        <v>1.058608058608058</v>
       </c>
       <c r="H42">
-        <v>0.8748577929465309</v>
+        <v>0.8499717992103787</v>
       </c>
       <c r="I42">
-        <v>1.006134120468592</v>
+        <v>1.083964766054177</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="2">
-        <v>43248</v>
+        <v>43255</v>
       </c>
       <c r="B43">
-        <v>1.022864269382665</v>
+        <v>1.021774502297091</v>
       </c>
       <c r="C43">
-        <v>1.023614376257735</v>
+        <v>1.063903047391822</v>
       </c>
       <c r="D43">
-        <v>0.9676736269332835</v>
+        <v>0.9779157855288165</v>
       </c>
       <c r="E43">
-        <v>0.9151906107743092</v>
+        <v>0.9854263143557617</v>
       </c>
       <c r="F43">
-        <v>0.7362558390226375</v>
+        <v>0.628526148969889</v>
       </c>
       <c r="G43">
-        <v>1.028070175438596</v>
+        <v>1.076923076923076</v>
       </c>
       <c r="H43">
-        <v>0.8731513083048926</v>
+        <v>0.8544839255499161</v>
       </c>
       <c r="I43">
-        <v>1.016419149524952</v>
+        <v>1.080128812275052</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="2">
-        <v>43249</v>
+        <v>43256</v>
       </c>
       <c r="B44">
-        <v>1.027197288265674</v>
+        <v>1.020147396630934</v>
       </c>
       <c r="C44">
-        <v>1.011777096537586</v>
+        <v>1.064650564704788</v>
       </c>
       <c r="D44">
-        <v>0.9649931648216153</v>
+        <v>0.9797895976657655</v>
       </c>
       <c r="E44">
-        <v>0.9238204137990551</v>
+        <v>0.9865613366021978</v>
       </c>
       <c r="F44">
-        <v>0.846209126841538</v>
+        <v>0.6114104595879556</v>
       </c>
       <c r="G44">
-        <v>0.9719298245614031</v>
+        <v>1.069597069597069</v>
       </c>
       <c r="H44">
-        <v>0.8697383390216161</v>
+        <v>0.8612521150592224</v>
       </c>
       <c r="I44">
-        <v>1.046674661009132</v>
+        <v>1.081502178442887</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="2">
-        <v>43250</v>
+        <v>43257</v>
       </c>
       <c r="B45">
-        <v>1.023391906368419</v>
+        <v>1.017323889739663</v>
       </c>
       <c r="C45">
-        <v>1.024622444565647</v>
+        <v>1.07377182518165</v>
       </c>
       <c r="D45">
-        <v>0.9643230492936983</v>
+        <v>0.9797895976657655</v>
       </c>
       <c r="E45">
-        <v>0.9302927660676147</v>
+        <v>0.9883773721964954</v>
       </c>
       <c r="F45">
-        <v>0.790513833992095</v>
+        <v>0.5892234548335974</v>
       </c>
       <c r="G45">
-        <v>0.9964912280701749</v>
+        <v>1.087912087912088</v>
       </c>
       <c r="H45">
-        <v>0.8475540386803193</v>
+        <v>0.8612521150592224</v>
       </c>
       <c r="I45">
-        <v>1.05317775112997</v>
+        <v>1.068573593483614</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="2">
-        <v>43251</v>
+        <v>43258</v>
       </c>
       <c r="B46">
-        <v>1.024750971331724</v>
+        <v>1.019254083716182</v>
       </c>
       <c r="C46">
-        <v>1.017573489308082</v>
+        <v>1.073004942135188</v>
       </c>
       <c r="D46">
-        <v>0.9684241563245504</v>
+        <v>0.9824664721471211</v>
       </c>
       <c r="E46">
-        <v>0.9339604323531316</v>
+        <v>0.9874693543993465</v>
       </c>
       <c r="F46">
-        <v>0.7412863816025872</v>
+        <v>0.6057052297939777</v>
       </c>
       <c r="G46">
-        <v>0.9929824561403504</v>
+        <v>1.073260073260073</v>
       </c>
       <c r="H46">
-        <v>0.8629124004550633</v>
+        <v>0.860124083474338</v>
       </c>
       <c r="I46">
-        <v>1.054330781293239</v>
+        <v>1.066821367683274</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="2">
-        <v>43252</v>
+        <v>43259</v>
       </c>
       <c r="B47">
-        <v>1.025534432310571</v>
+        <v>1.020865237366003</v>
       </c>
       <c r="C47">
-        <v>1.028613341859284</v>
+        <v>1.076359087176785</v>
       </c>
       <c r="D47">
-        <v>0.9703808936660681</v>
+        <v>0.9758010546885458</v>
       </c>
       <c r="E47">
-        <v>0.9361178831093182</v>
+        <v>0.9876963588486337</v>
       </c>
       <c r="F47">
-        <v>0.7128997484728711</v>
+        <v>0.6129952456418383</v>
       </c>
       <c r="G47">
-        <v>1.014035087719298</v>
+        <v>1.073260073260073</v>
       </c>
       <c r="H47">
-        <v>0.8572241183162693</v>
+        <v>0.8522278623801474</v>
       </c>
       <c r="I47">
-        <v>1.055668296282631</v>
+        <v>1.06909452547831</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="2">
-        <v>43255</v>
+        <v>43262</v>
       </c>
       <c r="B48">
-        <v>1.024143389348129</v>
+        <v>1.020610005104645</v>
       </c>
       <c r="C48">
-        <v>1.033221116774182</v>
+        <v>1.077509411746479</v>
       </c>
       <c r="D48">
-        <v>0.9792264186345727</v>
+        <v>0.97711272318441</v>
       </c>
       <c r="E48">
-        <v>0.9365493732605554</v>
+        <v>0.988150367747208</v>
       </c>
       <c r="F48">
-        <v>0.7125404240028747</v>
+        <v>0.6148969889064976</v>
       </c>
       <c r="G48">
-        <v>1.03157894736842</v>
+        <v>1.084249084249084</v>
       </c>
       <c r="H48">
-        <v>0.8617747440273046</v>
+        <v>0.8494077834179365</v>
       </c>
       <c r="I48">
-        <v>1.051932478553639</v>
+        <v>1.061801477552567</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="2">
-        <v>43256</v>
+        <v>43263</v>
       </c>
       <c r="B49">
-        <v>1.022512511392163</v>
+        <v>1.0218702143951</v>
       </c>
       <c r="C49">
-        <v>1.033947076413835</v>
+        <v>1.079387887895642</v>
       </c>
       <c r="D49">
-        <v>0.9811027421127404</v>
+        <v>0.9865085526139681</v>
       </c>
       <c r="E49">
-        <v>0.9376280986386487</v>
+        <v>0.987923363297921</v>
       </c>
       <c r="F49">
-        <v>0.6931369026230687</v>
+        <v>0.5803486529318541</v>
       </c>
       <c r="G49">
-        <v>1.024561403508771</v>
+        <v>1.084249084249084</v>
       </c>
       <c r="H49">
-        <v>0.8686006825938575</v>
+        <v>0.8584320360970116</v>
       </c>
       <c r="I49">
-        <v>1.053269993543031</v>
+        <v>1.045179011176359</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="2">
-        <v>43257</v>
+        <v>43264</v>
       </c>
       <c r="B50">
-        <v>1.019682458468574</v>
+        <v>1.019158371618172</v>
       </c>
       <c r="C50">
-        <v>1.042805288597168</v>
+        <v>1.075042217299022</v>
       </c>
       <c r="D50">
-        <v>0.9811027421127404</v>
+        <v>0.9804588162861045</v>
       </c>
       <c r="E50">
-        <v>0.9393540592435978</v>
+        <v>0.9876963588486336</v>
       </c>
       <c r="F50">
-        <v>0.6679841897233202</v>
+        <v>0.593660855784469</v>
       </c>
       <c r="G50">
-        <v>1.042105263157894</v>
+        <v>1.091575091575091</v>
       </c>
       <c r="H50">
-        <v>0.8686006825938575</v>
+        <v>0.8510998307952631</v>
       </c>
       <c r="I50">
-        <v>1.040678904160133</v>
+        <v>1.063885205531351</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="2">
-        <v>43258</v>
+        <v>43265</v>
       </c>
       <c r="B51">
-        <v>1.021617127416338</v>
+        <v>1.023704696273609</v>
       </c>
       <c r="C51">
-        <v>1.042060521712964</v>
+        <v>1.077699195934745</v>
       </c>
       <c r="D51">
-        <v>0.9837832042244085</v>
+        <v>0.9697513183606823</v>
       </c>
       <c r="E51">
-        <v>0.9384910789411232</v>
+        <v>0.9876963588486336</v>
       </c>
       <c r="F51">
-        <v>0.6866690621631333</v>
+        <v>0.5797147385103011</v>
       </c>
       <c r="G51">
-        <v>1.028070175438596</v>
+        <v>1.076923076923077</v>
       </c>
       <c r="H51">
-        <v>0.8674630261660987</v>
+        <v>0.8482797518330522</v>
       </c>
       <c r="I51">
-        <v>1.038972419518495</v>
+        <v>1.104233756393256</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="2">
-        <v>43259</v>
+        <v>43266</v>
       </c>
       <c r="B52">
-        <v>1.023232016372736</v>
+        <v>1.026767483409903</v>
       </c>
       <c r="C52">
-        <v>1.045317936469128</v>
+        <v>1.076603095418842</v>
       </c>
       <c r="D52">
-        <v>0.9771088535663551</v>
+        <v>0.9644243381427847</v>
       </c>
       <c r="E52">
-        <v>0.9387068240167419</v>
+        <v>0.9879233632979209</v>
       </c>
       <c r="F52">
-        <v>0.6949335249730507</v>
+        <v>0.5942947702060222</v>
       </c>
       <c r="G52">
-        <v>1.028070175438596</v>
+        <v>1.073260073260073</v>
       </c>
       <c r="H52">
-        <v>0.859499431171787</v>
+        <v>0.8420755781161881</v>
       </c>
       <c r="I52">
-        <v>1.041186237431972</v>
+        <v>1.113799962114037</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="2">
-        <v>43262</v>
+        <v>43270</v>
       </c>
       <c r="B53">
-        <v>1.022976192379643</v>
+        <v>1.033259954058193</v>
       </c>
       <c r="C53">
-        <v>1.046435086795434</v>
+        <v>1.069991634003129</v>
       </c>
       <c r="D53">
-        <v>0.9784222800010725</v>
+        <v>0.9530476215970235</v>
       </c>
       <c r="E53">
-        <v>0.939138314167979</v>
+        <v>0.9865613366021976</v>
       </c>
       <c r="F53">
-        <v>0.6970894717930292</v>
+        <v>0.6637083993660857</v>
       </c>
       <c r="G53">
-        <v>1.03859649122807</v>
+        <v>1.058608058608058</v>
       </c>
       <c r="H53">
-        <v>0.8566552901023899</v>
+        <v>0.8099266779469833</v>
       </c>
       <c r="I53">
-        <v>1.034083571626234</v>
+        <v>1.145055881795795</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="2">
-        <v>43263</v>
+        <v>43271</v>
       </c>
       <c r="B54">
-        <v>1.024239323345539</v>
+        <v>1.033882082695253</v>
       </c>
       <c r="C54">
-        <v>1.048259389516842</v>
+        <v>1.0718236323919</v>
       </c>
       <c r="D54">
-        <v>0.9878307020130274</v>
+        <v>0.9651203255079372</v>
       </c>
       <c r="E54">
-        <v>0.9389225690923605</v>
+        <v>0.983837283210751</v>
       </c>
       <c r="F54">
-        <v>0.6579231045634208</v>
+        <v>0.6640253565768622</v>
       </c>
       <c r="G54">
-        <v>1.03859649122807</v>
+        <v>1.073260073260073</v>
       </c>
       <c r="H54">
-        <v>0.8657565415244605</v>
+        <v>0.8121827411167519</v>
       </c>
       <c r="I54">
-        <v>1.017895028133936</v>
+        <v>1.128196628149271</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="2">
-        <v>43264</v>
+        <v>43272</v>
       </c>
       <c r="B55">
-        <v>1.021521193418928</v>
+        <v>1.036960821847881</v>
       </c>
       <c r="C55">
-        <v>1.044039043839687</v>
+        <v>1.065022386787922</v>
       </c>
       <c r="D55">
-        <v>0.9817728576406576</v>
+        <v>0.957062933319057</v>
       </c>
       <c r="E55">
-        <v>0.9387068240167418</v>
+        <v>0.982702260964315</v>
       </c>
       <c r="F55">
-        <v>0.67301473230327</v>
+        <v>0.7163232963549924</v>
       </c>
       <c r="G55">
-        <v>1.045614035087719</v>
+        <v>1.062271062271062</v>
       </c>
       <c r="H55">
-        <v>0.8583617747440281</v>
+        <v>0.8003384094754659</v>
       </c>
       <c r="I55">
-        <v>1.036112904713588</v>
+        <v>1.149507482477742</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="2">
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="B56">
-        <v>1.026078058295893</v>
+        <v>1.038524119448698</v>
       </c>
       <c r="C56">
-        <v>1.04661939779203</v>
+        <v>1.067005437897966</v>
       </c>
       <c r="D56">
-        <v>0.9710510091939855</v>
+        <v>0.9530743903418373</v>
       </c>
       <c r="E56">
-        <v>0.9387068240167418</v>
+        <v>0.977254154181422</v>
       </c>
       <c r="F56">
-        <v>0.6572044556234281</v>
+        <v>0.6652931854199685</v>
       </c>
       <c r="G56">
-        <v>1.031578947368421</v>
+        <v>1.062271062271062</v>
       </c>
       <c r="H56">
-        <v>0.855517633674631</v>
+        <v>0.8054145516074456</v>
       </c>
       <c r="I56">
-        <v>1.075408172677798</v>
+        <v>1.149460125023678</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="2">
-        <v>43266</v>
+        <v>43276</v>
       </c>
       <c r="B57">
-        <v>1.029147946213006</v>
+        <v>1.043517100561511</v>
       </c>
       <c r="C57">
-        <v>1.045554907750466</v>
+        <v>1.052361070227896</v>
       </c>
       <c r="D57">
-        <v>0.965716889591766</v>
+        <v>0.9584013705597348</v>
       </c>
       <c r="E57">
-        <v>0.9389225690923605</v>
+        <v>0.9697630073549444</v>
       </c>
       <c r="F57">
-        <v>0.6737333812432629</v>
+        <v>0.7610142630744853</v>
       </c>
       <c r="G57">
-        <v>1.028070175438596</v>
+        <v>1.051282051282051</v>
       </c>
       <c r="H57">
-        <v>0.8492605233219575</v>
+        <v>0.7969543147208129</v>
       </c>
       <c r="I57">
-        <v>1.084724656397012</v>
+        <v>1.148418261034287</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="2">
-        <v>43270</v>
+        <v>43277</v>
       </c>
       <c r="B58">
-        <v>1.035655469037303</v>
+        <v>1.049993619193466</v>
       </c>
       <c r="C58">
-        <v>1.039134114460891</v>
+        <v>1.054681085100779</v>
       </c>
       <c r="D58">
-        <v>0.9543249256171767</v>
+        <v>0.9584281393045485</v>
       </c>
       <c r="E58">
-        <v>0.9376280986386485</v>
+        <v>0.9672659584127851</v>
       </c>
       <c r="F58">
-        <v>0.7524254401724761</v>
+        <v>0.7169572107765454</v>
       </c>
       <c r="G58">
-        <v>1.014035087719298</v>
+        <v>1.054945054945055</v>
       </c>
       <c r="H58">
-        <v>0.8168373151308311</v>
+        <v>0.7930062041737175</v>
       </c>
       <c r="I58">
-        <v>1.115164652707315</v>
+        <v>1.161346845993559</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="2">
-        <v>43271</v>
+        <v>43278</v>
       </c>
       <c r="B59">
-        <v>1.036279040020466</v>
+        <v>1.055656584992343</v>
       </c>
       <c r="C59">
-        <v>1.040913279795378</v>
+        <v>1.045606302384309</v>
       </c>
       <c r="D59">
-        <v>0.9664138097407997</v>
+        <v>0.9510667344808207</v>
       </c>
       <c r="E59">
-        <v>0.9350391577312246</v>
+        <v>0.9629528738763281</v>
       </c>
       <c r="F59">
-        <v>0.7527847646424726</v>
+        <v>0.8282091917591128</v>
       </c>
       <c r="G59">
-        <v>1.028070175438596</v>
+        <v>1.036630036630036</v>
       </c>
       <c r="H59">
-        <v>0.8191126279863488</v>
+        <v>0.7845459672870846</v>
       </c>
       <c r="I59">
-        <v>1.098745503182364</v>
+        <v>1.181331691608259</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="2">
-        <v>43272</v>
+        <v>43279</v>
       </c>
       <c r="B60">
-        <v>1.039364916937147</v>
+        <v>1.058543899948954</v>
       </c>
       <c r="C60">
-        <v>1.034308175509207</v>
+        <v>1.052066711078749</v>
       </c>
       <c r="D60">
-        <v>0.9583456187846789</v>
+        <v>0.9450437668977707</v>
       </c>
       <c r="E60">
-        <v>0.9339604323531313</v>
+        <v>0.9516026514119678</v>
       </c>
       <c r="F60">
-        <v>0.8120733021918799</v>
+        <v>0.8041204437400954</v>
       </c>
       <c r="G60">
-        <v>1.017543859649123</v>
+        <v>1.04029304029304</v>
       </c>
       <c r="H60">
-        <v>0.8071672354948811</v>
+        <v>0.776649746192894</v>
       </c>
       <c r="I60">
-        <v>1.119500046121207</v>
+        <v>1.179105891267285</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="2">
-        <v>43273</v>
+        <v>43280</v>
       </c>
       <c r="B61">
-        <v>1.040931838894841</v>
+        <v>1.058480091883614</v>
       </c>
       <c r="C61">
-        <v>1.036234037351188</v>
+        <v>1.052864579298806</v>
       </c>
       <c r="D61">
-        <v>0.9543517302382936</v>
+        <v>0.930374494739942</v>
       </c>
       <c r="E61">
-        <v>0.9287825505382837</v>
+        <v>0.9432034867883412</v>
       </c>
       <c r="F61">
-        <v>0.7542220625224583</v>
+        <v>0.7629160063391445</v>
       </c>
       <c r="G61">
-        <v>1.017543859649123</v>
+        <v>1.043956043956044</v>
       </c>
       <c r="H61">
-        <v>0.8122866894197959</v>
+        <v>0.7935702199661596</v>
       </c>
       <c r="I61">
-        <v>1.119453924914676</v>
+        <v>1.212303466565637</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="2">
-        <v>43276</v>
+        <v>43283</v>
       </c>
       <c r="B62">
-        <v>1.045936395759718</v>
+        <v>1.066472052067382</v>
       </c>
       <c r="C62">
-        <v>1.022011999022024</v>
+        <v>1.056094783646025</v>
       </c>
       <c r="D62">
-        <v>0.959685849840513</v>
+        <v>0.9280188451963491</v>
       </c>
       <c r="E62">
-        <v>0.9216629630428684</v>
+        <v>0.9316262598746936</v>
       </c>
       <c r="F62">
-        <v>0.8627380524613733</v>
+        <v>0.8450079239302697</v>
       </c>
       <c r="G62">
-        <v>1.007017543859649</v>
+        <v>1.051282051282051</v>
       </c>
       <c r="H62">
-        <v>0.8037542662116048</v>
+        <v>0.773829667230683</v>
       </c>
       <c r="I62">
-        <v>1.118439258370999</v>
+        <v>1.2030687630233</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="2">
-        <v>43277</v>
+        <v>43284</v>
       </c>
       <c r="B63">
-        <v>1.052427929584447</v>
+        <v>1.063377360898418</v>
       </c>
       <c r="C63">
-        <v>1.024265106919186</v>
+        <v>1.050869908748664</v>
       </c>
       <c r="D63">
-        <v>0.9597126544616298</v>
+        <v>0.9357014749578395</v>
       </c>
       <c r="E63">
-        <v>0.9192897672110633</v>
+        <v>0.9067465722328159</v>
       </c>
       <c r="F63">
-        <v>0.8127919511318726</v>
+        <v>0.8348652931854202</v>
       </c>
       <c r="G63">
-        <v>1.010526315789474</v>
+        <v>1.036630036630037</v>
       </c>
       <c r="H63">
-        <v>0.799772468714449</v>
+        <v>0.7766497461928938</v>
       </c>
       <c r="I63">
-        <v>1.131030347753897</v>
+        <v>1.187109301003978</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="2">
-        <v>43278</v>
+        <v>43285</v>
       </c>
       <c r="B64">
-        <v>1.058104024431192</v>
+        <v>1.059708397141399</v>
       </c>
       <c r="C64">
-        <v>1.015452032122774</v>
+        <v>1.050869908748664</v>
       </c>
       <c r="D64">
-        <v>0.9523413836545427</v>
+        <v>0.9397703241694999</v>
       </c>
       <c r="E64">
-        <v>0.9151906107743089</v>
+        <v>0.8896304367565605</v>
       </c>
       <c r="F64">
-        <v>0.9389148401006114</v>
+        <v>0.8348652931854202</v>
       </c>
       <c r="G64">
-        <v>0.992982456140351</v>
+        <v>1.036630036630037</v>
       </c>
       <c r="H64">
-        <v>0.7912400455062578</v>
+        <v>0.7693175408911455</v>
       </c>
       <c r="I64">
-        <v>1.150493496909879</v>
+        <v>1.178963818905096</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="2">
-        <v>43279</v>
+        <v>43286</v>
       </c>
       <c r="B65">
-        <v>1.060998033353054</v>
+        <v>1.062085247575294</v>
       </c>
       <c r="C65">
-        <v>1.021726128904855</v>
+        <v>1.059929198878337</v>
       </c>
       <c r="D65">
-        <v>0.9463103439032896</v>
+        <v>0.9370399121985172</v>
       </c>
       <c r="E65">
-        <v>0.9044033569933764</v>
+        <v>0.8667029873785527</v>
       </c>
       <c r="F65">
-        <v>0.9116061803808846</v>
+        <v>0.8633914421553092</v>
       </c>
       <c r="G65">
-        <v>0.9964912280701755</v>
+        <v>1.04029304029304</v>
       </c>
       <c r="H65">
-        <v>0.7832764505119461</v>
+        <v>0.7625493513818391</v>
       </c>
       <c r="I65">
-        <v>1.148325800202934</v>
+        <v>1.169113468459935</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="2">
-        <v>43280</v>
+        <v>43287</v>
       </c>
       <c r="B66">
-        <v>1.06093407735478</v>
+        <v>1.062755232261358</v>
       </c>
       <c r="C66">
-        <v>1.022500987380339</v>
+        <v>1.068918772367422</v>
       </c>
       <c r="D66">
-        <v>0.9316214115313486</v>
+        <v>0.9438391733811603</v>
       </c>
       <c r="E66">
-        <v>0.8964207891954864</v>
+        <v>0.8489966403341506</v>
       </c>
       <c r="F66">
-        <v>0.8648939992813517</v>
+        <v>0.7898573692551508</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>1.032967032967033</v>
       </c>
       <c r="H66">
-        <v>0.8003412969283283</v>
+        <v>0.7676254935138188</v>
       </c>
       <c r="I66">
-        <v>1.180656765980998</v>
+        <v>1.1607785565448</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="2">
-        <v>43283</v>
+        <v>43290</v>
       </c>
       <c r="B67">
-        <v>1.068944566138497</v>
+        <v>1.056422281776417</v>
       </c>
       <c r="C67">
-        <v>1.02563803577138</v>
+        <v>1.078349884580228</v>
       </c>
       <c r="D67">
-        <v>0.9292626048730807</v>
+        <v>0.9484701662339055</v>
       </c>
       <c r="E67">
-        <v>0.8854177903389352</v>
+        <v>0.8358303822754926</v>
       </c>
       <c r="F67">
-        <v>0.9579590370104211</v>
+        <v>0.7619651347068148</v>
       </c>
       <c r="G67">
-        <v>1.007017543859649</v>
+        <v>1.047619047619048</v>
       </c>
       <c r="H67">
-        <v>0.780432309442549</v>
+        <v>0.7873660462492954</v>
       </c>
       <c r="I67">
-        <v>1.1716631307075</v>
+        <v>1.144392877438909</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="2">
-        <v>43284</v>
+        <v>43291</v>
       </c>
       <c r="B68">
-        <v>1.065842700222248</v>
+        <v>1.06072932618683</v>
       </c>
       <c r="C68">
-        <v>1.020563841191628</v>
+        <v>1.082095217438456</v>
       </c>
       <c r="D68">
-        <v>0.9369555311335678</v>
+        <v>0.9484433974890918</v>
       </c>
       <c r="E68">
-        <v>0.8617721300511313</v>
+        <v>0.8283392354490148</v>
       </c>
       <c r="F68">
-        <v>0.946460653970536</v>
+        <v>0.7172741679873219</v>
       </c>
       <c r="G68">
-        <v>0.9929824561403511</v>
+        <v>1.051282051282051</v>
       </c>
       <c r="H68">
-        <v>0.7832764505119461</v>
+        <v>0.7907501410039485</v>
       </c>
       <c r="I68">
-        <v>1.156120284106633</v>
+        <v>1.122087516575109</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="2">
-        <v>43285</v>
+        <v>43292</v>
       </c>
       <c r="B69">
-        <v>1.062165230321539</v>
+        <v>1.07253381827463</v>
       </c>
       <c r="C69">
-        <v>1.020563841191628</v>
+        <v>1.074418640680434</v>
       </c>
       <c r="D69">
-        <v>0.9410298335433032</v>
+        <v>0.9397703241694997</v>
       </c>
       <c r="E69">
-        <v>0.8455049513494852</v>
+        <v>0.8244801598111323</v>
       </c>
       <c r="F69">
-        <v>0.946460653970536</v>
+        <v>0.7683042789223457</v>
       </c>
       <c r="G69">
-        <v>0.9929824561403511</v>
+        <v>1.043956043956044</v>
       </c>
       <c r="H69">
-        <v>0.7758816837315138</v>
+        <v>0.7766497461928937</v>
       </c>
       <c r="I69">
-        <v>1.148187436583342</v>
+        <v>1.128054555787081</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="2">
-        <v>43286</v>
+        <v>43293</v>
       </c>
       <c r="B70">
-        <v>1.064547591257216</v>
+        <v>1.067652501276162</v>
       </c>
       <c r="C70">
-        <v>1.029361870192399</v>
+        <v>1.083818767719646</v>
       </c>
       <c r="D70">
-        <v>0.9382957621894018</v>
+        <v>0.941135530154991</v>
       </c>
       <c r="E70">
-        <v>0.8237146987120018</v>
+        <v>0.823118133115409</v>
       </c>
       <c r="F70">
-        <v>0.9787998562702125</v>
+        <v>0.7160063391442157</v>
       </c>
       <c r="G70">
-        <v>0.9964912280701756</v>
+        <v>1.043956043956044</v>
       </c>
       <c r="H70">
-        <v>0.7690557451649608</v>
+        <v>0.7935702199661594</v>
       </c>
       <c r="I70">
-        <v>1.138594225624943</v>
+        <v>1.111621519227126</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="2">
-        <v>43287</v>
+        <v>43294</v>
       </c>
       <c r="B71">
-        <v>1.065219129239084</v>
+        <v>1.070667432363452</v>
       </c>
       <c r="C71">
-        <v>1.038092193112788</v>
+        <v>1.084988458022836</v>
       </c>
       <c r="D71">
-        <v>0.9451041359530387</v>
+        <v>0.9331049067109242</v>
       </c>
       <c r="E71">
-        <v>0.8068865828137471</v>
+        <v>0.8201670752746754</v>
       </c>
       <c r="F71">
-        <v>0.8954365792310461</v>
+        <v>0.6909667194928687</v>
       </c>
       <c r="G71">
-        <v>0.9894736842105265</v>
+        <v>1.036630036630037</v>
       </c>
       <c r="H71">
-        <v>0.7741751990898755</v>
+        <v>0.7918781725888328</v>
       </c>
       <c r="I71">
-        <v>1.130476893275529</v>
+        <v>1.124550104186399</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="2">
-        <v>43290</v>
+        <v>43297</v>
       </c>
       <c r="B72">
-        <v>1.05887149641047</v>
+        <v>1.069231750893314</v>
       </c>
       <c r="C72">
-        <v>1.04725132120893</v>
+        <v>1.083872991773436</v>
       </c>
       <c r="D72">
-        <v>0.9497413354062244</v>
+        <v>0.9317664694702464</v>
       </c>
       <c r="E72">
-        <v>0.7943733684278654</v>
+        <v>0.8190320530282393</v>
       </c>
       <c r="F72">
-        <v>0.8638160258713623</v>
+        <v>0.7055467511885898</v>
       </c>
       <c r="G72">
-        <v>1.003508771929825</v>
+        <v>1.043956043956044</v>
       </c>
       <c r="H72">
-        <v>0.7940841865756549</v>
+        <v>0.7873660462492953</v>
       </c>
       <c r="I72">
-        <v>1.114518955815884</v>
+        <v>1.104044326577003</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="2">
-        <v>43291</v>
+        <v>43298</v>
       </c>
       <c r="B73">
-        <v>1.06318852629391</v>
+        <v>1.072406202143952</v>
       </c>
       <c r="C73">
-        <v>1.050888642305017</v>
+        <v>1.088179930903063</v>
       </c>
       <c r="D73">
-        <v>0.9497145307851077</v>
+        <v>0.9317664694702464</v>
       </c>
       <c r="E73">
-        <v>0.7872537809324501</v>
+        <v>0.8174430218832289</v>
       </c>
       <c r="F73">
-        <v>0.8131512756018688</v>
+        <v>0.6757527733755945</v>
       </c>
       <c r="G73">
-        <v>1.007017543859649</v>
+        <v>1.047619047619048</v>
       </c>
       <c r="H73">
-        <v>0.7974971558589313</v>
+        <v>0.7828539199097578</v>
       </c>
       <c r="I73">
-        <v>1.092795867539895</v>
+        <v>1.113515817389657</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="2">
-        <v>43292</v>
+        <v>43299</v>
       </c>
       <c r="B74">
-        <v>1.07502038597445</v>
+        <v>1.076186830015315</v>
       </c>
       <c r="C74">
-        <v>1.043433450565159</v>
+        <v>1.090530930949541</v>
       </c>
       <c r="D74">
-        <v>0.9410298335433032</v>
+        <v>0.9290895949888909</v>
       </c>
       <c r="E74">
-        <v>0.7835861146469332</v>
+        <v>0.8144919640424952</v>
       </c>
       <c r="F74">
-        <v>0.8710025152712904</v>
+        <v>0.6966719492868465</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>1.054945054945055</v>
       </c>
       <c r="H74">
-        <v>0.7832764505119462</v>
+        <v>0.780597856739989</v>
       </c>
       <c r="I74">
-        <v>1.098607139562771</v>
+        <v>1.117683273347224</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="2">
-        <v>43293</v>
+        <v>43300</v>
       </c>
       <c r="B75">
-        <v>1.070127752106552</v>
+        <v>1.08325357325166</v>
       </c>
       <c r="C75">
-        <v>1.05256248707002</v>
+        <v>1.086220118673215</v>
       </c>
       <c r="D75">
-        <v>0.9423968692202538</v>
+        <v>0.9210857402896377</v>
       </c>
       <c r="E75">
-        <v>0.7822916441932213</v>
+        <v>0.8083628439117406</v>
       </c>
       <c r="F75">
-        <v>0.8117139777218833</v>
+        <v>0.7182250396196516</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>1.04029304029304</v>
       </c>
       <c r="H75">
-        <v>0.8003412969283284</v>
+        <v>0.7760857304004515</v>
       </c>
       <c r="I75">
-        <v>1.082603080896597</v>
+        <v>1.116594051903769</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="2">
-        <v>43294</v>
+        <v>43301</v>
       </c>
       <c r="B76">
-        <v>1.07314967302496</v>
+        <v>1.081275523226137</v>
       </c>
       <c r="C76">
-        <v>1.053698444640877</v>
+        <v>1.0851898616512</v>
       </c>
       <c r="D76">
-        <v>0.9343554828852495</v>
+        <v>0.9405198490242792</v>
       </c>
       <c r="E76">
-        <v>0.7794869582101789</v>
+        <v>0.8026877326795605</v>
       </c>
       <c r="F76">
-        <v>0.7833273445921671</v>
+        <v>0.7160063391442157</v>
       </c>
       <c r="G76">
-        <v>0.9929824561403511</v>
+        <v>1.058608058608059</v>
       </c>
       <c r="H76">
-        <v>0.7986348122866902</v>
+        <v>0.792442188381275</v>
       </c>
       <c r="I76">
-        <v>1.095194170279495</v>
+        <v>1.078708088653153</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="2">
-        <v>43297</v>
+        <v>43304</v>
       </c>
       <c r="B77">
-        <v>1.071710663063813</v>
+        <v>1.085630423685555</v>
       </c>
       <c r="C77">
-        <v>1.052615147354762</v>
+        <v>1.087184532201342</v>
       </c>
       <c r="D77">
-        <v>0.9330152518294156</v>
+        <v>0.9418850550097707</v>
       </c>
       <c r="E77">
-        <v>0.7784082328320856</v>
+        <v>0.7951965858530827</v>
       </c>
       <c r="F77">
-        <v>0.7998562702120019</v>
+        <v>0.727099841521395</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>1.084249084249084</v>
       </c>
       <c r="H77">
-        <v>0.794084186575655</v>
+        <v>0.8009024252679077</v>
       </c>
       <c r="I77">
-        <v>1.075223687851675</v>
+        <v>1.075629854139041</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="2">
-        <v>43298</v>
+        <v>43305</v>
       </c>
       <c r="B78">
-        <v>1.074892473977904</v>
+        <v>1.086491832567638</v>
       </c>
       <c r="C78">
-        <v>1.056797878542816</v>
+        <v>1.092382295071808</v>
       </c>
       <c r="D78">
-        <v>0.9330152518294156</v>
+        <v>0.953368846534786</v>
       </c>
       <c r="E78">
-        <v>0.7768980173027551</v>
+        <v>0.788840461273041</v>
       </c>
       <c r="F78">
-        <v>0.7660797700323396</v>
+        <v>0.7302694136291604</v>
       </c>
       <c r="G78">
-        <v>1.003508771929825</v>
+        <v>1.080586080586081</v>
       </c>
       <c r="H78">
-        <v>0.7895335608646198</v>
+        <v>0.8138747884940781</v>
       </c>
       <c r="I78">
-        <v>1.084447929157827</v>
+        <v>1.057728736503125</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="2">
-        <v>43299</v>
+        <v>43306</v>
       </c>
       <c r="B79">
-        <v>1.078681866875591</v>
+        <v>1.077797983665136</v>
       </c>
       <c r="C79">
-        <v>1.059081078031259</v>
+        <v>1.102324662648923</v>
       </c>
       <c r="D79">
-        <v>0.9303347897177475</v>
+        <v>0.9533420777899724</v>
       </c>
       <c r="E79">
-        <v>0.7740933313197127</v>
+        <v>0.7761282121129573</v>
       </c>
       <c r="F79">
-        <v>0.7897951850521026</v>
+        <v>0.6973058637083998</v>
       </c>
       <c r="G79">
-        <v>1.010526315789474</v>
+        <v>1.076923076923077</v>
       </c>
       <c r="H79">
-        <v>0.7872582480091022</v>
+        <v>0.8138747884940781</v>
       </c>
       <c r="I79">
-        <v>1.088506595332534</v>
+        <v>1.060191324114415</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="2">
-        <v>43300</v>
+        <v>43307</v>
       </c>
       <c r="B80">
-        <v>1.085764993684346</v>
+        <v>1.088820826952528</v>
       </c>
       <c r="C80">
-        <v>1.054894585394295</v>
+        <v>1.098982137047423</v>
       </c>
       <c r="D80">
-        <v>0.9223202080038601</v>
+        <v>0.9465695853521428</v>
       </c>
       <c r="E80">
-        <v>0.7682682142780092</v>
+        <v>0.7634159629528737</v>
       </c>
       <c r="F80">
-        <v>0.8142292490118582</v>
+        <v>0.7020602218700479</v>
       </c>
       <c r="G80">
-        <v>0.9964912280701756</v>
+        <v>1.091575091575092</v>
       </c>
       <c r="H80">
-        <v>0.7827076222980669</v>
+        <v>0.807670614777214</v>
       </c>
       <c r="I80">
-        <v>1.087445807582327</v>
+        <v>1.067437014586095</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="2">
-        <v>43301</v>
+        <v>43308</v>
       </c>
       <c r="B81">
-        <v>1.083782357737877</v>
+        <v>1.08856559469117</v>
       </c>
       <c r="C81">
-        <v>1.053894039984203</v>
+        <v>1.091770337893318</v>
       </c>
       <c r="D81">
-        <v>0.9417803629345701</v>
+        <v>0.942581042374923</v>
       </c>
       <c r="E81">
-        <v>0.762874587387543</v>
+        <v>0.7497956959956413</v>
       </c>
       <c r="F81">
-        <v>0.8117139777218834</v>
+        <v>0.695721077654517</v>
       </c>
       <c r="G81">
-        <v>1.014035087719299</v>
+        <v>1.084249084249084</v>
       </c>
       <c r="H81">
-        <v>0.7992036405005698</v>
+        <v>0.8054145516074452</v>
       </c>
       <c r="I81">
-        <v>1.050548842357717</v>
+        <v>1.069757529835196</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="2">
-        <v>43304</v>
+        <v>43311</v>
       </c>
       <c r="B82">
-        <v>1.088147354620022</v>
+        <v>1.08974604389995</v>
       </c>
       <c r="C82">
-        <v>1.055831186172915</v>
+        <v>1.085488093947047</v>
       </c>
       <c r="D82">
-        <v>0.943147398611521</v>
+        <v>0.9426078111197367</v>
       </c>
       <c r="E82">
-        <v>0.7557549998921276</v>
+        <v>0.733905384545537</v>
       </c>
       <c r="F82">
-        <v>0.8242903341717577</v>
+        <v>0.7064976228209195</v>
       </c>
       <c r="G82">
-        <v>1.03859649122807</v>
+        <v>1.091575091575092</v>
       </c>
       <c r="H82">
-        <v>0.8077360637087608</v>
+        <v>0.8042865200225608</v>
       </c>
       <c r="I82">
-        <v>1.047550963933217</v>
+        <v>1.072078045084296</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="2">
-        <v>43305</v>
+        <v>43312</v>
       </c>
       <c r="B83">
-        <v>1.08901076059671</v>
+        <v>1.08558256763655</v>
       </c>
       <c r="C83">
-        <v>1.060879050610296</v>
+        <v>1.090790431778394</v>
       </c>
       <c r="D83">
-        <v>0.9546465810705769</v>
+        <v>0.9318735444495008</v>
       </c>
       <c r="E83">
-        <v>0.7497141377748054</v>
+        <v>0.7205121220375919</v>
       </c>
       <c r="F83">
-        <v>0.8278835788717217</v>
+        <v>0.6798732171156897</v>
       </c>
       <c r="G83">
-        <v>1.035087719298246</v>
+        <v>1.084249084249084</v>
       </c>
       <c r="H83">
-        <v>0.8208191126279873</v>
+        <v>0.8065425831923296</v>
       </c>
       <c r="I83">
-        <v>1.030117147864589</v>
+        <v>1.069899602197386</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="2">
-        <v>43306</v>
+        <v>43313</v>
       </c>
       <c r="B84">
-        <v>1.080296755831988</v>
+        <v>1.088916539050537</v>
       </c>
       <c r="C84">
-        <v>1.070534689962575</v>
+        <v>1.089655599795498</v>
       </c>
       <c r="D84">
-        <v>0.9546197764494601</v>
+        <v>0.9272157828519422</v>
       </c>
       <c r="E84">
-        <v>0.7376324135401611</v>
+        <v>0.7080268773267956</v>
       </c>
       <c r="F84">
-        <v>0.7905138339920954</v>
+        <v>0.6884310618066565</v>
       </c>
       <c r="G84">
-        <v>1.031578947368421</v>
+        <v>1.098901098901099</v>
       </c>
       <c r="H84">
-        <v>0.8208191126279873</v>
+        <v>0.7918781725888326</v>
       </c>
       <c r="I84">
-        <v>1.032515450604188</v>
+        <v>1.077050577760939</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="2">
-        <v>43307</v>
+        <v>43314</v>
       </c>
       <c r="B85">
-        <v>1.091345154533682</v>
+        <v>1.097913476263401</v>
       </c>
       <c r="C85">
-        <v>1.067288559553141</v>
+        <v>1.095023781120734</v>
       </c>
       <c r="D85">
-        <v>0.9478382073069399</v>
+        <v>0.9292234387129588</v>
       </c>
       <c r="E85">
-        <v>0.7255506893055167</v>
+        <v>0.6937255970217016</v>
       </c>
       <c r="F85">
-        <v>0.7959037010420416</v>
+        <v>0.7334389857369259</v>
       </c>
       <c r="G85">
-        <v>1.045614035087719</v>
+        <v>1.091575091575092</v>
       </c>
       <c r="H85">
-        <v>0.8145620022753138</v>
+        <v>0.7755217146080092</v>
       </c>
       <c r="I85">
-        <v>1.039571995203395</v>
+        <v>1.043947717370714</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="2">
-        <v>43308</v>
+        <v>43315</v>
       </c>
       <c r="B86">
-        <v>1.091089330540589</v>
+        <v>1.092314318529863</v>
       </c>
       <c r="C86">
-        <v>1.060284741682497</v>
+        <v>1.10010922273692</v>
       </c>
       <c r="D86">
-        <v>0.9438443187605545</v>
+        <v>0.9253152019701797</v>
       </c>
       <c r="E86">
-        <v>0.7126059847683978</v>
+        <v>0.6816943612094797</v>
       </c>
       <c r="F86">
-        <v>0.7887172116421134</v>
+        <v>0.6966719492868467</v>
       </c>
       <c r="G86">
-        <v>1.03859649122807</v>
+        <v>1.080586080586081</v>
       </c>
       <c r="H86">
-        <v>0.8122866894197962</v>
+        <v>0.7681895093062607</v>
       </c>
       <c r="I86">
-        <v>1.041831934323403</v>
+        <v>1.046978594430763</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="2">
-        <v>43311</v>
+        <v>43318</v>
       </c>
       <c r="B87">
-        <v>1.092272516508643</v>
+        <v>1.095217585502809</v>
       </c>
       <c r="C87">
-        <v>1.054183671550282</v>
+        <v>1.104001735169722</v>
       </c>
       <c r="D87">
-        <v>0.9438711233816713</v>
+        <v>0.9253419707149932</v>
       </c>
       <c r="E87">
-        <v>0.6975038294750924</v>
+        <v>0.6705711431944066</v>
       </c>
       <c r="F87">
-        <v>0.8009342436219913</v>
+        <v>0.7077654516640257</v>
       </c>
       <c r="G87">
-        <v>1.045614035087719</v>
+        <v>1.076923076923077</v>
       </c>
       <c r="H87">
-        <v>0.8111490329920374</v>
+        <v>0.7580372250423013</v>
       </c>
       <c r="I87">
-        <v>1.04409187344341</v>
+        <v>1.020837279787838</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="2">
-        <v>43312</v>
+        <v>43319</v>
       </c>
       <c r="B88">
-        <v>1.088099387621318</v>
+        <v>1.088182746299133</v>
       </c>
       <c r="C88">
-        <v>1.059333095108236</v>
+        <v>1.107119618262661</v>
       </c>
       <c r="D88">
-        <v>0.9331224703138824</v>
+        <v>0.9335867441175685</v>
       </c>
       <c r="E88">
-        <v>0.6847748700135921</v>
+        <v>0.6571778806864614</v>
       </c>
       <c r="F88">
-        <v>0.7707509881422931</v>
+        <v>0.6776545166402539</v>
       </c>
       <c r="G88">
-        <v>1.03859649122807</v>
+        <v>1.091575091575092</v>
       </c>
       <c r="H88">
-        <v>0.8134243458475551</v>
+        <v>0.7794698251551044</v>
       </c>
       <c r="I88">
-        <v>1.041970297942995</v>
+        <v>1.010229210077666</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="2">
-        <v>43313</v>
+        <v>43320</v>
       </c>
       <c r="B89">
-        <v>1.091441088531092</v>
+        <v>1.0885336906585</v>
       </c>
       <c r="C89">
-        <v>1.058230990577571</v>
+        <v>1.106829132260214</v>
       </c>
       <c r="D89">
-        <v>0.9284584662395801</v>
+        <v>0.9428487298230589</v>
       </c>
       <c r="E89">
-        <v>0.6729088908545664</v>
+        <v>0.6451466448742396</v>
       </c>
       <c r="F89">
-        <v>0.7804527488321962</v>
+        <v>0.6643423137876391</v>
       </c>
       <c r="G89">
-        <v>1.052631578947369</v>
+        <v>1.084249084249085</v>
       </c>
       <c r="H89">
-        <v>0.7986348122866903</v>
+        <v>0.7698815566835872</v>
       </c>
       <c r="I89">
-        <v>1.04893460012914</v>
+        <v>1.001136578897518</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="2">
-        <v>43314</v>
+        <v>43321</v>
       </c>
       <c r="B90">
-        <v>1.100458884287611</v>
+        <v>1.092090990301175</v>
       </c>
       <c r="C90">
-        <v>1.063444358766998</v>
+        <v>1.1052333958201</v>
       </c>
       <c r="D90">
-        <v>0.9304688128233309</v>
+        <v>0.9496479910057021</v>
       </c>
       <c r="E90">
-        <v>0.6593169510905914</v>
+        <v>0.6392445291927722</v>
       </c>
       <c r="F90">
-        <v>0.831476823571686</v>
+        <v>0.649762282091918</v>
       </c>
       <c r="G90">
-        <v>1.045614035087719</v>
+        <v>1.073260073260074</v>
       </c>
       <c r="H90">
-        <v>0.7821387940841875</v>
+        <v>0.7839819514946418</v>
       </c>
       <c r="I90">
-        <v>1.016695876764137</v>
+        <v>1.008192839552945</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="2">
-        <v>43315</v>
+        <v>43322</v>
       </c>
       <c r="B91">
-        <v>1.094846745439139</v>
+        <v>1.095712098009189</v>
       </c>
       <c r="C91">
-        <v>1.068383141185985</v>
+        <v>1.097370908020513</v>
       </c>
       <c r="D91">
-        <v>0.9265553381402957</v>
+        <v>0.9509596595015664</v>
       </c>
       <c r="E91">
-        <v>0.6478824620828031</v>
+        <v>0.6358394624534641</v>
       </c>
       <c r="F91">
-        <v>0.7897951850521028</v>
+        <v>0.6906497622820924</v>
       </c>
       <c r="G91">
-        <v>1.035087719298246</v>
+        <v>1.051282051282052</v>
       </c>
       <c r="H91">
-        <v>0.7747440273037551</v>
+        <v>0.7839819514946418</v>
       </c>
       <c r="I91">
-        <v>1.019647633982106</v>
+        <v>1.01752225800341</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="2">
-        <v>43318</v>
+        <v>43325</v>
       </c>
       <c r="B92">
-        <v>1.097756743360569</v>
+        <v>1.099971286370598</v>
       </c>
       <c r="C92">
-        <v>1.072163397340656</v>
+        <v>1.092974886516802</v>
       </c>
       <c r="D92">
-        <v>0.9265821427614124</v>
+        <v>0.9590170516904466</v>
       </c>
       <c r="E92">
-        <v>0.6373109533774893</v>
+        <v>0.633569417960592</v>
       </c>
       <c r="F92">
-        <v>0.802371541501977</v>
+        <v>0.7217115689381939</v>
       </c>
       <c r="G92">
-        <v>1.031578947368421</v>
+        <v>1.054945054945055</v>
       </c>
       <c r="H92">
-        <v>0.7645051194539257</v>
+        <v>0.7811618725324307</v>
       </c>
       <c r="I92">
-        <v>0.9941887279771248</v>
+        <v>1.012502367872703</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="2">
-        <v>43319</v>
+        <v>43326</v>
       </c>
       <c r="B93">
-        <v>1.09070559455095</v>
+        <v>1.100146758550282</v>
       </c>
       <c r="C93">
-        <v>1.075191363713303</v>
+        <v>1.099958170015648</v>
       </c>
       <c r="D93">
-        <v>0.9348379660653501</v>
+        <v>0.950799047032685</v>
       </c>
       <c r="E93">
-        <v>0.624581993915989</v>
+        <v>0.6353854535548896</v>
       </c>
       <c r="F93">
-        <v>0.7682357168523183</v>
+        <v>0.7033280507131543</v>
       </c>
       <c r="G93">
-        <v>1.045614035087719</v>
+        <v>1.058608058608059</v>
       </c>
       <c r="H93">
-        <v>0.7861205915813433</v>
+        <v>0.7800338409475464</v>
       </c>
       <c r="I93">
-        <v>0.9838575777142338</v>
+        <v>1.034665656374313</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="2">
-        <v>43320</v>
+        <v>43327</v>
       </c>
       <c r="B94">
-        <v>1.091057352541452</v>
+        <v>1.108138718734049</v>
       </c>
       <c r="C94">
-        <v>1.074909255045044</v>
+        <v>1.091596046291849</v>
       </c>
       <c r="D94">
-        <v>0.9441123649717217</v>
+        <v>0.9590973579248874</v>
       </c>
       <c r="E94">
-        <v>0.6131475049082006</v>
+        <v>0.6372014891491873</v>
       </c>
       <c r="F94">
-        <v>0.7531440891124693</v>
+        <v>0.8294770206022194</v>
       </c>
       <c r="G94">
-        <v>1.03859649122807</v>
+        <v>1.047619047619048</v>
       </c>
       <c r="H94">
-        <v>0.7764505119453933</v>
+        <v>0.7636773829667228</v>
       </c>
       <c r="I94">
-        <v>0.975002306060327</v>
+        <v>1.014586095851487</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="2">
-        <v>43321</v>
+        <v>43328</v>
       </c>
       <c r="B95">
-        <v>1.094622899445183</v>
+        <v>1.094547600816744</v>
       </c>
       <c r="C95">
-        <v>1.073359538094074</v>
+        <v>1.100240909724697</v>
       </c>
       <c r="D95">
-        <v>0.9509207387353585</v>
+        <v>0.9674492063067169</v>
       </c>
       <c r="E95">
-        <v>0.6075381329421157</v>
+        <v>0.6385635158449106</v>
       </c>
       <c r="F95">
-        <v>0.7366151634926346</v>
+        <v>0.7740095087163239</v>
       </c>
       <c r="G95">
-        <v>1.028070175438597</v>
+        <v>1.051282051282052</v>
       </c>
       <c r="H95">
-        <v>0.7906712172923784</v>
+        <v>0.7586012408347431</v>
       </c>
       <c r="I95">
-        <v>0.9818743658334107</v>
+        <v>1.015296457662435</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="2">
-        <v>43322</v>
+        <v>43329</v>
       </c>
       <c r="B96">
-        <v>1.098252402347186</v>
+        <v>1.090320316488005</v>
       </c>
       <c r="C96">
-        <v>1.065723796806531</v>
+        <v>1.10389716020884</v>
       </c>
       <c r="D96">
-        <v>0.952234165170076</v>
+        <v>0.9777016355703088</v>
       </c>
       <c r="E96">
-        <v>0.6043019568078359</v>
+        <v>0.6394715336420594</v>
       </c>
       <c r="F96">
-        <v>0.7829680201221711</v>
+        <v>0.8031695721077661</v>
       </c>
       <c r="G96">
-        <v>1.007017543859649</v>
+        <v>1.051282051282052</v>
       </c>
       <c r="H96">
-        <v>0.7906712172923784</v>
+        <v>0.7484489565707837</v>
       </c>
       <c r="I96">
-        <v>0.9909602435199713</v>
+        <v>1.019653343436256</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="2">
-        <v>43325</v>
+        <v>43332</v>
       </c>
       <c r="B97">
-        <v>1.102521465231921</v>
+        <v>1.09036817253701</v>
       </c>
       <c r="C97">
-        <v>1.061454552293544</v>
+        <v>1.106577377724759</v>
       </c>
       <c r="D97">
-        <v>0.9603023561261967</v>
+        <v>0.9724014240972247</v>
       </c>
       <c r="E97">
-        <v>0.6021445060516494</v>
+        <v>0.6424225914827931</v>
       </c>
       <c r="F97">
-        <v>0.8181818181818191</v>
+        <v>0.7375594294770211</v>
       </c>
       <c r="G97">
-        <v>1.010526315789474</v>
+        <v>1.032967032967034</v>
       </c>
       <c r="H97">
-        <v>0.7878270762229813</v>
+        <v>0.7569091934574165</v>
       </c>
       <c r="I97">
-        <v>0.9860713956277105</v>
+        <v>1.047736313695775</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="2">
-        <v>43326</v>
+        <v>43333</v>
       </c>
       <c r="B98">
-        <v>1.102697344227173</v>
+        <v>1.089283435426239</v>
       </c>
       <c r="C98">
-        <v>1.068236444678491</v>
+        <v>1.108866407424048</v>
       </c>
       <c r="D98">
-        <v>0.9520733374433759</v>
+        <v>0.9717054367320723</v>
       </c>
       <c r="E98">
-        <v>0.6038704666565986</v>
+        <v>0.6483247071642605</v>
       </c>
       <c r="F98">
-        <v>0.7973409989220276</v>
+        <v>0.6773375594294775</v>
       </c>
       <c r="G98">
-        <v>1.014035087719298</v>
+        <v>1.043956043956045</v>
       </c>
       <c r="H98">
-        <v>0.7866894197952224</v>
+        <v>0.7664974619289336</v>
       </c>
       <c r="I98">
-        <v>1.007656120284107</v>
+        <v>1.059149460125023</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="2">
-        <v>43327</v>
+        <v>43334</v>
       </c>
       <c r="B99">
-        <v>1.110707833010889</v>
+        <v>1.092234558448189</v>
       </c>
       <c r="C99">
-        <v>1.060115476481541</v>
+        <v>1.108424868700327</v>
       </c>
       <c r="D99">
-        <v>0.960382769989547</v>
+        <v>0.9656824691490222</v>
       </c>
       <c r="E99">
-        <v>0.6055964272615478</v>
+        <v>0.6533188050485792</v>
       </c>
       <c r="F99">
-        <v>0.9403521379805977</v>
+        <v>0.6744849445324885</v>
       </c>
       <c r="G99">
-        <v>1.003508771929825</v>
+        <v>1.032967032967034</v>
       </c>
       <c r="H99">
-        <v>0.7701934015927195</v>
+        <v>0.7619853355893962</v>
       </c>
       <c r="I99">
-        <v>0.9881007287150637</v>
+        <v>1.093483614320894</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="2">
-        <v>43328</v>
+        <v>43335</v>
       </c>
       <c r="B100">
-        <v>1.0970852053787</v>
+        <v>1.099684150076571</v>
       </c>
       <c r="C100">
-        <v>1.06851103044893</v>
+        <v>1.106550265697864</v>
       </c>
       <c r="D100">
-        <v>0.9687458117779514</v>
+        <v>0.9663784565141746</v>
       </c>
       <c r="E100">
-        <v>0.6068908977152597</v>
+        <v>0.655361845092164</v>
       </c>
       <c r="F100">
-        <v>0.8774703557312264</v>
+        <v>0.678288431061807</v>
       </c>
       <c r="G100">
-        <v>1.007017543859649</v>
+        <v>1.032967032967034</v>
       </c>
       <c r="H100">
-        <v>0.7650739476678049</v>
+        <v>0.7648054145516072</v>
       </c>
       <c r="I100">
-        <v>0.9887925468130252</v>
+        <v>1.113515817389657</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="2">
-        <v>43329</v>
+        <v>43336</v>
       </c>
       <c r="B101">
-        <v>1.092848120493102</v>
+        <v>1.08561447166922</v>
       </c>
       <c r="C101">
-        <v>1.072061838220083</v>
+        <v>1.113409608502332</v>
       </c>
       <c r="D101">
-        <v>0.9790119816656401</v>
+        <v>0.9711165243461739</v>
       </c>
       <c r="E101">
-        <v>0.6077538780177344</v>
+        <v>0.6558158539907383</v>
       </c>
       <c r="F101">
-        <v>0.9105282069708959</v>
+        <v>0.6608557844690971</v>
       </c>
       <c r="G101">
-        <v>1.007017543859649</v>
+        <v>1.032967032967034</v>
       </c>
       <c r="H101">
-        <v>0.7548350398179755</v>
+        <v>0.7659334461364916</v>
       </c>
       <c r="I101">
-        <v>0.9930356978138556</v>
+        <v>1.104612616025762</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="2">
-        <v>43332</v>
+        <v>43339</v>
       </c>
       <c r="B102">
-        <v>1.092896087491807</v>
+        <v>1.083923557937724</v>
       </c>
       <c r="C102">
-        <v>1.074664760865886</v>
+        <v>1.121949896974298</v>
       </c>
       <c r="D102">
-        <v>0.9737046666845373</v>
+        <v>0.9717857429665129</v>
       </c>
       <c r="E102">
-        <v>0.6105585640007769</v>
+        <v>0.6571778806864617</v>
       </c>
       <c r="F102">
-        <v>0.8361480416816396</v>
+        <v>0.709033280507132</v>
       </c>
       <c r="G102">
-        <v>0.9894736842105263</v>
+        <v>1.043956043956045</v>
       </c>
       <c r="H102">
-        <v>0.7633674630261666</v>
+        <v>0.7805978567399885</v>
       </c>
       <c r="I102">
-        <v>1.020385573286598</v>
+        <v>1.103476037128243</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="2">
-        <v>43333</v>
+        <v>43340</v>
       </c>
       <c r="B103">
-        <v>1.091808835521162</v>
+        <v>1.085088055130169</v>
       </c>
       <c r="C103">
-        <v>1.076887777171767</v>
+        <v>1.122252002416843</v>
       </c>
       <c r="D103">
-        <v>0.9730077465355036</v>
+        <v>0.9663784565141746</v>
       </c>
       <c r="E103">
-        <v>0.6161679359668617</v>
+        <v>0.6580858984836105</v>
       </c>
       <c r="F103">
-        <v>0.7678763923823222</v>
+        <v>0.6725832012678292</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>1.054945054945056</v>
       </c>
       <c r="H103">
-        <v>0.7730375426621166</v>
+        <v>0.7800338409475464</v>
       </c>
       <c r="I103">
-        <v>1.031500784060512</v>
+        <v>1.117730630801287</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="2">
-        <v>43334</v>
+        <v>43341</v>
       </c>
       <c r="B104">
-        <v>1.094766800441297</v>
+        <v>1.087847753956101</v>
       </c>
       <c r="C104">
-        <v>1.076458971996013</v>
+        <v>1.128650440764094</v>
       </c>
       <c r="D104">
-        <v>0.9669767067842504</v>
+        <v>0.9663784565141746</v>
       </c>
       <c r="E104">
-        <v>0.6209143276304721</v>
+        <v>0.657631889585036</v>
       </c>
       <c r="F104">
-        <v>0.7646424721523545</v>
+        <v>0.6646592709984156</v>
       </c>
       <c r="G104">
-        <v>0.9894736842105263</v>
+        <v>1.05860805860806</v>
       </c>
       <c r="H104">
-        <v>0.7684869169510813</v>
+        <v>0.7783417935702198</v>
       </c>
       <c r="I104">
-        <v>1.064938658795315</v>
+        <v>1.120145860958514</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="2">
-        <v>43335</v>
+        <v>43342</v>
       </c>
       <c r="B105">
-        <v>1.102233663239692</v>
+        <v>1.095472817764166</v>
       </c>
       <c r="C105">
-        <v>1.074638430723515</v>
+        <v>1.123650208375292</v>
       </c>
       <c r="D105">
-        <v>0.9676736269332841</v>
+        <v>0.9583478330701078</v>
       </c>
       <c r="E105">
-        <v>0.6228560333110398</v>
+        <v>0.6569508762371745</v>
       </c>
       <c r="F105">
-        <v>0.7689543657923112</v>
+        <v>0.7572107765451669</v>
       </c>
       <c r="G105">
-        <v>0.9894736842105263</v>
+        <v>1.047619047619049</v>
       </c>
       <c r="H105">
-        <v>0.7713310580204784</v>
+        <v>0.7698815566835869</v>
       </c>
       <c r="I105">
-        <v>1.084447929157828</v>
+        <v>1.124834248910778</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="2">
-        <v>43336</v>
+        <v>43343</v>
       </c>
       <c r="B106">
-        <v>1.088131365620454</v>
+        <v>1.091883614088822</v>
       </c>
       <c r="C106">
-        <v>1.081299956743338</v>
+        <v>1.123801261096565</v>
       </c>
       <c r="D106">
-        <v>0.9724180448709364</v>
+        <v>0.9570093958294301</v>
       </c>
       <c r="E106">
-        <v>0.623287523462277</v>
+        <v>0.6569508762371745</v>
       </c>
       <c r="F106">
-        <v>0.749191519942509</v>
+        <v>0.726465927099842</v>
       </c>
       <c r="G106">
-        <v>0.9894736842105263</v>
+        <v>1.047619047619049</v>
       </c>
       <c r="H106">
-        <v>0.7724687144482372</v>
+        <v>0.7664974619289339</v>
       </c>
       <c r="I106">
-        <v>1.075777142330044</v>
+        <v>1.120477363136957</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="2">
-        <v>43339</v>
+        <v>43346</v>
       </c>
       <c r="B107">
-        <v>1.086436531666214</v>
+        <v>1.090352220520674</v>
       </c>
       <c r="C107">
-        <v>1.089593951590153</v>
+        <v>1.123801261096565</v>
       </c>
       <c r="D107">
-        <v>0.9730881603988535</v>
+        <v>0.9623631447921412</v>
       </c>
       <c r="E107">
-        <v>0.624581993915989</v>
+        <v>0.655361845092164</v>
       </c>
       <c r="F107">
-        <v>0.8038088393819629</v>
+        <v>0.726465927099842</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>1.047619047619049</v>
       </c>
       <c r="H107">
-        <v>0.7872582480091017</v>
+        <v>0.7653694303440495</v>
       </c>
       <c r="I107">
-        <v>1.074670233373306</v>
+        <v>1.11095851487024</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="2">
-        <v>43340</v>
+        <v>43347</v>
       </c>
       <c r="B108">
-        <v>1.0876037286347</v>
+        <v>1.092649310872895</v>
       </c>
       <c r="C108">
-        <v>1.089887344605142</v>
+        <v>1.121942150680899</v>
       </c>
       <c r="D108">
-        <v>0.967673626933284</v>
+        <v>0.9663784565141746</v>
       </c>
       <c r="E108">
-        <v>0.6254449742184637</v>
+        <v>0.6533188050485792</v>
       </c>
       <c r="F108">
-        <v>0.7624865253323759</v>
+        <v>0.7508716323296361</v>
       </c>
       <c r="G108">
-        <v>1.010526315789474</v>
+        <v>1.062271062271063</v>
       </c>
       <c r="H108">
-        <v>0.7866894197952223</v>
+        <v>0.7738296672306822</v>
       </c>
       <c r="I108">
-        <v>1.088552716539065</v>
+        <v>1.103854896760749</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="2">
-        <v>43341</v>
+        <v>43348</v>
       </c>
       <c r="B109">
-        <v>1.090369825560015</v>
+        <v>1.091468861664115</v>
       </c>
       <c r="C109">
-        <v>1.096101258204661</v>
+        <v>1.118797155561064</v>
       </c>
       <c r="D109">
-        <v>0.967673626933284</v>
+        <v>0.9663784565141746</v>
       </c>
       <c r="E109">
-        <v>0.6250134840672263</v>
+        <v>0.6469626804685374</v>
       </c>
       <c r="F109">
-        <v>0.7535034135824658</v>
+        <v>0.7790808240887486</v>
       </c>
       <c r="G109">
-        <v>1.014035087719298</v>
+        <v>1.062271062271063</v>
       </c>
       <c r="H109">
-        <v>0.7849829351535841</v>
+        <v>0.7608573040045119</v>
       </c>
       <c r="I109">
-        <v>1.090904898072134</v>
+        <v>1.089221443455199</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="2">
-        <v>43342</v>
+        <v>43349</v>
       </c>
       <c r="B110">
-        <v>1.098012567353661</v>
+        <v>1.091867662072486</v>
       </c>
       <c r="C110">
-        <v>1.091245227661695</v>
+        <v>1.114710985793298</v>
       </c>
       <c r="D110">
-        <v>0.9596322405982797</v>
+        <v>0.9663784565141746</v>
       </c>
       <c r="E110">
-        <v>0.6243662488403705</v>
+        <v>0.6458276582221014</v>
       </c>
       <c r="F110">
-        <v>0.8584261588214167</v>
+        <v>0.7759112519809832</v>
       </c>
       <c r="G110">
-        <v>1.003508771929825</v>
+        <v>1.054945054945056</v>
       </c>
       <c r="H110">
-        <v>0.7764505119453929</v>
+        <v>0.7574732092498587</v>
       </c>
       <c r="I110">
-        <v>1.09547089751868</v>
+        <v>1.084485698048872</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="2">
-        <v>43343</v>
+        <v>43350</v>
       </c>
       <c r="B111">
-        <v>1.094415042450794</v>
+        <v>1.095759954058193</v>
       </c>
       <c r="C111">
-        <v>1.09139192416919</v>
+        <v>1.112243791345841</v>
       </c>
       <c r="D111">
-        <v>0.9582920095424456</v>
+        <v>0.9717322054768858</v>
       </c>
       <c r="E111">
-        <v>0.6243662488403705</v>
+        <v>0.6471896849178247</v>
       </c>
       <c r="F111">
-        <v>0.8235716852317653</v>
+        <v>0.7835182250396203</v>
       </c>
       <c r="G111">
-        <v>1.003508771929825</v>
+        <v>1.076923076923078</v>
       </c>
       <c r="H111">
-        <v>0.7730375426621166</v>
+        <v>0.7602932882120698</v>
       </c>
       <c r="I111">
-        <v>1.091227746517849</v>
+        <v>1.075440424322787</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="2">
-        <v>43346</v>
+        <v>43353</v>
       </c>
       <c r="B112">
-        <v>1.092880098492238</v>
+        <v>1.095935426237877</v>
       </c>
       <c r="C112">
-        <v>1.09139192416919</v>
+        <v>1.114354656296962</v>
       </c>
       <c r="D112">
-        <v>0.9636529337657818</v>
+        <v>0.9784243916802747</v>
       </c>
       <c r="E112">
-        <v>0.6228560333110399</v>
+        <v>0.6451466448742399</v>
       </c>
       <c r="F112">
-        <v>0.8235716852317653</v>
+        <v>0.7828843106180673</v>
       </c>
       <c r="G112">
-        <v>1.003508771929825</v>
+        <v>1.076923076923078</v>
       </c>
       <c r="H112">
-        <v>0.7718998862343578</v>
+        <v>0.7512690355329947</v>
       </c>
       <c r="I112">
-        <v>1.081957384005166</v>
+        <v>1.064642924796362</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="2">
-        <v>43347</v>
+        <v>43354</v>
       </c>
       <c r="B113">
-        <v>1.095182514430072</v>
+        <v>1.09673302705462</v>
       </c>
       <c r="C113">
-        <v>1.089586428692332</v>
+        <v>1.118522162145413</v>
       </c>
       <c r="D113">
-        <v>0.9676736269332838</v>
+        <v>0.9837781406429857</v>
       </c>
       <c r="E113">
-        <v>0.6209143276304721</v>
+        <v>0.6465086715699631</v>
       </c>
       <c r="F113">
-        <v>0.8512396694214887</v>
+        <v>0.7933438985736934</v>
       </c>
       <c r="G113">
-        <v>1.017543859649123</v>
+        <v>1.091575091575093</v>
       </c>
       <c r="H113">
-        <v>0.7804323094425489</v>
+        <v>0.7501410039481103</v>
       </c>
       <c r="I113">
-        <v>1.075039203025552</v>
+        <v>1.067389657132032</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="2">
-        <v>43348</v>
+        <v>43355</v>
       </c>
       <c r="B114">
-        <v>1.093999328462018</v>
+        <v>1.09030436447167</v>
       </c>
       <c r="C114">
-        <v>1.086532132177315</v>
+        <v>1.118921096255441</v>
       </c>
       <c r="D114">
-        <v>0.9676736269332838</v>
+        <v>0.9784243916802745</v>
       </c>
       <c r="E114">
-        <v>0.6148734655131499</v>
+        <v>0.6460546626713887</v>
       </c>
       <c r="F114">
-        <v>0.8832195472511688</v>
+        <v>0.7832012678288439</v>
       </c>
       <c r="G114">
-        <v>1.017543859649123</v>
+        <v>1.087912087912089</v>
       </c>
       <c r="H114">
-        <v>0.7673492605233225</v>
+        <v>0.7473209249858994</v>
       </c>
       <c r="I114">
-        <v>1.060787750207546</v>
+        <v>1.08126539117257</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="2">
-        <v>43349</v>
+        <v>43356</v>
       </c>
       <c r="B115">
-        <v>1.094399053451226</v>
+        <v>1.091915518121491</v>
       </c>
       <c r="C115">
-        <v>1.082563803577138</v>
+        <v>1.12483151811858</v>
       </c>
       <c r="D115">
-        <v>0.9676736269332838</v>
+        <v>0.9777551730599356</v>
       </c>
       <c r="E115">
-        <v>0.6137947401350566</v>
+        <v>0.645373649323527</v>
       </c>
       <c r="F115">
-        <v>0.8796263025512048</v>
+        <v>0.7502377179080831</v>
       </c>
       <c r="G115">
-        <v>1.010526315789474</v>
+        <v>1.087912087912089</v>
       </c>
       <c r="H115">
-        <v>0.763936291240046</v>
+        <v>0.7563451776649744</v>
       </c>
       <c r="I115">
-        <v>1.05617562955447</v>
+        <v>1.083064974426974</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="2">
-        <v>43350</v>
+        <v>43357</v>
       </c>
       <c r="B116">
-        <v>1.09830036934589</v>
+        <v>1.097530627871363</v>
       </c>
       <c r="C116">
-        <v>1.080167760621391</v>
+        <v>1.125141369854524</v>
       </c>
       <c r="D116">
-        <v>0.97303455115662</v>
+        <v>0.9730706427175634</v>
       </c>
       <c r="E116">
-        <v>0.6150892105887685</v>
+        <v>0.6424225914827933</v>
       </c>
       <c r="F116">
-        <v>0.8882500898311185</v>
+        <v>0.7296354992076076</v>
       </c>
       <c r="G116">
-        <v>1.031578947368421</v>
+        <v>1.095238095238096</v>
       </c>
       <c r="H116">
-        <v>0.7667804323094431</v>
+        <v>0.7546531302876479</v>
       </c>
       <c r="I116">
-        <v>1.047366479107094</v>
+        <v>1.089268800909262</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="2">
-        <v>43353</v>
+        <v>43360</v>
       </c>
       <c r="B117">
-        <v>1.098476248341141</v>
+        <v>1.095951378254212</v>
       </c>
       <c r="C117">
-        <v>1.082217750277407</v>
+        <v>1.11887461849505</v>
       </c>
       <c r="D117">
-        <v>0.9797357064357901</v>
+        <v>0.972428192842038</v>
       </c>
       <c r="E117">
-        <v>0.6131475049082007</v>
+        <v>0.6406065558884957</v>
       </c>
       <c r="F117">
-        <v>0.8875314408911258</v>
+        <v>0.7549920760697313</v>
       </c>
       <c r="G117">
-        <v>1.031578947368421</v>
+        <v>1.095238095238096</v>
       </c>
       <c r="H117">
-        <v>0.7576791808873726</v>
+        <v>0.7467569091934573</v>
       </c>
       <c r="I117">
-        <v>1.03685084401808</v>
+        <v>1.077950369388141</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="2">
-        <v>43354</v>
+        <v>43361</v>
       </c>
       <c r="B118">
-        <v>1.099275698319556</v>
+        <v>1.094483792751404</v>
       </c>
       <c r="C118">
-        <v>1.086265069304696</v>
+        <v>1.124881869025671</v>
       </c>
       <c r="D118">
-        <v>0.9850966306591261</v>
+        <v>0.9757742859437325</v>
       </c>
       <c r="E118">
-        <v>0.6144419753619126</v>
+        <v>0.6401525469899213</v>
       </c>
       <c r="F118">
-        <v>0.8993891484010073</v>
+        <v>0.721711568938194</v>
       </c>
       <c r="G118">
-        <v>1.045614035087719</v>
+        <v>1.117216117216118</v>
       </c>
       <c r="H118">
-        <v>0.7565415244596138</v>
+        <v>0.7602932882120699</v>
       </c>
       <c r="I118">
-        <v>1.039525873996864</v>
+        <v>1.06909452547831</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="2">
-        <v>43355</v>
+        <v>43362</v>
       </c>
       <c r="B119">
-        <v>1.092832131493533</v>
+        <v>1.093064063297601</v>
       </c>
       <c r="C119">
-        <v>1.086652498542439</v>
+        <v>1.126291694424218</v>
       </c>
       <c r="D119">
-        <v>0.97973570643579</v>
+        <v>0.9831356907674602</v>
       </c>
       <c r="E119">
-        <v>0.6140104852106754</v>
+        <v>0.6396985380913469</v>
       </c>
       <c r="F119">
-        <v>0.8878907653611222</v>
+        <v>0.6985736925515061</v>
       </c>
       <c r="G119">
-        <v>1.042105263157895</v>
+        <v>1.128205128205129</v>
       </c>
       <c r="H119">
-        <v>0.7536973833902167</v>
+        <v>0.7687535250987028</v>
       </c>
       <c r="I119">
-        <v>1.053039387510378</v>
+        <v>1.050861905663951</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="2">
-        <v>43356</v>
+        <v>43363</v>
       </c>
       <c r="B120">
-        <v>1.094447020449931</v>
+        <v>1.090431980602349</v>
       </c>
       <c r="C120">
-        <v>1.092392469579282</v>
+        <v>1.135122468898632</v>
       </c>
       <c r="D120">
-        <v>0.9790655909078729</v>
+        <v>0.9905238643360016</v>
       </c>
       <c r="E120">
-        <v>0.6133632499838194</v>
+        <v>0.6383365113956236</v>
       </c>
       <c r="F120">
-        <v>0.8505210204814958</v>
+        <v>0.6877971473851036</v>
       </c>
       <c r="G120">
-        <v>1.042105263157895</v>
+        <v>1.124542124542125</v>
       </c>
       <c r="H120">
-        <v>0.7627986348122874</v>
+        <v>0.7687535250987028</v>
       </c>
       <c r="I120">
-        <v>1.054791993358547</v>
+        <v>1.041011555218791</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="2">
-        <v>43357</v>
+        <v>43364</v>
       </c>
       <c r="B121">
-        <v>1.100075148297971</v>
+        <v>1.092425982644207</v>
       </c>
       <c r="C121">
-        <v>1.092693385492092</v>
+        <v>1.134704169055107</v>
       </c>
       <c r="D121">
-        <v>0.9743747822124539</v>
+        <v>0.9838049093877991</v>
       </c>
       <c r="E121">
-        <v>0.610558564000777</v>
+        <v>0.6390175247434853</v>
       </c>
       <c r="F121">
-        <v>0.8271649299317292</v>
+        <v>0.7156893819334395</v>
       </c>
       <c r="G121">
-        <v>1.049122807017544</v>
+        <v>1.124542124542125</v>
       </c>
       <c r="H121">
-        <v>0.7610921501706492</v>
+        <v>0.7879300620417371</v>
       </c>
       <c r="I121">
-        <v>1.060833871414077</v>
+        <v>1.048162530782344</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="2">
-        <v>43360</v>
+        <v>43368</v>
       </c>
       <c r="B122">
-        <v>1.09849223734071</v>
+        <v>1.095696145992854</v>
       </c>
       <c r="C122">
-        <v>1.086607361155517</v>
+        <v>1.129239159062389</v>
       </c>
       <c r="D122">
-        <v>0.9737314713056535</v>
+        <v>0.9838584468774261</v>
       </c>
       <c r="E122">
-        <v>0.6088326033958279</v>
+        <v>0.6417415781349317</v>
       </c>
       <c r="F122">
-        <v>0.8559108875314418</v>
+        <v>0.7239302694136296</v>
       </c>
       <c r="G122">
-        <v>1.049122807017544</v>
+        <v>1.135531135531136</v>
       </c>
       <c r="H122">
-        <v>0.7531285551763375</v>
+        <v>0.7834179357021996</v>
       </c>
       <c r="I122">
-        <v>1.049810903053225</v>
+        <v>1.0585338132222</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="2">
-        <v>43361</v>
+        <v>43369</v>
       </c>
       <c r="B123">
-        <v>1.097021249380427</v>
+        <v>1.096876595201634</v>
       </c>
       <c r="C123">
-        <v>1.092441368415114</v>
+        <v>1.125524811377756</v>
       </c>
       <c r="D123">
-        <v>0.9770820489452386</v>
+        <v>0.9771394919292237</v>
       </c>
       <c r="E123">
-        <v>0.6084011132445906</v>
+        <v>0.6424225914827933</v>
       </c>
       <c r="F123">
-        <v>0.818181818181819</v>
+        <v>0.7153724247226629</v>
       </c>
       <c r="G123">
-        <v>1.070175438596491</v>
+        <v>1.120879120879122</v>
       </c>
       <c r="H123">
-        <v>0.7667804323094434</v>
+        <v>0.790186125211506</v>
       </c>
       <c r="I123">
-        <v>1.041186237431972</v>
+        <v>1.067910589126728</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="2">
-        <v>43362</v>
+        <v>43370</v>
       </c>
       <c r="B124">
-        <v>1.095598228418848</v>
+        <v>1.098742981112813</v>
       </c>
       <c r="C124">
-        <v>1.093810535818397</v>
+        <v>1.128634948177297</v>
       </c>
       <c r="D124">
-        <v>0.9844533197523258</v>
+        <v>0.9704473057258347</v>
       </c>
       <c r="E124">
-        <v>0.6079696230933533</v>
+        <v>0.644238627077091</v>
       </c>
       <c r="F124">
-        <v>0.7919511318720812</v>
+        <v>0.6865293185419973</v>
       </c>
       <c r="G124">
-        <v>1.080701754385965</v>
+        <v>1.120879120879122</v>
       </c>
       <c r="H124">
-        <v>0.7753128555176346</v>
+        <v>0.7856739988719685</v>
       </c>
       <c r="I124">
-        <v>1.023429572917628</v>
+        <v>1.074493275241522</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="2">
-        <v>43363</v>
+        <v>43371</v>
       </c>
       <c r="B125">
-        <v>1.092960043490079</v>
+        <v>1.097307299642675</v>
       </c>
       <c r="C125">
-        <v>1.102386639333471</v>
+        <v>1.128627201883899</v>
       </c>
       <c r="D125">
-        <v>0.9918513951805297</v>
+        <v>0.967770431244479</v>
       </c>
       <c r="E125">
-        <v>0.6066751526396413</v>
+        <v>0.645373649323527</v>
       </c>
       <c r="F125">
-        <v>0.7797340998922033</v>
+        <v>0.667194928684628</v>
       </c>
       <c r="G125">
-        <v>1.07719298245614</v>
+        <v>1.117216117216118</v>
       </c>
       <c r="H125">
-        <v>0.7753128555176346</v>
+        <v>0.7941342357586013</v>
       </c>
       <c r="I125">
-        <v>1.01383636195923</v>
+        <v>1.074635347603712</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="2">
-        <v>43364</v>
+        <v>43381</v>
       </c>
       <c r="B126">
-        <v>1.094958668436117</v>
+        <v>1.103767866258295</v>
       </c>
       <c r="C126">
-        <v>1.101980402851178</v>
+        <v>1.117182053387454</v>
       </c>
       <c r="D126">
-        <v>0.9851234352802428</v>
+        <v>0.9678239687341063</v>
       </c>
       <c r="E126">
-        <v>0.6073223878664973</v>
+        <v>0.6437846181785166</v>
       </c>
       <c r="F126">
-        <v>0.811354653251887</v>
+        <v>0.8101426307448498</v>
       </c>
       <c r="G126">
-        <v>1.07719298245614</v>
+        <v>1.183150183150184</v>
       </c>
       <c r="H126">
-        <v>0.7946530147895345</v>
+        <v>0.7642413987591654</v>
       </c>
       <c r="I126">
-        <v>1.020800664145375</v>
+        <v>1.06592157605607</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="2">
-        <v>43368</v>
+        <v>43382</v>
       </c>
       <c r="B127">
-        <v>1.098236413347617</v>
+        <v>1.103305257784585</v>
       </c>
       <c r="C127">
-        <v>1.096672998438999</v>
+        <v>1.115597936387439</v>
       </c>
       <c r="D127">
-        <v>0.9851770445224761</v>
+        <v>0.9678507374789199</v>
       </c>
       <c r="E127">
-        <v>0.6099113287739211</v>
+        <v>0.6392445291927725</v>
       </c>
       <c r="F127">
-        <v>0.8206970894717935</v>
+        <v>0.8072900158478609</v>
       </c>
       <c r="G127">
-        <v>1.087719298245614</v>
+        <v>1.175824175824177</v>
       </c>
       <c r="H127">
-        <v>0.7901023890784993</v>
+        <v>0.7546531302876482</v>
       </c>
       <c r="I127">
-        <v>1.030901208375612</v>
+        <v>1.061896192460692</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="2">
-        <v>43369</v>
+        <v>43383</v>
       </c>
       <c r="B128">
-        <v>1.099419599315671</v>
+        <v>1.104565467075039</v>
       </c>
       <c r="C128">
-        <v>1.093065768934193</v>
+        <v>1.078934729731823</v>
       </c>
       <c r="D128">
-        <v>0.9784490846221895</v>
+        <v>0.9678507374789199</v>
       </c>
       <c r="E128">
-        <v>0.610558564000777</v>
+        <v>0.6378825024970494</v>
       </c>
       <c r="F128">
-        <v>0.8109953287818906</v>
+        <v>0.913153724247227</v>
       </c>
       <c r="G128">
-        <v>1.073684210526316</v>
+        <v>1.179487179487181</v>
       </c>
       <c r="H128">
-        <v>0.7969283276450523</v>
+        <v>0.7670614777213763</v>
       </c>
       <c r="I128">
-        <v>1.040033207268703</v>
+        <v>1.058723243038453</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="2">
-        <v>43370</v>
+        <v>43384</v>
       </c>
       <c r="B129">
-        <v>1.101290312265162</v>
+        <v>1.097275395610005</v>
       </c>
       <c r="C129">
-        <v>1.09608621240902</v>
+        <v>1.05673772599811</v>
       </c>
       <c r="D129">
-        <v>0.9717479293430193</v>
+        <v>0.9584816767941754</v>
       </c>
       <c r="E129">
-        <v>0.6122845246057262</v>
+        <v>0.6358394624534646</v>
       </c>
       <c r="F129">
-        <v>0.7782968020122176</v>
+        <v>0.9515055467511889</v>
       </c>
       <c r="G129">
-        <v>1.073684210526316</v>
+        <v>1.150183150183151</v>
       </c>
       <c r="H129">
-        <v>0.792377701934017</v>
+        <v>0.727016356457981</v>
       </c>
       <c r="I129">
-        <v>1.046444054976479</v>
+        <v>1.06402727789354</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="2">
-        <v>43371</v>
+        <v>43385</v>
       </c>
       <c r="B130">
-        <v>1.099851302304015</v>
+        <v>1.104070954568658</v>
       </c>
       <c r="C130">
-        <v>1.0960786895112</v>
+        <v>1.071750042604614</v>
       </c>
       <c r="D130">
-        <v>0.9690674672313512</v>
+        <v>0.9591508954145143</v>
       </c>
       <c r="E130">
-        <v>0.6133632499838195</v>
+        <v>0.6356124580041773</v>
       </c>
       <c r="F130">
-        <v>0.7563780093424368</v>
+        <v>0.9036450079239307</v>
       </c>
       <c r="G130">
-        <v>1.070175438596491</v>
+        <v>1.153846153846155</v>
       </c>
       <c r="H130">
-        <v>0.8009101251422082</v>
+        <v>0.7337845459672873</v>
       </c>
       <c r="I130">
-        <v>1.046582418596071</v>
+        <v>1.054839931805265</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="2">
-        <v>43381</v>
+        <v>43388</v>
       </c>
       <c r="B131">
-        <v>1.106326847129175</v>
+        <v>1.10437404287902</v>
       </c>
       <c r="C131">
-        <v>1.084963607981795</v>
+        <v>1.06542132089795</v>
       </c>
       <c r="D131">
-        <v>0.9691210764735847</v>
+        <v>0.9598468827796668</v>
       </c>
       <c r="E131">
-        <v>0.6118530344544889</v>
+        <v>0.6358394624534646</v>
       </c>
       <c r="F131">
-        <v>0.9184333453108162</v>
+        <v>0.8976228209191762</v>
       </c>
       <c r="G131">
-        <v>1.133333333333333</v>
+        <v>1.157509157509159</v>
       </c>
       <c r="H131">
-        <v>0.7707622298065995</v>
+        <v>0.7230682459108857</v>
       </c>
       <c r="I131">
-        <v>1.038096116594411</v>
+        <v>1.051998484561469</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="2">
-        <v>43382</v>
+        <v>43389</v>
       </c>
       <c r="B132">
-        <v>1.105863166141695</v>
+        <v>1.102778841245533</v>
       </c>
       <c r="C132">
-        <v>1.083425175377555</v>
+        <v>1.088323237330937</v>
       </c>
       <c r="D132">
-        <v>0.9691478810947015</v>
+        <v>0.9571700082983112</v>
       </c>
       <c r="E132">
-        <v>0.6075381329421159</v>
+        <v>0.6356124580041773</v>
       </c>
       <c r="F132">
-        <v>0.9151994250808485</v>
+        <v>0.8503961965134709</v>
       </c>
       <c r="G132">
-        <v>1.126315789473684</v>
+        <v>1.157509157509159</v>
       </c>
       <c r="H132">
-        <v>0.7610921501706496</v>
+        <v>0.7230682459108857</v>
       </c>
       <c r="I132">
-        <v>1.034175814039296</v>
+        <v>1.056734229967796</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="2">
-        <v>43383</v>
+        <v>43390</v>
       </c>
       <c r="B133">
-        <v>1.10712629710759</v>
+        <v>1.105538540071465</v>
       </c>
       <c r="C133">
-        <v>1.047819299994358</v>
+        <v>1.088048243915286</v>
       </c>
       <c r="D133">
-        <v>0.9691478810947015</v>
+        <v>0.9585084455389892</v>
       </c>
       <c r="E133">
-        <v>0.606243662488404</v>
+        <v>0.639698538091347</v>
       </c>
       <c r="F133">
-        <v>1.035213798059648</v>
+        <v>0.8808240887480192</v>
       </c>
       <c r="G133">
-        <v>1.129824561403509</v>
+        <v>1.168498168498169</v>
       </c>
       <c r="H133">
-        <v>0.7736063708759966</v>
+        <v>0.7213761985335591</v>
       </c>
       <c r="I133">
-        <v>1.031085693201735</v>
+        <v>1.044658079181662</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="2">
-        <v>43384</v>
+        <v>43391</v>
       </c>
       <c r="B134">
-        <v>1.099819324304878</v>
+        <v>1.106830653394589</v>
       </c>
       <c r="C134">
-        <v>1.026262436290459</v>
+        <v>1.072389111809999</v>
       </c>
       <c r="D134">
-        <v>0.9597662637038633</v>
+        <v>0.9505045908397359</v>
       </c>
       <c r="E134">
-        <v>0.6043019568078362</v>
+        <v>0.642876600381368</v>
       </c>
       <c r="F134">
-        <v>1.078692058929213</v>
+        <v>0.9686212361331222</v>
       </c>
       <c r="G134">
-        <v>1.101754385964912</v>
+        <v>1.161172161172162</v>
       </c>
       <c r="H134">
-        <v>0.7332195676905586</v>
+        <v>0.6999435984207559</v>
       </c>
       <c r="I134">
-        <v>1.036251268333181</v>
+        <v>1.056781587421859</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="2">
-        <v>43385</v>
+        <v>43392</v>
       </c>
       <c r="B135">
-        <v>1.106630638120973</v>
+        <v>1.10620852475753</v>
       </c>
       <c r="C135">
-        <v>1.040841812266085</v>
+        <v>1.072001797140068</v>
       </c>
       <c r="D135">
-        <v>0.9604363792317803</v>
+        <v>0.9545199025617692</v>
       </c>
       <c r="E135">
-        <v>0.6040862117322174</v>
+        <v>0.6451466448742401</v>
       </c>
       <c r="F135">
-        <v>1.024434063959756</v>
+        <v>0.9099841521394614</v>
       </c>
       <c r="G135">
-        <v>1.105263157894737</v>
+        <v>1.172161172161173</v>
       </c>
       <c r="H135">
-        <v>0.7400455062571115</v>
+        <v>0.7185561195713482</v>
       </c>
       <c r="I135">
-        <v>1.027303754266213</v>
+        <v>1.044800151543852</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="2">
-        <v>43388</v>
+        <v>43395</v>
       </c>
       <c r="B136">
-        <v>1.106934429112771</v>
+        <v>1.106671133231241</v>
       </c>
       <c r="C136">
-        <v>1.034695604746948</v>
+        <v>1.067392752567896</v>
       </c>
       <c r="D136">
-        <v>0.961133299380814</v>
+        <v>0.9612656262547853</v>
       </c>
       <c r="E136">
-        <v>0.6043019568078362</v>
+        <v>0.651729773903569</v>
       </c>
       <c r="F136">
-        <v>1.017606899029824</v>
+        <v>0.9071315372424724</v>
       </c>
       <c r="G136">
-        <v>1.108771929824561</v>
+        <v>1.172161172161173</v>
       </c>
       <c r="H136">
-        <v>0.7292377701934027</v>
+        <v>0.7478849407783421</v>
       </c>
       <c r="I136">
-        <v>1.024536481874367</v>
+        <v>1.037459746164045</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="2">
-        <v>43389</v>
+        <v>43396</v>
       </c>
       <c r="B137">
-        <v>1.105335529155941</v>
+        <v>1.106830653394589</v>
       </c>
       <c r="C137">
-        <v>1.056937052152489</v>
+        <v>1.061509442731652</v>
       </c>
       <c r="D137">
-        <v>0.958452837269146</v>
+        <v>0.9558851085472606</v>
       </c>
       <c r="E137">
-        <v>0.6040862117322174</v>
+        <v>0.6589939162807597</v>
       </c>
       <c r="F137">
-        <v>0.9640675530003597</v>
+        <v>0.9458003169572108</v>
       </c>
       <c r="G137">
-        <v>1.108771929824561</v>
+        <v>1.161172161172162</v>
       </c>
       <c r="H137">
-        <v>0.7292377701934027</v>
+        <v>0.7309644670050766</v>
       </c>
       <c r="I137">
-        <v>1.029148602527443</v>
+        <v>1.051666982383026</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="2">
-        <v>43390</v>
+        <v>43397</v>
       </c>
       <c r="B138">
-        <v>1.108101626081256</v>
+        <v>1.107708014293007</v>
       </c>
       <c r="C138">
-        <v>1.05666998927987</v>
+        <v>1.028746494802237</v>
       </c>
       <c r="D138">
-        <v>0.9597930683249801</v>
+        <v>0.9478544851031939</v>
       </c>
       <c r="E138">
-        <v>0.6079696230933531</v>
+        <v>0.663761009715791</v>
       </c>
       <c r="F138">
-        <v>0.9985627021200147</v>
+        <v>1.036133122028526</v>
       </c>
       <c r="G138">
-        <v>1.119298245614035</v>
+        <v>1.135531135531137</v>
       </c>
       <c r="H138">
-        <v>0.7275312855517645</v>
+        <v>0.7332205301748453</v>
       </c>
       <c r="I138">
-        <v>1.017387694862099</v>
+        <v>1.051903769653343</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="2">
-        <v>43391</v>
+        <v>43398</v>
       </c>
       <c r="B139">
-        <v>1.109396735046288</v>
+        <v>1.109622256253191</v>
       </c>
       <c r="C139">
-        <v>1.041462451336254</v>
+        <v>1.047906951523696</v>
       </c>
       <c r="D139">
-        <v>0.9517784866110925</v>
+        <v>0.9478544851031939</v>
       </c>
       <c r="E139">
-        <v>0.6109900541520142</v>
+        <v>0.669209116498684</v>
       </c>
       <c r="F139">
-        <v>1.098095580309019</v>
+        <v>0.968621236133122</v>
       </c>
       <c r="G139">
-        <v>1.112280701754386</v>
+        <v>1.150183150183151</v>
       </c>
       <c r="H139">
-        <v>0.7059158134243469</v>
+        <v>0.7337845459672876</v>
       </c>
       <c r="I139">
-        <v>1.029194723733974</v>
+        <v>1.047215381701079</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="2">
-        <v>43392</v>
+        <v>43399</v>
       </c>
       <c r="B140">
-        <v>1.108773164063125</v>
+        <v>1.109111791730475</v>
       </c>
       <c r="C140">
-        <v>1.041086306445242</v>
+        <v>1.029749639797357</v>
       </c>
       <c r="D140">
-        <v>0.9557991797785946</v>
+        <v>0.9478812538480074</v>
       </c>
       <c r="E140">
-        <v>0.6131475049082008</v>
+        <v>0.6701171342958329</v>
       </c>
       <c r="F140">
-        <v>1.031620553359684</v>
+        <v>1.018066561014263</v>
       </c>
       <c r="G140">
-        <v>1.12280701754386</v>
+        <v>1.128205128205129</v>
       </c>
       <c r="H140">
-        <v>0.7246871444823675</v>
+        <v>0.7320924985899611</v>
       </c>
       <c r="I140">
-        <v>1.017526058481691</v>
+        <v>1.047262739155142</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="2">
-        <v>43395</v>
+        <v>43402</v>
       </c>
       <c r="B141">
-        <v>1.109236845050605</v>
+        <v>1.112685043389485</v>
       </c>
       <c r="C141">
-        <v>1.036610182242199</v>
+        <v>1.02299487195377</v>
       </c>
       <c r="D141">
-        <v>0.9625539442999982</v>
+        <v>0.9398773991487542</v>
       </c>
       <c r="E141">
-        <v>0.6194041121011415</v>
+        <v>0.6714791609915562</v>
       </c>
       <c r="F141">
-        <v>1.028386633129716</v>
+        <v>1.055467511885895</v>
       </c>
       <c r="G141">
-        <v>1.12280701754386</v>
+        <v>1.128205128205129</v>
       </c>
       <c r="H141">
-        <v>0.7542662116040968</v>
+        <v>0.7163000564015797</v>
       </c>
       <c r="I141">
-        <v>1.010377271469423</v>
+        <v>1.049630611858306</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="2">
-        <v>43396</v>
+        <v>43403</v>
       </c>
       <c r="B142">
-        <v>1.109396735046288</v>
+        <v>1.111823634507402</v>
       </c>
       <c r="C142">
-        <v>1.030896541347727</v>
+        <v>1.039021952995491</v>
       </c>
       <c r="D142">
-        <v>0.9571662154555454</v>
+        <v>0.941215836389432</v>
       </c>
       <c r="E142">
-        <v>0.6263079545209383</v>
+        <v>0.6712521565422689</v>
       </c>
       <c r="F142">
-        <v>1.072224218469278</v>
+        <v>0.9911251980982565</v>
       </c>
       <c r="G142">
-        <v>1.112280701754386</v>
+        <v>1.142857142857144</v>
       </c>
       <c r="H142">
-        <v>0.7372013651877146</v>
+        <v>0.7236322617033283</v>
       </c>
       <c r="I142">
-        <v>1.024213633428652</v>
+        <v>1.035091873460882</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="2">
-        <v>43397</v>
+        <v>43404</v>
       </c>
       <c r="B143">
-        <v>1.110276130022545</v>
+        <v>1.112525523226136</v>
       </c>
       <c r="C143">
-        <v>0.9990784450170203</v>
+        <v>1.050296683037166</v>
       </c>
       <c r="D143">
-        <v>0.9491248291205412</v>
+        <v>0.9392081805284153</v>
       </c>
       <c r="E143">
-        <v>0.63083860110893</v>
+        <v>0.6726141832379922</v>
       </c>
       <c r="F143">
-        <v>1.174631692418254</v>
+        <v>0.9296354992076067</v>
       </c>
       <c r="G143">
-        <v>1.087719298245614</v>
+        <v>1.153846153846155</v>
       </c>
       <c r="H143">
-        <v>0.7394766780432322</v>
+        <v>0.7332205301748456</v>
       </c>
       <c r="I143">
-        <v>1.024444239461306</v>
+        <v>1.036275809812464</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="2">
-        <v>43398</v>
+        <v>43405</v>
       </c>
       <c r="B144">
-        <v>1.11219480997074</v>
+        <v>1.103400969882593</v>
       </c>
       <c r="C144">
-        <v>1.017686332775385</v>
+        <v>1.061385502037275</v>
       </c>
       <c r="D144">
-        <v>0.9491248291205412</v>
+        <v>0.9351928688063819</v>
       </c>
       <c r="E144">
-        <v>0.6360164829237775</v>
+        <v>0.6755652410787257</v>
       </c>
       <c r="F144">
-        <v>1.098095580309019</v>
+        <v>0.9334389857369253</v>
       </c>
       <c r="G144">
-        <v>1.101754385964912</v>
+        <v>1.150183150183152</v>
       </c>
       <c r="H144">
-        <v>0.7400455062571117</v>
+        <v>0.73434856175973</v>
       </c>
       <c r="I144">
-        <v>1.01987824001476</v>
+        <v>1.035281303277135</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="2">
-        <v>43399</v>
+        <v>43406</v>
       </c>
       <c r="B145">
-        <v>1.111683161984555</v>
+        <v>1.100721031138336</v>
       </c>
       <c r="C145">
-        <v>1.000052660284741</v>
+        <v>1.054681085100779</v>
       </c>
       <c r="D145">
-        <v>0.9491516337416578</v>
+        <v>0.9492464598334986</v>
       </c>
       <c r="E145">
-        <v>0.6368794632262522</v>
+        <v>0.6767002633251618</v>
       </c>
       <c r="F145">
-        <v>1.154150197628459</v>
+        <v>0.9787638668779712</v>
       </c>
       <c r="G145">
-        <v>1.080701754385965</v>
+        <v>1.179487179487181</v>
       </c>
       <c r="H145">
-        <v>0.7383390216154735</v>
+        <v>0.7546531302876488</v>
       </c>
       <c r="I145">
-        <v>1.019924361221291</v>
+        <v>1.016575108922144</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="2">
-        <v>43402</v>
+        <v>43409</v>
       </c>
       <c r="B146">
-        <v>1.115264697887854</v>
+        <v>1.102922409392547</v>
       </c>
       <c r="C146">
-        <v>0.993492693385492</v>
+        <v>1.060587633817218</v>
       </c>
       <c r="D146">
-        <v>0.9411370520277703</v>
+        <v>0.9452579168562789</v>
       </c>
       <c r="E146">
-        <v>0.6381739336799642</v>
+        <v>0.6778352855715978</v>
       </c>
       <c r="F146">
-        <v>1.196550485088035</v>
+        <v>0.9591125198098255</v>
       </c>
       <c r="G146">
-        <v>1.080701754385965</v>
+        <v>1.172161172161174</v>
       </c>
       <c r="H146">
-        <v>0.72241183162685</v>
+        <v>0.7512690355329956</v>
       </c>
       <c r="I146">
-        <v>1.022230421547829</v>
+        <v>1.022589505588179</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="2">
-        <v>43403</v>
+        <v>43410</v>
       </c>
       <c r="B147">
-        <v>1.114401291911165</v>
+        <v>1.104326186830016</v>
       </c>
       <c r="C147">
-        <v>1.009057568975569</v>
+        <v>1.067226207259826</v>
       </c>
       <c r="D147">
-        <v>0.9424772830836042</v>
+        <v>0.9399309366383813</v>
       </c>
       <c r="E147">
-        <v>0.6379581886043455</v>
+        <v>0.6789703078180337</v>
       </c>
       <c r="F147">
-        <v>1.123607617678764</v>
+        <v>0.941996830427892</v>
       </c>
       <c r="G147">
-        <v>1.094736842105263</v>
+        <v>1.179487179487181</v>
       </c>
       <c r="H147">
-        <v>0.7298065984072823</v>
+        <v>0.749576988155669</v>
       </c>
       <c r="I147">
-        <v>1.008071211142885</v>
+        <v>1.030782345141125</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="2">
-        <v>43404</v>
+        <v>43411</v>
       </c>
       <c r="B148">
-        <v>1.11510480789217</v>
+        <v>1.103576442062277</v>
       </c>
       <c r="C148">
-        <v>1.020007146752929</v>
+        <v>1.08986087657056</v>
       </c>
       <c r="D148">
-        <v>0.9404669364998532</v>
+        <v>0.9319003131943148</v>
       </c>
       <c r="E148">
-        <v>0.6392526590580574</v>
+        <v>0.6803323345137569</v>
       </c>
       <c r="F148">
-        <v>1.053898670499461</v>
+        <v>0.867511885895404</v>
       </c>
       <c r="G148">
-        <v>1.105263157894737</v>
+        <v>1.179487179487181</v>
       </c>
       <c r="H148">
-        <v>0.7394766780432324</v>
+        <v>0.7445008460236893</v>
       </c>
       <c r="I148">
-        <v>1.009224241306154</v>
+        <v>1.037885963250615</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="2">
-        <v>43405</v>
+        <v>43412</v>
       </c>
       <c r="B149">
-        <v>1.105959100139104</v>
+        <v>1.107197549770291</v>
       </c>
       <c r="C149">
-        <v>1.030776174982603</v>
+        <v>1.087126435000852</v>
       </c>
       <c r="D149">
-        <v>0.9364462433323512</v>
+        <v>0.9319003131943148</v>
       </c>
       <c r="E149">
-        <v>0.6420573450410998</v>
+        <v>0.6810133478616185</v>
       </c>
       <c r="F149">
-        <v>1.058210564139418</v>
+        <v>0.8608557844690965</v>
       </c>
       <c r="G149">
-        <v>1.101754385964912</v>
+        <v>1.186813186813189</v>
       </c>
       <c r="H149">
-        <v>0.7406143344709911</v>
+        <v>0.7428087986463627</v>
       </c>
       <c r="I149">
-        <v>1.008255695969008</v>
+        <v>1.026283387005114</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="2">
-        <v>43406</v>
+        <v>43413</v>
       </c>
       <c r="B150">
-        <v>1.103272948211631</v>
+        <v>1.108409903011741</v>
       </c>
       <c r="C150">
-        <v>1.024265106919185</v>
+        <v>1.077125970223248</v>
       </c>
       <c r="D150">
-        <v>0.9505186694186084</v>
+        <v>0.9305618759536369</v>
       </c>
       <c r="E150">
-        <v>0.6431360704191931</v>
+        <v>0.6812403523109056</v>
       </c>
       <c r="F150">
-        <v>1.109593963348904</v>
+        <v>0.8982567353407289</v>
       </c>
       <c r="G150">
-        <v>1.129824561403509</v>
+        <v>1.16849816849817</v>
       </c>
       <c r="H150">
-        <v>0.7610921501706499</v>
+        <v>0.7326565143824033</v>
       </c>
       <c r="I150">
-        <v>0.9900378193893569</v>
+        <v>1.030356128054555</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="2">
-        <v>43409</v>
+        <v>43416</v>
       </c>
       <c r="B151">
-        <v>1.105479430152056</v>
+        <v>1.110962225625319</v>
       </c>
       <c r="C151">
-        <v>1.030001316507118</v>
+        <v>1.055904999457759</v>
       </c>
       <c r="D151">
-        <v>0.946524780872223</v>
+        <v>0.9332922879246195</v>
       </c>
       <c r="E151">
-        <v>0.6442147957972864</v>
+        <v>0.6812403523109056</v>
       </c>
       <c r="F151">
-        <v>1.087315846209127</v>
+        <v>0.9673534072900157</v>
       </c>
       <c r="G151">
-        <v>1.12280701754386</v>
+        <v>1.16849816849817</v>
       </c>
       <c r="H151">
-        <v>0.7576791808873734</v>
+        <v>0.7411167512690361</v>
       </c>
       <c r="I151">
-        <v>0.9958952126187636</v>
+        <v>1.027846182989202</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="2">
-        <v>43410</v>
+        <v>43417</v>
       </c>
       <c r="B152">
-        <v>1.106886462114066</v>
+        <v>1.108074910668709</v>
       </c>
       <c r="C152">
-        <v>1.036448439939064</v>
+        <v>1.05434024819124</v>
       </c>
       <c r="D152">
-        <v>0.9411906612700036</v>
+        <v>0.9299461948229252</v>
       </c>
       <c r="E152">
-        <v>0.6452935211753795</v>
+        <v>0.6819213656587673</v>
       </c>
       <c r="F152">
-        <v>1.067912324829321</v>
+        <v>0.9759112519809825</v>
       </c>
       <c r="G152">
-        <v>1.129824561403509</v>
+        <v>1.150183150183152</v>
       </c>
       <c r="H152">
-        <v>0.7559726962457352</v>
+        <v>0.7478849407783422</v>
       </c>
       <c r="I152">
-        <v>1.003874181348586</v>
+        <v>1.026899033907936</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="2">
-        <v>43411</v>
+        <v>43418</v>
       </c>
       <c r="B153">
-        <v>1.106134979134356</v>
+        <v>1.107787774374681</v>
       </c>
       <c r="C153">
-        <v>1.058430347369806</v>
+        <v>1.046361565990673</v>
       </c>
       <c r="D153">
-        <v>0.9331492749349996</v>
+        <v>0.9159729100302491</v>
       </c>
       <c r="E153">
-        <v>0.6465879916290913</v>
+        <v>0.6828293834559162</v>
       </c>
       <c r="F153">
-        <v>0.9834710743801657</v>
+        <v>1.002218700475436</v>
       </c>
       <c r="G153">
-        <v>1.129824561403509</v>
+        <v>1.142857142857145</v>
       </c>
       <c r="H153">
-        <v>0.7508532423208205</v>
+        <v>0.7416807670614781</v>
       </c>
       <c r="I153">
-        <v>1.0107923623282</v>
+        <v>1.039211971964386</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="2">
-        <v>43412</v>
+        <v>43419</v>
       </c>
       <c r="B154">
-        <v>1.109764482036359</v>
+        <v>1.105267355793772</v>
       </c>
       <c r="C154">
-        <v>1.055774764439261</v>
+        <v>1.057446511844082</v>
       </c>
       <c r="D154">
-        <v>0.9331492749349996</v>
+        <v>0.9078619803517417</v>
       </c>
       <c r="E154">
-        <v>0.6472352268559474</v>
+        <v>0.6832833923544905</v>
       </c>
       <c r="F154">
-        <v>0.9759252605102411</v>
+        <v>1.013946117274168</v>
       </c>
       <c r="G154">
-        <v>1.136842105263158</v>
+        <v>1.139194139194141</v>
       </c>
       <c r="H154">
-        <v>0.7491467576791824</v>
+        <v>0.7518330513254375</v>
       </c>
       <c r="I154">
-        <v>0.9994926667281628</v>
+        <v>1.051382837658646</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="2">
-        <v>43413</v>
+        <v>43420</v>
       </c>
       <c r="B155">
-        <v>1.11097964600355</v>
+        <v>1.104182618683001</v>
       </c>
       <c r="C155">
-        <v>1.046062703353331</v>
+        <v>1.05979751189056</v>
       </c>
       <c r="D155">
-        <v>0.9318090438791655</v>
+        <v>0.8971544824263193</v>
       </c>
       <c r="E155">
-        <v>0.647450971931566</v>
+        <v>0.6862344501952243</v>
       </c>
       <c r="F155">
-        <v>1.018325547969817</v>
+        <v>0.9946117274167987</v>
       </c>
       <c r="G155">
-        <v>1.119298245614035</v>
+        <v>1.12820512820513</v>
       </c>
       <c r="H155">
-        <v>0.738907849829353</v>
+        <v>0.7546531302876485</v>
       </c>
       <c r="I155">
-        <v>1.003459090489809</v>
+        <v>1.051809054745216</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="2">
-        <v>43416</v>
+        <v>43423</v>
       </c>
       <c r="B156">
-        <v>1.113537885934478</v>
+        <v>1.106096860643185</v>
       </c>
       <c r="C156">
-        <v>1.025453724774783</v>
+        <v>1.042159201821927</v>
       </c>
       <c r="D156">
-        <v>0.9345431152330669</v>
+        <v>0.9040340498434031</v>
       </c>
       <c r="E156">
-        <v>0.647450971931566</v>
+        <v>0.6889585035866708</v>
       </c>
       <c r="F156">
-        <v>1.096658282429034</v>
+        <v>0.9904912836767037</v>
       </c>
       <c r="G156">
-        <v>1.119298245614035</v>
+        <v>1.120879120879122</v>
       </c>
       <c r="H156">
-        <v>0.7474402730375441</v>
+        <v>0.7619853355893969</v>
       </c>
       <c r="I156">
-        <v>1.001014666543678</v>
+        <v>1.024294373934456</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="2">
-        <v>43417</v>
+        <v>43424</v>
       </c>
       <c r="B157">
-        <v>1.110643877012616</v>
+        <v>1.107867534456355</v>
       </c>
       <c r="C157">
-        <v>1.023934099415094</v>
+        <v>1.023242753342525</v>
       </c>
       <c r="D157">
-        <v>0.931192537593482</v>
+        <v>0.9040072810985895</v>
       </c>
       <c r="E157">
-        <v>0.6480982071584219</v>
+        <v>0.6930445836738404</v>
       </c>
       <c r="F157">
-        <v>1.106360043118937</v>
+        <v>1.016481774960381</v>
       </c>
       <c r="G157">
-        <v>1.101754385964912</v>
+        <v>1.120879120879122</v>
       </c>
       <c r="H157">
-        <v>0.7542662116040969</v>
+        <v>0.7467569091934577</v>
       </c>
       <c r="I157">
-        <v>1.000092242413063</v>
+        <v>1.025620382648228</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="2">
-        <v>43418</v>
+        <v>43425</v>
       </c>
       <c r="B158">
-        <v>1.110356075020386</v>
+        <v>1.10490045941807</v>
       </c>
       <c r="C158">
-        <v>1.016185514660247</v>
+        <v>1.026356763288766</v>
       </c>
       <c r="D158">
-        <v>0.9172005253705747</v>
+        <v>0.902535000133844</v>
       </c>
       <c r="E158">
-        <v>0.6489611874608966</v>
+        <v>0.6946336148188509</v>
       </c>
       <c r="F158">
-        <v>1.136183974128639</v>
+        <v>0.9578446909667195</v>
       </c>
       <c r="G158">
-        <v>1.094736842105263</v>
+        <v>1.120879120879122</v>
       </c>
       <c r="H158">
-        <v>0.7480091012514234</v>
+        <v>0.7484489565707841</v>
       </c>
       <c r="I158">
-        <v>1.012083756111061</v>
+        <v>1.030308770600492</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="2">
-        <v>43419</v>
+        <v>43426</v>
       </c>
       <c r="B159">
-        <v>1.107829813088596</v>
+        <v>1.104836651352731</v>
       </c>
       <c r="C159">
-        <v>1.02695078144101</v>
+        <v>1.026356763288766</v>
       </c>
       <c r="D159">
-        <v>0.9090787251722205</v>
+        <v>0.9079155178413688</v>
       </c>
       <c r="E159">
-        <v>0.6493926776121339</v>
+        <v>0.6955416326159997</v>
       </c>
       <c r="F159">
-        <v>1.149478979518506</v>
+        <v>0.9578446909667195</v>
       </c>
       <c r="G159">
-        <v>1.091228070175438</v>
+        <v>1.120879120879122</v>
       </c>
       <c r="H159">
-        <v>0.7582480091012528</v>
+        <v>0.7473209249858999</v>
       </c>
       <c r="I159">
-        <v>1.023936906189467</v>
+        <v>1.019558628528129</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="2">
-        <v>43420</v>
+        <v>43427</v>
       </c>
       <c r="B160">
-        <v>1.106742561117951</v>
+        <v>1.107771822358346</v>
       </c>
       <c r="C160">
-        <v>1.029233980929453</v>
+        <v>1.019629107472074</v>
       </c>
       <c r="D160">
-        <v>0.8983568767255483</v>
+        <v>0.9079155178413688</v>
       </c>
       <c r="E160">
-        <v>0.6521973635951765</v>
+        <v>0.6975846726595845</v>
       </c>
       <c r="F160">
-        <v>1.127560186848725</v>
+        <v>0.950554675118859</v>
       </c>
       <c r="G160">
-        <v>1.080701754385965</v>
+        <v>1.117216117216119</v>
       </c>
       <c r="H160">
-        <v>0.7610921501706498</v>
+        <v>0.7298364354201919</v>
       </c>
       <c r="I160">
-        <v>1.024351997048244</v>
+        <v>1.019937488160635</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="2">
-        <v>43423</v>
+        <v>43430</v>
       </c>
       <c r="B161">
-        <v>1.108661241066147</v>
+        <v>1.108728943338438</v>
       </c>
       <c r="C161">
-        <v>1.012104342592766</v>
+        <v>1.035466404325529</v>
       </c>
       <c r="D161">
-        <v>0.9052456643525352</v>
+        <v>0.9141794041277408</v>
       </c>
       <c r="E161">
-        <v>0.6547863045026003</v>
+        <v>0.7003087260510309</v>
       </c>
       <c r="F161">
-        <v>1.122888968738772</v>
+        <v>0.9122028526148972</v>
       </c>
       <c r="G161">
-        <v>1.073684210526316</v>
+        <v>1.124542124542126</v>
       </c>
       <c r="H161">
-        <v>0.768486916951082</v>
+        <v>0.7281443880428654</v>
       </c>
       <c r="I161">
-        <v>0.9975555760538709</v>
+        <v>1.008287554461071</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="2">
-        <v>43424</v>
+        <v>43431</v>
       </c>
       <c r="B162">
-        <v>1.110436020018228</v>
+        <v>1.109303215926493</v>
       </c>
       <c r="C162">
-        <v>0.9937334261157391</v>
+        <v>1.038843788247323</v>
       </c>
       <c r="D162">
-        <v>0.9052188597314185</v>
+        <v>0.9101373236608938</v>
       </c>
       <c r="E162">
-        <v>0.6586697158637359</v>
+        <v>0.7028057749931902</v>
       </c>
       <c r="F162">
-        <v>1.152353575278477</v>
+        <v>0.9106180665610144</v>
       </c>
       <c r="G162">
-        <v>1.073684210526316</v>
+        <v>1.120879120879122</v>
       </c>
       <c r="H162">
-        <v>0.7531285551763379</v>
+        <v>0.7275803722504233</v>
       </c>
       <c r="I162">
-        <v>0.9988469698367324</v>
+        <v>1.017285470733092</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="2">
-        <v>43425</v>
+        <v>43432</v>
       </c>
       <c r="B163">
-        <v>1.107462066098525</v>
+        <v>1.107181597753956</v>
       </c>
       <c r="C163">
-        <v>0.9967576310394758</v>
+        <v>1.062710118208437</v>
       </c>
       <c r="D163">
-        <v>0.903744605570001</v>
+        <v>0.9021067002168272</v>
       </c>
       <c r="E163">
-        <v>0.6601799313930665</v>
+        <v>0.7046218105874879</v>
       </c>
       <c r="F163">
-        <v>1.085878548329142</v>
+        <v>0.9407290015847861</v>
       </c>
       <c r="G163">
-        <v>1.073684210526316</v>
+        <v>1.120879120879122</v>
       </c>
       <c r="H163">
-        <v>0.7548350398179761</v>
+        <v>0.7546531302876484</v>
       </c>
       <c r="I163">
-        <v>1.003412969283278</v>
+        <v>1.029693123697669</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="2">
-        <v>43426</v>
+        <v>43433</v>
       </c>
       <c r="B164">
-        <v>1.107398110100251</v>
+        <v>1.106399948953548</v>
       </c>
       <c r="C164">
-        <v>0.9967576310394758</v>
+        <v>1.060374610748756</v>
       </c>
       <c r="D164">
-        <v>0.9091323344144538</v>
+        <v>0.8994298257354715</v>
       </c>
       <c r="E164">
-        <v>0.6610429116955411</v>
+        <v>0.7058476346136386</v>
       </c>
       <c r="F164">
-        <v>1.085878548329142</v>
+        <v>0.9058637083993661</v>
       </c>
       <c r="G164">
-        <v>1.073684210526316</v>
+        <v>1.109890109890111</v>
       </c>
       <c r="H164">
-        <v>0.7536973833902173</v>
+        <v>0.7253243090806545</v>
       </c>
       <c r="I164">
-        <v>0.9929434554007947</v>
+        <v>1.034334154195869</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="2">
-        <v>43427</v>
+        <v>43434</v>
       </c>
       <c r="B165">
-        <v>1.110340086020818</v>
+        <v>1.108888463501786</v>
       </c>
       <c r="C165">
-        <v>0.9902239942825971</v>
+        <v>1.069054332501897</v>
       </c>
       <c r="D165">
-        <v>0.9091323344144538</v>
+        <v>0.8980913884947938</v>
       </c>
       <c r="E165">
-        <v>0.6629846173761088</v>
+        <v>0.7066648506310725</v>
       </c>
       <c r="F165">
-        <v>1.077614085519224</v>
+        <v>0.8909667194928685</v>
       </c>
       <c r="G165">
-        <v>1.070175438596491</v>
+        <v>1.102564102564104</v>
       </c>
       <c r="H165">
-        <v>0.7360637087599555</v>
+        <v>0.7315284827975186</v>
       </c>
       <c r="I165">
-        <v>0.9933124250530407</v>
+        <v>1.027798825535138</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="2">
-        <v>43430</v>
+        <v>43437</v>
       </c>
       <c r="B166">
-        <v>1.111299425994916</v>
+        <v>1.096892547217968</v>
       </c>
       <c r="C166">
-        <v>1.005604558876078</v>
+        <v>1.080751235533796</v>
       </c>
       <c r="D166">
-        <v>0.915404615755757</v>
+        <v>0.896752951254116</v>
       </c>
       <c r="E166">
-        <v>0.6655735582835326</v>
+        <v>0.7075728684282214</v>
       </c>
       <c r="F166">
-        <v>1.034135824649659</v>
+        <v>0.7508716323296356</v>
       </c>
       <c r="G166">
-        <v>1.07719298245614</v>
+        <v>1.091575091575093</v>
       </c>
       <c r="H166">
-        <v>0.7343572241183174</v>
+        <v>0.7501410039481109</v>
       </c>
       <c r="I166">
-        <v>0.9819666082464733</v>
+        <v>1.039022542148133</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="2">
-        <v>43431</v>
+        <v>43438</v>
       </c>
       <c r="B167">
-        <v>1.111875029979374</v>
+        <v>1.09260145482389</v>
       </c>
       <c r="C167">
-        <v>1.008884542325703</v>
+        <v>1.045772847692378</v>
       </c>
       <c r="D167">
-        <v>0.9113571179671383</v>
+        <v>0.8847070160880159</v>
       </c>
       <c r="E167">
-        <v>0.6679467541153378</v>
+        <v>0.7096159084718062</v>
       </c>
       <c r="F167">
-        <v>1.032339202299677</v>
+        <v>0.8332805071315372</v>
       </c>
       <c r="G167">
-        <v>1.073684210526316</v>
+        <v>1.065934065934067</v>
       </c>
       <c r="H167">
-        <v>0.733788395904438</v>
+        <v>0.7529610829103218</v>
       </c>
       <c r="I167">
-        <v>0.9907296374873181</v>
+        <v>1.0585338132222</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="2">
-        <v>43432</v>
+        <v>43439</v>
       </c>
       <c r="B168">
-        <v>1.109748493036791</v>
+        <v>1.094196656457376</v>
       </c>
       <c r="C168">
-        <v>1.032062590509864</v>
+        <v>1.045772847692378</v>
       </c>
       <c r="D168">
-        <v>0.9033157316321341</v>
+        <v>0.8766763926439491</v>
       </c>
       <c r="E168">
-        <v>0.669672714720287</v>
+        <v>0.7112049396168166</v>
       </c>
       <c r="F168">
-        <v>1.066475026949336</v>
+        <v>0.8332805071315372</v>
       </c>
       <c r="G168">
-        <v>1.073684210526316</v>
+        <v>1.065934065934067</v>
       </c>
       <c r="H168">
-        <v>0.7610921501706497</v>
+        <v>0.7484489565707844</v>
       </c>
       <c r="I168">
-        <v>1.002813393598378</v>
+        <v>1.04172191702974</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="2">
-        <v>43433</v>
+        <v>43440</v>
       </c>
       <c r="B169">
-        <v>1.108965032057944</v>
+        <v>1.097753956100051</v>
       </c>
       <c r="C169">
-        <v>1.029794436817062</v>
+        <v>1.044180984398964</v>
       </c>
       <c r="D169">
-        <v>0.9006352695204659</v>
+        <v>0.8767031613887627</v>
       </c>
       <c r="E169">
-        <v>0.6708377381286277</v>
+        <v>0.7112049396168166</v>
       </c>
       <c r="F169">
-        <v>1.026949335249731</v>
+        <v>0.8580031695721079</v>
       </c>
       <c r="G169">
-        <v>1.063157894736842</v>
+        <v>1.051282051282052</v>
       </c>
       <c r="H169">
-        <v>0.7315130830489203</v>
+        <v>0.7360406091370563</v>
       </c>
       <c r="I169">
-        <v>1.007333271838393</v>
+        <v>1.041343057397234</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="2">
-        <v>43434</v>
+        <v>43441</v>
       </c>
       <c r="B170">
-        <v>1.111459315990599</v>
+        <v>1.09853560490046</v>
       </c>
       <c r="C170">
-        <v>1.038223843824641</v>
+        <v>1.019830511100437</v>
       </c>
       <c r="D170">
-        <v>0.8992950384646319</v>
+        <v>0.8794335733597453</v>
       </c>
       <c r="E170">
-        <v>0.6716144204008547</v>
+        <v>0.7118859529646783</v>
       </c>
       <c r="F170">
-        <v>1.0100610851599</v>
+        <v>0.8843106180665612</v>
       </c>
       <c r="G170">
-        <v>1.056140350877193</v>
+        <v>1.043956043956045</v>
       </c>
       <c r="H170">
-        <v>0.7377701934015938</v>
+        <v>0.7360406091370563</v>
       </c>
       <c r="I170">
-        <v>1.000968545337147</v>
+        <v>1.028225042621708</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="2">
-        <v>43437</v>
+        <v>43444</v>
       </c>
       <c r="B171">
-        <v>1.09943558831524</v>
+        <v>1.103018121490557</v>
       </c>
       <c r="C171">
-        <v>1.049583419533203</v>
+        <v>1.021627651168915</v>
       </c>
       <c r="D171">
-        <v>0.8979548074087979</v>
+        <v>0.874749043017373</v>
       </c>
       <c r="E171">
-        <v>0.6724774007033294</v>
+        <v>0.7132479796604015</v>
       </c>
       <c r="F171">
-        <v>0.8512396694214881</v>
+        <v>0.8592709984152141</v>
       </c>
       <c r="G171">
-        <v>1.045614035087719</v>
+        <v>1.043956043956045</v>
       </c>
       <c r="H171">
-        <v>0.7565415244596143</v>
+        <v>0.7304004512126343</v>
       </c>
       <c r="I171">
-        <v>1.011899271284938</v>
+        <v>1.031918924038643</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="2">
-        <v>43438</v>
+        <v>43445</v>
       </c>
       <c r="B172">
-        <v>1.095134547431368</v>
+        <v>1.101821720265442</v>
       </c>
       <c r="C172">
-        <v>1.015613774425908</v>
+        <v>1.02126357537918</v>
       </c>
       <c r="D172">
-        <v>0.8858927279062916</v>
+        <v>0.8740530556522207</v>
       </c>
       <c r="E172">
-        <v>0.6744191063838971</v>
+        <v>0.7139289930082632</v>
       </c>
       <c r="F172">
-        <v>0.9446640316205538</v>
+        <v>0.8643423137876388</v>
       </c>
       <c r="G172">
-        <v>1.021052631578948</v>
+        <v>1.05860805860806</v>
       </c>
       <c r="H172">
-        <v>0.7593856655290113</v>
+        <v>0.7326565143824032</v>
       </c>
       <c r="I172">
-        <v>1.030901208375612</v>
+        <v>1.021784428869103</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="2">
-        <v>43439</v>
+        <v>43446</v>
       </c>
       <c r="B173">
-        <v>1.096733447388198</v>
+        <v>1.095807810107198</v>
       </c>
       <c r="C173">
-        <v>1.015613774425908</v>
+        <v>1.026798302012486</v>
       </c>
       <c r="D173">
-        <v>0.8778513415712873</v>
+        <v>0.8754182616377121</v>
       </c>
       <c r="E173">
-        <v>0.6759293219132276</v>
+        <v>0.7143830019068375</v>
       </c>
       <c r="F173">
-        <v>0.9446640316205538</v>
+        <v>0.834231378763867</v>
       </c>
       <c r="G173">
-        <v>1.021052631578948</v>
+        <v>1.065934065934067</v>
       </c>
       <c r="H173">
-        <v>0.7548350398179761</v>
+        <v>0.734912577552172</v>
       </c>
       <c r="I173">
-        <v>1.014528180057192</v>
+        <v>1.017001326008713</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="2">
-        <v>43440</v>
+        <v>43447</v>
       </c>
       <c r="B174">
-        <v>1.100298994291928</v>
+        <v>1.097195635528331</v>
       </c>
       <c r="C174">
-        <v>1.014067818923849</v>
+        <v>1.026593025237423</v>
       </c>
       <c r="D174">
-        <v>0.877878146192404</v>
+        <v>0.891693658484354</v>
       </c>
       <c r="E174">
-        <v>0.6759293219132276</v>
+        <v>0.714837010805412</v>
       </c>
       <c r="F174">
-        <v>0.9726913402802736</v>
+        <v>0.8006339144215532</v>
       </c>
       <c r="G174">
-        <v>1.007017543859649</v>
+        <v>1.065934065934067</v>
       </c>
       <c r="H174">
-        <v>0.742320819112629</v>
+        <v>0.7445008460236892</v>
       </c>
       <c r="I174">
-        <v>1.014159210404945</v>
+        <v>0.987355559765106</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="2">
-        <v>43441</v>
+        <v>43448</v>
       </c>
       <c r="B175">
-        <v>1.101082455270774</v>
+        <v>1.101071975497703</v>
       </c>
       <c r="C175">
-        <v>0.990419589625923</v>
+        <v>1.006998776085642</v>
       </c>
       <c r="D175">
-        <v>0.8806122175463054</v>
+        <v>0.8958963514200822</v>
       </c>
       <c r="E175">
-        <v>0.6765765571400836</v>
+        <v>0.7164260419504225</v>
       </c>
       <c r="F175">
-        <v>1.002515271289975</v>
+        <v>0.8367670364500793</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>1.05860805860806</v>
       </c>
       <c r="H175">
-        <v>0.742320819112629</v>
+        <v>0.7326565143824032</v>
       </c>
       <c r="I175">
-        <v>1.001383636195924</v>
+        <v>0.9905285091873448</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="2">
-        <v>43444</v>
+        <v>43451</v>
       </c>
       <c r="B176">
-        <v>1.105575364149466</v>
+        <v>1.100816743236345</v>
       </c>
       <c r="C176">
-        <v>0.9921649019202188</v>
+        <v>0.9860799107626994</v>
       </c>
       <c r="D176">
-        <v>0.8759214088508862</v>
+        <v>0.9024546938994034</v>
       </c>
       <c r="E176">
-        <v>0.6778710275937955</v>
+        <v>0.7182420775447202</v>
       </c>
       <c r="F176">
-        <v>0.9741286381602593</v>
+        <v>0.8874801901743266</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>1.047619047619049</v>
       </c>
       <c r="H176">
-        <v>0.7366325369738349</v>
+        <v>0.7343485617597296</v>
       </c>
       <c r="I176">
-        <v>1.004981090305324</v>
+        <v>0.9774578518658824</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="2">
-        <v>43445</v>
+        <v>43452</v>
       </c>
       <c r="B177">
-        <v>1.104376189181844</v>
+        <v>1.099492725880552</v>
       </c>
       <c r="C177">
-        <v>0.9918113257226676</v>
+        <v>0.9861651199900839</v>
       </c>
       <c r="D177">
-        <v>0.8752244887018527</v>
+        <v>0.9024814626442168</v>
       </c>
       <c r="E177">
-        <v>0.6785182628206514</v>
+        <v>0.7205121220375923</v>
       </c>
       <c r="F177">
-        <v>0.9798778296802018</v>
+        <v>0.8808240887480191</v>
       </c>
       <c r="G177">
-        <v>1.014035087719299</v>
+        <v>1.032967032967035</v>
       </c>
       <c r="H177">
-        <v>0.7389078498293526</v>
+        <v>0.7281443880428656</v>
       </c>
       <c r="I177">
-        <v>0.9951111521077401</v>
+        <v>0.9661394203447613</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="2">
-        <v>43446</v>
+        <v>43453</v>
       </c>
       <c r="B178">
-        <v>1.098348336344596</v>
+        <v>1.101630296069424</v>
       </c>
       <c r="C178">
-        <v>0.9971864362152294</v>
+        <v>0.9709823849288108</v>
       </c>
       <c r="D178">
-        <v>0.8765915243788035</v>
+        <v>0.894397301710523</v>
       </c>
       <c r="E178">
-        <v>0.6789497529718886</v>
+        <v>0.7221011531826028</v>
       </c>
       <c r="F178">
-        <v>0.9457420050305431</v>
+        <v>0.8751188589540413</v>
       </c>
       <c r="G178">
-        <v>1.021052631578948</v>
+        <v>1.014652014652016</v>
       </c>
       <c r="H178">
-        <v>0.7411831626848703</v>
+        <v>0.7208121827411171</v>
       </c>
       <c r="I178">
-        <v>0.9904529102481331</v>
+        <v>0.9851771168781955</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="2">
-        <v>43447</v>
+        <v>43454</v>
       </c>
       <c r="B179">
-        <v>1.099739379307037</v>
+        <v>1.099588437978561</v>
       </c>
       <c r="C179">
-        <v>0.9969870794229929</v>
+        <v>0.9556679628797614</v>
       </c>
       <c r="D179">
-        <v>0.8928887340177453</v>
+        <v>0.8834488850817787</v>
       </c>
       <c r="E179">
-        <v>0.679381243123126</v>
+        <v>0.7261872332697724</v>
       </c>
       <c r="F179">
-        <v>0.9076536112109239</v>
+        <v>0.9090332805071316</v>
       </c>
       <c r="G179">
-        <v>1.021052631578948</v>
+        <v>1.021978021978024</v>
       </c>
       <c r="H179">
-        <v>0.7508532423208202</v>
+        <v>0.7168640721940219</v>
       </c>
       <c r="I179">
-        <v>0.9615810349598758</v>
+        <v>0.9940329607880271</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="2">
-        <v>43448</v>
+        <v>43455</v>
       </c>
       <c r="B180">
-        <v>1.103624706202134</v>
+        <v>1.104501659009699</v>
       </c>
       <c r="C180">
-        <v>0.9779579093866949</v>
+        <v>0.9359923776472951</v>
       </c>
       <c r="D180">
-        <v>0.8970970595330641</v>
+        <v>0.8878657279760154</v>
       </c>
       <c r="E180">
-        <v>0.6808914586524566</v>
+        <v>0.7284572777626445</v>
       </c>
       <c r="F180">
-        <v>0.9486166007905142</v>
+        <v>0.9194928684627577</v>
       </c>
       <c r="G180">
-        <v>1.014035087719299</v>
+        <v>1.021978021978024</v>
       </c>
       <c r="H180">
-        <v>0.7389078498293526</v>
+        <v>0.7112239142696</v>
       </c>
       <c r="I180">
-        <v>0.9646711557974367</v>
+        <v>0.9847508997916262</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="2">
-        <v>43451</v>
+        <v>43458</v>
       </c>
       <c r="B181">
-        <v>1.103368882209041</v>
+        <v>1.101135783563043</v>
       </c>
       <c r="C181">
-        <v>0.957642323823136</v>
+        <v>0.910615520473453</v>
       </c>
       <c r="D181">
-        <v>0.9036641917066509</v>
+        <v>0.8962978825922853</v>
       </c>
       <c r="E181">
-        <v>0.6826174192574058</v>
+        <v>0.7332243711976757</v>
       </c>
       <c r="F181">
-        <v>1.006108515989939</v>
+        <v>0.9835182250396198</v>
       </c>
       <c r="G181">
-        <v>1.003508771929825</v>
+        <v>1.003663003663006</v>
       </c>
       <c r="H181">
-        <v>0.7406143344709908</v>
+        <v>0.7140439932318109</v>
       </c>
       <c r="I181">
-        <v>0.9519417027949461</v>
+        <v>0.9730062511839352</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="2">
-        <v>43452</v>
+        <v>43459</v>
       </c>
       <c r="B182">
-        <v>1.102041795244872</v>
+        <v>1.100114854517611</v>
       </c>
       <c r="C182">
-        <v>0.9577250756991584</v>
+        <v>0.910615520473453</v>
       </c>
       <c r="D182">
-        <v>0.9036909963277674</v>
+        <v>0.8863934470112697</v>
       </c>
       <c r="E182">
-        <v>0.6847748700135923</v>
+        <v>0.7429855625170255</v>
       </c>
       <c r="F182">
-        <v>0.9985627021200146</v>
+        <v>0.9835182250396198</v>
       </c>
       <c r="G182">
-        <v>0.9894736842105266</v>
+        <v>1.003663003663006</v>
       </c>
       <c r="H182">
-        <v>0.7343572241183173</v>
+        <v>0.7140439932318109</v>
       </c>
       <c r="I182">
-        <v>0.940918734434094</v>
+        <v>0.9992422807349864</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="2">
-        <v>43453</v>
+        <v>43460</v>
       </c>
       <c r="B183">
-        <v>1.104184321187024</v>
+        <v>1.099811766207249</v>
       </c>
       <c r="C183">
-        <v>0.9429801959714874</v>
+        <v>0.955776410987342</v>
       </c>
       <c r="D183">
-        <v>0.8955960007505299</v>
+        <v>0.8836630350402869</v>
       </c>
       <c r="E183">
-        <v>0.6862850855429229</v>
+        <v>0.7511577226913649</v>
       </c>
       <c r="F183">
-        <v>0.9920948616600793</v>
+        <v>0.9055467511885896</v>
       </c>
       <c r="G183">
-        <v>0.9719298245614039</v>
+        <v>1.029304029304031</v>
       </c>
       <c r="H183">
-        <v>0.7269624573378849</v>
+        <v>0.7140439932318109</v>
       </c>
       <c r="I183">
-        <v>0.9594594594594607</v>
+        <v>1.002367872703163</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="2">
-        <v>43454</v>
+        <v>43461</v>
       </c>
       <c r="B184">
-        <v>1.102137729242282</v>
+        <v>1.096605410923941</v>
       </c>
       <c r="C184">
-        <v>0.9281074269808723</v>
+        <v>0.9639603699629721</v>
       </c>
       <c r="D184">
-        <v>0.8846329107138076</v>
+        <v>0.8755788741065931</v>
       </c>
       <c r="E184">
-        <v>0.6901684969040585</v>
+        <v>0.757967856169981</v>
       </c>
       <c r="F184">
-        <v>1.030542579949695</v>
+        <v>0.9153724247226626</v>
       </c>
       <c r="G184">
-        <v>0.9789473684210531</v>
+        <v>1.014652014652017</v>
       </c>
       <c r="H184">
-        <v>0.7229806598407291</v>
+        <v>0.7021996615905248</v>
       </c>
       <c r="I184">
-        <v>0.9680841250807134</v>
+        <v>1.025146808107595</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="2">
-        <v>43455</v>
+        <v>43462</v>
       </c>
       <c r="B185">
-        <v>1.107062341109317</v>
+        <v>1.097801812149056</v>
       </c>
       <c r="C185">
-        <v>0.9089992665174618</v>
+        <v>0.962763567632887</v>
       </c>
       <c r="D185">
-        <v>0.8890556731980599</v>
+        <v>0.865031988650052</v>
       </c>
       <c r="E185">
-        <v>0.6923259476602449</v>
+        <v>0.7620539362571508</v>
       </c>
       <c r="F185">
-        <v>1.042400287459576</v>
+        <v>0.8836767036450081</v>
       </c>
       <c r="G185">
-        <v>0.9789473684210531</v>
+        <v>0.9963369963369983</v>
       </c>
       <c r="H185">
-        <v>0.717292377701935</v>
+        <v>0.7050197405527358</v>
       </c>
       <c r="I185">
-        <v>0.9590443686006838</v>
+        <v>1.03665466944497</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="2">
-        <v>43458</v>
+        <v>43467</v>
       </c>
       <c r="B186">
-        <v>1.103688662200407</v>
+        <v>1.097450867789689</v>
       </c>
       <c r="C186">
-        <v>0.8843542532583545</v>
+        <v>0.9721714409654975</v>
       </c>
       <c r="D186">
-        <v>0.8974991288498142</v>
+        <v>0.8494793479133762</v>
       </c>
       <c r="E186">
-        <v>0.6968565942482364</v>
+        <v>0.745709615908472</v>
       </c>
       <c r="F186">
-        <v>1.114983830398851</v>
+        <v>0.8402535657686214</v>
       </c>
       <c r="G186">
-        <v>0.9614035087719304</v>
+        <v>0.9743589743589763</v>
       </c>
       <c r="H186">
-        <v>0.720136518771332</v>
+        <v>0.6965595036661029</v>
       </c>
       <c r="I186">
-        <v>0.9476063093810544</v>
+        <v>1.047973100966091</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="2">
-        <v>43459</v>
+        <v>43468</v>
       </c>
       <c r="B187">
-        <v>1.102665366228036</v>
+        <v>1.097833716181726</v>
       </c>
       <c r="C187">
-        <v>0.8843542532583545</v>
+        <v>0.9481037073760199</v>
       </c>
       <c r="D187">
-        <v>0.8875814190366424</v>
+        <v>0.8408062745937841</v>
       </c>
       <c r="E187">
-        <v>0.7061336324998383</v>
+        <v>0.7368564423862708</v>
       </c>
       <c r="F187">
-        <v>1.114983830398851</v>
+        <v>0.8687797147385103</v>
       </c>
       <c r="G187">
-        <v>0.9614035087719304</v>
+        <v>0.9377289377289396</v>
       </c>
       <c r="H187">
-        <v>0.720136518771332</v>
+        <v>0.6965595036661029</v>
       </c>
       <c r="I187">
-        <v>0.9731574577990969</v>
+        <v>1.052992991096797</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="2">
-        <v>43460</v>
+        <v>43469</v>
       </c>
       <c r="B188">
-        <v>1.102361575236238</v>
+        <v>1.095153777437468</v>
       </c>
       <c r="C188">
-        <v>0.9282127475503557</v>
+        <v>0.9806575053836731</v>
       </c>
       <c r="D188">
-        <v>0.884847347682741</v>
+        <v>0.8435634553095804</v>
       </c>
       <c r="E188">
-        <v>0.7139004552221097</v>
+        <v>0.7298193044583673</v>
       </c>
       <c r="F188">
-        <v>1.026590010779735</v>
+        <v>0.7933438985736926</v>
       </c>
       <c r="G188">
-        <v>0.9859649122807024</v>
+        <v>0.97802197802198</v>
       </c>
       <c r="H188">
-        <v>0.720136518771332</v>
+        <v>0.7112239142695999</v>
       </c>
       <c r="I188">
-        <v>0.9762014574301277</v>
+        <v>1.036086379996211</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="2">
-        <v>43461</v>
+        <v>43472</v>
       </c>
       <c r="B189">
-        <v>1.09914778632301</v>
+        <v>1.09204313425217</v>
       </c>
       <c r="C189">
-        <v>0.9361606890974395</v>
+        <v>0.9875323407749383</v>
       </c>
       <c r="D189">
-        <v>0.8767523521055035</v>
+        <v>0.8434028428406991</v>
       </c>
       <c r="E189">
-        <v>0.720372807490669</v>
+        <v>0.7130209752111141</v>
       </c>
       <c r="F189">
-        <v>1.037729069349623</v>
+        <v>0.7870047543581615</v>
       </c>
       <c r="G189">
-        <v>0.9719298245614041</v>
+        <v>0.989010989010991</v>
       </c>
       <c r="H189">
-        <v>0.7081911262798644</v>
+        <v>0.7163000564015796</v>
       </c>
       <c r="I189">
-        <v>0.9983857577714245</v>
+        <v>1.022021216139419</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="2">
-        <v>43462</v>
+        <v>43473</v>
       </c>
       <c r="B190">
-        <v>1.100346961290633</v>
+        <v>1.093383103624298</v>
       </c>
       <c r="C190">
-        <v>0.9349984013842123</v>
+        <v>0.9971067594156187</v>
       </c>
       <c r="D190">
-        <v>0.8661913313855313</v>
+        <v>0.8354792943758867</v>
       </c>
       <c r="E190">
-        <v>0.7242562188518048</v>
+        <v>0.7021247616453282</v>
       </c>
       <c r="F190">
-        <v>1.001796622349983</v>
+        <v>0.7740095087163233</v>
       </c>
       <c r="G190">
-        <v>0.9543859649122813</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H190">
-        <v>0.7110352673492615</v>
+        <v>0.714608009024253</v>
       </c>
       <c r="I190">
-        <v>1.0095932109584</v>
+        <v>1.017048683462776</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="2">
-        <v>43467</v>
+        <v>43474</v>
       </c>
       <c r="B191">
-        <v>1.09999520330013</v>
+        <v>1.08673111281266</v>
       </c>
       <c r="C191">
-        <v>0.9441349607868944</v>
+        <v>1.001192929183385</v>
       </c>
       <c r="D191">
-        <v>0.8506178465167398</v>
+        <v>0.8326685761704633</v>
       </c>
       <c r="E191">
-        <v>0.7087225734072621</v>
+        <v>0.6957686370652865</v>
       </c>
       <c r="F191">
-        <v>0.9525691699604749</v>
+        <v>0.744215530903328</v>
       </c>
       <c r="G191">
-        <v>0.933333333333334</v>
+        <v>1.003663003663006</v>
       </c>
       <c r="H191">
-        <v>0.7025028441410703</v>
+        <v>0.7196841511562326</v>
       </c>
       <c r="I191">
-        <v>1.020616179319252</v>
+        <v>1.020695207425648</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="2">
-        <v>43468</v>
+        <v>43475</v>
       </c>
       <c r="B192">
-        <v>1.100378939289769</v>
+        <v>1.083652373660031</v>
       </c>
       <c r="C192">
-        <v>0.9207613172594076</v>
+        <v>1.005716764528172</v>
       </c>
       <c r="D192">
-        <v>0.8419331492749352</v>
+        <v>0.8299917016891079</v>
       </c>
       <c r="E192">
-        <v>0.7003085154581347</v>
+        <v>0.6880504857895214</v>
       </c>
       <c r="F192">
-        <v>0.9849083722601514</v>
+        <v>0.7112519809825674</v>
       </c>
       <c r="G192">
-        <v>0.8982456140350883</v>
+        <v>1.003663003663006</v>
       </c>
       <c r="H192">
-        <v>0.7025028441410703</v>
+        <v>0.717428087986464</v>
       </c>
       <c r="I192">
-        <v>1.025505027211513</v>
+        <v>1.028840689524531</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="2">
-        <v>43469</v>
+        <v>43476</v>
       </c>
       <c r="B193">
-        <v>1.097692787362295</v>
+        <v>1.07849987238387</v>
       </c>
       <c r="C193">
-        <v>0.9523762953489676</v>
+        <v>1.005569584953599</v>
       </c>
       <c r="D193">
-        <v>0.8446940252499534</v>
+        <v>0.8313836764194128</v>
       </c>
       <c r="E193">
-        <v>0.6936204181139565</v>
+        <v>0.6826023790066285</v>
       </c>
       <c r="F193">
-        <v>0.8993891484010065</v>
+        <v>0.6754358161648176</v>
       </c>
       <c r="G193">
-        <v>0.9368421052631585</v>
+        <v>0.9926739926739946</v>
       </c>
       <c r="H193">
-        <v>0.717292377701935</v>
+        <v>0.7225042301184437</v>
       </c>
       <c r="I193">
-        <v>1.009039756480031</v>
+        <v>1.025762455010418</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="2">
-        <v>43472</v>
+        <v>43479</v>
       </c>
       <c r="B194">
-        <v>1.094574932446477</v>
+        <v>1.078850816743237</v>
       </c>
       <c r="C194">
-        <v>0.9590528671644308</v>
+        <v>1.000282739709048</v>
       </c>
       <c r="D194">
-        <v>0.8445331975232533</v>
+        <v>0.8377814064298527</v>
       </c>
       <c r="E194">
-        <v>0.6776552825181765</v>
+        <v>0.6773812766730227</v>
       </c>
       <c r="F194">
-        <v>0.8922026590010782</v>
+        <v>0.6998415213946116</v>
       </c>
       <c r="G194">
-        <v>0.9473684210526322</v>
+        <v>0.9926739926739946</v>
       </c>
       <c r="H194">
-        <v>0.7224118316268496</v>
+        <v>0.7179921037789062</v>
       </c>
       <c r="I194">
-        <v>0.9953417581403941</v>
+        <v>1.023678727031634</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="2">
-        <v>43473</v>
+        <v>43480</v>
       </c>
       <c r="B195">
-        <v>1.095918008410214</v>
+        <v>1.080557682491067</v>
       </c>
       <c r="C195">
-        <v>0.9683511688702479</v>
+        <v>1.011007482919422</v>
       </c>
       <c r="D195">
-        <v>0.8365990296727159</v>
+        <v>0.8400835184838183</v>
       </c>
       <c r="E195">
-        <v>0.6672995188884814</v>
+        <v>0.6723871787887042</v>
       </c>
       <c r="F195">
-        <v>0.8774703557312257</v>
+        <v>0.6735340729001584</v>
       </c>
       <c r="G195">
-        <v>0.9578947368421058</v>
+        <v>0.9963369963369985</v>
       </c>
       <c r="H195">
-        <v>0.7207053469852115</v>
+        <v>0.7275803722504234</v>
       </c>
       <c r="I195">
-        <v>0.990499031454664</v>
+        <v>1.02434173138852</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="2">
-        <v>43474</v>
+        <v>43481</v>
       </c>
       <c r="B196">
-        <v>1.089250595590235</v>
+        <v>1.078850816743237</v>
       </c>
       <c r="C196">
-        <v>0.9723194974704248</v>
+        <v>1.013253908005019</v>
       </c>
       <c r="D196">
-        <v>0.8337845444554643</v>
+        <v>0.8230050592927698</v>
       </c>
       <c r="E196">
-        <v>0.6612586567711591</v>
+        <v>0.6678470898029601</v>
       </c>
       <c r="F196">
-        <v>0.8436938555515634</v>
+        <v>0.6893819334389857</v>
       </c>
       <c r="G196">
-        <v>0.9614035087719304</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H196">
-        <v>0.7258248009101261</v>
+        <v>0.7275803722504234</v>
       </c>
       <c r="I196">
-        <v>0.994050364357533</v>
+        <v>1.053371850729304</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="2">
-        <v>43475</v>
+        <v>43482</v>
       </c>
       <c r="B197">
-        <v>1.086164718673553</v>
+        <v>1.081100051046453</v>
       </c>
       <c r="C197">
-        <v>0.9767128697974451</v>
+        <v>1.020945977349837</v>
       </c>
       <c r="D197">
-        <v>0.8311040823437964</v>
+        <v>0.8234065904649732</v>
       </c>
       <c r="E197">
-        <v>0.6539233242001251</v>
+        <v>0.6651230364115137</v>
       </c>
       <c r="F197">
-        <v>0.8063241106719371</v>
+        <v>0.6890649762282091</v>
       </c>
       <c r="G197">
-        <v>0.9614035087719304</v>
+        <v>1.00732600732601</v>
       </c>
       <c r="H197">
-        <v>0.7235494880546086</v>
+        <v>0.7247602932882125</v>
       </c>
       <c r="I197">
-        <v>1.001983211880824</v>
+        <v>1.049677969312369</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="2">
-        <v>43476</v>
+        <v>43483</v>
       </c>
       <c r="B198">
-        <v>1.081000271812993</v>
+        <v>1.085167815211843</v>
       </c>
       <c r="C198">
-        <v>0.9765699347388607</v>
+        <v>1.03440516212992</v>
       </c>
       <c r="D198">
-        <v>0.8324979226418638</v>
+        <v>0.8274219021870066</v>
       </c>
       <c r="E198">
-        <v>0.6487454423852775</v>
+        <v>0.6623989830200673</v>
       </c>
       <c r="F198">
-        <v>0.765720445562343</v>
+        <v>0.6662440570522978</v>
       </c>
       <c r="G198">
-        <v>0.9508771929824567</v>
+        <v>1.021978021978024</v>
       </c>
       <c r="H198">
-        <v>0.7286689419795233</v>
+        <v>0.735476593344614</v>
       </c>
       <c r="I198">
-        <v>0.9989853334563246</v>
+        <v>1.045557870808864</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="2">
-        <v>43479</v>
+        <v>43486</v>
       </c>
       <c r="B199">
-        <v>1.081352029803496</v>
+        <v>1.084832822868811</v>
       </c>
       <c r="C199">
-        <v>0.9714355569765466</v>
+        <v>1.03440516212992</v>
       </c>
       <c r="D199">
-        <v>0.8389042270887506</v>
+        <v>0.8308215327783282</v>
       </c>
       <c r="E199">
-        <v>0.6437833056460486</v>
+        <v>0.6617179696722056</v>
       </c>
       <c r="F199">
-        <v>0.7933884297520664</v>
+        <v>0.6662440570522978</v>
       </c>
       <c r="G199">
-        <v>0.9508771929824567</v>
+        <v>1.021978021978024</v>
       </c>
       <c r="H199">
-        <v>0.724118316268488</v>
+        <v>0.7394247038917093</v>
       </c>
       <c r="I199">
-        <v>0.9969560003689708</v>
+        <v>1.042811138473195</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="2">
-        <v>43480</v>
+        <v>43487</v>
       </c>
       <c r="B200">
-        <v>1.083062852757304</v>
+        <v>1.08732133741705</v>
       </c>
       <c r="C200">
-        <v>0.9818510090086695</v>
+        <v>1.01976079445985</v>
       </c>
       <c r="D200">
-        <v>0.841209424504785</v>
+        <v>0.8317316701019891</v>
       </c>
       <c r="E200">
-        <v>0.6390369139824383</v>
+        <v>0.6614909652229185</v>
       </c>
       <c r="F200">
-        <v>0.7635644987423647</v>
+        <v>0.7277337559429475</v>
       </c>
       <c r="G200">
-        <v>0.9543859649122813</v>
+        <v>1.003663003663006</v>
       </c>
       <c r="H200">
-        <v>0.7337883959044379</v>
+        <v>0.7309644670050767</v>
       </c>
       <c r="I200">
-        <v>0.9976016972604019</v>
+        <v>1.050672475847698</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="2">
-        <v>43481</v>
+        <v>43488</v>
       </c>
       <c r="B201">
-        <v>1.081352029803496</v>
+        <v>1.083684277692701</v>
       </c>
       <c r="C201">
-        <v>0.9840326493765391</v>
+        <v>1.022007219545446</v>
       </c>
       <c r="D201">
-        <v>0.8241080762323428</v>
+        <v>0.8349171507348023</v>
       </c>
       <c r="E201">
-        <v>0.6347220124700653</v>
+        <v>0.6603559429764824</v>
       </c>
       <c r="F201">
-        <v>0.7815307222421849</v>
+        <v>0.6868462757527732</v>
       </c>
       <c r="G201">
-        <v>0.9578947368421059</v>
+        <v>1.010989010989013</v>
       </c>
       <c r="H201">
-        <v>0.7337883959044379</v>
+        <v>0.7315284827975188</v>
       </c>
       <c r="I201">
-        <v>1.025873996863759</v>
+        <v>1.040680053040347</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="2">
-        <v>43482</v>
+        <v>43489</v>
       </c>
       <c r="B202">
-        <v>1.083606478742626</v>
+        <v>1.083971413986728</v>
       </c>
       <c r="C202">
-        <v>0.9915028869120378</v>
+        <v>1.023413171797294</v>
       </c>
       <c r="D202">
-        <v>0.8245101455490931</v>
+        <v>0.8388789249672085</v>
       </c>
       <c r="E202">
-        <v>0.6321330715626415</v>
+        <v>0.6592209207300463</v>
       </c>
       <c r="F202">
-        <v>0.7811713977721885</v>
+        <v>0.6643423137876385</v>
       </c>
       <c r="G202">
-        <v>0.9649122807017551</v>
+        <v>0.9963369963369989</v>
       </c>
       <c r="H202">
-        <v>0.7309442548350409</v>
+        <v>0.7349125775521719</v>
       </c>
       <c r="I202">
-        <v>1.02227654275436</v>
+        <v>1.043568857738207</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="2">
-        <v>43483</v>
+        <v>43490</v>
       </c>
       <c r="B203">
-        <v>1.087683673632542</v>
+        <v>1.077239663093416</v>
       </c>
       <c r="C203">
-        <v>1.004573921874705</v>
+        <v>1.032100639843834</v>
       </c>
       <c r="D203">
-        <v>0.8285308387165953</v>
+        <v>0.8404850496560219</v>
       </c>
       <c r="E203">
-        <v>0.6295441306552177</v>
+        <v>0.658766911831472</v>
       </c>
       <c r="F203">
-        <v>0.7553000359324472</v>
+        <v>0.6773375594294768</v>
       </c>
       <c r="G203">
-        <v>0.9789473684210535</v>
+        <v>1.010989010989014</v>
       </c>
       <c r="H203">
-        <v>0.7417519908987497</v>
+        <v>0.7377326565143829</v>
       </c>
       <c r="I203">
-        <v>1.018263997786183</v>
+        <v>1.040064406137525</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="2">
-        <v>43486</v>
+        <v>43493</v>
       </c>
       <c r="B204">
-        <v>1.087347904641607</v>
+        <v>1.077558703420113</v>
       </c>
       <c r="C204">
-        <v>1.004573921874705</v>
+        <v>1.024001890095588</v>
       </c>
       <c r="D204">
-        <v>0.8319350255984137</v>
+        <v>0.8404582809112083</v>
       </c>
       <c r="E204">
-        <v>0.6288968954283618</v>
+        <v>0.6585399073821847</v>
       </c>
       <c r="F204">
-        <v>0.7553000359324472</v>
+        <v>0.7039619651347065</v>
       </c>
       <c r="G204">
-        <v>0.9789473684210535</v>
+        <v>1.00732600732601</v>
       </c>
       <c r="H204">
-        <v>0.7457337883959055</v>
+        <v>0.7360406091370564</v>
       </c>
       <c r="I204">
-        <v>1.015588967807399</v>
+        <v>1.045557870808865</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="2">
-        <v>43487</v>
+        <v>43494</v>
       </c>
       <c r="B205">
-        <v>1.089842188574262</v>
+        <v>1.076362302194998</v>
       </c>
       <c r="C205">
-        <v>0.990351883545541</v>
+        <v>1.022510728616356</v>
       </c>
       <c r="D205">
-        <v>0.8328463827163809</v>
+        <v>0.8364162004443615</v>
       </c>
       <c r="E205">
-        <v>0.6286811503527432</v>
+        <v>0.6583129029328976</v>
       </c>
       <c r="F205">
-        <v>0.8250089831117501</v>
+        <v>0.7042789223454831</v>
       </c>
       <c r="G205">
-        <v>0.9614035087719307</v>
+        <v>0.996336996336999</v>
       </c>
       <c r="H205">
-        <v>0.7372013651877145</v>
+        <v>0.735476593344614</v>
       </c>
       <c r="I205">
-        <v>1.023245088091506</v>
+        <v>1.051524910020837</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="2">
-        <v>43488</v>
+        <v>43495</v>
       </c>
       <c r="B206">
-        <v>1.08619669667269</v>
+        <v>1.070635528330782</v>
       </c>
       <c r="C206">
-        <v>0.9925335239134105</v>
+        <v>1.038409995817001</v>
       </c>
       <c r="D206">
-        <v>0.836036132629266</v>
+        <v>0.8338731696870737</v>
       </c>
       <c r="E206">
-        <v>0.6276024249746499</v>
+        <v>0.6585399073821847</v>
       </c>
       <c r="F206">
-        <v>0.7786561264822136</v>
+        <v>0.6947702060221868</v>
       </c>
       <c r="G206">
-        <v>0.9684210526315797</v>
+        <v>0.9890109890109917</v>
       </c>
       <c r="H206">
-        <v>0.7377701934015939</v>
+        <v>0.7304004512126343</v>
       </c>
       <c r="I206">
-        <v>1.013513513513515</v>
+        <v>1.065874218602008</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="2">
-        <v>43489</v>
+        <v>43496</v>
       </c>
       <c r="B207">
-        <v>1.086484498664919</v>
+        <v>1.070284583971415</v>
       </c>
       <c r="C207">
-        <v>0.9938989298677842</v>
+        <v>1.047337598958897</v>
       </c>
       <c r="D207">
-        <v>0.8400032165545347</v>
+        <v>0.8308215327783283</v>
       </c>
       <c r="E207">
-        <v>0.6265236995965566</v>
+        <v>0.6583129029328976</v>
       </c>
       <c r="F207">
-        <v>0.7531440891124687</v>
+        <v>0.679239302694136</v>
       </c>
       <c r="G207">
-        <v>0.9543859649122817</v>
+        <v>0.9633699633699659</v>
       </c>
       <c r="H207">
-        <v>0.7411831626848703</v>
+        <v>0.7332205301748452</v>
       </c>
       <c r="I207">
-        <v>1.016326907111891</v>
+        <v>1.072220117446486</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="2">
-        <v>43490</v>
+        <v>43497</v>
       </c>
       <c r="B208">
-        <v>1.079737140847098</v>
+        <v>1.07787774374681</v>
       </c>
       <c r="C208">
-        <v>1.002335859773184</v>
+        <v>1.048278773606828</v>
       </c>
       <c r="D208">
-        <v>0.8416114938215356</v>
+        <v>0.8306876890542605</v>
       </c>
       <c r="E208">
-        <v>0.6260922094453193</v>
+        <v>0.6583129029328976</v>
       </c>
       <c r="F208">
-        <v>0.7678763923823213</v>
+        <v>0.6858954041204435</v>
       </c>
       <c r="G208">
-        <v>0.9684210526315798</v>
+        <v>0.9890109890109917</v>
       </c>
       <c r="H208">
-        <v>0.7440273037542674</v>
+        <v>0.7428087986463624</v>
       </c>
       <c r="I208">
-        <v>1.012913937828615</v>
+        <v>1.066537222958893</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="2">
-        <v>43493</v>
+        <v>43507</v>
       </c>
       <c r="B209">
-        <v>1.080056920838464</v>
+        <v>1.084976391015825</v>
       </c>
       <c r="C209">
-        <v>0.9944706701021225</v>
+        <v>1.049545292577501</v>
       </c>
       <c r="D209">
-        <v>0.8415846892004188</v>
+        <v>0.8209974034317531</v>
       </c>
       <c r="E209">
-        <v>0.6258764643697006</v>
+        <v>0.6578588940343232</v>
       </c>
       <c r="F209">
-        <v>0.7980596478620194</v>
+        <v>0.6557844690966717</v>
       </c>
       <c r="G209">
-        <v>0.9649122807017554</v>
+        <v>0.9706959706959734</v>
       </c>
       <c r="H209">
-        <v>0.7423208191126293</v>
+        <v>0.7529610829103218</v>
       </c>
       <c r="I209">
-        <v>1.018263997786184</v>
+        <v>1.072172759992422</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="2">
-        <v>43494</v>
+        <v>43508</v>
       </c>
       <c r="B210">
-        <v>1.078857745870841</v>
+        <v>1.080541730474733</v>
       </c>
       <c r="C210">
-        <v>0.9930225122717263</v>
+        <v>1.063074193998171</v>
       </c>
       <c r="D210">
-        <v>0.8375371914118001</v>
+        <v>0.8230853655272103</v>
       </c>
       <c r="E210">
-        <v>0.625660719294082</v>
+        <v>0.6519567783528557</v>
       </c>
       <c r="F210">
-        <v>0.7984189723320158</v>
+        <v>0.6383518225039617</v>
       </c>
       <c r="G210">
-        <v>0.9543859649122818</v>
+        <v>0.9816849816849844</v>
       </c>
       <c r="H210">
-        <v>0.7417519908987498</v>
+        <v>0.7580372250423015</v>
       </c>
       <c r="I210">
-        <v>1.02407526980906</v>
+        <v>1.072693691987118</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="2">
-        <v>43495</v>
+        <v>43509</v>
       </c>
       <c r="B211">
-        <v>1.073117695025823</v>
+        <v>1.08207312404288</v>
       </c>
       <c r="C211">
-        <v>1.00846326004777</v>
+        <v>1.066288905758593</v>
       </c>
       <c r="D211">
-        <v>0.8349907524057154</v>
+        <v>0.8223090719276172</v>
       </c>
       <c r="E211">
-        <v>0.6258764643697006</v>
+        <v>0.6474166893671116</v>
       </c>
       <c r="F211">
-        <v>0.7876392382321237</v>
+        <v>0.6383518225039617</v>
       </c>
       <c r="G211">
-        <v>0.9473684210526326</v>
+        <v>0.9926739926739954</v>
       </c>
       <c r="H211">
-        <v>0.7366325369738351</v>
+        <v>0.771009588268472</v>
       </c>
       <c r="I211">
-        <v>1.038049995387881</v>
+        <v>1.082354612616026</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="2">
-        <v>43496</v>
+        <v>43510</v>
       </c>
       <c r="B212">
-        <v>1.07276593703532</v>
+        <v>1.081403139356816</v>
       </c>
       <c r="C212">
-        <v>1.017133399785596</v>
+        <v>1.063461508668101</v>
       </c>
       <c r="D212">
-        <v>0.8319350255984138</v>
+        <v>0.8224964531413121</v>
       </c>
       <c r="E212">
-        <v>0.625660719294082</v>
+        <v>0.6424225914827931</v>
       </c>
       <c r="F212">
-        <v>0.7700323392022996</v>
+        <v>0.6440570522979394</v>
       </c>
       <c r="G212">
-        <v>0.9228070175438606</v>
+        <v>0.974358974358977</v>
       </c>
       <c r="H212">
-        <v>0.7394766780432321</v>
+        <v>0.7704455724760298</v>
       </c>
       <c r="I212">
-        <v>1.044230237063003</v>
+        <v>1.083633263875734</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="2">
-        <v>43497</v>
+        <v>43511</v>
       </c>
       <c r="B213">
-        <v>1.08037670082983</v>
+        <v>1.079999361919348</v>
       </c>
       <c r="C213">
-        <v>1.018047431870756</v>
+        <v>1.075030597858923</v>
       </c>
       <c r="D213">
-        <v>0.8318010024928305</v>
+        <v>0.8243167277886341</v>
       </c>
       <c r="E213">
-        <v>0.625660719294082</v>
+        <v>0.6360664669027514</v>
       </c>
       <c r="F213">
-        <v>0.7775781530722242</v>
+        <v>0.6478605388272579</v>
       </c>
       <c r="G213">
-        <v>0.9473684210526327</v>
+        <v>0.974358974358977</v>
       </c>
       <c r="H213">
-        <v>0.749146757679182</v>
+        <v>0.7597292724196283</v>
       </c>
       <c r="I213">
-        <v>1.038695692279312</v>
+        <v>1.085574919492328</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="2">
-        <v>43507</v>
+        <v>43514</v>
       </c>
       <c r="B214">
-        <v>1.087491805637722</v>
+        <v>1.080493874425729</v>
       </c>
       <c r="C214">
-        <v>1.019277425664365</v>
+        <v>1.075030597858923</v>
       </c>
       <c r="D214">
-        <v>0.8220977296485921</v>
+        <v>0.8323473512327006</v>
       </c>
       <c r="E214">
-        <v>0.6252292291428447</v>
+        <v>0.6349314446563153</v>
       </c>
       <c r="F214">
-        <v>0.7434423284225655</v>
+        <v>0.6478605388272579</v>
       </c>
       <c r="G214">
-        <v>0.9298245614035098</v>
+        <v>0.974358974358977</v>
       </c>
       <c r="H214">
-        <v>0.7593856655290114</v>
+        <v>0.7817258883248736</v>
       </c>
       <c r="I214">
-        <v>1.044184115856473</v>
+        <v>1.078423943928774</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="2">
-        <v>43508</v>
+        <v>43515</v>
       </c>
       <c r="B215">
-        <v>1.083046863757736</v>
+        <v>1.076107069933641</v>
       </c>
       <c r="C215">
-        <v>1.032416166707415</v>
+        <v>1.076641826885834</v>
       </c>
       <c r="D215">
-        <v>0.8241884900956931</v>
+        <v>0.8372995690232085</v>
       </c>
       <c r="E215">
-        <v>0.6196198571767598</v>
+        <v>0.6306183601198584</v>
       </c>
       <c r="F215">
-        <v>0.7236794825727632</v>
+        <v>0.6719492868462752</v>
       </c>
       <c r="G215">
-        <v>0.9403508771929835</v>
+        <v>0.9706959706959732</v>
       </c>
       <c r="H215">
-        <v>0.7645051194539262</v>
+        <v>0.7822899041173157</v>
       </c>
       <c r="I215">
-        <v>1.044691449128311</v>
+        <v>1.06909452547831</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="2">
-        <v>43509</v>
+        <v>43516</v>
       </c>
       <c r="B216">
-        <v>1.084581807716292</v>
+        <v>1.071815977539562</v>
       </c>
       <c r="C216">
-        <v>1.035538169302815</v>
+        <v>1.07855516135529</v>
       </c>
       <c r="D216">
-        <v>0.8234111560833093</v>
+        <v>0.8350777632036834</v>
       </c>
       <c r="E216">
-        <v>0.6153049556643868</v>
+        <v>0.6263052755834014</v>
       </c>
       <c r="F216">
-        <v>0.7236794825727632</v>
+        <v>0.6729001584786048</v>
       </c>
       <c r="G216">
-        <v>0.9508771929824572</v>
+        <v>0.9706959706959732</v>
       </c>
       <c r="H216">
-        <v>0.7775881683731527</v>
+        <v>0.7834179357022002</v>
       </c>
       <c r="I216">
-        <v>1.054100175260587</v>
+        <v>1.071888615268043</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="2">
-        <v>43510</v>
+        <v>43517</v>
       </c>
       <c r="B217">
-        <v>1.083910269734424</v>
+        <v>1.072884762633998</v>
       </c>
       <c r="C217">
-        <v>1.032792311598427</v>
+        <v>1.074751731296574</v>
       </c>
       <c r="D217">
-        <v>0.8235987884311261</v>
+        <v>0.8394946060979199</v>
       </c>
       <c r="E217">
-        <v>0.6105585640007766</v>
+        <v>0.6240352310905294</v>
       </c>
       <c r="F217">
-        <v>0.7301473230326984</v>
+        <v>0.663074484944532</v>
       </c>
       <c r="G217">
-        <v>0.9333333333333345</v>
+        <v>0.985347985347988</v>
       </c>
       <c r="H217">
-        <v>0.7770193401592733</v>
+        <v>0.7834179357022002</v>
       </c>
       <c r="I217">
-        <v>1.055345447836917</v>
+        <v>1.071083538548967</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="2">
-        <v>43511</v>
+        <v>43518</v>
       </c>
       <c r="B218">
-        <v>1.082503237772414</v>
+        <v>1.06915199081164</v>
       </c>
       <c r="C218">
-        <v>1.044027759492956</v>
+        <v>1.081642059274636</v>
       </c>
       <c r="D218">
-        <v>0.8254215026670605</v>
+        <v>0.8419037931311398</v>
       </c>
       <c r="E218">
-        <v>0.6045177018834544</v>
+        <v>0.6240352310905294</v>
       </c>
       <c r="F218">
-        <v>0.7344592166726552</v>
+        <v>0.6592709984152134</v>
       </c>
       <c r="G218">
-        <v>0.9333333333333345</v>
+        <v>0.9706959706959732</v>
       </c>
       <c r="H218">
-        <v>0.7662116040955645</v>
+        <v>0.7958262831359283</v>
       </c>
       <c r="I218">
-        <v>1.057236417304678</v>
+        <v>1.072220117446486</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="2">
-        <v>43514</v>
+        <v>43521</v>
       </c>
       <c r="B219">
-        <v>1.082998896759031</v>
+        <v>1.066153011740685</v>
       </c>
       <c r="C219">
-        <v>1.044027759492956</v>
+        <v>1.082974421739197</v>
       </c>
       <c r="D219">
-        <v>0.8334628890020646</v>
+        <v>0.8508980913884946</v>
       </c>
       <c r="E219">
-        <v>0.6034389765053613</v>
+        <v>0.624716244438391</v>
       </c>
       <c r="F219">
-        <v>0.7344592166726552</v>
+        <v>0.6944532488114098</v>
       </c>
       <c r="G219">
-        <v>0.9333333333333345</v>
+        <v>0.9780219780219805</v>
       </c>
       <c r="H219">
-        <v>0.7883959044368615</v>
+        <v>0.8409475465313035</v>
       </c>
       <c r="I219">
-        <v>1.050272115118533</v>
+        <v>1.060475468838795</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="2">
-        <v>43515</v>
+        <v>43522</v>
       </c>
       <c r="B220">
-        <v>1.078601921877749</v>
+        <v>1.066615620214396</v>
       </c>
       <c r="C220">
-        <v>1.045592522239566</v>
+        <v>1.082118456318651</v>
       </c>
       <c r="D220">
-        <v>0.8384217439086504</v>
+        <v>0.8533340471665282</v>
       </c>
       <c r="E220">
-        <v>0.5993398200686069</v>
+        <v>0.6256242622355398</v>
       </c>
       <c r="F220">
-        <v>0.761767876392382</v>
+        <v>0.7099841521394604</v>
       </c>
       <c r="G220">
-        <v>0.9298245614035098</v>
+        <v>0.9670329670329696</v>
       </c>
       <c r="H220">
-        <v>0.7889647326507409</v>
+        <v>0.8353073886068817</v>
       </c>
       <c r="I220">
-        <v>1.041186237431973</v>
+        <v>1.07866073119909</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="2">
-        <v>43516</v>
+        <v>43523</v>
       </c>
       <c r="B221">
-        <v>1.074300880993877</v>
+        <v>1.066615620214396</v>
       </c>
       <c r="C221">
-        <v>1.047450678001165</v>
+        <v>1.081529738020356</v>
       </c>
       <c r="D221">
-        <v>0.836196960355966</v>
+        <v>0.848274754396766</v>
       </c>
       <c r="E221">
-        <v>0.5952406636318526</v>
+        <v>0.6256242622355398</v>
       </c>
       <c r="F221">
-        <v>0.7628458498023712</v>
+        <v>0.7160063391442147</v>
       </c>
       <c r="G221">
-        <v>0.9298245614035098</v>
+        <v>0.9853479853479878</v>
       </c>
       <c r="H221">
-        <v>0.7901023890784997</v>
+        <v>0.8386914833615347</v>
       </c>
       <c r="I221">
-        <v>1.043907388617288</v>
+        <v>1.083964766054176</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="2">
-        <v>43517</v>
+        <v>43524</v>
       </c>
       <c r="B222">
-        <v>1.075372143964953</v>
+        <v>1.069327462991323</v>
       </c>
       <c r="C222">
-        <v>1.043756935171427</v>
+        <v>1.078473825274605</v>
       </c>
       <c r="D222">
-        <v>0.8406197228402181</v>
+        <v>0.8493990416789354</v>
       </c>
       <c r="E222">
-        <v>0.5930832128756661</v>
+        <v>0.6244892399891038</v>
       </c>
       <c r="F222">
-        <v>0.7517067912324827</v>
+        <v>0.7058637083993653</v>
       </c>
       <c r="G222">
-        <v>0.9438596491228081</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="H222">
-        <v>0.7901023890784997</v>
+        <v>0.8353073886068816</v>
       </c>
       <c r="I222">
-        <v>1.043123328106265</v>
+        <v>1.092157605607122</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" s="2">
-        <v>43518</v>
+        <v>43525</v>
       </c>
       <c r="B223">
-        <v>1.071630718065972</v>
+        <v>1.071002424706484</v>
       </c>
       <c r="C223">
-        <v>1.050448552782531</v>
+        <v>1.08591026693727</v>
       </c>
       <c r="D223">
-        <v>0.8430321387407193</v>
+        <v>0.8531198972080196</v>
       </c>
       <c r="E223">
-        <v>0.5930832128756661</v>
+        <v>0.6242622355398165</v>
       </c>
       <c r="F223">
-        <v>0.7473948975925259</v>
+        <v>0.6630744849445318</v>
       </c>
       <c r="G223">
-        <v>0.9298245614035098</v>
+        <v>1.010989010989014</v>
       </c>
       <c r="H223">
-        <v>0.8026166097838466</v>
+        <v>0.8505358150028206</v>
       </c>
       <c r="I223">
-        <v>1.044230237063004</v>
+        <v>1.095046410304981</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="2">
-        <v>43521</v>
+        <v>43528</v>
       </c>
       <c r="B224">
-        <v>1.068624786147132</v>
+        <v>1.069949591628383</v>
       </c>
       <c r="C224">
-        <v>1.051742491207612</v>
+        <v>1.081696283328426</v>
       </c>
       <c r="D224">
-        <v>0.852038491435924</v>
+        <v>0.8572155151644937</v>
       </c>
       <c r="E224">
-        <v>0.5937304481025221</v>
+        <v>0.6242622355398165</v>
       </c>
       <c r="F224">
-        <v>0.7872799137621269</v>
+        <v>0.7017432646592702</v>
       </c>
       <c r="G224">
-        <v>0.9368421052631589</v>
+        <v>0.9963369963369991</v>
       </c>
       <c r="H224">
-        <v>0.8481228668941995</v>
+        <v>0.8601240834743378</v>
       </c>
       <c r="I224">
-        <v>1.032792177843374</v>
+        <v>1.098787649175979</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="2">
-        <v>43522</v>
+        <v>43529</v>
       </c>
       <c r="B225">
-        <v>1.069088467134613</v>
+        <v>1.069502935171007</v>
       </c>
       <c r="C225">
-        <v>1.050911210998476</v>
+        <v>1.080472368971446</v>
       </c>
       <c r="D225">
-        <v>0.854477711957542</v>
+        <v>0.8605883770110015</v>
       </c>
       <c r="E225">
-        <v>0.5945934284049966</v>
+        <v>0.6242622355398165</v>
       </c>
       <c r="F225">
-        <v>0.8048868127919508</v>
+        <v>0.6846275752773369</v>
       </c>
       <c r="G225">
-        <v>0.9263157894736853</v>
+        <v>0.9963369963369991</v>
       </c>
       <c r="H225">
-        <v>0.8424345847554054</v>
+        <v>0.8674562887760864</v>
       </c>
       <c r="I225">
-        <v>1.050502721151187</v>
+        <v>1.100776662246637</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" s="2">
-        <v>43523</v>
+        <v>43530</v>
       </c>
       <c r="B226">
-        <v>1.069088467134613</v>
+        <v>1.071433129147525</v>
       </c>
       <c r="C226">
-        <v>1.050339470764137</v>
+        <v>1.073423241978712</v>
       </c>
       <c r="D226">
-        <v>0.8494116385664893</v>
+        <v>0.8571619776748665</v>
       </c>
       <c r="E226">
-        <v>0.5945934284049966</v>
+        <v>0.6242622355398165</v>
       </c>
       <c r="F226">
-        <v>0.8117139777218826</v>
+        <v>0.6954041204437394</v>
       </c>
       <c r="G226">
-        <v>0.9438596491228081</v>
+        <v>0.9853479853479881</v>
       </c>
       <c r="H226">
-        <v>0.8458475540386817</v>
+        <v>0.8809926677946989</v>
       </c>
       <c r="I226">
-        <v>1.055668296282632</v>
+        <v>1.101202879333206</v>
       </c>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" s="2">
-        <v>43524</v>
+        <v>43531</v>
       </c>
       <c r="B227">
-        <v>1.071806597061223</v>
+        <v>1.074224732006127</v>
       </c>
       <c r="C227">
-        <v>1.047371687574052</v>
+        <v>1.064700915611879</v>
       </c>
       <c r="D227">
-        <v>0.8505374326533899</v>
+        <v>0.8451428112535799</v>
       </c>
       <c r="E227">
-        <v>0.5935147030269033</v>
+        <v>0.6244892399891037</v>
       </c>
       <c r="F227">
-        <v>0.8002155946819975</v>
+        <v>0.7315372424722655</v>
       </c>
       <c r="G227">
-        <v>0.9578947368421064</v>
+        <v>0.9670329670329697</v>
       </c>
       <c r="H227">
-        <v>0.8424345847554053</v>
+        <v>0.8821206993795834</v>
       </c>
       <c r="I227">
-        <v>1.063647265012455</v>
+        <v>1.126681189619245</v>
       </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="2">
-        <v>43525</v>
+        <v>43532</v>
       </c>
       <c r="B228">
-        <v>1.073485442015894</v>
+        <v>1.073746171516081</v>
       </c>
       <c r="C228">
-        <v>1.054593669481483</v>
+        <v>1.062431251646087</v>
       </c>
       <c r="D228">
-        <v>0.8542632749886084</v>
+        <v>0.8411542682763602</v>
       </c>
       <c r="E228">
-        <v>0.5932989579512847</v>
+        <v>0.6253972577862524</v>
       </c>
       <c r="F228">
-        <v>0.7517067912324827</v>
+        <v>0.7366085578446901</v>
       </c>
       <c r="G228">
-        <v>0.96842105263158</v>
+        <v>0.9597069597069624</v>
       </c>
       <c r="H228">
-        <v>0.8577929465301494</v>
+        <v>0.8432036097010723</v>
       </c>
       <c r="I228">
-        <v>1.066460658610831</v>
+        <v>1.132932373555597</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" s="2">
-        <v>43528</v>
+        <v>43535</v>
       </c>
       <c r="B229">
-        <v>1.072430168044387</v>
+        <v>1.073937595712099</v>
       </c>
       <c r="C229">
-        <v>1.050501213067272</v>
+        <v>1.078012920817388</v>
       </c>
       <c r="D229">
-        <v>0.8583643820194606</v>
+        <v>0.8398425997804959</v>
       </c>
       <c r="E229">
-        <v>0.5932989579512847</v>
+        <v>0.6257377644601831</v>
       </c>
       <c r="F229">
-        <v>0.7955443765720442</v>
+        <v>0.7011093502377171</v>
       </c>
       <c r="G229">
-        <v>0.9543859649122819</v>
+        <v>0.9670329670329697</v>
       </c>
       <c r="H229">
-        <v>0.8674630261660993</v>
+        <v>0.8595600676818959</v>
       </c>
       <c r="I229">
-        <v>1.070104233926761</v>
+        <v>1.134021594999052</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" s="2">
-        <v>43529</v>
+        <v>43536</v>
       </c>
       <c r="B230">
-        <v>1.071982476056474</v>
+        <v>1.069869831546709</v>
       </c>
       <c r="C230">
-        <v>1.049312595211674</v>
+        <v>1.081196647404216</v>
       </c>
       <c r="D230">
-        <v>0.8617417642801622</v>
+        <v>0.8411810370211737</v>
       </c>
       <c r="E230">
-        <v>0.5932989579512847</v>
+        <v>0.6267592844819756</v>
       </c>
       <c r="F230">
-        <v>0.7761408551922384</v>
+        <v>0.6954041204437393</v>
       </c>
       <c r="G230">
-        <v>0.9543859649122819</v>
+        <v>0.9560439560439585</v>
       </c>
       <c r="H230">
-        <v>0.8748577929465318</v>
+        <v>0.869148336153413</v>
       </c>
       <c r="I230">
-        <v>1.072041324601053</v>
+        <v>1.138378480772873</v>
       </c>
     </row>
     <row r="231" spans="1:9">
       <c r="A231" s="2">
-        <v>43530</v>
+        <v>43537</v>
       </c>
       <c r="B231">
-        <v>1.073917145004238</v>
+        <v>1.069008422664626</v>
       </c>
       <c r="C231">
-        <v>1.042466758195256</v>
+        <v>1.088710552000867</v>
       </c>
       <c r="D231">
-        <v>0.8583107727772272</v>
+        <v>0.8398693685253097</v>
       </c>
       <c r="E231">
-        <v>0.5932989579512847</v>
+        <v>0.6283483156269859</v>
       </c>
       <c r="F231">
-        <v>0.7883578871721163</v>
+        <v>0.6839936608557836</v>
       </c>
       <c r="G231">
-        <v>0.9438596491228082</v>
+        <v>0.9560439560439585</v>
       </c>
       <c r="H231">
-        <v>0.8885096700796375</v>
+        <v>0.8595600676818959</v>
       </c>
       <c r="I231">
-        <v>1.07245641545983</v>
+        <v>1.148560333396476</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="2">
-        <v>43531</v>
+        <v>43538</v>
       </c>
       <c r="B232">
-        <v>1.07671521992869</v>
+        <v>1.072278586013273</v>
       </c>
       <c r="C232">
-        <v>1.033995975249665</v>
+        <v>1.087765504206237</v>
       </c>
       <c r="D232">
-        <v>0.8462754978958377</v>
+        <v>0.8425462430066651</v>
       </c>
       <c r="E232">
-        <v>0.5935147030269033</v>
+        <v>0.6303913556705709</v>
       </c>
       <c r="F232">
-        <v>0.8293208767517066</v>
+        <v>0.647543581616481</v>
       </c>
       <c r="G232">
-        <v>0.9263157894736854</v>
+        <v>0.9633699633699659</v>
       </c>
       <c r="H232">
-        <v>0.8896473265073965</v>
+        <v>0.8494077834179364</v>
       </c>
       <c r="I232">
-        <v>1.097269624573381</v>
+        <v>1.14803940140178</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="2">
-        <v>43532</v>
+        <v>43539</v>
       </c>
       <c r="B233">
-        <v>1.076235549941641</v>
+        <v>1.070938616641145</v>
       </c>
       <c r="C233">
-        <v>1.031791766188335</v>
+        <v>1.093187909585263</v>
       </c>
       <c r="D233">
-        <v>0.8422816093494523</v>
+        <v>0.8398961372701231</v>
       </c>
       <c r="E233">
-        <v>0.5943776833293779</v>
+        <v>0.6353854535548894</v>
       </c>
       <c r="F233">
-        <v>0.8350700682716491</v>
+        <v>0.6342313787638661</v>
       </c>
       <c r="G233">
-        <v>0.9192982456140363</v>
+        <v>0.9487179487179512</v>
       </c>
       <c r="H233">
-        <v>0.8503981797497172</v>
+        <v>0.8578680203045692</v>
       </c>
       <c r="I233">
-        <v>1.103357623835441</v>
+        <v>1.151449138094335</v>
       </c>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="2">
-        <v>43535</v>
+        <v>43542</v>
       </c>
       <c r="B234">
-        <v>1.076427417936461</v>
+        <v>1.072119065849924</v>
       </c>
       <c r="C234">
-        <v>1.046924075153748</v>
+        <v>1.097239221032735</v>
       </c>
       <c r="D234">
-        <v>0.8409681829147349</v>
+        <v>0.8399229060149367</v>
       </c>
       <c r="E234">
-        <v>0.5947013009428058</v>
+        <v>0.6387905202941976</v>
       </c>
       <c r="F234">
-        <v>0.7948257276320516</v>
+        <v>0.6218700475435809</v>
       </c>
       <c r="G234">
-        <v>0.9263157894736853</v>
+        <v>0.9523809523809549</v>
       </c>
       <c r="H234">
-        <v>0.8668941979522201</v>
+        <v>0.8793006204173723</v>
       </c>
       <c r="I234">
-        <v>1.104418411585649</v>
+        <v>1.153485508619056</v>
       </c>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="2">
-        <v>43536</v>
+        <v>43543</v>
       </c>
       <c r="B235">
-        <v>1.072350223046545</v>
+        <v>1.071608601327209</v>
       </c>
       <c r="C235">
-        <v>1.050015986157867</v>
+        <v>1.097095914604861</v>
       </c>
       <c r="D235">
-        <v>0.8423084139705689</v>
+        <v>0.8399229060149367</v>
       </c>
       <c r="E235">
-        <v>0.5956721537830898</v>
+        <v>0.6408335603377825</v>
       </c>
       <c r="F235">
-        <v>0.7883578871721163</v>
+        <v>0.6383518225039613</v>
       </c>
       <c r="G235">
-        <v>0.9157894736842115</v>
+        <v>0.9560439560439585</v>
       </c>
       <c r="H235">
-        <v>0.87656427758817</v>
+        <v>0.8776085730400458</v>
       </c>
       <c r="I235">
-        <v>1.108661562586479</v>
+        <v>1.146808107596135</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="2">
-        <v>43537</v>
+        <v>43544</v>
       </c>
       <c r="B236">
-        <v>1.071486817069857</v>
+        <v>1.066966564573763</v>
       </c>
       <c r="C236">
-        <v>1.0573131970435</v>
+        <v>1.093865710257641</v>
       </c>
       <c r="D236">
-        <v>0.8409949875358517</v>
+        <v>0.8419573306207669</v>
       </c>
       <c r="E236">
-        <v>0.5971823693124202</v>
+        <v>0.6431036048306547</v>
       </c>
       <c r="F236">
-        <v>0.7754222062522456</v>
+        <v>0.6687797147385096</v>
       </c>
       <c r="G236">
-        <v>0.9157894736842115</v>
+        <v>0.9304029304029329</v>
       </c>
       <c r="H236">
-        <v>0.86689419795222</v>
+        <v>0.8770445572476037</v>
       </c>
       <c r="I236">
-        <v>1.118577621990593</v>
+        <v>1.132269369198711</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="2">
-        <v>43538</v>
+        <v>43545</v>
       </c>
       <c r="B237">
-        <v>1.074764561981358</v>
+        <v>1.069949591628383</v>
       </c>
       <c r="C237">
-        <v>1.056395403509431</v>
+        <v>1.105736904891009</v>
       </c>
       <c r="D237">
-        <v>0.8436754496475196</v>
+        <v>0.8376207939609709</v>
       </c>
       <c r="E237">
-        <v>0.5991240749929881</v>
+        <v>0.6442386270770907</v>
       </c>
       <c r="F237">
-        <v>0.7340998922026588</v>
+        <v>0.6583201267828835</v>
       </c>
       <c r="G237">
-        <v>0.9228070175438606</v>
+        <v>0.9304029304029329</v>
       </c>
       <c r="H237">
-        <v>0.8566552901023906</v>
+        <v>0.8804286520022567</v>
       </c>
       <c r="I237">
-        <v>1.118070288718755</v>
+        <v>1.139941276756961</v>
       </c>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="2">
-        <v>43539</v>
+        <v>43546</v>
       </c>
       <c r="B238">
-        <v>1.073421486017621</v>
+        <v>1.072549770290966</v>
       </c>
       <c r="C238">
-        <v>1.061661431983599</v>
+        <v>1.084756069220877</v>
       </c>
       <c r="D238">
-        <v>0.8410217921569683</v>
+        <v>0.8319725888053106</v>
       </c>
       <c r="E238">
-        <v>0.6038704666565984</v>
+        <v>0.6440116226278035</v>
       </c>
       <c r="F238">
-        <v>0.7190082644628097</v>
+        <v>0.7020602218700467</v>
       </c>
       <c r="G238">
-        <v>0.9087719298245623</v>
+        <v>0.8937728937728961</v>
       </c>
       <c r="H238">
-        <v>0.8651877133105818</v>
+        <v>0.880992667794699</v>
       </c>
       <c r="I238">
-        <v>1.12139101558897</v>
+        <v>1.15992612237166</v>
       </c>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="2">
-        <v>43542</v>
+        <v>43549</v>
       </c>
       <c r="B239">
-        <v>1.074604671985675</v>
+        <v>1.071528841245534</v>
       </c>
       <c r="C239">
-        <v>1.065595907543585</v>
+        <v>1.083845879746541</v>
       </c>
       <c r="D239">
-        <v>0.841048596778085</v>
+        <v>0.8253071713467351</v>
       </c>
       <c r="E239">
-        <v>0.6071066427908782</v>
+        <v>0.6437846181785163</v>
       </c>
       <c r="F239">
-        <v>0.7049946101329498</v>
+        <v>0.7090332805071307</v>
       </c>
       <c r="G239">
-        <v>0.9122807017543869</v>
+        <v>0.8901098901098925</v>
       </c>
       <c r="H239">
-        <v>0.8868031854379993</v>
+        <v>0.8635081782289912</v>
       </c>
       <c r="I239">
-        <v>1.123374227469793</v>
+        <v>1.17266527751468</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" s="2">
-        <v>43543</v>
+        <v>43550</v>
       </c>
       <c r="B240">
-        <v>1.07409302399949</v>
+        <v>1.072549770290966</v>
       </c>
       <c r="C240">
-        <v>1.06545673393391</v>
+        <v>1.091630904612143</v>
       </c>
       <c r="D240">
-        <v>0.841048596778085</v>
+        <v>0.820006959873651</v>
       </c>
       <c r="E240">
-        <v>0.6090483484714461</v>
+        <v>0.6419685825842186</v>
       </c>
       <c r="F240">
-        <v>0.723679482572763</v>
+        <v>0.6589540412044366</v>
       </c>
       <c r="G240">
-        <v>0.9157894736842115</v>
+        <v>0.8827838827838852</v>
       </c>
       <c r="H240">
-        <v>0.8850967007963612</v>
+        <v>0.8505358150028208</v>
       </c>
       <c r="I240">
-        <v>1.116871137348955</v>
+        <v>1.174370145860958</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="2">
-        <v>43544</v>
+        <v>43551</v>
       </c>
       <c r="B241">
-        <v>1.069440225125115</v>
+        <v>1.074878764675856</v>
       </c>
       <c r="C241">
-        <v>1.06231968554287</v>
+        <v>1.086560955582753</v>
       </c>
       <c r="D241">
-        <v>0.8430857479829528</v>
+        <v>0.8266723773322264</v>
       </c>
       <c r="E241">
-        <v>0.6112057992276326</v>
+        <v>0.6399255425406338</v>
       </c>
       <c r="F241">
-        <v>0.7581746316924182</v>
+        <v>0.6595879556259896</v>
       </c>
       <c r="G241">
-        <v>0.8912280701754396</v>
+        <v>0.8754578754578779</v>
       </c>
       <c r="H241">
-        <v>0.8845278725824818</v>
+        <v>0.8567399887196848</v>
       </c>
       <c r="I241">
-        <v>1.102711926944011</v>
+        <v>1.153296078802803</v>
       </c>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" s="2">
-        <v>43545</v>
+        <v>43552</v>
       </c>
       <c r="B242">
-        <v>1.072430168044387</v>
+        <v>1.075086140888209</v>
       </c>
       <c r="C242">
-        <v>1.073848526452388</v>
+        <v>1.090461214308953</v>
       </c>
       <c r="D242">
-        <v>0.8387433993620506</v>
+        <v>0.8200337286184646</v>
       </c>
       <c r="E242">
-        <v>0.6122845246057258</v>
+        <v>0.6372014891491874</v>
       </c>
       <c r="F242">
-        <v>0.7463169241825367</v>
+        <v>0.626624405705229</v>
       </c>
       <c r="G242">
-        <v>0.8912280701754396</v>
+        <v>0.8754578754578779</v>
       </c>
       <c r="H242">
-        <v>0.8879408418657582</v>
+        <v>0.8494077834179364</v>
       </c>
       <c r="I242">
-        <v>1.110183562401994</v>
+        <v>1.161678348172002</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="2">
-        <v>43546</v>
+        <v>43553</v>
       </c>
       <c r="B243">
-        <v>1.075036374974019</v>
+        <v>1.072485962225626</v>
       </c>
       <c r="C243">
-        <v>1.053472757706267</v>
+        <v>1.097804700450834</v>
       </c>
       <c r="D243">
-        <v>0.8330876243064309</v>
+        <v>0.8213453971143287</v>
       </c>
       <c r="E243">
-        <v>0.6120687795301072</v>
+        <v>0.6358394624534642</v>
       </c>
       <c r="F243">
-        <v>0.7463169241825367</v>
+        <v>0.626624405705229</v>
       </c>
       <c r="G243">
-        <v>0.8561403508771939</v>
+        <v>0.8827838827838852</v>
       </c>
       <c r="H243">
-        <v>0.8885096700796377</v>
+        <v>0.8753525098702771</v>
       </c>
       <c r="I243">
-        <v>1.129646711557976</v>
+        <v>1.161488918355749</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" s="2">
-        <v>43549</v>
+        <v>43556</v>
       </c>
       <c r="B244">
-        <v>1.075036374974019</v>
+        <v>1.072485962225626</v>
       </c>
       <c r="C244">
-        <v>1.053472757706267</v>
+        <v>1.097804700450834</v>
       </c>
     </row>
   </sheetData>

--- a/correlation/data/variables.xlsx
+++ b/correlation/data/variables.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I244"/>
+  <dimension ref="A1:I245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,7 +435,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2">
-        <v>43192</v>
+        <v>43199</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -464,7002 +464,7031 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
-        <v>43193</v>
+        <v>43200</v>
       </c>
       <c r="B3">
-        <v>1.000701888718734</v>
+        <v>0.9958280456852792</v>
       </c>
       <c r="C3">
-        <v>1.012614838799634</v>
+        <v>1.016726874741692</v>
       </c>
       <c r="D3">
-        <v>1.004015311722033</v>
+        <v>1.004080198875919</v>
       </c>
       <c r="E3">
-        <v>0.9876055570689186</v>
+        <v>0.9885229424277132</v>
       </c>
       <c r="F3">
-        <v>0.9125198098256735</v>
+        <v>0.976727004063539</v>
       </c>
       <c r="G3">
-        <v>1.021978021978022</v>
+        <v>1.007194244604317</v>
       </c>
       <c r="H3">
-        <v>0.990975747320925</v>
+        <v>1.017064846416382</v>
       </c>
       <c r="I3">
-        <v>0.9881606364841826</v>
+        <v>0.991176194499202</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2">
-        <v>43194</v>
+        <v>43201</v>
       </c>
       <c r="B4">
-        <v>1.002775650842266</v>
+        <v>0.9951618020304569</v>
       </c>
       <c r="C4">
-        <v>1.024327234418331</v>
+        <v>1.011109155199069</v>
       </c>
       <c r="D4">
-        <v>0.9967074443879326</v>
+        <v>1.002729139645482</v>
       </c>
       <c r="E4">
-        <v>0.9784118768727869</v>
+        <v>0.9838479698931767</v>
       </c>
       <c r="F4">
-        <v>0.8849445324881142</v>
+        <v>0.9527151828592536</v>
       </c>
       <c r="G4">
-        <v>1.021978021978022</v>
+        <v>1.003597122302158</v>
       </c>
       <c r="H4">
-        <v>0.9892836999435983</v>
+        <v>1.022753128555177</v>
       </c>
       <c r="I4">
-        <v>0.9983424891077859</v>
+        <v>0.9939453675021118</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2">
-        <v>43199</v>
+        <v>43202</v>
       </c>
       <c r="B5">
-        <v>1.005615109749872</v>
+        <v>0.9958121827411167</v>
       </c>
       <c r="C5">
-        <v>1.012115202875424</v>
+        <v>1.019451545255553</v>
       </c>
       <c r="D5">
-        <v>0.9893460395642049</v>
+        <v>1.002729139645482</v>
       </c>
       <c r="E5">
-        <v>0.9665622446199946</v>
+        <v>0.9815104836259085</v>
       </c>
       <c r="F5">
-        <v>0.858003169572108</v>
+        <v>0.9187292205393424</v>
       </c>
       <c r="G5">
-        <v>1.018315018315018</v>
+        <v>1.017985611510791</v>
       </c>
       <c r="H5">
-        <v>0.991539763113367</v>
+        <v>1.014220705346985</v>
       </c>
       <c r="I5">
-        <v>1.001989013070657</v>
+        <v>0.9874683187834411</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2">
-        <v>43200</v>
+        <v>43203</v>
       </c>
       <c r="B6">
-        <v>1.001419729453803</v>
+        <v>0.9951300761421319</v>
       </c>
       <c r="C6">
-        <v>1.029044727098084</v>
+        <v>1.016508748029206</v>
       </c>
       <c r="D6">
-        <v>0.994699788526916</v>
+        <v>1.001459143968872</v>
       </c>
       <c r="E6">
-        <v>0.9600018160355943</v>
+        <v>0.9768355110913722</v>
       </c>
       <c r="F6">
-        <v>0.8380348652931856</v>
+        <v>0.8961950498707055</v>
       </c>
       <c r="G6">
-        <v>1.025641025641025</v>
+        <v>1.014388489208633</v>
       </c>
       <c r="H6">
-        <v>1.008460236886633</v>
+        <v>1.007394766780433</v>
       </c>
       <c r="I6">
-        <v>1.000094714908127</v>
+        <v>0.9896742701586406</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2">
-        <v>43201</v>
+        <v>43206</v>
       </c>
       <c r="B7">
-        <v>1.000749744767739</v>
+        <v>0.9940196700507614</v>
       </c>
       <c r="C7">
-        <v>1.023358947743505</v>
+        <v>1.02475164169052</v>
       </c>
       <c r="D7">
-        <v>0.9933613512862383</v>
+        <v>0.9879215304798962</v>
       </c>
       <c r="E7">
-        <v>0.95546172704985</v>
+        <v>0.9754330193310112</v>
       </c>
       <c r="F7">
-        <v>0.8174326465927101</v>
+        <v>0.8854820834872551</v>
       </c>
       <c r="G7">
-        <v>1.021978021978022</v>
+        <v>1.017985611510791</v>
       </c>
       <c r="H7">
-        <v>1.014100394811055</v>
+        <v>0.9914675767918092</v>
       </c>
       <c r="I7">
-        <v>1.002888804697859</v>
+        <v>1.006664789261241</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2">
-        <v>43202</v>
+        <v>43207</v>
       </c>
       <c r="B8">
-        <v>1.001403777437468</v>
+        <v>0.9965418781725888</v>
       </c>
       <c r="C8">
-        <v>1.031802407547988</v>
+        <v>1.03567711123697</v>
       </c>
       <c r="D8">
-        <v>0.9933613512862383</v>
+        <v>0.9865974924340682</v>
       </c>
       <c r="E8">
-        <v>0.9531916825569779</v>
+        <v>0.9756667679577381</v>
       </c>
       <c r="F8">
-        <v>0.788272583201268</v>
+        <v>0.8851126708533431</v>
       </c>
       <c r="G8">
-        <v>1.036630036630036</v>
+        <v>1.014388489208633</v>
       </c>
       <c r="H8">
-        <v>1.005640157924422</v>
+        <v>0.9783845278725828</v>
       </c>
       <c r="I8">
-        <v>0.9963534760371283</v>
+        <v>1.001408054069276</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2">
-        <v>43203</v>
+        <v>43208</v>
       </c>
       <c r="B9">
-        <v>1.000717840735069</v>
+        <v>0.9949079949238578</v>
       </c>
       <c r="C9">
-        <v>1.028823957736223</v>
+        <v>1.036538137733625</v>
       </c>
       <c r="D9">
-        <v>0.9921032202800011</v>
+        <v>0.9460927367055773</v>
       </c>
       <c r="E9">
-        <v>0.948651593571234</v>
+        <v>0.9590706154601339</v>
       </c>
       <c r="F9">
-        <v>0.7689381933438988</v>
+        <v>0.8178795714813446</v>
       </c>
       <c r="G9">
-        <v>1.032967032967032</v>
+        <v>1.032374100719424</v>
       </c>
       <c r="H9">
-        <v>0.9988719684151157</v>
+        <v>0.9863481228668945</v>
       </c>
       <c r="I9">
-        <v>0.998579276378102</v>
+        <v>1.021402421852999</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2">
-        <v>43206</v>
+        <v>43209</v>
       </c>
       <c r="B10">
-        <v>0.9996011995916283</v>
+        <v>0.995748730964467</v>
       </c>
       <c r="C10">
-        <v>1.037166715726525</v>
+        <v>1.030602795083347</v>
       </c>
       <c r="D10">
-        <v>0.9786920791284096</v>
+        <v>0.9474708171206226</v>
       </c>
       <c r="E10">
-        <v>0.9472895668755107</v>
+        <v>0.9466819382436127</v>
       </c>
       <c r="F10">
-        <v>0.7597464342313789</v>
+        <v>0.8130772072404876</v>
       </c>
       <c r="G10">
-        <v>1.036630036630036</v>
+        <v>1.050359712230216</v>
       </c>
       <c r="H10">
-        <v>0.9830795262267344</v>
+        <v>0.9948805460750857</v>
       </c>
       <c r="I10">
-        <v>1.015722674749006</v>
+        <v>1.019337275884727</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2">
-        <v>43207</v>
+        <v>43210</v>
       </c>
       <c r="B11">
-        <v>1.002137570188872</v>
+        <v>0.9960501269035534</v>
       </c>
       <c r="C11">
-        <v>1.048224549553039</v>
+        <v>1.021805017679744</v>
       </c>
       <c r="D11">
-        <v>0.9773804106325454</v>
+        <v>0.9515510159965415</v>
       </c>
       <c r="E11">
-        <v>0.9475165713247979</v>
+        <v>0.9389682335616278</v>
       </c>
       <c r="F11">
-        <v>0.7594294770206024</v>
+        <v>0.8485408200960471</v>
       </c>
       <c r="G11">
-        <v>1.032967032967032</v>
+        <v>1.064748201438849</v>
       </c>
       <c r="H11">
-        <v>0.9701071630005641</v>
+        <v>0.9795221843003418</v>
       </c>
       <c r="I11">
-        <v>1.010418639893919</v>
+        <v>1.012484746080916</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2">
-        <v>43208</v>
+        <v>43213</v>
       </c>
       <c r="B12">
-        <v>1.000494512506381</v>
+        <v>1.000809010152284</v>
       </c>
       <c r="C12">
-        <v>1.049096007560382</v>
+        <v>1.021862419446188</v>
       </c>
       <c r="D12">
-        <v>0.9372540621570256</v>
+        <v>0.973276048421963</v>
       </c>
       <c r="E12">
-        <v>0.9313992554254062</v>
+        <v>0.9359295014141791</v>
       </c>
       <c r="F12">
-        <v>0.7017432646592712</v>
+        <v>0.8300701884004431</v>
       </c>
       <c r="G12">
-        <v>1.051282051282051</v>
+        <v>1.071942446043165</v>
       </c>
       <c r="H12">
-        <v>0.9780033840947548</v>
+        <v>0.978384527872583</v>
       </c>
       <c r="I12">
-        <v>1.030592915324872</v>
+        <v>0.9836196376607529</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2">
-        <v>43209</v>
+        <v>43214</v>
       </c>
       <c r="B13">
-        <v>1.001339969372129</v>
+        <v>0.9987944162436549</v>
       </c>
       <c r="C13">
-        <v>1.043088757029761</v>
+        <v>1.0081893186793</v>
       </c>
       <c r="D13">
-        <v>0.9386192681425168</v>
+        <v>0.9688445741461308</v>
       </c>
       <c r="E13">
-        <v>0.9193680196131844</v>
+        <v>0.9328907692667305</v>
       </c>
       <c r="F13">
-        <v>0.6976228209191762</v>
+        <v>0.8640561507203545</v>
       </c>
       <c r="G13">
-        <v>1.069597069597069</v>
+        <v>1.079136690647482</v>
       </c>
       <c r="H13">
-        <v>0.9864636209813877</v>
+        <v>0.9982935153583623</v>
       </c>
       <c r="I13">
-        <v>1.028509187346089</v>
+        <v>0.9955411621139583</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2">
-        <v>43210</v>
+        <v>43215</v>
       </c>
       <c r="B14">
-        <v>1.001643057682491</v>
+        <v>1.002855329949239</v>
       </c>
       <c r="C14">
-        <v>1.03418439276806</v>
+        <v>1.010041482343216</v>
       </c>
       <c r="D14">
-        <v>0.9426613486093638</v>
+        <v>0.9759511456982276</v>
       </c>
       <c r="E14">
-        <v>0.9118768727867067</v>
+        <v>0.9312545288796428</v>
       </c>
       <c r="F14">
-        <v>0.7280507131537244</v>
+        <v>0.8928703361654967</v>
       </c>
       <c r="G14">
-        <v>1.084249084249084</v>
+        <v>1.089928057553957</v>
       </c>
       <c r="H14">
-        <v>0.9712351945854487</v>
+        <v>0.9948805460750858</v>
       </c>
       <c r="I14">
-        <v>1.021594999052851</v>
+        <v>0.9825401295409739</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2">
-        <v>43213</v>
+        <v>43216</v>
       </c>
       <c r="B15">
-        <v>1.00642866258295</v>
+        <v>1.003743654822335</v>
       </c>
       <c r="C15">
-        <v>1.03424248996855</v>
+        <v>1.020580446662279</v>
       </c>
       <c r="D15">
-        <v>0.9641834194394626</v>
+        <v>0.9820579334198012</v>
       </c>
       <c r="E15">
-        <v>0.9089258149459729</v>
+        <v>0.9331245178934573</v>
       </c>
       <c r="F15">
-        <v>0.7122028526148971</v>
+        <v>0.8448466937569263</v>
       </c>
       <c r="G15">
-        <v>1.091575091575091</v>
+        <v>1.079136690647482</v>
       </c>
       <c r="H15">
-        <v>0.9701071630005643</v>
+        <v>0.9812286689419801</v>
       </c>
       <c r="I15">
-        <v>0.9924701648039406</v>
+        <v>0.9641884915047402</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2">
-        <v>43214</v>
+        <v>43217</v>
       </c>
       <c r="B16">
-        <v>1.004402756508423</v>
+        <v>1.002553934010152</v>
       </c>
       <c r="C16">
-        <v>1.020403736811935</v>
+        <v>1.021717001637864</v>
       </c>
       <c r="D16">
-        <v>0.9597933452900395</v>
+        <v>0.982598357111976</v>
       </c>
       <c r="E16">
-        <v>0.9059747571052393</v>
+        <v>0.9366307472943594</v>
       </c>
       <c r="F16">
-        <v>0.7413629160063393</v>
+        <v>0.8234207609900257</v>
       </c>
       <c r="G16">
-        <v>1.098901098901099</v>
+        <v>1.064748201438849</v>
       </c>
       <c r="H16">
-        <v>0.9898477157360409</v>
+        <v>0.9812286689419801</v>
       </c>
       <c r="I16">
-        <v>1.004498958136011</v>
+        <v>0.9558340373603678</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2">
-        <v>43215</v>
+        <v>43222</v>
       </c>
       <c r="B17">
-        <v>1.008486472690148</v>
+        <v>1.011246827411168</v>
       </c>
       <c r="C17">
-        <v>1.022278339814398</v>
+        <v>1.008614091750983</v>
       </c>
       <c r="D17">
-        <v>0.9668335251760045</v>
+        <v>0.9907317336792046</v>
       </c>
       <c r="E17">
-        <v>0.9043857259602289</v>
+        <v>0.9356957527874522</v>
       </c>
       <c r="F17">
-        <v>0.7660855784469098</v>
+        <v>0.8178795714813444</v>
       </c>
       <c r="G17">
-        <v>1.109890109890109</v>
+        <v>1.068345323741007</v>
       </c>
       <c r="H17">
-        <v>0.9864636209813877</v>
+        <v>0.8549488054607514</v>
       </c>
       <c r="I17">
-        <v>0.9913809433604848</v>
+        <v>0.9434900966863792</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2">
-        <v>43216</v>
+        <v>43223</v>
       </c>
       <c r="B18">
-        <v>1.0093797856049</v>
+        <v>1.006345177664975</v>
       </c>
       <c r="C18">
-        <v>1.032944985824283</v>
+        <v>1.006340981799813</v>
       </c>
       <c r="D18">
-        <v>0.9728832615038679</v>
+        <v>0.9853815391266755</v>
       </c>
       <c r="E18">
-        <v>0.9062017615545266</v>
+        <v>0.9333582665201839</v>
       </c>
       <c r="F18">
-        <v>0.7248811410459589</v>
+        <v>0.8381972663465087</v>
       </c>
       <c r="G18">
-        <v>1.098901098901099</v>
+        <v>1.057553956834532</v>
       </c>
       <c r="H18">
-        <v>0.9729272419627754</v>
+        <v>0.8606370875995456</v>
       </c>
       <c r="I18">
-        <v>0.9728641788217466</v>
+        <v>0.9529709940861728</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2">
-        <v>43217</v>
+        <v>43224</v>
       </c>
       <c r="B19">
-        <v>1.008183384379785</v>
+        <v>1.008058375634518</v>
       </c>
       <c r="C19">
-        <v>1.034095310393976</v>
+        <v>1.019233418543067</v>
       </c>
       <c r="D19">
-        <v>0.9734186364001391</v>
+        <v>0.9813824038045829</v>
       </c>
       <c r="E19">
-        <v>0.9096068282938345</v>
+        <v>0.9333582665201839</v>
       </c>
       <c r="F19">
-        <v>0.7064976228209192</v>
+        <v>0.825637236793498</v>
       </c>
       <c r="G19">
-        <v>1.084249084249084</v>
+        <v>1.061151079136691</v>
       </c>
       <c r="H19">
-        <v>0.9729272419627754</v>
+        <v>0.8577929465301485</v>
       </c>
       <c r="I19">
-        <v>0.9644345519984846</v>
+        <v>0.9640476860978127</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2">
-        <v>43222</v>
+        <v>43227</v>
       </c>
       <c r="B20">
-        <v>1.016925089331291</v>
+        <v>1.008883248730965</v>
       </c>
       <c r="C20">
-        <v>1.020833656095558</v>
+        <v>1.022757887002709</v>
       </c>
       <c r="D20">
-        <v>0.9814760285890194</v>
+        <v>0.9867596195417209</v>
       </c>
       <c r="E20">
-        <v>0.9086988104966858</v>
+        <v>0.9336621397349288</v>
       </c>
       <c r="F20">
-        <v>0.7017432646592709</v>
+        <v>0.8385666789804208</v>
       </c>
       <c r="G20">
-        <v>1.087912087912088</v>
+        <v>1.061151079136691</v>
       </c>
       <c r="H20">
-        <v>0.8477157360406095</v>
+        <v>0.870875995449375</v>
       </c>
       <c r="I20">
-        <v>0.9519795415798447</v>
+        <v>0.9634375293344596</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2">
-        <v>43223</v>
+        <v>43228</v>
       </c>
       <c r="B21">
-        <v>1.011995916283818</v>
+        <v>1.009850888324873</v>
       </c>
       <c r="C21">
-        <v>1.018533006956171</v>
+        <v>1.022486185308209</v>
       </c>
       <c r="D21">
-        <v>0.9761758171159354</v>
+        <v>0.9976761781236491</v>
       </c>
       <c r="E21">
-        <v>0.9064287660038136</v>
+        <v>0.9348542577312355</v>
       </c>
       <c r="F21">
-        <v>0.7191759112519809</v>
+        <v>0.8282231252308827</v>
       </c>
       <c r="G21">
-        <v>1.076923076923077</v>
+        <v>1.068345323741008</v>
       </c>
       <c r="H21">
-        <v>0.8533558939650315</v>
+        <v>0.8782707622298073</v>
       </c>
       <c r="I21">
-        <v>0.9615457473006253</v>
+        <v>0.9675678212710033</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2">
-        <v>43224</v>
+        <v>43229</v>
       </c>
       <c r="B22">
-        <v>1.013718734047983</v>
+        <v>1.009660532994924</v>
       </c>
       <c r="C22">
-        <v>1.031581638186128</v>
+        <v>1.032386076627531</v>
       </c>
       <c r="D22">
-        <v>0.9722140428835291</v>
+        <v>1.001783398184177</v>
       </c>
       <c r="E22">
-        <v>0.9064287660038136</v>
+        <v>0.9380332390547204</v>
       </c>
       <c r="F22">
-        <v>0.7083993660855783</v>
+        <v>0.7990395271518282</v>
       </c>
       <c r="G22">
-        <v>1.080586080586081</v>
+        <v>1.079136690647482</v>
       </c>
       <c r="H22">
-        <v>0.8505358150028205</v>
+        <v>0.8777019340159279</v>
       </c>
       <c r="I22">
-        <v>0.9727221064595568</v>
+        <v>0.9684126537125689</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2">
-        <v>43227</v>
+        <v>43230</v>
       </c>
       <c r="B23">
-        <v>1.014548238897397</v>
+        <v>1.004060913705584</v>
       </c>
       <c r="C23">
-        <v>1.035148806296187</v>
+        <v>1.042060187665509</v>
       </c>
       <c r="D23">
-        <v>0.9775410231014267</v>
+        <v>0.9977302204928667</v>
       </c>
       <c r="E23">
-        <v>0.906723871787887</v>
+        <v>0.9429419602159835</v>
       </c>
       <c r="F23">
-        <v>0.7194928684627574</v>
+        <v>0.7820465459918727</v>
       </c>
       <c r="G23">
-        <v>1.080586080586081</v>
+        <v>1.068345323741008</v>
       </c>
       <c r="H23">
-        <v>0.863508178228991</v>
+        <v>0.8822525597269631</v>
       </c>
       <c r="I23">
-        <v>0.9721064595567344</v>
+        <v>0.9992959729653618</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2">
-        <v>43228</v>
+        <v>43231</v>
       </c>
       <c r="B24">
-        <v>1.015521311893823</v>
+        <v>1.004965101522843</v>
       </c>
       <c r="C24">
-        <v>1.034873812880536</v>
+        <v>1.043839642425263</v>
       </c>
       <c r="D24">
-        <v>0.9883555960061031</v>
+        <v>0.9965953307393</v>
       </c>
       <c r="E24">
-        <v>0.9078815944792518</v>
+        <v>0.9466819382436127</v>
       </c>
       <c r="F24">
-        <v>0.7106180665610142</v>
+        <v>0.7295899519763573</v>
       </c>
       <c r="G24">
-        <v>1.087912087912088</v>
+        <v>1.068345323741008</v>
       </c>
       <c r="H24">
-        <v>0.8708403835307393</v>
+        <v>0.8794084186575661</v>
       </c>
       <c r="I24">
-        <v>0.9762739155143021</v>
+        <v>1.006007697362245</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2">
-        <v>43229</v>
+        <v>43234</v>
       </c>
       <c r="B25">
-        <v>1.015329887697805</v>
+        <v>1.005266497461929</v>
       </c>
       <c r="C25">
-        <v>1.044893643391637</v>
+        <v>1.044761897472792</v>
       </c>
       <c r="D25">
-        <v>0.9924244452177636</v>
+        <v>0.9980814958927804</v>
       </c>
       <c r="E25">
-        <v>0.9109688549895578</v>
+        <v>0.9490194245108808</v>
       </c>
       <c r="F25">
-        <v>0.6855784469096671</v>
+        <v>0.7702253417066861</v>
       </c>
       <c r="G25">
-        <v>1.098901098901099</v>
+        <v>1.079136690647482</v>
       </c>
       <c r="H25">
-        <v>0.8702763677382972</v>
+        <v>0.8828213879408424</v>
       </c>
       <c r="I25">
-        <v>0.9771263496874408</v>
+        <v>0.9995306486435742</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2">
-        <v>43230</v>
+        <v>43235</v>
       </c>
       <c r="B26">
-        <v>1.009698825931598</v>
+        <v>1.009850888324873</v>
       </c>
       <c r="C26">
-        <v>1.054684958247478</v>
+        <v>1.037613464158337</v>
       </c>
       <c r="D26">
-        <v>0.9884091334957303</v>
+        <v>1.003864029399049</v>
       </c>
       <c r="E26">
-        <v>0.9157359484245892</v>
+        <v>0.9518244080316028</v>
       </c>
       <c r="F26">
-        <v>0.6709984152139461</v>
+        <v>0.7857406723309934</v>
       </c>
       <c r="G26">
-        <v>1.087912087912088</v>
+        <v>1.107913669064749</v>
       </c>
       <c r="H26">
-        <v>0.8747884940778348</v>
+        <v>0.8879408418657571</v>
       </c>
       <c r="I26">
-        <v>1.008287554461072</v>
+        <v>0.9822115835914766</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2">
-        <v>43231</v>
+        <v>43236</v>
       </c>
       <c r="B27">
-        <v>1.010608090862685</v>
+        <v>1.007376269035533</v>
       </c>
       <c r="C27">
-        <v>1.056485971462655</v>
+        <v>1.041826753815304</v>
       </c>
       <c r="D27">
-        <v>0.9872848462135611</v>
+        <v>1.001837440553394</v>
       </c>
       <c r="E27">
-        <v>0.9193680196131845</v>
+        <v>0.954161894298871</v>
       </c>
       <c r="F27">
-        <v>0.6259904912836766</v>
+        <v>0.7602512005910599</v>
       </c>
       <c r="G27">
-        <v>1.087912087912088</v>
+        <v>1.111510791366907</v>
       </c>
       <c r="H27">
-        <v>0.8719684151156238</v>
+        <v>0.8816837315130837</v>
       </c>
       <c r="I27">
-        <v>1.01505967039212</v>
+        <v>0.9864826809349481</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2">
-        <v>43234</v>
+        <v>43237</v>
       </c>
       <c r="B28">
-        <v>1.010911179173048</v>
+        <v>1.008502538071066</v>
       </c>
       <c r="C28">
-        <v>1.057419399817187</v>
+        <v>1.040935113043212</v>
       </c>
       <c r="D28">
-        <v>0.9887571271783068</v>
+        <v>1.003026372676178</v>
       </c>
       <c r="E28">
-        <v>0.9216380641060565</v>
+        <v>0.9586031182066805</v>
       </c>
       <c r="F28">
-        <v>0.6608557844690965</v>
+        <v>0.7768747691171035</v>
       </c>
       <c r="G28">
-        <v>1.098901098901099</v>
+        <v>1.118705035971223</v>
       </c>
       <c r="H28">
-        <v>0.8753525098702768</v>
+        <v>0.8782707622298072</v>
       </c>
       <c r="I28">
-        <v>1.008524341731388</v>
+        <v>0.9851215620013143</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2">
-        <v>43235</v>
+        <v>43238</v>
       </c>
       <c r="B29">
-        <v>1.015521311893824</v>
+        <v>1.009279822335025</v>
       </c>
       <c r="C29">
-        <v>1.050184361782886</v>
+        <v>1.038195135391633</v>
       </c>
       <c r="D29">
-        <v>0.9944856385684077</v>
+        <v>1.002458927799395</v>
       </c>
       <c r="E29">
-        <v>0.9243621174975032</v>
+        <v>0.9693555550361141</v>
       </c>
       <c r="F29">
-        <v>0.6741679873217115</v>
+        <v>0.7576653121536754</v>
       </c>
       <c r="G29">
-        <v>1.128205128205128</v>
+        <v>1.100719424460432</v>
       </c>
       <c r="H29">
-        <v>0.8804286520022565</v>
+        <v>0.8890784982935159</v>
       </c>
       <c r="I29">
-        <v>0.9910494411820422</v>
+        <v>0.9877968647329389</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2">
-        <v>43236</v>
+        <v>43241</v>
       </c>
       <c r="B30">
-        <v>1.013032797345585</v>
+        <v>1.008470812182741</v>
       </c>
       <c r="C30">
-        <v>1.05444869629882</v>
+        <v>1.045864011388511</v>
       </c>
       <c r="D30">
-        <v>0.9924779827073908</v>
+        <v>0.9981355382619975</v>
       </c>
       <c r="E30">
-        <v>0.9266321619903751</v>
+        <v>0.9702905495430214</v>
       </c>
       <c r="F30">
-        <v>0.6522979397781298</v>
+        <v>0.7639453269301806</v>
       </c>
       <c r="G30">
-        <v>1.131868131868132</v>
+        <v>1.100719424460432</v>
       </c>
       <c r="H30">
-        <v>0.8742244782853925</v>
+        <v>0.8953356086461894</v>
       </c>
       <c r="I30">
-        <v>0.9953589695017998</v>
+        <v>1.000281610813855</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2">
-        <v>43237</v>
+        <v>43242</v>
       </c>
       <c r="B31">
-        <v>1.01416539050536</v>
+        <v>1.007804568527919</v>
       </c>
       <c r="C31">
-        <v>1.053546253117883</v>
+        <v>1.042584457132361</v>
       </c>
       <c r="D31">
-        <v>0.9936558074791874</v>
+        <v>0.9916774751405103</v>
       </c>
       <c r="E31">
-        <v>0.9309452465268321</v>
+        <v>0.9723942871835629</v>
       </c>
       <c r="F31">
-        <v>0.6665610142630743</v>
+        <v>0.7414111562615437</v>
       </c>
       <c r="G31">
-        <v>1.139194139194139</v>
+        <v>1.100719424460432</v>
       </c>
       <c r="H31">
-        <v>0.8708403835307393</v>
+        <v>0.8953356086461894</v>
       </c>
       <c r="I31">
-        <v>0.9939856033339649</v>
+        <v>1.011499108232423</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2">
-        <v>43238</v>
+        <v>43243</v>
       </c>
       <c r="B32">
-        <v>1.014947039305768</v>
+        <v>1.011579949238579</v>
       </c>
       <c r="C32">
-        <v>1.050773080081181</v>
+        <v>1.045971161352539</v>
       </c>
       <c r="D32">
-        <v>0.9930936638381027</v>
+        <v>0.9835711197578905</v>
       </c>
       <c r="E32">
-        <v>0.9413874511940435</v>
+        <v>0.9754330193310116</v>
       </c>
       <c r="F32">
-        <v>0.6500792393026941</v>
+        <v>0.7901736239379383</v>
       </c>
       <c r="G32">
-        <v>1.120879120879121</v>
+        <v>1.082733812949641</v>
       </c>
       <c r="H32">
-        <v>0.881556683587141</v>
+        <v>0.882252559726963</v>
       </c>
       <c r="I32">
-        <v>0.9966849782155711</v>
+        <v>1.024734816483619</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="2">
-        <v>43241</v>
+        <v>43244</v>
       </c>
       <c r="B33">
-        <v>1.01413348647269</v>
+        <v>1.011167512690355</v>
       </c>
       <c r="C33">
-        <v>1.058534866066587</v>
+        <v>1.043854949562982</v>
       </c>
       <c r="D33">
-        <v>0.9888106646679338</v>
+        <v>0.9863002594033725</v>
       </c>
       <c r="E33">
-        <v>0.9422954689911923</v>
+        <v>0.9801079918655479</v>
       </c>
       <c r="F33">
-        <v>0.6554675118858952</v>
+        <v>0.7912818618396746</v>
       </c>
       <c r="G33">
-        <v>1.120879120879121</v>
+        <v>1.071942446043166</v>
       </c>
       <c r="H33">
-        <v>0.8877608573040051</v>
+        <v>0.8782707622298072</v>
       </c>
       <c r="I33">
-        <v>1.009282060996401</v>
+        <v>1.01088895146907</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2">
-        <v>43242</v>
+        <v>43245</v>
       </c>
       <c r="B34">
-        <v>1.013463501786626</v>
+        <v>1.013467639593908</v>
       </c>
       <c r="C34">
-        <v>1.055215579345283</v>
+        <v>1.041394327174762</v>
       </c>
       <c r="D34">
-        <v>0.9824129346574939</v>
+        <v>0.9761673151750976</v>
       </c>
       <c r="E34">
-        <v>0.9443385090347773</v>
+        <v>0.9852504616535379</v>
       </c>
       <c r="F34">
-        <v>0.636133122028526</v>
+        <v>0.7569264868858511</v>
       </c>
       <c r="G34">
-        <v>1.120879120879121</v>
+        <v>1.053956834532375</v>
       </c>
       <c r="H34">
-        <v>0.8877608573040051</v>
+        <v>0.8748577929465308</v>
       </c>
       <c r="I34">
-        <v>1.020600492517522</v>
+        <v>1.023889984042054</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2">
-        <v>43243</v>
+        <v>43248</v>
       </c>
       <c r="B35">
-        <v>1.017260081674323</v>
+        <v>1.014800126903553</v>
       </c>
       <c r="C35">
-        <v>1.058643314174167</v>
+        <v>1.041394327174762</v>
       </c>
       <c r="D35">
-        <v>0.9743823112134273</v>
+        <v>0.9754917855598793</v>
       </c>
       <c r="E35">
-        <v>0.947289566875511</v>
+        <v>0.9915616745751621</v>
       </c>
       <c r="F35">
-        <v>0.6779714738510301</v>
+        <v>0.7569264868858511</v>
       </c>
       <c r="G35">
-        <v>1.102564102564102</v>
+        <v>1.053956834532375</v>
       </c>
       <c r="H35">
-        <v>0.8747884940778348</v>
+        <v>0.8731513083048925</v>
       </c>
       <c r="I35">
-        <v>1.033955294563364</v>
+        <v>1.034356519290341</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="2">
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="B36">
-        <v>1.016845329249617</v>
+        <v>1.019098984771574</v>
       </c>
       <c r="C36">
-        <v>1.056501464049452</v>
+        <v>1.029351436574875</v>
       </c>
       <c r="D36">
-        <v>0.9770859544395964</v>
+        <v>0.9727896670990058</v>
       </c>
       <c r="E36">
-        <v>0.9518296558612551</v>
+        <v>1.000911619644235</v>
       </c>
       <c r="F36">
-        <v>0.6789223454833597</v>
+        <v>0.8699667528629476</v>
       </c>
       <c r="G36">
-        <v>1.091575091575091</v>
+        <v>0.9964028776978422</v>
       </c>
       <c r="H36">
-        <v>0.8708403835307394</v>
+        <v>0.869738339021616</v>
       </c>
       <c r="I36">
-        <v>1.0199848456147</v>
+        <v>1.065145968271849</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2">
-        <v>43245</v>
+        <v>43250</v>
       </c>
       <c r="B37">
-        <v>1.019158371618172</v>
+        <v>1.015323604060914</v>
       </c>
       <c r="C37">
-        <v>1.054011030721799</v>
+        <v>1.042419905401889</v>
       </c>
       <c r="D37">
-        <v>0.9670476751345131</v>
+        <v>0.9721141374837875</v>
       </c>
       <c r="E37">
-        <v>0.9568237537455737</v>
+        <v>1.007924078446039</v>
       </c>
       <c r="F37">
-        <v>0.6494453248811409</v>
+        <v>0.8127077946065753</v>
       </c>
       <c r="G37">
-        <v>1.073260073260073</v>
+        <v>1.02158273381295</v>
       </c>
       <c r="H37">
-        <v>0.8674562887760864</v>
+        <v>0.8475540386803192</v>
       </c>
       <c r="I37">
-        <v>1.033102860390226</v>
+        <v>1.071763822397447</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2">
-        <v>43248</v>
+        <v>43251</v>
       </c>
       <c r="B38">
-        <v>1.020498340990301</v>
+        <v>1.016671954314721</v>
       </c>
       <c r="C38">
-        <v>1.054011030721799</v>
+        <v>1.035248511380857</v>
       </c>
       <c r="D38">
-        <v>0.9663784565141742</v>
+        <v>0.9762483787289237</v>
       </c>
       <c r="E38">
-        <v>0.9629528738763283</v>
+        <v>1.011897805100395</v>
       </c>
       <c r="F38">
-        <v>0.6494453248811409</v>
+        <v>0.7620982637606203</v>
       </c>
       <c r="G38">
-        <v>1.073260073260073</v>
+        <v>1.017985611510792</v>
       </c>
       <c r="H38">
-        <v>0.8657642413987598</v>
+        <v>0.8629124004550632</v>
       </c>
       <c r="I38">
-        <v>1.043663572646335</v>
+        <v>1.072937200788511</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2">
-        <v>43249</v>
+        <v>43252</v>
       </c>
       <c r="B39">
-        <v>1.024821337417049</v>
+        <v>1.01744923857868</v>
       </c>
       <c r="C39">
-        <v>1.041822238059088</v>
+        <v>1.046480123681673</v>
       </c>
       <c r="D39">
-        <v>0.9637015820328185</v>
+        <v>0.9782209252053612</v>
       </c>
       <c r="E39">
-        <v>0.9720330518478165</v>
+        <v>1.014235291367663</v>
       </c>
       <c r="F39">
-        <v>0.7464342313787639</v>
+        <v>0.7329146656815659</v>
       </c>
       <c r="G39">
-        <v>1.014652014652014</v>
+        <v>1.039568345323741</v>
       </c>
       <c r="H39">
-        <v>0.8623801466441067</v>
+        <v>0.8572241183162692</v>
       </c>
       <c r="I39">
-        <v>1.07473006251184</v>
+        <v>1.074298319722144</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="2">
-        <v>43250</v>
+        <v>43255</v>
       </c>
       <c r="B40">
-        <v>1.021024757529352</v>
+        <v>1.016069162436549</v>
       </c>
       <c r="C40">
-        <v>1.055049034037213</v>
+        <v>1.051167934607908</v>
       </c>
       <c r="D40">
-        <v>0.9630323634124796</v>
+        <v>0.9871379161262432</v>
       </c>
       <c r="E40">
-        <v>0.9788431853264328</v>
+        <v>1.014702788621117</v>
       </c>
       <c r="F40">
-        <v>0.6973058637083994</v>
+        <v>0.7325452530476538</v>
       </c>
       <c r="G40">
-        <v>1.04029304029304</v>
+        <v>1.057553956834533</v>
       </c>
       <c r="H40">
-        <v>0.8403835307388614</v>
+        <v>0.8617747440273045</v>
       </c>
       <c r="I40">
-        <v>1.081407463534761</v>
+        <v>1.070496573735098</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="2">
-        <v>43251</v>
+        <v>43256</v>
       </c>
       <c r="B41">
-        <v>1.022380678917815</v>
+        <v>1.01445114213198</v>
       </c>
       <c r="C41">
-        <v>1.047790757122716</v>
+        <v>1.051906504002817</v>
       </c>
       <c r="D41">
-        <v>0.9671279813689535</v>
+        <v>0.9890293990488546</v>
       </c>
       <c r="E41">
-        <v>0.9827022609643152</v>
+        <v>1.015871531754751</v>
       </c>
       <c r="F41">
-        <v>0.6538827258320127</v>
+        <v>0.7125969708164016</v>
       </c>
       <c r="G41">
-        <v>1.036630036630036</v>
+        <v>1.050359712230216</v>
       </c>
       <c r="H41">
-        <v>0.8556119571348005</v>
+        <v>0.8686006825938574</v>
       </c>
       <c r="I41">
-        <v>1.082591399886343</v>
+        <v>1.071857692668732</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="2">
-        <v>43252</v>
+        <v>43257</v>
       </c>
       <c r="B42">
-        <v>1.023162327718224</v>
+        <v>1.011643401015229</v>
       </c>
       <c r="C42">
-        <v>1.059158442685175</v>
+        <v>1.060918581334477</v>
       </c>
       <c r="D42">
-        <v>0.9690820997403431</v>
+        <v>0.9890293990488546</v>
       </c>
       <c r="E42">
-        <v>0.9849723054571874</v>
+        <v>1.017741520768566</v>
       </c>
       <c r="F42">
-        <v>0.6288431061806656</v>
+        <v>0.6867380864425561</v>
       </c>
       <c r="G42">
-        <v>1.058608058608058</v>
+        <v>1.068345323741008</v>
       </c>
       <c r="H42">
-        <v>0.8499717992103787</v>
+        <v>0.8686006825938574</v>
       </c>
       <c r="I42">
-        <v>1.083964766054177</v>
+        <v>1.059044400638318</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="2">
-        <v>43255</v>
+        <v>43258</v>
       </c>
       <c r="B43">
-        <v>1.021774502297091</v>
+        <v>1.013562817258883</v>
       </c>
       <c r="C43">
-        <v>1.063903047391822</v>
+        <v>1.06016087801742</v>
       </c>
       <c r="D43">
-        <v>0.9779157855288165</v>
+        <v>0.991731517509728</v>
       </c>
       <c r="E43">
-        <v>0.9854263143557617</v>
+        <v>1.016806526261658</v>
       </c>
       <c r="F43">
-        <v>0.628526148969889</v>
+        <v>0.7059475434059842</v>
       </c>
       <c r="G43">
-        <v>1.076923076923076</v>
+        <v>1.053956834532374</v>
       </c>
       <c r="H43">
-        <v>0.8544839255499161</v>
+        <v>0.8674630261660986</v>
       </c>
       <c r="I43">
-        <v>1.080128812275052</v>
+        <v>1.057307800619544</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="2">
-        <v>43256</v>
+        <v>43259</v>
       </c>
       <c r="B44">
-        <v>1.020147396630934</v>
+        <v>1.015164974619289</v>
       </c>
       <c r="C44">
-        <v>1.064650564704788</v>
+        <v>1.063474873333436</v>
       </c>
       <c r="D44">
-        <v>0.9797895976657655</v>
+        <v>0.9850032425421534</v>
       </c>
       <c r="E44">
-        <v>0.9865613366021978</v>
+        <v>1.017040274888385</v>
       </c>
       <c r="F44">
-        <v>0.6114104595879556</v>
+        <v>0.7144440339859621</v>
       </c>
       <c r="G44">
-        <v>1.069597069597069</v>
+        <v>1.053956834532374</v>
       </c>
       <c r="H44">
-        <v>0.8612521150592224</v>
+        <v>0.8594994311717868</v>
       </c>
       <c r="I44">
-        <v>1.081502178442887</v>
+        <v>1.059560687130386</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="2">
-        <v>43257</v>
+        <v>43262</v>
       </c>
       <c r="B45">
-        <v>1.017323889739663</v>
+        <v>1.01491116751269</v>
       </c>
       <c r="C45">
-        <v>1.07377182518165</v>
+        <v>1.064611428309021</v>
       </c>
       <c r="D45">
-        <v>0.9797895976657655</v>
+        <v>0.9863272805879814</v>
       </c>
       <c r="E45">
-        <v>0.9883773721964954</v>
+        <v>1.017507772141839</v>
       </c>
       <c r="F45">
-        <v>0.5892234548335974</v>
+        <v>0.7166605097894346</v>
       </c>
       <c r="G45">
-        <v>1.087912087912088</v>
+        <v>1.064748201438849</v>
       </c>
       <c r="H45">
-        <v>0.8612521150592224</v>
+        <v>0.8566552901023898</v>
       </c>
       <c r="I45">
-        <v>1.068573593483614</v>
+        <v>1.052332676241434</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="2">
-        <v>43258</v>
+        <v>43263</v>
       </c>
       <c r="B46">
-        <v>1.019254083716182</v>
+        <v>1.016164340101523</v>
       </c>
       <c r="C46">
-        <v>1.073004942135188</v>
+        <v>1.066467418757367</v>
       </c>
       <c r="D46">
-        <v>0.9824664721471211</v>
+        <v>0.9958117163856468</v>
       </c>
       <c r="E46">
-        <v>0.9874693543993465</v>
+        <v>1.017274023515112</v>
       </c>
       <c r="F46">
-        <v>0.6057052297939777</v>
+        <v>0.676394532693018</v>
       </c>
       <c r="G46">
-        <v>1.073260073260073</v>
+        <v>1.064748201438849</v>
       </c>
       <c r="H46">
-        <v>0.860124083474338</v>
+        <v>0.8657565415244604</v>
       </c>
       <c r="I46">
-        <v>1.066821367683274</v>
+        <v>1.035858443630902</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="2">
-        <v>43259</v>
+        <v>43264</v>
       </c>
       <c r="B47">
-        <v>1.020865237366003</v>
+        <v>1.013467639593909</v>
       </c>
       <c r="C47">
-        <v>1.076359087176785</v>
+        <v>1.062173766627379</v>
       </c>
       <c r="D47">
-        <v>0.9758010546885458</v>
+        <v>0.9897049286640731</v>
       </c>
       <c r="E47">
-        <v>0.9876963588486337</v>
+        <v>1.017040274888385</v>
       </c>
       <c r="F47">
-        <v>0.6129952456418383</v>
+        <v>0.6919098633173254</v>
       </c>
       <c r="G47">
-        <v>1.073260073260073</v>
+        <v>1.071942446043166</v>
       </c>
       <c r="H47">
-        <v>0.8522278623801474</v>
+        <v>0.858361774744028</v>
       </c>
       <c r="I47">
-        <v>1.06909452547831</v>
+        <v>1.054397822209706</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="2">
-        <v>43262</v>
+        <v>43265</v>
       </c>
       <c r="B48">
-        <v>1.020610005104645</v>
+        <v>1.017988578680203</v>
       </c>
       <c r="C48">
-        <v>1.077509411746479</v>
+        <v>1.064798940746071</v>
       </c>
       <c r="D48">
-        <v>0.97711272318441</v>
+        <v>0.9788964548205799</v>
       </c>
       <c r="E48">
-        <v>0.988150367747208</v>
+        <v>1.017040274888385</v>
       </c>
       <c r="F48">
-        <v>0.6148969889064976</v>
+        <v>0.6756557074251939</v>
       </c>
       <c r="G48">
-        <v>1.084249084249084</v>
+        <v>1.057553956834533</v>
       </c>
       <c r="H48">
-        <v>0.8494077834179365</v>
+        <v>0.8555176336746309</v>
       </c>
       <c r="I48">
-        <v>1.061801477552567</v>
+        <v>1.094386557777151</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="2">
-        <v>43263</v>
+        <v>43266</v>
       </c>
       <c r="B49">
-        <v>1.0218702143951</v>
+        <v>1.021034263959391</v>
       </c>
       <c r="C49">
-        <v>1.079387887895642</v>
+        <v>1.0637159607525</v>
       </c>
       <c r="D49">
-        <v>0.9865085526139681</v>
+        <v>0.9735192390834418</v>
       </c>
       <c r="E49">
-        <v>0.987923363297921</v>
+        <v>1.017274023515112</v>
       </c>
       <c r="F49">
-        <v>0.5803486529318541</v>
+        <v>0.6926486885851496</v>
       </c>
       <c r="G49">
-        <v>1.084249084249084</v>
+        <v>1.053956834532374</v>
       </c>
       <c r="H49">
-        <v>0.8584320360970116</v>
+        <v>0.8492605233219573</v>
       </c>
       <c r="I49">
-        <v>1.045179011176359</v>
+        <v>1.103867455176945</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="2">
-        <v>43264</v>
+        <v>43270</v>
       </c>
       <c r="B50">
-        <v>1.019158371618172</v>
+        <v>1.027490482233502</v>
       </c>
       <c r="C50">
-        <v>1.075042217299022</v>
+        <v>1.057183639731208</v>
       </c>
       <c r="D50">
-        <v>0.9804588162861045</v>
+        <v>0.9620352356247301</v>
       </c>
       <c r="E50">
-        <v>0.9876963588486336</v>
+        <v>1.015871531754751</v>
       </c>
       <c r="F50">
-        <v>0.593660855784469</v>
+        <v>0.7735500554118951</v>
       </c>
       <c r="G50">
-        <v>1.091575091575091</v>
+        <v>1.039568345323741</v>
       </c>
       <c r="H50">
-        <v>0.8510998307952631</v>
+        <v>0.816837315130831</v>
       </c>
       <c r="I50">
-        <v>1.063885205531351</v>
+        <v>1.134844644701023</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="2">
-        <v>43265</v>
+        <v>43271</v>
       </c>
       <c r="B51">
-        <v>1.023704696273609</v>
+        <v>1.028109137055838</v>
       </c>
       <c r="C51">
-        <v>1.077699195934745</v>
+        <v>1.058993708766399</v>
       </c>
       <c r="D51">
-        <v>0.9697513183606823</v>
+        <v>0.9742217898832689</v>
       </c>
       <c r="E51">
-        <v>0.9876963588486336</v>
+        <v>1.013066548234029</v>
       </c>
       <c r="F51">
-        <v>0.5797147385103011</v>
+        <v>0.7739194680458072</v>
       </c>
       <c r="G51">
-        <v>1.076923076923077</v>
+        <v>1.053956834532374</v>
       </c>
       <c r="H51">
-        <v>0.8482797518330522</v>
+        <v>0.8191126279863487</v>
       </c>
       <c r="I51">
-        <v>1.104233756393256</v>
+        <v>1.118135736412278</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="2">
-        <v>43266</v>
+        <v>43272</v>
       </c>
       <c r="B52">
-        <v>1.026767483409903</v>
+        <v>1.031170685279188</v>
       </c>
       <c r="C52">
-        <v>1.076603095418842</v>
+        <v>1.052273875308057</v>
       </c>
       <c r="D52">
-        <v>0.9644243381427847</v>
+        <v>0.9660884133160402</v>
       </c>
       <c r="E52">
-        <v>0.9879233632979209</v>
+        <v>1.011897805100395</v>
       </c>
       <c r="F52">
-        <v>0.5942947702060222</v>
+        <v>0.8348725526413006</v>
       </c>
       <c r="G52">
-        <v>1.073260073260073</v>
+        <v>1.043165467625899</v>
       </c>
       <c r="H52">
-        <v>0.8420755781161881</v>
+        <v>0.807167235494881</v>
       </c>
       <c r="I52">
-        <v>1.113799962114037</v>
+        <v>1.139256547451422</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="2">
-        <v>43270</v>
+        <v>43273</v>
       </c>
       <c r="B53">
-        <v>1.033259954058193</v>
+        <v>1.032725253807107</v>
       </c>
       <c r="C53">
-        <v>1.069991634003129</v>
+        <v>1.054233188936002</v>
       </c>
       <c r="D53">
-        <v>0.9530476215970235</v>
+        <v>0.962062256809339</v>
       </c>
       <c r="E53">
-        <v>0.9865613366021976</v>
+        <v>1.006287838058951</v>
       </c>
       <c r="F53">
-        <v>0.6637083993660857</v>
+        <v>0.7753971185814557</v>
       </c>
       <c r="G53">
-        <v>1.058608058608058</v>
+        <v>1.043165467625899</v>
       </c>
       <c r="H53">
-        <v>0.8099266779469833</v>
+        <v>0.8122866894197958</v>
       </c>
       <c r="I53">
-        <v>1.145055881795795</v>
+        <v>1.139209612315779</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="2">
-        <v>43271</v>
+        <v>43276</v>
       </c>
       <c r="B54">
-        <v>1.033882082695253</v>
+        <v>1.037690355329949</v>
       </c>
       <c r="C54">
-        <v>1.0718236323919</v>
+        <v>1.039764117007762</v>
       </c>
       <c r="D54">
-        <v>0.9651203255079372</v>
+        <v>0.9674394725464769</v>
       </c>
       <c r="E54">
-        <v>0.983837283210751</v>
+        <v>0.9985741333769664</v>
       </c>
       <c r="F54">
-        <v>0.6640253565768622</v>
+        <v>0.886959734022904</v>
       </c>
       <c r="G54">
-        <v>1.073260073260073</v>
+        <v>1.032374100719425</v>
       </c>
       <c r="H54">
-        <v>0.8121827411167519</v>
+        <v>0.8037542662116047</v>
       </c>
       <c r="I54">
-        <v>1.128196628149271</v>
+        <v>1.138177039331643</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="2">
-        <v>43272</v>
+        <v>43277</v>
       </c>
       <c r="B55">
-        <v>1.036960821847881</v>
+        <v>1.044130710659899</v>
       </c>
       <c r="C55">
-        <v>1.065022386787922</v>
+        <v>1.04205636088108</v>
       </c>
       <c r="D55">
-        <v>0.957062933319057</v>
+        <v>0.9674664937310857</v>
       </c>
       <c r="E55">
-        <v>0.982702260964315</v>
+        <v>0.9960028984829714</v>
       </c>
       <c r="F55">
-        <v>0.7163232963549924</v>
+        <v>0.8356113779091248</v>
       </c>
       <c r="G55">
-        <v>1.062271062271062</v>
+        <v>1.035971223021583</v>
       </c>
       <c r="H55">
-        <v>0.8003384094754659</v>
+        <v>0.7997724687144488</v>
       </c>
       <c r="I55">
-        <v>1.149507482477742</v>
+        <v>1.150990331362057</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="2">
-        <v>43273</v>
+        <v>43278</v>
       </c>
       <c r="B56">
-        <v>1.038524119448698</v>
+        <v>1.049762055837564</v>
       </c>
       <c r="C56">
-        <v>1.067005437897966</v>
+        <v>1.033090204962575</v>
       </c>
       <c r="D56">
-        <v>0.9530743903418373</v>
+        <v>0.9600356679636841</v>
       </c>
       <c r="E56">
-        <v>0.977254154181422</v>
+        <v>0.9915616745751619</v>
       </c>
       <c r="F56">
-        <v>0.6652931854199685</v>
+        <v>0.9652752124122648</v>
       </c>
       <c r="G56">
-        <v>1.062271062271062</v>
+        <v>1.017985611510792</v>
       </c>
       <c r="H56">
-        <v>0.8054145516074456</v>
+        <v>0.7912400455062577</v>
       </c>
       <c r="I56">
-        <v>1.149460125023678</v>
+        <v>1.17079695860321</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="2">
-        <v>43276</v>
+        <v>43279</v>
       </c>
       <c r="B57">
-        <v>1.043517100561511</v>
+        <v>1.052633248730964</v>
       </c>
       <c r="C57">
-        <v>1.052361070227896</v>
+        <v>1.039473281391114</v>
       </c>
       <c r="D57">
-        <v>0.9584013705597348</v>
+        <v>0.9539559014267192</v>
       </c>
       <c r="E57">
-        <v>0.9697630073549444</v>
+        <v>0.979874243238821</v>
       </c>
       <c r="F57">
-        <v>0.7610142630744853</v>
+        <v>0.9371998522349467</v>
       </c>
       <c r="G57">
-        <v>1.051282051282051</v>
+        <v>1.02158273381295</v>
       </c>
       <c r="H57">
-        <v>0.7969543147208129</v>
+        <v>0.7832764505119459</v>
       </c>
       <c r="I57">
-        <v>1.148418261034287</v>
+        <v>1.16859100722801</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="2">
-        <v>43277</v>
+        <v>43280</v>
       </c>
       <c r="B58">
-        <v>1.049993619193466</v>
+        <v>1.052569796954315</v>
       </c>
       <c r="C58">
-        <v>1.054681085100779</v>
+        <v>1.040261598983607</v>
       </c>
       <c r="D58">
-        <v>0.9584281393045485</v>
+        <v>0.9391482922611333</v>
       </c>
       <c r="E58">
-        <v>0.9672659584127851</v>
+        <v>0.9712255440499288</v>
       </c>
       <c r="F58">
-        <v>0.7169572107765454</v>
+        <v>0.8891762098263764</v>
       </c>
       <c r="G58">
-        <v>1.054945054945055</v>
+        <v>1.025179856115108</v>
       </c>
       <c r="H58">
-        <v>0.7930062041737175</v>
+        <v>0.8003412969283282</v>
       </c>
       <c r="I58">
-        <v>1.161346845993559</v>
+        <v>1.201492537313432</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="2">
-        <v>43278</v>
+        <v>43283</v>
       </c>
       <c r="B59">
-        <v>1.055656584992343</v>
+        <v>1.060517131979696</v>
       </c>
       <c r="C59">
-        <v>1.045606302384309</v>
+        <v>1.043453137197876</v>
       </c>
       <c r="D59">
-        <v>0.9510667344808207</v>
+        <v>0.9367704280155648</v>
       </c>
       <c r="E59">
-        <v>0.9629528738763281</v>
+        <v>0.959304364086861</v>
       </c>
       <c r="F59">
-        <v>0.8282091917591128</v>
+        <v>0.984854082009605</v>
       </c>
       <c r="G59">
-        <v>1.036630036630036</v>
+        <v>1.032374100719425</v>
       </c>
       <c r="H59">
-        <v>0.7845459672870846</v>
+        <v>0.7804323094425489</v>
       </c>
       <c r="I59">
-        <v>1.181331691608259</v>
+        <v>1.192340185863137</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="2">
-        <v>43279</v>
+        <v>43284</v>
       </c>
       <c r="B60">
-        <v>1.058543899948954</v>
+        <v>1.057439720812183</v>
       </c>
       <c r="C60">
-        <v>1.052066711078749</v>
+        <v>1.038290805002374</v>
       </c>
       <c r="D60">
-        <v>0.9450437668977707</v>
+        <v>0.9445255079982711</v>
       </c>
       <c r="E60">
-        <v>0.9516026514119678</v>
+        <v>0.9336855145976019</v>
       </c>
       <c r="F60">
-        <v>0.8041204437400954</v>
+        <v>0.9730328777244184</v>
       </c>
       <c r="G60">
-        <v>1.04029304029304</v>
+        <v>1.017985611510792</v>
       </c>
       <c r="H60">
-        <v>0.776649746192894</v>
+        <v>0.7832764505119459</v>
       </c>
       <c r="I60">
-        <v>1.179105891267285</v>
+        <v>1.1765230451516</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="2">
-        <v>43280</v>
+        <v>43285</v>
       </c>
       <c r="B61">
-        <v>1.058480091883614</v>
+        <v>1.053791243654822</v>
       </c>
       <c r="C61">
-        <v>1.052864579298806</v>
+        <v>1.038290805002374</v>
       </c>
       <c r="D61">
-        <v>0.930374494739942</v>
+        <v>0.9486327280587984</v>
       </c>
       <c r="E61">
-        <v>0.9432034867883412</v>
+        <v>0.9160608681423997</v>
       </c>
       <c r="F61">
-        <v>0.7629160063391445</v>
+        <v>0.9730328777244184</v>
       </c>
       <c r="G61">
-        <v>1.043956043956044</v>
+        <v>1.017985611510792</v>
       </c>
       <c r="H61">
-        <v>0.7935702199661596</v>
+        <v>0.7758816837315137</v>
       </c>
       <c r="I61">
-        <v>1.212303466565637</v>
+        <v>1.168450201821083</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="2">
-        <v>43283</v>
+        <v>43286</v>
       </c>
       <c r="B62">
-        <v>1.066472052067382</v>
+        <v>1.056154822335026</v>
       </c>
       <c r="C62">
-        <v>1.056094783646025</v>
+        <v>1.04724165378316</v>
       </c>
       <c r="D62">
-        <v>0.9280188451963491</v>
+        <v>0.9458765672287076</v>
       </c>
       <c r="E62">
-        <v>0.9316262598746936</v>
+        <v>0.8924522568429911</v>
       </c>
       <c r="F62">
-        <v>0.8450079239302697</v>
+        <v>1.006280014776505</v>
       </c>
       <c r="G62">
-        <v>1.051282051282051</v>
+        <v>1.02158273381295</v>
       </c>
       <c r="H62">
-        <v>0.773829667230683</v>
+        <v>0.7690557451649607</v>
       </c>
       <c r="I62">
-        <v>1.2030687630233</v>
+        <v>1.158687693607434</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="2">
-        <v>43284</v>
+        <v>43287</v>
       </c>
       <c r="B63">
-        <v>1.063377360898418</v>
+        <v>1.056821065989848</v>
       </c>
       <c r="C63">
-        <v>1.050869908748664</v>
+        <v>1.056123620444214</v>
       </c>
       <c r="D63">
-        <v>0.9357014749578395</v>
+        <v>0.9527399481193258</v>
       </c>
       <c r="E63">
-        <v>0.9067465722328159</v>
+        <v>0.8742198639582993</v>
       </c>
       <c r="F63">
-        <v>0.8348652931854202</v>
+        <v>0.920576283708903</v>
       </c>
       <c r="G63">
-        <v>1.036630036630037</v>
+        <v>1.014388489208634</v>
       </c>
       <c r="H63">
-        <v>0.7766497461928938</v>
+        <v>0.7741751990898754</v>
       </c>
       <c r="I63">
-        <v>1.187109301003978</v>
+        <v>1.150427109734347</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="2">
-        <v>43285</v>
+        <v>43290</v>
       </c>
       <c r="B64">
-        <v>1.059708397141399</v>
+        <v>1.05052347715736</v>
       </c>
       <c r="C64">
-        <v>1.050869908748664</v>
+        <v>1.06544184053024</v>
       </c>
       <c r="D64">
-        <v>0.9397703241694999</v>
+        <v>0.9574146130566367</v>
       </c>
       <c r="E64">
-        <v>0.8896304367565605</v>
+        <v>0.8606624436081438</v>
       </c>
       <c r="F64">
-        <v>0.8348652931854202</v>
+        <v>0.8880679719246399</v>
       </c>
       <c r="G64">
-        <v>1.036630036630037</v>
+        <v>1.028776978417267</v>
       </c>
       <c r="H64">
-        <v>0.7693175408911455</v>
+        <v>0.7940841865756547</v>
       </c>
       <c r="I64">
-        <v>1.178963818905096</v>
+        <v>1.134187552802027</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="2">
-        <v>43286</v>
+        <v>43291</v>
       </c>
       <c r="B65">
-        <v>1.062085247575294</v>
+        <v>1.054806472081218</v>
       </c>
       <c r="C65">
-        <v>1.059929198878337</v>
+        <v>1.069142341073644</v>
       </c>
       <c r="D65">
-        <v>0.9370399121985172</v>
+        <v>0.9573875918720278</v>
       </c>
       <c r="E65">
-        <v>0.8667029873785527</v>
+        <v>0.8529487389261589</v>
       </c>
       <c r="F65">
-        <v>0.8633914421553092</v>
+        <v>0.8359807905430366</v>
       </c>
       <c r="G65">
-        <v>1.04029304029304</v>
+        <v>1.032374100719425</v>
       </c>
       <c r="H65">
-        <v>0.7625493513818391</v>
+        <v>0.7974971558589311</v>
       </c>
       <c r="I65">
-        <v>1.169113468459935</v>
+        <v>1.11208110391439</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="2">
-        <v>43287</v>
+        <v>43292</v>
       </c>
       <c r="B66">
-        <v>1.062755232261358</v>
+        <v>1.066545050761422</v>
       </c>
       <c r="C66">
-        <v>1.068918772367422</v>
+        <v>1.061557654334217</v>
       </c>
       <c r="D66">
-        <v>0.9438391733811603</v>
+        <v>0.9486327280587982</v>
       </c>
       <c r="E66">
-        <v>0.8489966403341506</v>
+        <v>0.8489750122718031</v>
       </c>
       <c r="F66">
-        <v>0.7898573692551508</v>
+        <v>0.8954562246028814</v>
       </c>
       <c r="G66">
-        <v>1.032967032967033</v>
+        <v>1.025179856115109</v>
       </c>
       <c r="H66">
-        <v>0.7676254935138188</v>
+        <v>0.7832764505119459</v>
       </c>
       <c r="I66">
-        <v>1.1607785565448</v>
+        <v>1.11799493100535</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="2">
-        <v>43290</v>
+        <v>43293</v>
       </c>
       <c r="B67">
-        <v>1.056422281776417</v>
+        <v>1.061690989847716</v>
       </c>
       <c r="C67">
-        <v>1.078349884580228</v>
+        <v>1.070845260144807</v>
       </c>
       <c r="D67">
-        <v>0.9484701662339055</v>
+        <v>0.9500108084738434</v>
       </c>
       <c r="E67">
-        <v>0.8358303822754926</v>
+        <v>0.8475725205114422</v>
       </c>
       <c r="F67">
-        <v>0.7619651347068148</v>
+        <v>0.8345031400073883</v>
       </c>
       <c r="G67">
-        <v>1.047619047619048</v>
+        <v>1.025179856115109</v>
       </c>
       <c r="H67">
-        <v>0.7873660462492954</v>
+        <v>0.8003412969283282</v>
       </c>
       <c r="I67">
-        <v>1.144392877438909</v>
+        <v>1.101708438937388</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="2">
-        <v>43291</v>
+        <v>43294</v>
       </c>
       <c r="B68">
-        <v>1.06072932618683</v>
+        <v>1.064689086294416</v>
       </c>
       <c r="C68">
-        <v>1.082095217438456</v>
+        <v>1.07200094904254</v>
       </c>
       <c r="D68">
-        <v>0.9484433974890918</v>
+        <v>0.9419044530912234</v>
       </c>
       <c r="E68">
-        <v>0.8283392354490148</v>
+        <v>0.8445337883639935</v>
       </c>
       <c r="F68">
-        <v>0.7172741679873219</v>
+        <v>0.8053195419283341</v>
       </c>
       <c r="G68">
-        <v>1.051282051282051</v>
+        <v>1.017985611510792</v>
       </c>
       <c r="H68">
-        <v>0.7907501410039485</v>
+        <v>0.79863481228669</v>
       </c>
       <c r="I68">
-        <v>1.122087516575109</v>
+        <v>1.114521730967802</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="2">
-        <v>43292</v>
+        <v>43297</v>
       </c>
       <c r="B69">
-        <v>1.07253381827463</v>
+        <v>1.063261421319797</v>
       </c>
       <c r="C69">
-        <v>1.074418640680434</v>
+        <v>1.070898835126821</v>
       </c>
       <c r="D69">
-        <v>0.9397703241694997</v>
+        <v>0.9405533938607867</v>
       </c>
       <c r="E69">
-        <v>0.8244801598111323</v>
+        <v>0.8433650452303594</v>
       </c>
       <c r="F69">
-        <v>0.7683042789223457</v>
+        <v>0.8223125230882898</v>
       </c>
       <c r="G69">
-        <v>1.043956043956044</v>
+        <v>1.025179856115109</v>
       </c>
       <c r="H69">
-        <v>0.7766497461928937</v>
+        <v>0.7940841865756548</v>
       </c>
       <c r="I69">
-        <v>1.128054555787081</v>
+        <v>1.094198817234581</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="2">
-        <v>43293</v>
+        <v>43298</v>
       </c>
       <c r="B70">
-        <v>1.067652501276162</v>
+        <v>1.066418147208122</v>
       </c>
       <c r="C70">
-        <v>1.083818767719646</v>
+        <v>1.075154219412513</v>
       </c>
       <c r="D70">
-        <v>0.941135530154991</v>
+        <v>0.9405533938607867</v>
       </c>
       <c r="E70">
-        <v>0.823118133115409</v>
+        <v>0.8417288048432716</v>
       </c>
       <c r="F70">
-        <v>0.7160063391442157</v>
+        <v>0.7875877355005543</v>
       </c>
       <c r="G70">
-        <v>1.043956043956044</v>
+        <v>1.028776978417267</v>
       </c>
       <c r="H70">
-        <v>0.7935702199661594</v>
+        <v>0.7895335608646196</v>
       </c>
       <c r="I70">
-        <v>1.111621519227126</v>
+        <v>1.103585844363089</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="2">
-        <v>43294</v>
+        <v>43299</v>
       </c>
       <c r="B71">
-        <v>1.070667432363452</v>
+        <v>1.07017766497462</v>
       </c>
       <c r="C71">
-        <v>1.084988458022836</v>
+        <v>1.077477077561268</v>
       </c>
       <c r="D71">
-        <v>0.9331049067109242</v>
+        <v>0.9378512753999134</v>
       </c>
       <c r="E71">
-        <v>0.8201670752746754</v>
+        <v>0.8386900726958231</v>
       </c>
       <c r="F71">
-        <v>0.6909667194928687</v>
+        <v>0.8119689693387516</v>
       </c>
       <c r="G71">
-        <v>1.036630036630037</v>
+        <v>1.035971223021584</v>
       </c>
       <c r="H71">
-        <v>0.7918781725888328</v>
+        <v>0.7872582480091019</v>
       </c>
       <c r="I71">
-        <v>1.124550104186399</v>
+        <v>1.107716136299633</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="2">
-        <v>43297</v>
+        <v>43300</v>
       </c>
       <c r="B72">
-        <v>1.069231750893314</v>
+        <v>1.077204949238579</v>
       </c>
       <c r="C72">
-        <v>1.083872991773436</v>
+        <v>1.073217866491146</v>
       </c>
       <c r="D72">
-        <v>0.9317664694702464</v>
+        <v>0.9297719412019022</v>
       </c>
       <c r="E72">
-        <v>0.8190320530282393</v>
+        <v>0.8323788597741989</v>
       </c>
       <c r="F72">
-        <v>0.7055467511885898</v>
+        <v>0.837089028444773</v>
       </c>
       <c r="G72">
-        <v>1.043956043956044</v>
+        <v>1.02158273381295</v>
       </c>
       <c r="H72">
-        <v>0.7873660462492953</v>
+        <v>0.7827076222980667</v>
       </c>
       <c r="I72">
-        <v>1.104044326577003</v>
+        <v>1.106636628179855</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="2">
-        <v>43298</v>
+        <v>43301</v>
       </c>
       <c r="B73">
-        <v>1.072406202143952</v>
+        <v>1.075237944162437</v>
       </c>
       <c r="C73">
-        <v>1.088179930903063</v>
+        <v>1.072199941832878</v>
       </c>
       <c r="D73">
-        <v>0.9317664694702464</v>
+        <v>0.9493893212278426</v>
       </c>
       <c r="E73">
-        <v>0.8174430218832289</v>
+        <v>0.8265351441060285</v>
       </c>
       <c r="F73">
-        <v>0.6757527733755945</v>
+        <v>0.8345031400073883</v>
       </c>
       <c r="G73">
-        <v>1.047619047619048</v>
+        <v>1.039568345323742</v>
       </c>
       <c r="H73">
-        <v>0.7828539199097578</v>
+        <v>0.7992036405005696</v>
       </c>
       <c r="I73">
-        <v>1.113515817389657</v>
+        <v>1.069088519665821</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="2">
-        <v>43299</v>
+        <v>43304</v>
       </c>
       <c r="B74">
-        <v>1.076186830015315</v>
+        <v>1.079568527918782</v>
       </c>
       <c r="C74">
-        <v>1.090530930949541</v>
+        <v>1.074170735814111</v>
       </c>
       <c r="D74">
-        <v>0.9290895949888909</v>
+        <v>0.9507674016428881</v>
       </c>
       <c r="E74">
-        <v>0.8144919640424952</v>
+        <v>0.8188214394240435</v>
       </c>
       <c r="F74">
-        <v>0.6966719492868465</v>
+        <v>0.8474325821943113</v>
       </c>
       <c r="G74">
-        <v>1.054945054945055</v>
+        <v>1.06474820143885</v>
       </c>
       <c r="H74">
-        <v>0.780597856739989</v>
+        <v>0.8077360637087606</v>
       </c>
       <c r="I74">
-        <v>1.117683273347224</v>
+        <v>1.066037735849056</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="2">
-        <v>43300</v>
+        <v>43305</v>
       </c>
       <c r="B75">
-        <v>1.08325357325166</v>
+        <v>1.080425126903554</v>
       </c>
       <c r="C75">
-        <v>1.086220118673215</v>
+        <v>1.079306280518607</v>
       </c>
       <c r="D75">
-        <v>0.9210857402896377</v>
+        <v>0.9623594898400346</v>
       </c>
       <c r="E75">
-        <v>0.8083628439117406</v>
+        <v>0.8122764778756926</v>
       </c>
       <c r="F75">
-        <v>0.7182250396196516</v>
+        <v>0.8511267085334321</v>
       </c>
       <c r="G75">
-        <v>1.04029304029304</v>
+        <v>1.061151079136691</v>
       </c>
       <c r="H75">
-        <v>0.7760857304004515</v>
+        <v>0.8208191126279871</v>
       </c>
       <c r="I75">
-        <v>1.116594051903769</v>
+        <v>1.048296254576175</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="2">
-        <v>43301</v>
+        <v>43306</v>
       </c>
       <c r="B76">
-        <v>1.081275523226137</v>
+        <v>1.071779822335026</v>
       </c>
       <c r="C76">
-        <v>1.0851898616512</v>
+        <v>1.089129636149337</v>
       </c>
       <c r="D76">
-        <v>0.9405198490242792</v>
+        <v>0.9623324686554258</v>
       </c>
       <c r="E76">
-        <v>0.8026877326795605</v>
+        <v>0.7991865547789907</v>
       </c>
       <c r="F76">
-        <v>0.7160063391442157</v>
+        <v>0.8127077946065758</v>
       </c>
       <c r="G76">
-        <v>1.058608058608059</v>
+        <v>1.057553956834533</v>
       </c>
       <c r="H76">
-        <v>0.792442188381275</v>
+        <v>0.8208191126279871</v>
       </c>
       <c r="I76">
-        <v>1.078708088653153</v>
+        <v>1.050736881629587</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="2">
-        <v>43304</v>
+        <v>43307</v>
       </c>
       <c r="B77">
-        <v>1.085630423685555</v>
+        <v>1.082741116751269</v>
       </c>
       <c r="C77">
-        <v>1.087184532201342</v>
+        <v>1.08582712118661</v>
       </c>
       <c r="D77">
-        <v>0.9418850550097707</v>
+        <v>0.9554961089494163</v>
       </c>
       <c r="E77">
-        <v>0.7951965858530827</v>
+        <v>0.7860966316822888</v>
       </c>
       <c r="F77">
-        <v>0.727099841521395</v>
+        <v>0.818248984115257</v>
       </c>
       <c r="G77">
-        <v>1.084249084249084</v>
+        <v>1.071942446043166</v>
       </c>
       <c r="H77">
-        <v>0.8009024252679077</v>
+        <v>0.8145620022753136</v>
       </c>
       <c r="I77">
-        <v>1.075629854139041</v>
+        <v>1.057917957382896</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="2">
-        <v>43305</v>
+        <v>43308</v>
       </c>
       <c r="B78">
-        <v>1.086491832567638</v>
+        <v>1.08248730964467</v>
       </c>
       <c r="C78">
-        <v>1.092382295071808</v>
+        <v>1.078701648578733</v>
       </c>
       <c r="D78">
-        <v>0.953368846534786</v>
+        <v>0.951469952442715</v>
       </c>
       <c r="E78">
-        <v>0.788840461273041</v>
+        <v>0.7720717140786798</v>
       </c>
       <c r="F78">
-        <v>0.7302694136291604</v>
+        <v>0.8108607314370154</v>
       </c>
       <c r="G78">
-        <v>1.080586080586081</v>
+        <v>1.06474820143885</v>
       </c>
       <c r="H78">
-        <v>0.8138747884940781</v>
+        <v>0.812286689419796</v>
       </c>
       <c r="I78">
-        <v>1.057728736503125</v>
+        <v>1.060217779029381</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="2">
-        <v>43306</v>
+        <v>43311</v>
       </c>
       <c r="B79">
-        <v>1.077797983665136</v>
+        <v>1.083661167512691</v>
       </c>
       <c r="C79">
-        <v>1.102324662648923</v>
+        <v>1.072494604233955</v>
       </c>
       <c r="D79">
-        <v>0.9533420777899724</v>
+        <v>0.9514969736273239</v>
       </c>
       <c r="E79">
-        <v>0.7761282121129573</v>
+        <v>0.7557093102078026</v>
       </c>
       <c r="F79">
-        <v>0.6973058637083998</v>
+        <v>0.8234207609900261</v>
       </c>
       <c r="G79">
-        <v>1.076923076923077</v>
+        <v>1.071942446043166</v>
       </c>
       <c r="H79">
-        <v>0.8138747884940781</v>
+        <v>0.8111490329920372</v>
       </c>
       <c r="I79">
-        <v>1.060191324114415</v>
+        <v>1.062517600675865</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="2">
-        <v>43307</v>
+        <v>43312</v>
       </c>
       <c r="B80">
-        <v>1.088820826952528</v>
+        <v>1.079520939086295</v>
       </c>
       <c r="C80">
-        <v>1.098982137047423</v>
+        <v>1.077733472118049</v>
       </c>
       <c r="D80">
-        <v>0.9465695853521428</v>
+        <v>0.9406614785992218</v>
       </c>
       <c r="E80">
-        <v>0.7634159629528737</v>
+        <v>0.7419181412309204</v>
       </c>
       <c r="F80">
-        <v>0.7020602218700479</v>
+        <v>0.7923900997414115</v>
       </c>
       <c r="G80">
-        <v>1.091575091575092</v>
+        <v>1.06474820143885</v>
       </c>
       <c r="H80">
-        <v>0.807670614777214</v>
+        <v>0.8134243458475549</v>
       </c>
       <c r="I80">
-        <v>1.067437014586095</v>
+        <v>1.060358584436308</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="2">
-        <v>43308</v>
+        <v>43313</v>
       </c>
       <c r="B81">
-        <v>1.08856559469117</v>
+        <v>1.082836294416244</v>
       </c>
       <c r="C81">
-        <v>1.091770337893318</v>
+        <v>1.076612224280183</v>
       </c>
       <c r="D81">
-        <v>0.942581042374923</v>
+        <v>0.9359597924773022</v>
       </c>
       <c r="E81">
-        <v>0.7497956959956413</v>
+        <v>0.7290619667609455</v>
       </c>
       <c r="F81">
-        <v>0.695721077654517</v>
+        <v>0.8023642408570376</v>
       </c>
       <c r="G81">
-        <v>1.084249084249084</v>
+        <v>1.079136690647483</v>
       </c>
       <c r="H81">
-        <v>0.8054145516074452</v>
+        <v>0.7986348122866901</v>
       </c>
       <c r="I81">
-        <v>1.069757529835196</v>
+        <v>1.067445789918332</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="2">
-        <v>43311</v>
+        <v>43314</v>
       </c>
       <c r="B82">
-        <v>1.08974604389995</v>
+        <v>1.091782994923858</v>
       </c>
       <c r="C82">
-        <v>1.085488093947047</v>
+        <v>1.08191614749958</v>
       </c>
       <c r="D82">
-        <v>0.9426078111197367</v>
+        <v>0.9379863813229571</v>
       </c>
       <c r="E82">
-        <v>0.733905384545537</v>
+        <v>0.7143358032771558</v>
       </c>
       <c r="F82">
-        <v>0.7064976228209195</v>
+        <v>0.854820834872553</v>
       </c>
       <c r="G82">
-        <v>1.091575091575092</v>
+        <v>1.071942446043167</v>
       </c>
       <c r="H82">
-        <v>0.8042865200225608</v>
+        <v>0.7821387940841873</v>
       </c>
       <c r="I82">
-        <v>1.072078045084296</v>
+        <v>1.034638130104195</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="2">
-        <v>43312</v>
+        <v>43315</v>
       </c>
       <c r="B83">
-        <v>1.08558256763655</v>
+        <v>1.086215101522843</v>
       </c>
       <c r="C83">
-        <v>1.090790431778394</v>
+        <v>1.086940715455618</v>
       </c>
       <c r="D83">
-        <v>0.9318735444495008</v>
+        <v>0.934041288370082</v>
       </c>
       <c r="E83">
-        <v>0.7205121220375919</v>
+        <v>0.7019471260606345</v>
       </c>
       <c r="F83">
-        <v>0.6798732171156897</v>
+        <v>0.8119689693387517</v>
       </c>
       <c r="G83">
-        <v>1.084249084249084</v>
+        <v>1.061151079136692</v>
       </c>
       <c r="H83">
-        <v>0.8065425831923296</v>
+        <v>0.7747440273037549</v>
       </c>
       <c r="I83">
-        <v>1.069899602197386</v>
+        <v>1.037641978785318</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="2">
-        <v>43313</v>
+        <v>43318</v>
       </c>
       <c r="B84">
-        <v>1.088916539050537</v>
+        <v>1.089102157360406</v>
       </c>
       <c r="C84">
-        <v>1.089655599795498</v>
+        <v>1.090786633807345</v>
       </c>
       <c r="D84">
-        <v>0.9272157828519422</v>
+        <v>0.9340683095546908</v>
       </c>
       <c r="E84">
-        <v>0.7080268773267956</v>
+        <v>0.6904934433510204</v>
       </c>
       <c r="F84">
-        <v>0.6884310618066565</v>
+        <v>0.8248984115256744</v>
       </c>
       <c r="G84">
-        <v>1.098901098901099</v>
+        <v>1.057553956834534</v>
       </c>
       <c r="H84">
-        <v>0.7918781725888326</v>
+        <v>0.7645051194539255</v>
       </c>
       <c r="I84">
-        <v>1.077050577760939</v>
+        <v>1.011733783910635</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="2">
-        <v>43314</v>
+        <v>43319</v>
       </c>
       <c r="B85">
-        <v>1.097913476263401</v>
+        <v>1.082106598984772</v>
       </c>
       <c r="C85">
-        <v>1.095023781120734</v>
+        <v>1.093867195273157</v>
       </c>
       <c r="D85">
-        <v>0.9292234387129588</v>
+        <v>0.9423908344141807</v>
       </c>
       <c r="E85">
-        <v>0.6937255970217016</v>
+        <v>0.6767022743741381</v>
       </c>
       <c r="F85">
-        <v>0.7334389857369259</v>
+        <v>0.7898042113040269</v>
       </c>
       <c r="G85">
-        <v>1.091575091575092</v>
+        <v>1.071942446043167</v>
       </c>
       <c r="H85">
-        <v>0.7755217146080092</v>
+        <v>0.7861205915813431</v>
       </c>
       <c r="I85">
-        <v>1.043947717370714</v>
+        <v>1.001220313526705</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="2">
-        <v>43315</v>
+        <v>43320</v>
       </c>
       <c r="B86">
-        <v>1.092314318529863</v>
+        <v>1.082455583756345</v>
       </c>
       <c r="C86">
-        <v>1.10010922273692</v>
+        <v>1.093580186440938</v>
       </c>
       <c r="D86">
-        <v>0.9253152019701797</v>
+        <v>0.9517401642888025</v>
       </c>
       <c r="E86">
-        <v>0.6816943612094797</v>
+        <v>0.6643135971576167</v>
       </c>
       <c r="F86">
-        <v>0.6966719492868467</v>
+        <v>0.7742888806797197</v>
       </c>
       <c r="G86">
-        <v>1.080586080586081</v>
+        <v>1.06474820143885</v>
       </c>
       <c r="H86">
-        <v>0.7681895093062607</v>
+        <v>0.7764505119453931</v>
       </c>
       <c r="I86">
-        <v>1.046978594430763</v>
+        <v>0.992208767483337</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="2">
-        <v>43318</v>
+        <v>43321</v>
       </c>
       <c r="B87">
-        <v>1.095217585502809</v>
+        <v>1.085993020304569</v>
       </c>
       <c r="C87">
-        <v>1.104001735169722</v>
+        <v>1.092003551255951</v>
       </c>
       <c r="D87">
-        <v>0.9253419707149932</v>
+        <v>0.9586035451794207</v>
       </c>
       <c r="E87">
-        <v>0.6705711431944066</v>
+        <v>0.6582361328627194</v>
       </c>
       <c r="F87">
-        <v>0.7077654516640257</v>
+        <v>0.7572958995197641</v>
       </c>
       <c r="G87">
-        <v>1.076923076923077</v>
+        <v>1.053956834532376</v>
       </c>
       <c r="H87">
-        <v>0.7580372250423013</v>
+        <v>0.7906712172923782</v>
       </c>
       <c r="I87">
-        <v>1.020837279787838</v>
+        <v>0.9992021026940758</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="2">
-        <v>43319</v>
+        <v>43322</v>
       </c>
       <c r="B88">
-        <v>1.088182746299133</v>
+        <v>1.089593908629442</v>
       </c>
       <c r="C88">
-        <v>1.107119618262661</v>
+        <v>1.084235178863905</v>
       </c>
       <c r="D88">
-        <v>0.9335867441175685</v>
+        <v>0.9599275832252487</v>
       </c>
       <c r="E88">
-        <v>0.6571778806864614</v>
+        <v>0.6547299034618173</v>
       </c>
       <c r="F88">
-        <v>0.6776545166402539</v>
+        <v>0.8049501292944224</v>
       </c>
       <c r="G88">
-        <v>1.091575091575092</v>
+        <v>1.032374100719426</v>
       </c>
       <c r="H88">
-        <v>0.7794698251551044</v>
+        <v>0.7906712172923782</v>
       </c>
       <c r="I88">
-        <v>1.010229210077666</v>
+        <v>1.008448324415657</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="2">
-        <v>43320</v>
+        <v>43325</v>
       </c>
       <c r="B89">
-        <v>1.0885336906585</v>
+        <v>1.093829314720812</v>
       </c>
       <c r="C89">
-        <v>1.106829132260214</v>
+        <v>1.079891778536332</v>
       </c>
       <c r="D89">
-        <v>0.9428487298230589</v>
+        <v>0.9680609597924774</v>
       </c>
       <c r="E89">
-        <v>0.6451466448742396</v>
+        <v>0.652392417194549</v>
       </c>
       <c r="F89">
-        <v>0.6643423137876391</v>
+        <v>0.8411525674178063</v>
       </c>
       <c r="G89">
-        <v>1.084249084249085</v>
+        <v>1.035971223021584</v>
       </c>
       <c r="H89">
-        <v>0.7698815566835872</v>
+        <v>0.7878270762229811</v>
       </c>
       <c r="I89">
-        <v>1.001136578897518</v>
+        <v>1.003473200037547</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="2">
-        <v>43321</v>
+        <v>43326</v>
       </c>
       <c r="B90">
-        <v>1.092090990301175</v>
+        <v>1.094003807106599</v>
       </c>
       <c r="C90">
-        <v>1.1052333958201</v>
+        <v>1.086791470862864</v>
       </c>
       <c r="D90">
-        <v>0.9496479910057021</v>
+        <v>0.9597654561175963</v>
       </c>
       <c r="E90">
-        <v>0.6392445291927722</v>
+        <v>0.6542624062083636</v>
       </c>
       <c r="F90">
-        <v>0.649762282091918</v>
+        <v>0.8197266346509057</v>
       </c>
       <c r="G90">
-        <v>1.073260073260074</v>
+        <v>1.039568345323743</v>
       </c>
       <c r="H90">
-        <v>0.7839819514946418</v>
+        <v>0.7866894197952222</v>
       </c>
       <c r="I90">
-        <v>1.008192839552945</v>
+        <v>1.025438843518257</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="2">
-        <v>43322</v>
+        <v>43327</v>
       </c>
       <c r="B91">
-        <v>1.095712098009189</v>
+        <v>1.101951142131979</v>
       </c>
       <c r="C91">
-        <v>1.097370908020513</v>
+        <v>1.078529443279402</v>
       </c>
       <c r="D91">
-        <v>0.9509596595015664</v>
+        <v>0.9681420233463037</v>
       </c>
       <c r="E91">
-        <v>0.6358394624534641</v>
+        <v>0.6561323952221783</v>
       </c>
       <c r="F91">
-        <v>0.6906497622820924</v>
+        <v>0.9667528629479135</v>
       </c>
       <c r="G91">
-        <v>1.051282051282052</v>
+        <v>1.028776978417268</v>
       </c>
       <c r="H91">
-        <v>0.7839819514946418</v>
+        <v>0.7701934015927193</v>
       </c>
       <c r="I91">
-        <v>1.01752225800341</v>
+        <v>1.005538346005819</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="2">
-        <v>43325</v>
+        <v>43328</v>
       </c>
       <c r="B92">
-        <v>1.099971286370598</v>
+        <v>1.088435913705584</v>
       </c>
       <c r="C92">
-        <v>1.092974886516802</v>
+        <v>1.087070826126224</v>
       </c>
       <c r="D92">
-        <v>0.9590170516904466</v>
+        <v>0.9765726329442287</v>
       </c>
       <c r="E92">
-        <v>0.633569417960592</v>
+        <v>0.6575348869825391</v>
       </c>
       <c r="F92">
-        <v>0.7217115689381939</v>
+        <v>0.9021056520132995</v>
       </c>
       <c r="G92">
-        <v>1.054945054945055</v>
+        <v>1.032374100719426</v>
       </c>
       <c r="H92">
-        <v>0.7811618725324307</v>
+        <v>0.7650739476678047</v>
       </c>
       <c r="I92">
-        <v>1.012502367872703</v>
+        <v>1.006242373040457</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="2">
-        <v>43326</v>
+        <v>43329</v>
       </c>
       <c r="B93">
-        <v>1.100146758550282</v>
+        <v>1.084232233502538</v>
       </c>
       <c r="C93">
-        <v>1.099958170015648</v>
+        <v>1.090683310627747</v>
       </c>
       <c r="D93">
-        <v>0.950799047032685</v>
+        <v>0.9869217466493735</v>
       </c>
       <c r="E93">
-        <v>0.6353854535548896</v>
+        <v>0.6584698814894465</v>
       </c>
       <c r="F93">
-        <v>0.7033280507131543</v>
+        <v>0.9360916143332109</v>
       </c>
       <c r="G93">
-        <v>1.058608058608059</v>
+        <v>1.032374100719426</v>
       </c>
       <c r="H93">
-        <v>0.7800338409475464</v>
+        <v>0.7548350398179753</v>
       </c>
       <c r="I93">
-        <v>1.034665656374313</v>
+        <v>1.010560405519571</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="2">
-        <v>43327</v>
+        <v>43332</v>
       </c>
       <c r="B94">
-        <v>1.108138718734049</v>
+        <v>1.084279822335025</v>
       </c>
       <c r="C94">
-        <v>1.091596046291849</v>
+        <v>1.093331445453016</v>
       </c>
       <c r="D94">
-        <v>0.9590973579248874</v>
+        <v>0.9815715520968443</v>
       </c>
       <c r="E94">
-        <v>0.6372014891491873</v>
+        <v>0.6615086136368952</v>
       </c>
       <c r="F94">
-        <v>0.8294770206022194</v>
+        <v>0.8596231991134102</v>
       </c>
       <c r="G94">
-        <v>1.047619047619048</v>
+        <v>1.014388489208634</v>
       </c>
       <c r="H94">
-        <v>0.7636773829667228</v>
+        <v>0.7633674630261664</v>
       </c>
       <c r="I94">
-        <v>1.014586095851487</v>
+        <v>1.038392940955598</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="2">
-        <v>43328</v>
+        <v>43333</v>
       </c>
       <c r="B95">
-        <v>1.094547600816744</v>
+        <v>1.08320114213198</v>
       </c>
       <c r="C95">
-        <v>1.100240909724697</v>
+        <v>1.095593075050897</v>
       </c>
       <c r="D95">
-        <v>0.9674492063067169</v>
+        <v>0.9808690012970173</v>
       </c>
       <c r="E95">
-        <v>0.6385635158449106</v>
+        <v>0.6675860779317924</v>
       </c>
       <c r="F95">
-        <v>0.7740095087163239</v>
+        <v>0.789434798670115</v>
       </c>
       <c r="G95">
-        <v>1.051282051282052</v>
+        <v>1.025179856115109</v>
       </c>
       <c r="H95">
-        <v>0.7586012408347431</v>
+        <v>0.7730375426621163</v>
       </c>
       <c r="I95">
-        <v>1.015296457662435</v>
+        <v>1.049704308645451</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="2">
-        <v>43329</v>
+        <v>43334</v>
       </c>
       <c r="B96">
-        <v>1.090320316488005</v>
+        <v>1.08613578680203</v>
       </c>
       <c r="C96">
-        <v>1.10389716020884</v>
+        <v>1.095156821625925</v>
       </c>
       <c r="D96">
-        <v>0.9777016355703088</v>
+        <v>0.9747892347600522</v>
       </c>
       <c r="E96">
-        <v>0.6394715336420594</v>
+        <v>0.6727285477197825</v>
       </c>
       <c r="F96">
-        <v>0.8031695721077661</v>
+        <v>0.7861100849649063</v>
       </c>
       <c r="G96">
-        <v>1.051282051282052</v>
+        <v>1.014388489208634</v>
       </c>
       <c r="H96">
-        <v>0.7484489565707837</v>
+        <v>0.7684869169510811</v>
       </c>
       <c r="I96">
-        <v>1.019653343436256</v>
+        <v>1.083732281986294</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="2">
-        <v>43332</v>
+        <v>43335</v>
       </c>
       <c r="B97">
-        <v>1.09036817253701</v>
+        <v>1.093543781725888</v>
       </c>
       <c r="C97">
-        <v>1.106577377724759</v>
+        <v>1.093304657962008</v>
       </c>
       <c r="D97">
-        <v>0.9724014240972247</v>
+        <v>0.9754917855598793</v>
       </c>
       <c r="E97">
-        <v>0.6424225914827931</v>
+        <v>0.6748322853603238</v>
       </c>
       <c r="F97">
-        <v>0.7375594294770211</v>
+        <v>0.7905430365718512</v>
       </c>
       <c r="G97">
-        <v>1.032967032967034</v>
+        <v>1.014388489208634</v>
       </c>
       <c r="H97">
-        <v>0.7569091934574165</v>
+        <v>0.7713310580204782</v>
       </c>
       <c r="I97">
-        <v>1.047736313695775</v>
+        <v>1.103585844363089</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="2">
-        <v>43333</v>
+        <v>43336</v>
       </c>
       <c r="B98">
-        <v>1.089283435426239</v>
+        <v>1.079552664974619</v>
       </c>
       <c r="C98">
-        <v>1.108866407424048</v>
+        <v>1.100081893186794</v>
       </c>
       <c r="D98">
-        <v>0.9717054367320723</v>
+        <v>0.9802745352356249</v>
       </c>
       <c r="E98">
-        <v>0.6483247071642605</v>
+        <v>0.6752997826137773</v>
       </c>
       <c r="F98">
-        <v>0.6773375594294775</v>
+        <v>0.7702253417066869</v>
       </c>
       <c r="G98">
-        <v>1.043956043956045</v>
+        <v>1.014388489208634</v>
       </c>
       <c r="H98">
-        <v>0.7664974619289336</v>
+        <v>0.7724687144482369</v>
       </c>
       <c r="I98">
-        <v>1.059149460125023</v>
+        <v>1.094762038862291</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="2">
-        <v>43334</v>
+        <v>43339</v>
       </c>
       <c r="B99">
-        <v>1.092234558448189</v>
+        <v>1.077871192893401</v>
       </c>
       <c r="C99">
-        <v>1.108424868700327</v>
+        <v>1.108519952854016</v>
       </c>
       <c r="D99">
-        <v>0.9656824691490222</v>
+        <v>0.9809500648508434</v>
       </c>
       <c r="E99">
-        <v>0.6533188050485792</v>
+        <v>0.6767022743741383</v>
       </c>
       <c r="F99">
-        <v>0.6744849445324885</v>
+        <v>0.8263760620613231</v>
       </c>
       <c r="G99">
-        <v>1.032967032967034</v>
+        <v>1.025179856115109</v>
       </c>
       <c r="H99">
-        <v>0.7619853355893962</v>
+        <v>0.7872582480091015</v>
       </c>
       <c r="I99">
-        <v>1.093483614320894</v>
+        <v>1.09363559560687</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="2">
-        <v>43335</v>
+        <v>43340</v>
       </c>
       <c r="B100">
-        <v>1.099684150076571</v>
+        <v>1.079029187817259</v>
       </c>
       <c r="C100">
-        <v>1.106550265697864</v>
+        <v>1.108818442039524</v>
       </c>
       <c r="D100">
-        <v>0.9663784565141746</v>
+        <v>0.9754917855598793</v>
       </c>
       <c r="E100">
-        <v>0.655361845092164</v>
+        <v>0.6776372688810456</v>
       </c>
       <c r="F100">
-        <v>0.678288431061807</v>
+        <v>0.7838936091614338</v>
       </c>
       <c r="G100">
-        <v>1.032967032967034</v>
+        <v>1.035971223021584</v>
       </c>
       <c r="H100">
-        <v>0.7648054145516072</v>
+        <v>0.7866894197952221</v>
       </c>
       <c r="I100">
-        <v>1.113515817389657</v>
+        <v>1.107763071435276</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="2">
-        <v>43336</v>
+        <v>43341</v>
       </c>
       <c r="B101">
-        <v>1.08561447166922</v>
+        <v>1.08177347715736</v>
       </c>
       <c r="C101">
-        <v>1.113409608502332</v>
+        <v>1.115140289917189</v>
       </c>
       <c r="D101">
-        <v>0.9711165243461739</v>
+        <v>0.9754917855598793</v>
       </c>
       <c r="E101">
-        <v>0.6558158539907383</v>
+        <v>0.677169771627592</v>
       </c>
       <c r="F101">
-        <v>0.6608557844690971</v>
+        <v>0.7746582933136318</v>
       </c>
       <c r="G101">
-        <v>1.032967032967034</v>
+        <v>1.039568345323743</v>
       </c>
       <c r="H101">
-        <v>0.7659334461364916</v>
+        <v>0.7849829351535839</v>
       </c>
       <c r="I101">
-        <v>1.104612616025762</v>
+        <v>1.110156763353045</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="2">
-        <v>43339</v>
+        <v>43342</v>
       </c>
       <c r="B102">
-        <v>1.083923557937724</v>
+        <v>1.089355964467005</v>
       </c>
       <c r="C102">
-        <v>1.121949896974298</v>
+        <v>1.110199911218602</v>
       </c>
       <c r="D102">
-        <v>0.9717857429665129</v>
+        <v>0.9673854301772592</v>
       </c>
       <c r="E102">
-        <v>0.6571778806864617</v>
+        <v>0.6764685257474116</v>
       </c>
       <c r="F102">
-        <v>0.709033280507132</v>
+        <v>0.8825267824159592</v>
       </c>
       <c r="G102">
-        <v>1.043956043956045</v>
+        <v>1.028776978417268</v>
       </c>
       <c r="H102">
-        <v>0.7805978567399885</v>
+        <v>0.7764505119453927</v>
       </c>
       <c r="I102">
-        <v>1.103476037128243</v>
+        <v>1.114803341781657</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="2">
-        <v>43340</v>
+        <v>43343</v>
       </c>
       <c r="B103">
-        <v>1.085088055130169</v>
+        <v>1.085786802030457</v>
       </c>
       <c r="C103">
-        <v>1.122252002416843</v>
+        <v>1.110349155811355</v>
       </c>
       <c r="D103">
-        <v>0.9663784565141746</v>
+        <v>0.9660343709468225</v>
       </c>
       <c r="E103">
-        <v>0.6580858984836105</v>
+        <v>0.6764685257474116</v>
       </c>
       <c r="F103">
-        <v>0.6725832012678292</v>
+        <v>0.8466937569264874</v>
       </c>
       <c r="G103">
-        <v>1.054945054945056</v>
+        <v>1.028776978417268</v>
       </c>
       <c r="H103">
-        <v>0.7800338409475464</v>
+        <v>0.7730375426621163</v>
       </c>
       <c r="I103">
-        <v>1.117730630801287</v>
+        <v>1.110485309302543</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="2">
-        <v>43341</v>
+        <v>43346</v>
       </c>
       <c r="B104">
-        <v>1.087847753956101</v>
+        <v>1.084263959390863</v>
       </c>
       <c r="C104">
-        <v>1.128650440764094</v>
+        <v>1.110349155811355</v>
       </c>
       <c r="D104">
-        <v>0.9663784565141746</v>
+        <v>0.9714386078685692</v>
       </c>
       <c r="E104">
-        <v>0.657631889585036</v>
+        <v>0.6748322853603238</v>
       </c>
       <c r="F104">
-        <v>0.6646592709984156</v>
+        <v>0.8466937569264874</v>
       </c>
       <c r="G104">
-        <v>1.05860805860806</v>
+        <v>1.028776978417268</v>
       </c>
       <c r="H104">
-        <v>0.7783417935702198</v>
+        <v>0.7718998862343576</v>
       </c>
       <c r="I104">
-        <v>1.120145860958514</v>
+        <v>1.101051347038392</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="2">
-        <v>43342</v>
+        <v>43347</v>
       </c>
       <c r="B105">
-        <v>1.095472817764166</v>
+        <v>1.086548223350253</v>
       </c>
       <c r="C105">
-        <v>1.123650208375292</v>
+        <v>1.108512299285157</v>
       </c>
       <c r="D105">
-        <v>0.9583478330701078</v>
+        <v>0.9754917855598791</v>
       </c>
       <c r="E105">
-        <v>0.6569508762371745</v>
+        <v>0.6727285477197824</v>
       </c>
       <c r="F105">
-        <v>0.7572107765451669</v>
+        <v>0.8751385297377177</v>
       </c>
       <c r="G105">
-        <v>1.047619047619049</v>
+        <v>1.043165467625901</v>
       </c>
       <c r="H105">
-        <v>0.7698815566835869</v>
+        <v>0.7804323094425487</v>
       </c>
       <c r="I105">
-        <v>1.124834248910778</v>
+        <v>1.094011076692011</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="2">
-        <v>43343</v>
+        <v>43348</v>
       </c>
       <c r="B106">
-        <v>1.091883614088822</v>
+        <v>1.085374365482233</v>
       </c>
       <c r="C106">
-        <v>1.123801261096565</v>
+        <v>1.105404950328339</v>
       </c>
       <c r="D106">
-        <v>0.9570093958294301</v>
+        <v>0.9754917855598791</v>
       </c>
       <c r="E106">
-        <v>0.6569508762371745</v>
+        <v>0.6661835861714315</v>
       </c>
       <c r="F106">
-        <v>0.726465927099842</v>
+        <v>0.9080162541558927</v>
       </c>
       <c r="G106">
-        <v>1.047619047619049</v>
+        <v>1.043165467625901</v>
       </c>
       <c r="H106">
-        <v>0.7664974619289339</v>
+        <v>0.7673492605233223</v>
       </c>
       <c r="I106">
-        <v>1.120477363136957</v>
+        <v>1.079508119778465</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="2">
-        <v>43346</v>
+        <v>43349</v>
       </c>
       <c r="B107">
-        <v>1.090352220520674</v>
+        <v>1.085770939086294</v>
       </c>
       <c r="C107">
-        <v>1.123801261096565</v>
+        <v>1.101367692755132</v>
       </c>
       <c r="D107">
-        <v>0.9623631447921412</v>
+        <v>0.9754917855598791</v>
       </c>
       <c r="E107">
-        <v>0.655361845092164</v>
+        <v>0.6650148430377973</v>
       </c>
       <c r="F107">
-        <v>0.726465927099842</v>
+        <v>0.9043221278167719</v>
       </c>
       <c r="G107">
-        <v>1.047619047619049</v>
+        <v>1.035971223021584</v>
       </c>
       <c r="H107">
-        <v>0.7653694303440495</v>
+        <v>0.7639362912400458</v>
       </c>
       <c r="I107">
-        <v>1.11095851487024</v>
+        <v>1.074814606214211</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="2">
-        <v>43347</v>
+        <v>43350</v>
       </c>
       <c r="B108">
-        <v>1.092649310872895</v>
+        <v>1.089641497461929</v>
       </c>
       <c r="C108">
-        <v>1.121942150680899</v>
+        <v>1.09893003107349</v>
       </c>
       <c r="D108">
-        <v>0.9663784565141746</v>
+        <v>0.9808960224816258</v>
       </c>
       <c r="E108">
-        <v>0.6533188050485792</v>
+        <v>0.6664173347981582</v>
       </c>
       <c r="F108">
-        <v>0.7508716323296361</v>
+        <v>0.9131880310306618</v>
       </c>
       <c r="G108">
-        <v>1.062271062271063</v>
+        <v>1.057553956834534</v>
       </c>
       <c r="H108">
-        <v>0.7738296672306822</v>
+        <v>0.7667804323094429</v>
       </c>
       <c r="I108">
-        <v>1.103854896760749</v>
+        <v>1.065849995306485</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="2">
-        <v>43348</v>
+        <v>43353</v>
       </c>
       <c r="B109">
-        <v>1.091468861664115</v>
+        <v>1.089815989847715</v>
       </c>
       <c r="C109">
-        <v>1.118797155561064</v>
+        <v>1.101015628587611</v>
       </c>
       <c r="D109">
-        <v>0.9663784565141746</v>
+        <v>0.9876513186338091</v>
       </c>
       <c r="E109">
-        <v>0.6469626804685374</v>
+        <v>0.6643135971576168</v>
       </c>
       <c r="F109">
-        <v>0.7790808240887486</v>
+        <v>0.9124492057628377</v>
       </c>
       <c r="G109">
-        <v>1.062271062271063</v>
+        <v>1.057553956834534</v>
       </c>
       <c r="H109">
-        <v>0.7608573040045119</v>
+        <v>0.7576791808873724</v>
       </c>
       <c r="I109">
-        <v>1.089221443455199</v>
+        <v>1.055148784379986</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="2">
-        <v>43349</v>
+        <v>43354</v>
       </c>
       <c r="B110">
-        <v>1.091867662072486</v>
+        <v>1.090609137055837</v>
       </c>
       <c r="C110">
-        <v>1.114710985793298</v>
+        <v>1.105133248633839</v>
       </c>
       <c r="D110">
-        <v>0.9663784565141746</v>
+        <v>0.9930555555555556</v>
       </c>
       <c r="E110">
-        <v>0.6458276582221014</v>
+        <v>0.6657160889179777</v>
       </c>
       <c r="F110">
-        <v>0.7759112519809832</v>
+        <v>0.9246398226819365</v>
       </c>
       <c r="G110">
-        <v>1.054945054945056</v>
+        <v>1.071942446043167</v>
       </c>
       <c r="H110">
-        <v>0.7574732092498587</v>
+        <v>0.7565415244596135</v>
       </c>
       <c r="I110">
-        <v>1.084485698048872</v>
+        <v>1.057871022247253</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="2">
-        <v>43350</v>
+        <v>43355</v>
       </c>
       <c r="B111">
-        <v>1.095759954058193</v>
+        <v>1.084216370558375</v>
       </c>
       <c r="C111">
-        <v>1.112243791345841</v>
+        <v>1.105527407430085</v>
       </c>
       <c r="D111">
-        <v>0.9717322054768858</v>
+        <v>0.9876513186338088</v>
       </c>
       <c r="E111">
-        <v>0.6471896849178247</v>
+        <v>0.6652485916645241</v>
       </c>
       <c r="F111">
-        <v>0.7835182250396203</v>
+        <v>0.9128186183967498</v>
       </c>
       <c r="G111">
-        <v>1.076923076923078</v>
+        <v>1.068345323741009</v>
       </c>
       <c r="H111">
-        <v>0.7602932882120698</v>
+        <v>0.7536973833902165</v>
       </c>
       <c r="I111">
-        <v>1.075440424322787</v>
+        <v>1.071623016990518</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="2">
-        <v>43353</v>
+        <v>43356</v>
       </c>
       <c r="B112">
-        <v>1.095935426237877</v>
+        <v>1.085818527918781</v>
       </c>
       <c r="C112">
-        <v>1.114354656296962</v>
+        <v>1.111367080469623</v>
       </c>
       <c r="D112">
-        <v>0.9784243916802747</v>
+        <v>0.9869757890185905</v>
       </c>
       <c r="E112">
-        <v>0.6451466448742399</v>
+        <v>0.6645473457843436</v>
       </c>
       <c r="F112">
-        <v>0.7828843106180673</v>
+        <v>0.8743997044698935</v>
       </c>
       <c r="G112">
-        <v>1.076923076923078</v>
+        <v>1.068345323741009</v>
       </c>
       <c r="H112">
-        <v>0.7512690355329947</v>
+        <v>0.7627986348122872</v>
       </c>
       <c r="I112">
-        <v>1.064642924796362</v>
+        <v>1.073406552144935</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="2">
-        <v>43354</v>
+        <v>43357</v>
       </c>
       <c r="B113">
-        <v>1.09673302705462</v>
+        <v>1.091402284263959</v>
       </c>
       <c r="C113">
-        <v>1.118522162145413</v>
+        <v>1.11167322322399</v>
       </c>
       <c r="D113">
-        <v>0.9837781406429857</v>
+        <v>0.9822470817120622</v>
       </c>
       <c r="E113">
-        <v>0.6465086715699631</v>
+        <v>0.6615086136368951</v>
       </c>
       <c r="F113">
-        <v>0.7933438985736934</v>
+        <v>0.8503878832656081</v>
       </c>
       <c r="G113">
-        <v>1.091575091575093</v>
+        <v>1.075539568345325</v>
       </c>
       <c r="H113">
-        <v>0.7501410039481103</v>
+        <v>0.761092150170649</v>
       </c>
       <c r="I113">
-        <v>1.067389657132032</v>
+        <v>1.079555054914108</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="2">
-        <v>43355</v>
+        <v>43360</v>
       </c>
       <c r="B114">
-        <v>1.09030436447167</v>
+        <v>1.089831852791878</v>
       </c>
       <c r="C114">
-        <v>1.118921096255441</v>
+        <v>1.10548148601693</v>
       </c>
       <c r="D114">
-        <v>0.9784243916802745</v>
+        <v>0.9815985732814526</v>
       </c>
       <c r="E114">
-        <v>0.6460546626713887</v>
+        <v>0.6596386246230805</v>
       </c>
       <c r="F114">
-        <v>0.7832012678288439</v>
+        <v>0.8799408939785746</v>
       </c>
       <c r="G114">
-        <v>1.087912087912089</v>
+        <v>1.075539568345325</v>
       </c>
       <c r="H114">
-        <v>0.7473209249858994</v>
+        <v>0.7531285551763373</v>
       </c>
       <c r="I114">
-        <v>1.08126539117257</v>
+        <v>1.06833755749554</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="2">
-        <v>43356</v>
+        <v>43361</v>
       </c>
       <c r="B115">
-        <v>1.091915518121491</v>
+        <v>1.088372461928934</v>
       </c>
       <c r="C115">
-        <v>1.12483151811858</v>
+        <v>1.111416828667208</v>
       </c>
       <c r="D115">
-        <v>0.9777551730599356</v>
+        <v>0.9849762213575444</v>
       </c>
       <c r="E115">
-        <v>0.645373649323527</v>
+        <v>0.6591711273696269</v>
       </c>
       <c r="F115">
-        <v>0.7502377179080831</v>
+        <v>0.8411525674178061</v>
       </c>
       <c r="G115">
-        <v>1.087912087912089</v>
+        <v>1.097122302158275</v>
       </c>
       <c r="H115">
-        <v>0.7563451776649744</v>
+        <v>0.7667804323094431</v>
       </c>
       <c r="I115">
-        <v>1.083064974426974</v>
+        <v>1.059560687130385</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="2">
-        <v>43357</v>
+        <v>43362</v>
       </c>
       <c r="B116">
-        <v>1.097530627871363</v>
+        <v>1.086960659898477</v>
       </c>
       <c r="C116">
-        <v>1.125141369854524</v>
+        <v>1.112809778199575</v>
       </c>
       <c r="D116">
-        <v>0.9730706427175634</v>
+        <v>0.992407047124946</v>
       </c>
       <c r="E116">
-        <v>0.6424225914827933</v>
+        <v>0.6587036301161733</v>
       </c>
       <c r="F116">
-        <v>0.7296354992076076</v>
+        <v>0.8141854451422242</v>
       </c>
       <c r="G116">
-        <v>1.095238095238096</v>
+        <v>1.10791366906475</v>
       </c>
       <c r="H116">
-        <v>0.7546531302876479</v>
+        <v>0.7753128555176344</v>
       </c>
       <c r="I116">
-        <v>1.089268800909262</v>
+        <v>1.041490659908006</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="2">
-        <v>43360</v>
+        <v>43363</v>
       </c>
       <c r="B117">
-        <v>1.095951378254212</v>
+        <v>1.084343274111675</v>
       </c>
       <c r="C117">
-        <v>1.11887461849505</v>
+        <v>1.121534846699016</v>
       </c>
       <c r="D117">
-        <v>0.972428192842038</v>
+        <v>0.9998648940769564</v>
       </c>
       <c r="E117">
-        <v>0.6406065558884957</v>
+        <v>0.6573011383558123</v>
       </c>
       <c r="F117">
-        <v>0.7549920760697313</v>
+        <v>0.8016254155892135</v>
       </c>
       <c r="G117">
-        <v>1.095238095238096</v>
+        <v>1.104316546762591</v>
       </c>
       <c r="H117">
-        <v>0.7467569091934573</v>
+        <v>0.7753128555176344</v>
       </c>
       <c r="I117">
-        <v>1.077950369388141</v>
+        <v>1.031728151694357</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="2">
-        <v>43361</v>
+        <v>43364</v>
       </c>
       <c r="B118">
-        <v>1.094483792751404</v>
+        <v>1.086326142131979</v>
       </c>
       <c r="C118">
-        <v>1.124881869025671</v>
+        <v>1.121121553980622</v>
       </c>
       <c r="D118">
-        <v>0.9757742859437325</v>
+        <v>0.9930825767401643</v>
       </c>
       <c r="E118">
-        <v>0.6401525469899213</v>
+        <v>0.6580023842359928</v>
       </c>
       <c r="F118">
-        <v>0.721711568938194</v>
+        <v>0.8341337273734765</v>
       </c>
       <c r="G118">
-        <v>1.117216117216118</v>
+        <v>1.104316546762591</v>
       </c>
       <c r="H118">
-        <v>0.7602932882120699</v>
+        <v>0.7946530147895342</v>
       </c>
       <c r="I118">
-        <v>1.06909452547831</v>
+        <v>1.038815357176381</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="2">
-        <v>43362</v>
+        <v>43368</v>
       </c>
       <c r="B119">
-        <v>1.093064063297601</v>
+        <v>1.089578045685279</v>
       </c>
       <c r="C119">
-        <v>1.126291694424218</v>
+        <v>1.115721961150485</v>
       </c>
       <c r="D119">
-        <v>0.9831356907674602</v>
+        <v>0.9931366191093817</v>
       </c>
       <c r="E119">
-        <v>0.6396985380913469</v>
+        <v>0.6608073677567146</v>
       </c>
       <c r="F119">
-        <v>0.6985736925515061</v>
+        <v>0.8437384558551905</v>
       </c>
       <c r="G119">
-        <v>1.128205128205129</v>
+        <v>1.115107913669066</v>
       </c>
       <c r="H119">
-        <v>0.7687535250987028</v>
+        <v>0.7901023890784989</v>
       </c>
       <c r="I119">
-        <v>1.050861905663951</v>
+        <v>1.049094151882098</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="2">
-        <v>43363</v>
+        <v>43369</v>
       </c>
       <c r="B120">
-        <v>1.090431980602349</v>
+        <v>1.090751903553299</v>
       </c>
       <c r="C120">
-        <v>1.135122468898632</v>
+        <v>1.112052074882519</v>
       </c>
       <c r="D120">
-        <v>0.9905238643360016</v>
+        <v>0.9863543017725898</v>
       </c>
       <c r="E120">
-        <v>0.6383365113956236</v>
+        <v>0.6615086136368949</v>
       </c>
       <c r="F120">
-        <v>0.6877971473851036</v>
+        <v>0.8337643147395644</v>
       </c>
       <c r="G120">
-        <v>1.124542124542125</v>
+        <v>1.100719424460433</v>
       </c>
       <c r="H120">
-        <v>0.7687535250987028</v>
+        <v>0.7969283276450518</v>
       </c>
       <c r="I120">
-        <v>1.041011555218791</v>
+        <v>1.058387308739321</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="2">
-        <v>43364</v>
+        <v>43370</v>
       </c>
       <c r="B121">
-        <v>1.092425982644207</v>
+        <v>1.092607868020304</v>
       </c>
       <c r="C121">
-        <v>1.134704169055107</v>
+        <v>1.115124982779471</v>
       </c>
       <c r="D121">
-        <v>0.9838049093877991</v>
+        <v>0.9795990056204065</v>
       </c>
       <c r="E121">
-        <v>0.6390175247434853</v>
+        <v>0.6633786026507096</v>
       </c>
       <c r="F121">
-        <v>0.7156893819334395</v>
+        <v>0.8001477650535651</v>
       </c>
       <c r="G121">
-        <v>1.124542124542125</v>
+        <v>1.100719424460433</v>
       </c>
       <c r="H121">
-        <v>0.7879300620417371</v>
+        <v>0.7923777019340166</v>
       </c>
       <c r="I121">
-        <v>1.048162530782344</v>
+        <v>1.064911292593634</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="2">
-        <v>43368</v>
+        <v>43371</v>
       </c>
       <c r="B122">
-        <v>1.095696145992854</v>
+        <v>1.091180203045685</v>
       </c>
       <c r="C122">
-        <v>1.129239159062389</v>
+        <v>1.115117329210612</v>
       </c>
       <c r="D122">
-        <v>0.9838584468774261</v>
+        <v>0.976896887159533</v>
       </c>
       <c r="E122">
-        <v>0.6417415781349317</v>
+        <v>0.6645473457843437</v>
       </c>
       <c r="F122">
-        <v>0.7239302694136296</v>
+        <v>0.7776135943849283</v>
       </c>
       <c r="G122">
-        <v>1.135531135531136</v>
+        <v>1.097122302158275</v>
       </c>
       <c r="H122">
-        <v>0.7834179357021996</v>
+        <v>0.8009101251422077</v>
       </c>
       <c r="I122">
-        <v>1.0585338132222</v>
+        <v>1.065052098000562</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="2">
-        <v>43369</v>
+        <v>43381</v>
       </c>
       <c r="B123">
-        <v>1.096876595201634</v>
+        <v>1.097604695431472</v>
       </c>
       <c r="C123">
-        <v>1.125524811377756</v>
+        <v>1.103809181221205</v>
       </c>
       <c r="D123">
-        <v>0.9771394919292237</v>
+        <v>0.9769509295287506</v>
       </c>
       <c r="E123">
-        <v>0.6424225914827933</v>
+        <v>0.662911105397256</v>
       </c>
       <c r="F123">
-        <v>0.7153724247226629</v>
+        <v>0.944218692279276</v>
       </c>
       <c r="G123">
-        <v>1.120879120879122</v>
+        <v>1.161870503597124</v>
       </c>
       <c r="H123">
-        <v>0.790186125211506</v>
+        <v>0.770762229806599</v>
       </c>
       <c r="I123">
-        <v>1.067910589126728</v>
+        <v>1.056416033042334</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="2">
-        <v>43370</v>
+        <v>43382</v>
       </c>
       <c r="B124">
-        <v>1.098742981112813</v>
+        <v>1.097144670050761</v>
       </c>
       <c r="C124">
-        <v>1.128634948177297</v>
+        <v>1.102244026389507</v>
       </c>
       <c r="D124">
-        <v>0.9704473057258347</v>
+        <v>0.9769779507133595</v>
       </c>
       <c r="E124">
-        <v>0.644238627077091</v>
+        <v>0.6582361328627196</v>
       </c>
       <c r="F124">
-        <v>0.6865293185419973</v>
+        <v>0.9408939785740673</v>
       </c>
       <c r="G124">
-        <v>1.120879120879122</v>
+        <v>1.154676258992807</v>
       </c>
       <c r="H124">
-        <v>0.7856739988719685</v>
+        <v>0.7610921501706491</v>
       </c>
       <c r="I124">
-        <v>1.074493275241522</v>
+        <v>1.052426546512718</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="2">
-        <v>43371</v>
+        <v>43383</v>
       </c>
       <c r="B125">
-        <v>1.097307299642675</v>
+        <v>1.098397842639593</v>
       </c>
       <c r="C125">
-        <v>1.128627201883899</v>
+        <v>1.066019684979107</v>
       </c>
       <c r="D125">
-        <v>0.967770431244479</v>
+        <v>0.9769779507133595</v>
       </c>
       <c r="E125">
-        <v>0.645373649323527</v>
+        <v>0.6568336411023588</v>
       </c>
       <c r="F125">
-        <v>0.667194928684628</v>
+        <v>1.064277798300702</v>
       </c>
       <c r="G125">
-        <v>1.117216117216118</v>
+        <v>1.158273381294966</v>
       </c>
       <c r="H125">
-        <v>0.7941342357586013</v>
+        <v>0.7736063708759962</v>
       </c>
       <c r="I125">
-        <v>1.074635347603712</v>
+        <v>1.049281892424668</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="2">
-        <v>43381</v>
+        <v>43384</v>
       </c>
       <c r="B126">
-        <v>1.103767866258295</v>
+        <v>1.09114847715736</v>
       </c>
       <c r="C126">
-        <v>1.117182053387454</v>
+        <v>1.044088383413187</v>
       </c>
       <c r="D126">
-        <v>0.9678239687341063</v>
+        <v>0.9675205361003028</v>
       </c>
       <c r="E126">
-        <v>0.6437846181785166</v>
+        <v>0.6547299034618175</v>
       </c>
       <c r="F126">
-        <v>0.8101426307448498</v>
+        <v>1.108976727004064</v>
       </c>
       <c r="G126">
-        <v>1.183150183150184</v>
+        <v>1.1294964028777</v>
       </c>
       <c r="H126">
-        <v>0.7642413987591654</v>
+        <v>0.7332195676905582</v>
       </c>
       <c r="I126">
-        <v>1.06592157605607</v>
+        <v>1.054538627616632</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="2">
-        <v>43382</v>
+        <v>43385</v>
       </c>
       <c r="B127">
-        <v>1.103305257784585</v>
+        <v>1.097906091370558</v>
       </c>
       <c r="C127">
-        <v>1.115597936387439</v>
+        <v>1.058920999862237</v>
       </c>
       <c r="D127">
-        <v>0.9678507374789199</v>
+        <v>0.968196065715521</v>
       </c>
       <c r="E127">
-        <v>0.6392445291927725</v>
+        <v>0.6544961548350906</v>
       </c>
       <c r="F127">
-        <v>0.8072900158478609</v>
+        <v>1.05319541928334</v>
       </c>
       <c r="G127">
-        <v>1.175824175824177</v>
+        <v>1.133093525179858</v>
       </c>
       <c r="H127">
-        <v>0.7546531302876482</v>
+        <v>0.7400455062571111</v>
       </c>
       <c r="I127">
-        <v>1.061896192460692</v>
+        <v>1.04543321130198</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="2">
-        <v>43383</v>
+        <v>43388</v>
       </c>
       <c r="B128">
-        <v>1.104565467075039</v>
+        <v>1.098207487309644</v>
       </c>
       <c r="C128">
-        <v>1.078934729731823</v>
+        <v>1.052668034104304</v>
       </c>
       <c r="D128">
-        <v>0.9678507374789199</v>
+        <v>0.9688986165153481</v>
       </c>
       <c r="E128">
-        <v>0.6378825024970494</v>
+        <v>0.6547299034618175</v>
       </c>
       <c r="F128">
-        <v>0.913153724247227</v>
+        <v>1.04617657923901</v>
       </c>
       <c r="G128">
-        <v>1.179487179487181</v>
+        <v>1.136690647482016</v>
       </c>
       <c r="H128">
-        <v>0.7670614777213763</v>
+        <v>0.7292377701934023</v>
       </c>
       <c r="I128">
-        <v>1.058723243038453</v>
+        <v>1.042617103163427</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="2">
-        <v>43384</v>
+        <v>43389</v>
       </c>
       <c r="B129">
-        <v>1.097275395610005</v>
+        <v>1.0966211928934</v>
       </c>
       <c r="C129">
-        <v>1.05673772599811</v>
+        <v>1.075295810436408</v>
       </c>
       <c r="D129">
-        <v>0.9584816767941754</v>
+        <v>0.9661964980544748</v>
       </c>
       <c r="E129">
-        <v>0.6358394624534646</v>
+        <v>0.6544961548350906</v>
       </c>
       <c r="F129">
-        <v>0.9515055467511889</v>
+        <v>0.9911340967861101</v>
       </c>
       <c r="G129">
-        <v>1.150183150183151</v>
+        <v>1.136690647482016</v>
       </c>
       <c r="H129">
-        <v>0.727016356457981</v>
+        <v>0.7292377701934023</v>
       </c>
       <c r="I129">
-        <v>1.06402727789354</v>
+        <v>1.047310616727681</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="2">
-        <v>43385</v>
+        <v>43390</v>
       </c>
       <c r="B130">
-        <v>1.104070954568658</v>
+        <v>1.099365482233502</v>
       </c>
       <c r="C130">
-        <v>1.071750042604614</v>
+        <v>1.075024108741907</v>
       </c>
       <c r="D130">
-        <v>0.9591508954145143</v>
+        <v>0.9675475572849116</v>
       </c>
       <c r="E130">
-        <v>0.6356124580041773</v>
+        <v>0.6587036301161734</v>
       </c>
       <c r="F130">
-        <v>0.9036450079239307</v>
+        <v>1.02659770964167</v>
       </c>
       <c r="G130">
-        <v>1.153846153846155</v>
+        <v>1.147482014388491</v>
       </c>
       <c r="H130">
-        <v>0.7337845459672873</v>
+        <v>0.7275312855517641</v>
       </c>
       <c r="I130">
-        <v>1.054839931805265</v>
+        <v>1.035342157138833</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="2">
-        <v>43388</v>
+        <v>43391</v>
       </c>
       <c r="B131">
-        <v>1.10437404287902</v>
+        <v>1.10065038071066</v>
       </c>
       <c r="C131">
-        <v>1.06542132089795</v>
+        <v>1.059552419293117</v>
       </c>
       <c r="D131">
-        <v>0.9598468827796668</v>
+        <v>0.9594682230869003</v>
       </c>
       <c r="E131">
-        <v>0.6358394624534646</v>
+        <v>0.6619761108903488</v>
       </c>
       <c r="F131">
-        <v>0.8976228209191762</v>
+        <v>1.128925009235316</v>
       </c>
       <c r="G131">
-        <v>1.157509157509159</v>
+        <v>1.140287769784174</v>
       </c>
       <c r="H131">
-        <v>0.7230682459108857</v>
+        <v>0.7059158134243465</v>
       </c>
       <c r="I131">
-        <v>1.051998484561469</v>
+        <v>1.047357551863324</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="2">
-        <v>43389</v>
+        <v>43392</v>
       </c>
       <c r="B132">
-        <v>1.102778841245533</v>
+        <v>1.100031725888325</v>
       </c>
       <c r="C132">
-        <v>1.088323237330937</v>
+        <v>1.059169740850159</v>
       </c>
       <c r="D132">
-        <v>0.9571700082983112</v>
+        <v>0.9635214007782102</v>
       </c>
       <c r="E132">
-        <v>0.6356124580041773</v>
+        <v>0.6643135971576171</v>
       </c>
       <c r="F132">
-        <v>0.8503961965134709</v>
+        <v>1.060583671961581</v>
       </c>
       <c r="G132">
-        <v>1.157509157509159</v>
+        <v>1.151079136690649</v>
       </c>
       <c r="H132">
-        <v>0.7230682459108857</v>
+        <v>0.724687144482367</v>
       </c>
       <c r="I132">
-        <v>1.056734229967796</v>
+        <v>1.035482962545761</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="2">
-        <v>43390</v>
+        <v>43395</v>
       </c>
       <c r="B133">
-        <v>1.105538540071465</v>
+        <v>1.100491751269035</v>
       </c>
       <c r="C133">
-        <v>1.088048243915286</v>
+        <v>1.05461586737896</v>
       </c>
       <c r="D133">
-        <v>0.9585084455389892</v>
+        <v>0.9703307392996111</v>
       </c>
       <c r="E133">
-        <v>0.639698538091347</v>
+        <v>0.6710923073326948</v>
       </c>
       <c r="F133">
-        <v>0.8808240887480192</v>
+        <v>1.057258958256372</v>
       </c>
       <c r="G133">
-        <v>1.168498168498169</v>
+        <v>1.151079136690649</v>
       </c>
       <c r="H133">
-        <v>0.7213761985335591</v>
+        <v>0.7542662116040963</v>
       </c>
       <c r="I133">
-        <v>1.044658079181662</v>
+        <v>1.028208016521166</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="2">
-        <v>43391</v>
+        <v>43396</v>
       </c>
       <c r="B134">
-        <v>1.106830653394589</v>
+        <v>1.10065038071066</v>
       </c>
       <c r="C134">
-        <v>1.072389111809999</v>
+        <v>1.048802981830429</v>
       </c>
       <c r="D134">
-        <v>0.9505045908397359</v>
+        <v>0.9648994811932556</v>
       </c>
       <c r="E134">
-        <v>0.642876600381368</v>
+        <v>0.678572263387953</v>
       </c>
       <c r="F134">
-        <v>0.9686212361331222</v>
+        <v>1.102327299593646</v>
       </c>
       <c r="G134">
-        <v>1.161172161172162</v>
+        <v>1.140287769784175</v>
       </c>
       <c r="H134">
-        <v>0.6999435984207559</v>
+        <v>0.7372013651877142</v>
       </c>
       <c r="I134">
-        <v>1.056781587421859</v>
+        <v>1.042288557213929</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="2">
-        <v>43392</v>
+        <v>43397</v>
       </c>
       <c r="B135">
-        <v>1.10620852475753</v>
+        <v>1.101522842639594</v>
       </c>
       <c r="C135">
-        <v>1.072001797140068</v>
+        <v>1.016432212340615</v>
       </c>
       <c r="D135">
-        <v>0.9545199025617692</v>
+        <v>0.9567931258106357</v>
       </c>
       <c r="E135">
-        <v>0.6451466448742401</v>
+        <v>0.6834809845492161</v>
       </c>
       <c r="F135">
-        <v>0.9099841521394614</v>
+        <v>1.207609900258589</v>
       </c>
       <c r="G135">
-        <v>1.172161172161173</v>
+        <v>1.115107913669067</v>
       </c>
       <c r="H135">
-        <v>0.7185561195713482</v>
+        <v>0.7394766780432318</v>
       </c>
       <c r="I135">
-        <v>1.044800151543852</v>
+        <v>1.042523232892142</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="2">
-        <v>43395</v>
+        <v>43398</v>
       </c>
       <c r="B136">
-        <v>1.106671133231241</v>
+        <v>1.103426395939086</v>
       </c>
       <c r="C136">
-        <v>1.067392752567896</v>
+        <v>1.035363314913745</v>
       </c>
       <c r="D136">
-        <v>0.9612656262547853</v>
+        <v>0.9567931258106357</v>
       </c>
       <c r="E136">
-        <v>0.651729773903569</v>
+        <v>0.6890909515906598</v>
       </c>
       <c r="F136">
-        <v>0.9071315372424724</v>
+        <v>1.128925009235316</v>
       </c>
       <c r="G136">
-        <v>1.172161172161173</v>
+        <v>1.1294964028777</v>
       </c>
       <c r="H136">
-        <v>0.7478849407783421</v>
+        <v>0.7400455062571113</v>
       </c>
       <c r="I136">
-        <v>1.037459746164045</v>
+        <v>1.037876654463531</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="2">
-        <v>43396</v>
+        <v>43399</v>
       </c>
       <c r="B137">
-        <v>1.106830653394589</v>
+        <v>1.102918781725888</v>
       </c>
       <c r="C137">
-        <v>1.061509442731652</v>
+        <v>1.017423349507876</v>
       </c>
       <c r="D137">
-        <v>0.9558851085472606</v>
+        <v>0.9568201469952443</v>
       </c>
       <c r="E137">
-        <v>0.6589939162807597</v>
+        <v>0.6900259460975672</v>
       </c>
       <c r="F137">
-        <v>0.9458003169572108</v>
+        <v>1.1865533801256</v>
       </c>
       <c r="G137">
-        <v>1.161172161172162</v>
+        <v>1.10791366906475</v>
       </c>
       <c r="H137">
-        <v>0.7309644670050766</v>
+        <v>0.738339021615473</v>
       </c>
       <c r="I137">
-        <v>1.051666982383026</v>
+        <v>1.037923589599173</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="2">
-        <v>43397</v>
+        <v>43402</v>
       </c>
       <c r="B138">
-        <v>1.107708014293007</v>
+        <v>1.106472081218274</v>
       </c>
       <c r="C138">
-        <v>1.028746494802237</v>
+        <v>1.01074943746269</v>
       </c>
       <c r="D138">
-        <v>0.9478544851031939</v>
+        <v>0.9487408127972331</v>
       </c>
       <c r="E138">
-        <v>0.663761009715791</v>
+        <v>0.6914284378579282</v>
       </c>
       <c r="F138">
-        <v>1.036133122028526</v>
+        <v>1.230144070927225</v>
       </c>
       <c r="G138">
-        <v>1.135531135531137</v>
+        <v>1.10791366906475</v>
       </c>
       <c r="H138">
-        <v>0.7332205301748453</v>
+        <v>0.7224118316268495</v>
       </c>
       <c r="I138">
-        <v>1.051903769653343</v>
+        <v>1.0402703463813</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="2">
-        <v>43398</v>
+        <v>43403</v>
       </c>
       <c r="B139">
-        <v>1.109622256253191</v>
+        <v>1.105615482233502</v>
       </c>
       <c r="C139">
-        <v>1.047906951523696</v>
+        <v>1.02658467143229</v>
       </c>
       <c r="D139">
-        <v>0.9478544851031939</v>
+        <v>0.9500918720276696</v>
       </c>
       <c r="E139">
-        <v>0.669209116498684</v>
+        <v>0.6911946892312012</v>
       </c>
       <c r="F139">
-        <v>0.968621236133122</v>
+        <v>1.155153306243073</v>
       </c>
       <c r="G139">
-        <v>1.150183150183151</v>
+        <v>1.122302158273383</v>
       </c>
       <c r="H139">
-        <v>0.7337845459672876</v>
+        <v>0.7298065984072819</v>
       </c>
       <c r="I139">
-        <v>1.047215381701079</v>
+        <v>1.02586125973904</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="2">
-        <v>43399</v>
+        <v>43404</v>
       </c>
       <c r="B140">
-        <v>1.109111791730475</v>
+        <v>1.10631345177665</v>
       </c>
       <c r="C140">
-        <v>1.029749639797357</v>
+        <v>1.037724440906795</v>
       </c>
       <c r="D140">
-        <v>0.9478812538480074</v>
+        <v>0.9480652831820147</v>
       </c>
       <c r="E140">
-        <v>0.6701171342958329</v>
+        <v>0.6925971809915621</v>
       </c>
       <c r="F140">
-        <v>1.018066561014263</v>
+        <v>1.08348725526413</v>
       </c>
       <c r="G140">
-        <v>1.128205128205129</v>
+        <v>1.133093525179858</v>
       </c>
       <c r="H140">
-        <v>0.7320924985899611</v>
+        <v>0.7394766780432319</v>
       </c>
       <c r="I140">
-        <v>1.047262739155142</v>
+        <v>1.027034638130103</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="2">
-        <v>43402</v>
+        <v>43405</v>
       </c>
       <c r="B141">
-        <v>1.112685043389485</v>
+        <v>1.097239847715736</v>
       </c>
       <c r="C141">
-        <v>1.02299487195377</v>
+        <v>1.048680524728682</v>
       </c>
       <c r="D141">
-        <v>0.9398773991487542</v>
+        <v>0.9440121054907046</v>
       </c>
       <c r="E141">
-        <v>0.6714791609915562</v>
+        <v>0.6956359131390106</v>
       </c>
       <c r="F141">
-        <v>1.055467511885895</v>
+        <v>1.087920206871075</v>
       </c>
       <c r="G141">
-        <v>1.128205128205129</v>
+        <v>1.1294964028777</v>
       </c>
       <c r="H141">
-        <v>0.7163000564015797</v>
+        <v>0.7406143344709907</v>
       </c>
       <c r="I141">
-        <v>1.049630611858306</v>
+        <v>1.02604900028161</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="2">
-        <v>43403</v>
+        <v>43406</v>
       </c>
       <c r="B142">
-        <v>1.111823634507402</v>
+        <v>1.094574873096447</v>
       </c>
       <c r="C142">
-        <v>1.039021952995491</v>
+        <v>1.04205636088108</v>
       </c>
       <c r="D142">
-        <v>0.941215836389432</v>
+        <v>0.9581982274102896</v>
       </c>
       <c r="E142">
-        <v>0.6712521565422689</v>
+        <v>0.6968046562726448</v>
       </c>
       <c r="F142">
-        <v>0.9911251980982565</v>
+        <v>1.140746213520502</v>
       </c>
       <c r="G142">
-        <v>1.142857142857144</v>
+        <v>1.158273381294966</v>
       </c>
       <c r="H142">
-        <v>0.7236322617033283</v>
+        <v>0.7610921501706495</v>
       </c>
       <c r="I142">
-        <v>1.035091873460882</v>
+        <v>1.007509621702806</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="2">
-        <v>43404</v>
+        <v>43409</v>
       </c>
       <c r="B143">
-        <v>1.112525523226136</v>
+        <v>1.096763959390863</v>
       </c>
       <c r="C143">
-        <v>1.050296683037166</v>
+        <v>1.047892207136188</v>
       </c>
       <c r="D143">
-        <v>0.9392081805284153</v>
+        <v>0.9541720709035884</v>
       </c>
       <c r="E143">
-        <v>0.6726141832379922</v>
+        <v>0.6979733994062789</v>
       </c>
       <c r="F143">
-        <v>0.9296354992076067</v>
+        <v>1.117842630217953</v>
       </c>
       <c r="G143">
-        <v>1.153846153846155</v>
+        <v>1.15107913669065</v>
       </c>
       <c r="H143">
-        <v>0.7332205301748456</v>
+        <v>0.757679180887373</v>
       </c>
       <c r="I143">
-        <v>1.036275809812464</v>
+        <v>1.013470383929409</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="2">
-        <v>43405</v>
+        <v>43410</v>
       </c>
       <c r="B144">
-        <v>1.103400969882593</v>
+        <v>1.098159898477158</v>
       </c>
       <c r="C144">
-        <v>1.061385502037275</v>
+        <v>1.054451315648487</v>
       </c>
       <c r="D144">
-        <v>0.9351928688063819</v>
+        <v>0.9487948551664505</v>
       </c>
       <c r="E144">
-        <v>0.6755652410787257</v>
+        <v>0.6991421425399129</v>
       </c>
       <c r="F144">
-        <v>0.9334389857369253</v>
+        <v>1.097894347986701</v>
       </c>
       <c r="G144">
-        <v>1.150183150183152</v>
+        <v>1.158273381294966</v>
       </c>
       <c r="H144">
-        <v>0.73434856175973</v>
+        <v>0.7559726962457347</v>
       </c>
       <c r="I144">
-        <v>1.035281303277135</v>
+        <v>1.021590162395569</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="2">
-        <v>43406</v>
+        <v>43411</v>
       </c>
       <c r="B145">
-        <v>1.100721031138336</v>
+        <v>1.097414340101523</v>
       </c>
       <c r="C145">
-        <v>1.054681085100779</v>
+        <v>1.07681504385495</v>
       </c>
       <c r="D145">
-        <v>0.9492464598334986</v>
+        <v>0.9406884997838306</v>
       </c>
       <c r="E145">
-        <v>0.6767002633251618</v>
+        <v>0.7005446343002737</v>
       </c>
       <c r="F145">
-        <v>0.9787638668779712</v>
+        <v>1.011082379017362</v>
       </c>
       <c r="G145">
-        <v>1.179487179487181</v>
+        <v>1.158273381294966</v>
       </c>
       <c r="H145">
-        <v>0.7546531302876488</v>
+        <v>0.7508532423208201</v>
       </c>
       <c r="I145">
-        <v>1.016575108922144</v>
+        <v>1.02863043274195</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="2">
-        <v>43409</v>
+        <v>43412</v>
       </c>
       <c r="B146">
-        <v>1.102922409392547</v>
+        <v>1.101015228426396</v>
       </c>
       <c r="C146">
-        <v>1.060587633817218</v>
+        <v>1.074113334047667</v>
       </c>
       <c r="D146">
-        <v>0.9452579168562789</v>
+        <v>0.9406884997838306</v>
       </c>
       <c r="E146">
-        <v>0.6778352855715978</v>
+        <v>0.7012458801804542</v>
       </c>
       <c r="F146">
-        <v>0.9591125198098255</v>
+        <v>1.003324713705209</v>
       </c>
       <c r="G146">
-        <v>1.172161172161174</v>
+        <v>1.165467625899283</v>
       </c>
       <c r="H146">
-        <v>0.7512690355329956</v>
+        <v>0.7491467576791819</v>
       </c>
       <c r="I146">
-        <v>1.022589505588179</v>
+        <v>1.017131324509527</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="2">
-        <v>43410</v>
+        <v>43413</v>
       </c>
       <c r="B147">
-        <v>1.104326186830016</v>
+        <v>1.102220812182741</v>
       </c>
       <c r="C147">
-        <v>1.067226207259826</v>
+        <v>1.064232576650493</v>
       </c>
       <c r="D147">
-        <v>0.9399309366383813</v>
+        <v>0.939337440553394</v>
       </c>
       <c r="E147">
-        <v>0.6789703078180337</v>
+        <v>0.701479628807181</v>
       </c>
       <c r="F147">
-        <v>0.941996830427892</v>
+        <v>1.046915404506834</v>
       </c>
       <c r="G147">
-        <v>1.179487179487181</v>
+        <v>1.147482014388491</v>
       </c>
       <c r="H147">
-        <v>0.749576988155669</v>
+        <v>0.7389078498293525</v>
       </c>
       <c r="I147">
-        <v>1.030782345141125</v>
+        <v>1.021167746174785</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="2">
-        <v>43411</v>
+        <v>43416</v>
       </c>
       <c r="B148">
-        <v>1.103576442062277</v>
+        <v>1.104758883248731</v>
       </c>
       <c r="C148">
-        <v>1.08986087657056</v>
+        <v>1.043265624760826</v>
       </c>
       <c r="D148">
-        <v>0.9319003131943148</v>
+        <v>0.9420936013834846</v>
       </c>
       <c r="E148">
-        <v>0.6803323345137569</v>
+        <v>0.701479628807181</v>
       </c>
       <c r="F148">
-        <v>0.867511885895404</v>
+        <v>1.127447358699667</v>
       </c>
       <c r="G148">
-        <v>1.179487179487181</v>
+        <v>1.147482014388491</v>
       </c>
       <c r="H148">
-        <v>0.7445008460236893</v>
+        <v>0.7474402730375437</v>
       </c>
       <c r="I148">
-        <v>1.037885963250615</v>
+        <v>1.018680183985731</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="2">
-        <v>43412</v>
+        <v>43417</v>
       </c>
       <c r="B149">
-        <v>1.107197549770291</v>
+        <v>1.10188769035533</v>
       </c>
       <c r="C149">
-        <v>1.087126435000852</v>
+        <v>1.041719603851276</v>
       </c>
       <c r="D149">
-        <v>0.9319003131943148</v>
+        <v>0.9387159533073931</v>
       </c>
       <c r="E149">
-        <v>0.6810133478616185</v>
+        <v>0.7021808746873615</v>
       </c>
       <c r="F149">
-        <v>0.8608557844690965</v>
+        <v>1.137421499815294</v>
       </c>
       <c r="G149">
-        <v>1.186813186813189</v>
+        <v>1.1294964028777</v>
       </c>
       <c r="H149">
-        <v>0.7428087986463627</v>
+        <v>0.7542662116040965</v>
       </c>
       <c r="I149">
-        <v>1.026283387005114</v>
+        <v>1.01774148127288</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="2">
-        <v>43413</v>
+        <v>43418</v>
       </c>
       <c r="B150">
-        <v>1.108409903011741</v>
+        <v>1.101602157360406</v>
       </c>
       <c r="C150">
-        <v>1.077125970223248</v>
+        <v>1.033836427926342</v>
       </c>
       <c r="D150">
-        <v>0.9305618759536369</v>
+        <v>0.9246108949416343</v>
       </c>
       <c r="E150">
-        <v>0.6812403523109056</v>
+        <v>0.7031158691942688</v>
       </c>
       <c r="F150">
-        <v>0.8982567353407289</v>
+        <v>1.168082748429996</v>
       </c>
       <c r="G150">
-        <v>1.16849816849817</v>
+        <v>1.122302158273383</v>
       </c>
       <c r="H150">
-        <v>0.7326565143824033</v>
+        <v>0.7480091012514229</v>
       </c>
       <c r="I150">
-        <v>1.030356128054555</v>
+        <v>1.029944616539941</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="2">
-        <v>43416</v>
+        <v>43419</v>
       </c>
       <c r="B151">
-        <v>1.110962225625319</v>
+        <v>1.099095812182741</v>
       </c>
       <c r="C151">
-        <v>1.055904999457759</v>
+        <v>1.044788684963799</v>
       </c>
       <c r="D151">
-        <v>0.9332922879246195</v>
+        <v>0.9164234760051881</v>
       </c>
       <c r="E151">
-        <v>0.6812403523109056</v>
+        <v>0.7035833664477225</v>
       </c>
       <c r="F151">
-        <v>0.9673534072900157</v>
+        <v>1.181751015884743</v>
       </c>
       <c r="G151">
-        <v>1.16849816849817</v>
+        <v>1.118705035971225</v>
       </c>
       <c r="H151">
-        <v>0.7411167512690361</v>
+        <v>0.7582480091012523</v>
       </c>
       <c r="I151">
-        <v>1.027846182989202</v>
+        <v>1.042006946400074</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="2">
-        <v>43417</v>
+        <v>43420</v>
       </c>
       <c r="B152">
-        <v>1.108074910668709</v>
+        <v>1.098017131979695</v>
       </c>
       <c r="C152">
-        <v>1.05434024819124</v>
+        <v>1.047111543112554</v>
       </c>
       <c r="D152">
-        <v>0.9299461948229252</v>
+        <v>0.9056150021616948</v>
       </c>
       <c r="E152">
-        <v>0.6819213656587673</v>
+        <v>0.7066220985951712</v>
       </c>
       <c r="F152">
-        <v>0.9759112519809825</v>
+        <v>1.159216845216106</v>
       </c>
       <c r="G152">
-        <v>1.150183150183152</v>
+        <v>1.10791366906475</v>
       </c>
       <c r="H152">
-        <v>0.7478849407783422</v>
+        <v>0.7610921501706494</v>
       </c>
       <c r="I152">
-        <v>1.026899033907936</v>
+        <v>1.042429362620857</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="2">
-        <v>43418</v>
+        <v>43423</v>
       </c>
       <c r="B153">
-        <v>1.107787774374681</v>
+        <v>1.099920685279188</v>
       </c>
       <c r="C153">
-        <v>1.046361565990673</v>
+        <v>1.029684366820249</v>
       </c>
       <c r="D153">
-        <v>0.9159729100302491</v>
+        <v>0.9125594466061392</v>
       </c>
       <c r="E153">
-        <v>0.6828293834559162</v>
+        <v>0.709427082115893</v>
       </c>
       <c r="F153">
-        <v>1.002218700475436</v>
+        <v>1.154414480975249</v>
       </c>
       <c r="G153">
-        <v>1.142857142857145</v>
+        <v>1.100719424460433</v>
       </c>
       <c r="H153">
-        <v>0.7416807670614781</v>
+        <v>0.7684869169510815</v>
       </c>
       <c r="I153">
-        <v>1.039211971964386</v>
+        <v>1.01516004881254</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="2">
-        <v>43419</v>
+        <v>43424</v>
       </c>
       <c r="B154">
-        <v>1.105267355793772</v>
+        <v>1.101681472081218</v>
       </c>
       <c r="C154">
-        <v>1.057446511844082</v>
+        <v>1.010994351666182</v>
       </c>
       <c r="D154">
-        <v>0.9078619803517417</v>
+        <v>0.9125324254215305</v>
       </c>
       <c r="E154">
-        <v>0.6832833923544905</v>
+        <v>0.7136345573969757</v>
       </c>
       <c r="F154">
-        <v>1.013946117274168</v>
+        <v>1.18470631695604</v>
       </c>
       <c r="G154">
-        <v>1.139194139194141</v>
+        <v>1.100719424460433</v>
       </c>
       <c r="H154">
-        <v>0.7518330513254375</v>
+        <v>0.7531285551763375</v>
       </c>
       <c r="I154">
-        <v>1.051382837658646</v>
+        <v>1.016474232610532</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="2">
-        <v>43420</v>
+        <v>43425</v>
       </c>
       <c r="B155">
-        <v>1.104182618683001</v>
+        <v>1.098730964467005</v>
       </c>
       <c r="C155">
-        <v>1.05979751189056</v>
+        <v>1.014071086347564</v>
       </c>
       <c r="D155">
-        <v>0.8971544824263193</v>
+        <v>0.9110462602680501</v>
       </c>
       <c r="E155">
-        <v>0.6862344501952243</v>
+        <v>0.7152707977840634</v>
       </c>
       <c r="F155">
-        <v>0.9946117274167987</v>
+        <v>1.116364979682305</v>
       </c>
       <c r="G155">
-        <v>1.12820512820513</v>
+        <v>1.100719424460433</v>
       </c>
       <c r="H155">
-        <v>0.7546531302876485</v>
+        <v>0.7548350398179756</v>
       </c>
       <c r="I155">
-        <v>1.051809054745216</v>
+        <v>1.021120811039143</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="2">
-        <v>43423</v>
+        <v>43426</v>
       </c>
       <c r="B156">
-        <v>1.106096860643185</v>
+        <v>1.098667512690355</v>
       </c>
       <c r="C156">
-        <v>1.042159201821927</v>
+        <v>1.014071086347564</v>
       </c>
       <c r="D156">
-        <v>0.9040340498434031</v>
+        <v>0.9164775183744056</v>
       </c>
       <c r="E156">
-        <v>0.6889585035866708</v>
+        <v>0.7162057922909707</v>
       </c>
       <c r="F156">
-        <v>0.9904912836767037</v>
+        <v>1.116364979682305</v>
       </c>
       <c r="G156">
-        <v>1.120879120879122</v>
+        <v>1.100719424460433</v>
       </c>
       <c r="H156">
-        <v>0.7619853355893969</v>
+        <v>0.7536973833902169</v>
       </c>
       <c r="I156">
-        <v>1.024294373934456</v>
+        <v>1.010466535248286</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="2">
-        <v>43424</v>
+        <v>43427</v>
       </c>
       <c r="B157">
-        <v>1.107867534456355</v>
+        <v>1.101586294416243</v>
       </c>
       <c r="C157">
-        <v>1.023242753342525</v>
+        <v>1.007423961793385</v>
       </c>
       <c r="D157">
-        <v>0.9040072810985895</v>
+        <v>0.9164775183744056</v>
       </c>
       <c r="E157">
-        <v>0.6930445836738404</v>
+        <v>0.718309529931512</v>
       </c>
       <c r="F157">
-        <v>1.016481774960381</v>
+        <v>1.107868489102327</v>
       </c>
       <c r="G157">
-        <v>1.120879120879122</v>
+        <v>1.097122302158275</v>
       </c>
       <c r="H157">
-        <v>0.7467569091934577</v>
+        <v>0.7360637087599551</v>
       </c>
       <c r="I157">
-        <v>1.025620382648228</v>
+        <v>1.010842016333427</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="2">
-        <v>43425</v>
+        <v>43430</v>
       </c>
       <c r="B158">
-        <v>1.10490045941807</v>
+        <v>1.10253807106599</v>
       </c>
       <c r="C158">
-        <v>1.026356763288766</v>
+        <v>1.023071683325935</v>
       </c>
       <c r="D158">
-        <v>0.902535000133844</v>
+        <v>0.9228004755728492</v>
       </c>
       <c r="E158">
-        <v>0.6946336148188509</v>
+        <v>0.7211145134522338</v>
       </c>
       <c r="F158">
-        <v>0.9578446909667195</v>
+        <v>1.063169560398966</v>
       </c>
       <c r="G158">
-        <v>1.120879120879122</v>
+        <v>1.104316546762591</v>
       </c>
       <c r="H158">
-        <v>0.7484489565707841</v>
+        <v>0.7343572241183169</v>
       </c>
       <c r="I158">
-        <v>1.030308770600492</v>
+        <v>0.9992959729653615</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="2">
-        <v>43426</v>
+        <v>43431</v>
       </c>
       <c r="B159">
-        <v>1.104836651352731</v>
+        <v>1.103109137055837</v>
       </c>
       <c r="C159">
-        <v>1.026356763288766</v>
+        <v>1.026408639348529</v>
       </c>
       <c r="D159">
-        <v>0.9079155178413688</v>
+        <v>0.9187202766969305</v>
       </c>
       <c r="E159">
-        <v>0.6955416326159997</v>
+        <v>0.7236857483462288</v>
       </c>
       <c r="F159">
-        <v>0.9578446909667195</v>
+        <v>1.061322497229405</v>
       </c>
       <c r="G159">
-        <v>1.120879120879122</v>
+        <v>1.100719424460433</v>
       </c>
       <c r="H159">
-        <v>0.7473209249858999</v>
+        <v>0.7337883959044376</v>
       </c>
       <c r="I159">
-        <v>1.019558628528129</v>
+        <v>1.008213648737444</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="2">
-        <v>43427</v>
+        <v>43432</v>
       </c>
       <c r="B160">
-        <v>1.107771822358346</v>
+        <v>1.100999365482233</v>
       </c>
       <c r="C160">
-        <v>1.019629107472074</v>
+        <v>1.049989285003598</v>
       </c>
       <c r="D160">
-        <v>0.9079155178413688</v>
+        <v>0.9106139213143105</v>
       </c>
       <c r="E160">
-        <v>0.6975846726595845</v>
+        <v>0.7255557373600434</v>
       </c>
       <c r="F160">
-        <v>0.950554675118859</v>
+        <v>1.096416697451053</v>
       </c>
       <c r="G160">
-        <v>1.117216117216119</v>
+        <v>1.100719424460433</v>
       </c>
       <c r="H160">
-        <v>0.7298364354201919</v>
+        <v>0.7610921501706492</v>
       </c>
       <c r="I160">
-        <v>1.019937488160635</v>
+        <v>1.02051065427579</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="2">
-        <v>43430</v>
+        <v>43433</v>
       </c>
       <c r="B161">
-        <v>1.108728943338438</v>
+        <v>1.100222081218274</v>
       </c>
       <c r="C161">
-        <v>1.035466404325529</v>
+        <v>1.047681733992561</v>
       </c>
       <c r="D161">
-        <v>0.9141794041277408</v>
+        <v>0.9079118028534371</v>
       </c>
       <c r="E161">
-        <v>0.7003087260510309</v>
+        <v>0.7268179799443681</v>
       </c>
       <c r="F161">
-        <v>0.9122028526148972</v>
+        <v>1.055781307720724</v>
       </c>
       <c r="G161">
-        <v>1.124542124542126</v>
+        <v>1.089928057553958</v>
       </c>
       <c r="H161">
-        <v>0.7281443880428654</v>
+        <v>0.7315130830489198</v>
       </c>
       <c r="I161">
-        <v>1.008287554461071</v>
+        <v>1.02511029756876</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="2">
-        <v>43431</v>
+        <v>43434</v>
       </c>
       <c r="B162">
-        <v>1.109303215926493</v>
+        <v>1.102696700507614</v>
       </c>
       <c r="C162">
-        <v>1.038843788247323</v>
+        <v>1.056257557899249</v>
       </c>
       <c r="D162">
-        <v>0.9101373236608938</v>
+        <v>0.9065607436230004</v>
       </c>
       <c r="E162">
-        <v>0.7028057749931902</v>
+        <v>0.7276594750005846</v>
       </c>
       <c r="F162">
-        <v>0.9106180665610144</v>
+        <v>1.038418913926856</v>
       </c>
       <c r="G162">
-        <v>1.120879120879122</v>
+        <v>1.082733812949642</v>
       </c>
       <c r="H162">
-        <v>0.7275803722504233</v>
+        <v>0.7377701934015933</v>
       </c>
       <c r="I162">
-        <v>1.017285470733092</v>
+        <v>1.018633248850089</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="2">
-        <v>43432</v>
+        <v>43437</v>
       </c>
       <c r="B163">
-        <v>1.107181597753956</v>
+        <v>1.090767766497461</v>
       </c>
       <c r="C163">
-        <v>1.062710118208437</v>
+        <v>1.067814446876579</v>
       </c>
       <c r="D163">
-        <v>0.9021067002168272</v>
+        <v>0.9052096843925638</v>
       </c>
       <c r="E163">
-        <v>0.7046218105874879</v>
+        <v>0.728594469507492</v>
       </c>
       <c r="F163">
-        <v>0.9407290015847861</v>
+        <v>0.875138529737717</v>
       </c>
       <c r="G163">
-        <v>1.120879120879122</v>
+        <v>1.071942446043167</v>
       </c>
       <c r="H163">
-        <v>0.7546531302876484</v>
+        <v>0.7565415244596139</v>
       </c>
       <c r="I163">
-        <v>1.029693123697669</v>
+        <v>1.029756875997371</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="2">
-        <v>43433</v>
+        <v>43438</v>
       </c>
       <c r="B164">
-        <v>1.106399948953548</v>
+        <v>1.086500634517766</v>
       </c>
       <c r="C164">
-        <v>1.060374610748756</v>
+        <v>1.033254756693046</v>
       </c>
       <c r="D164">
-        <v>0.8994298257354715</v>
+        <v>0.8930501513186339</v>
       </c>
       <c r="E164">
-        <v>0.7058476346136386</v>
+        <v>0.7306982071480332</v>
       </c>
       <c r="F164">
-        <v>0.9058637083993661</v>
+        <v>0.9711858145548576</v>
       </c>
       <c r="G164">
-        <v>1.109890109890111</v>
+        <v>1.046762589928059</v>
       </c>
       <c r="H164">
-        <v>0.7253243090806545</v>
+        <v>0.7593856655290109</v>
       </c>
       <c r="I164">
-        <v>1.034334154195869</v>
+        <v>1.049094151882098</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="2">
-        <v>43434</v>
+        <v>43439</v>
       </c>
       <c r="B165">
-        <v>1.108888463501786</v>
+        <v>1.08808692893401</v>
       </c>
       <c r="C165">
-        <v>1.069054332501897</v>
+        <v>1.033254756693046</v>
       </c>
       <c r="D165">
-        <v>0.8980913884947938</v>
+        <v>0.8849437959360138</v>
       </c>
       <c r="E165">
-        <v>0.7066648506310725</v>
+        <v>0.7323344475351209</v>
       </c>
       <c r="F165">
-        <v>0.8909667194928685</v>
+        <v>0.9711858145548576</v>
       </c>
       <c r="G165">
-        <v>1.102564102564104</v>
+        <v>1.046762589928059</v>
       </c>
       <c r="H165">
-        <v>0.7315284827975186</v>
+        <v>0.7548350398179756</v>
       </c>
       <c r="I165">
-        <v>1.027798825535138</v>
+        <v>1.032432178728996</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="2">
-        <v>43437</v>
+        <v>43440</v>
       </c>
       <c r="B166">
-        <v>1.096892547217968</v>
+        <v>1.091624365482233</v>
       </c>
       <c r="C166">
-        <v>1.080751235533796</v>
+        <v>1.031681948292489</v>
       </c>
       <c r="D166">
-        <v>0.896752951254116</v>
+        <v>0.8849708171206225</v>
       </c>
       <c r="E166">
-        <v>0.7075728684282214</v>
+        <v>0.7323344475351209</v>
       </c>
       <c r="F166">
-        <v>0.7508716323296356</v>
+        <v>1</v>
       </c>
       <c r="G166">
-        <v>1.091575091575093</v>
+        <v>1.032374100719426</v>
       </c>
       <c r="H166">
-        <v>0.7501410039481109</v>
+        <v>0.7423208191126286</v>
       </c>
       <c r="I166">
-        <v>1.039022542148133</v>
+        <v>1.032056697643856</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="2">
-        <v>43438</v>
+        <v>43441</v>
       </c>
       <c r="B167">
-        <v>1.09260145482389</v>
+        <v>1.092401649746192</v>
       </c>
       <c r="C167">
-        <v>1.045772847692378</v>
+        <v>1.007622954583723</v>
       </c>
       <c r="D167">
-        <v>0.8847070160880159</v>
+        <v>0.8877269779507132</v>
       </c>
       <c r="E167">
-        <v>0.7096159084718062</v>
+        <v>0.7330356934153014</v>
       </c>
       <c r="F167">
-        <v>0.8332805071315372</v>
+        <v>1.030661248614703</v>
       </c>
       <c r="G167">
-        <v>1.065934065934067</v>
+        <v>1.025179856115109</v>
       </c>
       <c r="H167">
-        <v>0.7529610829103218</v>
+        <v>0.7423208191126286</v>
       </c>
       <c r="I167">
-        <v>1.0585338132222</v>
+        <v>1.019055665070872</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="2">
-        <v>43439</v>
+        <v>43444</v>
       </c>
       <c r="B168">
-        <v>1.094196656457376</v>
+        <v>1.096859137055837</v>
       </c>
       <c r="C168">
-        <v>1.045772847692378</v>
+        <v>1.009398582559047</v>
       </c>
       <c r="D168">
-        <v>0.8766763926439491</v>
+        <v>0.8829982706441848</v>
       </c>
       <c r="E168">
-        <v>0.7112049396168166</v>
+        <v>0.7344381851756623</v>
       </c>
       <c r="F168">
-        <v>0.8332805071315372</v>
+        <v>1.001477650535648</v>
       </c>
       <c r="G168">
-        <v>1.065934065934067</v>
+        <v>1.025179856115109</v>
       </c>
       <c r="H168">
-        <v>0.7484489565707844</v>
+        <v>0.7366325369738345</v>
       </c>
       <c r="I168">
-        <v>1.04172191702974</v>
+        <v>1.02271660565099</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="2">
-        <v>43440</v>
+        <v>43445</v>
       </c>
       <c r="B169">
-        <v>1.097753956100051</v>
+        <v>1.095669416243654</v>
       </c>
       <c r="C169">
-        <v>1.044180984398964</v>
+        <v>1.009038864822667</v>
       </c>
       <c r="D169">
-        <v>0.8767031613887627</v>
+        <v>0.8822957198443578</v>
       </c>
       <c r="E169">
-        <v>0.7112049396168166</v>
+        <v>0.7351394310558428</v>
       </c>
       <c r="F169">
-        <v>0.8580031695721079</v>
+        <v>1.007388252678242</v>
       </c>
       <c r="G169">
-        <v>1.051282051282052</v>
+        <v>1.039568345323743</v>
       </c>
       <c r="H169">
-        <v>0.7360406091370563</v>
+        <v>0.7389078498293522</v>
       </c>
       <c r="I169">
-        <v>1.041343057397234</v>
+        <v>1.012672486623486</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="2">
-        <v>43441</v>
+        <v>43446</v>
       </c>
       <c r="B170">
-        <v>1.09853560490046</v>
+        <v>1.089689086294416</v>
       </c>
       <c r="C170">
-        <v>1.019830511100437</v>
+        <v>1.014507339772536</v>
       </c>
       <c r="D170">
-        <v>0.8794335733597453</v>
+        <v>0.8836738002594033</v>
       </c>
       <c r="E170">
-        <v>0.7118859529646783</v>
+        <v>0.7356069283092963</v>
       </c>
       <c r="F170">
-        <v>0.8843106180665612</v>
+        <v>0.9722940524565941</v>
       </c>
       <c r="G170">
-        <v>1.043956043956045</v>
+        <v>1.046762589928059</v>
       </c>
       <c r="H170">
-        <v>0.7360406091370563</v>
+        <v>0.7411831626848698</v>
       </c>
       <c r="I170">
-        <v>1.028225042621708</v>
+        <v>1.007932037923589</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="2">
-        <v>43444</v>
+        <v>43447</v>
       </c>
       <c r="B171">
-        <v>1.103018121490557</v>
+        <v>1.091069162436548</v>
       </c>
       <c r="C171">
-        <v>1.021627651168915</v>
+        <v>1.014304520197769</v>
       </c>
       <c r="D171">
-        <v>0.874749043017373</v>
+        <v>0.9001026805015132</v>
       </c>
       <c r="E171">
-        <v>0.7132479796604015</v>
+        <v>0.73607442556275</v>
       </c>
       <c r="F171">
-        <v>0.8592709984152141</v>
+        <v>0.9331363132619136</v>
       </c>
       <c r="G171">
-        <v>1.043956043956045</v>
+        <v>1.046762589928059</v>
       </c>
       <c r="H171">
-        <v>0.7304004512126343</v>
+        <v>0.7508532423208197</v>
       </c>
       <c r="I171">
-        <v>1.031918924038643</v>
+        <v>0.9785506430113577</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="2">
-        <v>43445</v>
+        <v>43448</v>
       </c>
       <c r="B172">
-        <v>1.101821720265442</v>
+        <v>1.09492385786802</v>
       </c>
       <c r="C172">
-        <v>1.02126357537918</v>
+        <v>0.9949448177685257</v>
       </c>
       <c r="D172">
-        <v>0.8740530556522207</v>
+        <v>0.9043450064850842</v>
       </c>
       <c r="E172">
-        <v>0.7139289930082632</v>
+        <v>0.7377106659498378</v>
       </c>
       <c r="F172">
-        <v>0.8643423137876388</v>
+        <v>0.9752493535278907</v>
       </c>
       <c r="G172">
-        <v>1.05860805860806</v>
+        <v>1.039568345323743</v>
       </c>
       <c r="H172">
-        <v>0.7326565143824032</v>
+        <v>0.7389078498293522</v>
       </c>
       <c r="I172">
-        <v>1.021784428869103</v>
+        <v>0.9816952970994078</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="2">
-        <v>43446</v>
+        <v>43451</v>
       </c>
       <c r="B173">
-        <v>1.095807810107198</v>
+        <v>1.094670050761421</v>
       </c>
       <c r="C173">
-        <v>1.026798302012486</v>
+        <v>0.9742763550643668</v>
       </c>
       <c r="D173">
-        <v>0.8754182616377121</v>
+        <v>0.9109651967142239</v>
       </c>
       <c r="E173">
-        <v>0.7143830019068375</v>
+        <v>0.7395806549636524</v>
       </c>
       <c r="F173">
-        <v>0.834231378763867</v>
+        <v>1.034355374953823</v>
       </c>
       <c r="G173">
-        <v>1.065934065934067</v>
+        <v>1.028776978417268</v>
       </c>
       <c r="H173">
-        <v>0.734912577552172</v>
+        <v>0.7406143344709903</v>
       </c>
       <c r="I173">
-        <v>1.017001326008713</v>
+        <v>0.9687411996620663</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="2">
-        <v>43447</v>
+        <v>43452</v>
       </c>
       <c r="B174">
-        <v>1.097195635528331</v>
+        <v>1.093353426395939</v>
       </c>
       <c r="C174">
-        <v>1.026593025237423</v>
+        <v>0.9743605443218174</v>
       </c>
       <c r="D174">
-        <v>0.891693658484354</v>
+        <v>0.9109922178988326</v>
       </c>
       <c r="E174">
-        <v>0.714837010805412</v>
+        <v>0.7419181412309206</v>
       </c>
       <c r="F174">
-        <v>0.8006339144215532</v>
+        <v>1.02659770964167</v>
       </c>
       <c r="G174">
-        <v>1.065934065934067</v>
+        <v>1.014388489208635</v>
       </c>
       <c r="H174">
-        <v>0.7445008460236892</v>
+        <v>0.7343572241183168</v>
       </c>
       <c r="I174">
-        <v>0.987355559765106</v>
+        <v>0.9575237022434991</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="2">
-        <v>43448</v>
+        <v>43453</v>
       </c>
       <c r="B175">
-        <v>1.101071975497703</v>
+        <v>1.095479060913705</v>
       </c>
       <c r="C175">
-        <v>1.006998776085642</v>
+        <v>0.9593595493578657</v>
       </c>
       <c r="D175">
-        <v>0.8958963514200822</v>
+        <v>0.9028318201469951</v>
       </c>
       <c r="E175">
-        <v>0.7164260419504225</v>
+        <v>0.7435543816180084</v>
       </c>
       <c r="F175">
-        <v>0.8367670364500793</v>
+        <v>1.019948282231252</v>
       </c>
       <c r="G175">
-        <v>1.05860805860806</v>
+        <v>0.9964028776978434</v>
       </c>
       <c r="H175">
-        <v>0.7326565143824032</v>
+        <v>0.7269624573378844</v>
       </c>
       <c r="I175">
-        <v>0.9905285091873448</v>
+        <v>0.9763916267718009</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="2">
-        <v>43451</v>
+        <v>43454</v>
       </c>
       <c r="B176">
-        <v>1.100816743236345</v>
+        <v>1.093448604060913</v>
       </c>
       <c r="C176">
-        <v>0.9860799107626994</v>
+        <v>0.9442284437233084</v>
       </c>
       <c r="D176">
-        <v>0.9024546938994034</v>
+        <v>0.8917801556420232</v>
       </c>
       <c r="E176">
-        <v>0.7182420775447202</v>
+        <v>0.747761856899091</v>
       </c>
       <c r="F176">
-        <v>0.8874801901743266</v>
+        <v>1.059475434059845</v>
       </c>
       <c r="G176">
-        <v>1.047619047619049</v>
+        <v>1.00359712230216</v>
       </c>
       <c r="H176">
-        <v>0.7343485617597296</v>
+        <v>0.7229806598407287</v>
       </c>
       <c r="I176">
-        <v>0.9774578518658824</v>
+        <v>0.9851684971369563</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="2">
-        <v>43452</v>
+        <v>43455</v>
       </c>
       <c r="B177">
-        <v>1.099492725880552</v>
+        <v>1.098334390862944</v>
       </c>
       <c r="C177">
-        <v>0.9861651199900839</v>
+        <v>0.9247883788210444</v>
       </c>
       <c r="D177">
-        <v>0.9024814626442168</v>
+        <v>0.8962386511024641</v>
       </c>
       <c r="E177">
-        <v>0.7205121220375923</v>
+        <v>0.7500993431663592</v>
       </c>
       <c r="F177">
-        <v>0.8808240887480191</v>
+        <v>1.071666050978944</v>
       </c>
       <c r="G177">
-        <v>1.032967032967035</v>
+        <v>1.00359712230216</v>
       </c>
       <c r="H177">
-        <v>0.7281443880428656</v>
+        <v>0.7172923777019345</v>
       </c>
       <c r="I177">
-        <v>0.9661394203447613</v>
+        <v>0.975969210551018</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="2">
-        <v>43453</v>
+        <v>43458</v>
       </c>
       <c r="B178">
-        <v>1.101630296069424</v>
+        <v>1.09498730964467</v>
       </c>
       <c r="C178">
-        <v>0.9709823849288108</v>
+        <v>0.8997152872384394</v>
       </c>
       <c r="D178">
-        <v>0.894397301710523</v>
+        <v>0.904750324254215</v>
       </c>
       <c r="E178">
-        <v>0.7221011531826028</v>
+        <v>0.7550080643276222</v>
       </c>
       <c r="F178">
-        <v>0.8751188589540413</v>
+        <v>1.146287403029184</v>
       </c>
       <c r="G178">
-        <v>1.014652014652016</v>
+        <v>0.9856115107913687</v>
       </c>
       <c r="H178">
-        <v>0.7208121827411171</v>
+        <v>0.7201365187713316</v>
       </c>
       <c r="I178">
-        <v>0.9851771168781955</v>
+        <v>0.9643292969116675</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="2">
-        <v>43454</v>
+        <v>43459</v>
       </c>
       <c r="B179">
-        <v>1.099588437978561</v>
+        <v>1.093972081218274</v>
       </c>
       <c r="C179">
-        <v>0.9556679628797614</v>
+        <v>0.8997152872384394</v>
       </c>
       <c r="D179">
-        <v>0.8834488850817787</v>
+        <v>0.8947524859489837</v>
       </c>
       <c r="E179">
-        <v>0.7261872332697724</v>
+        <v>0.7650592552768753</v>
       </c>
       <c r="F179">
-        <v>0.9090332805071316</v>
+        <v>1.146287403029184</v>
       </c>
       <c r="G179">
-        <v>1.021978021978024</v>
+        <v>0.9856115107913687</v>
       </c>
       <c r="H179">
-        <v>0.7168640721940219</v>
+        <v>0.7201365187713316</v>
       </c>
       <c r="I179">
-        <v>0.9940329607880271</v>
+        <v>0.9903313620576356</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="2">
-        <v>43455</v>
+        <v>43460</v>
       </c>
       <c r="B180">
-        <v>1.104501659009699</v>
+        <v>1.093670685279187</v>
       </c>
       <c r="C180">
-        <v>0.9359923776472951</v>
+        <v>0.9443355936873364</v>
       </c>
       <c r="D180">
-        <v>0.8878657279760154</v>
+        <v>0.8919963251188928</v>
       </c>
       <c r="E180">
-        <v>0.7284572777626445</v>
+        <v>0.7734742058390407</v>
       </c>
       <c r="F180">
-        <v>0.9194928684627577</v>
+        <v>1.055411895086812</v>
       </c>
       <c r="G180">
-        <v>1.021978021978024</v>
+        <v>1.010791366906477</v>
       </c>
       <c r="H180">
-        <v>0.7112239142696</v>
+        <v>0.7201365187713316</v>
       </c>
       <c r="I180">
-        <v>0.9847508997916262</v>
+        <v>0.9934290810100437</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="2">
-        <v>43458</v>
+        <v>43461</v>
       </c>
       <c r="B181">
-        <v>1.101135783563043</v>
+        <v>1.090482233502537</v>
       </c>
       <c r="C181">
-        <v>0.910615520473453</v>
+        <v>0.9524215891870379</v>
       </c>
       <c r="D181">
-        <v>0.8962978825922853</v>
+        <v>0.8838359273670554</v>
       </c>
       <c r="E181">
-        <v>0.7332243711976757</v>
+        <v>0.7804866646408452</v>
       </c>
       <c r="F181">
-        <v>0.9835182250396198</v>
+        <v>1.066863686738086</v>
       </c>
       <c r="G181">
-        <v>1.003663003663006</v>
+        <v>0.9964028776978435</v>
       </c>
       <c r="H181">
-        <v>0.7140439932318109</v>
+        <v>0.7081911262798639</v>
       </c>
       <c r="I181">
-        <v>0.9730062511839352</v>
+        <v>1.016004881254106</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="2">
-        <v>43459</v>
+        <v>43462</v>
       </c>
       <c r="B182">
-        <v>1.100114854517611</v>
+        <v>1.09167195431472</v>
       </c>
       <c r="C182">
-        <v>0.910615520473453</v>
+        <v>0.9512391127982978</v>
       </c>
       <c r="D182">
-        <v>0.8863934470112697</v>
+        <v>0.8731895806312144</v>
       </c>
       <c r="E182">
-        <v>0.7429855625170255</v>
+        <v>0.7846941399219279</v>
       </c>
       <c r="F182">
-        <v>0.9835182250396198</v>
+        <v>1.029922423346878</v>
       </c>
       <c r="G182">
-        <v>1.003663003663006</v>
+        <v>0.9784172661870522</v>
       </c>
       <c r="H182">
-        <v>0.7140439932318109</v>
+        <v>0.711035267349261</v>
       </c>
       <c r="I182">
-        <v>0.9992422807349864</v>
+        <v>1.027410119215244</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="2">
-        <v>43460</v>
+        <v>43467</v>
       </c>
       <c r="B183">
-        <v>1.099811766207249</v>
+        <v>1.091322969543147</v>
       </c>
       <c r="C183">
-        <v>0.955776410987342</v>
+        <v>0.9605343721777465</v>
       </c>
       <c r="D183">
-        <v>0.8836630350402869</v>
+        <v>0.8574902723735404</v>
       </c>
       <c r="E183">
-        <v>0.7511577226913649</v>
+        <v>0.767864238797597</v>
       </c>
       <c r="F183">
-        <v>0.9055467511885896</v>
+        <v>0.9793128925009233</v>
       </c>
       <c r="G183">
-        <v>1.029304029304031</v>
+        <v>0.9568345323741025</v>
       </c>
       <c r="H183">
-        <v>0.7140439932318109</v>
+        <v>0.7025028441410699</v>
       </c>
       <c r="I183">
-        <v>1.002367872703163</v>
+        <v>1.038627616633812</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="2">
-        <v>43461</v>
+        <v>43468</v>
       </c>
       <c r="B184">
-        <v>1.096605410923941</v>
+        <v>1.091703680203045</v>
       </c>
       <c r="C184">
-        <v>0.9639603699629721</v>
+        <v>0.9367547337323393</v>
       </c>
       <c r="D184">
-        <v>0.8755788741065931</v>
+        <v>0.8487354085603107</v>
       </c>
       <c r="E184">
-        <v>0.757967856169981</v>
+        <v>0.7587480423552511</v>
       </c>
       <c r="F184">
-        <v>0.9153724247226626</v>
+        <v>1.01256002955301</v>
       </c>
       <c r="G184">
-        <v>1.014652014652017</v>
+        <v>0.9208633093525197</v>
       </c>
       <c r="H184">
-        <v>0.7021996615905248</v>
+        <v>0.7025028441410699</v>
       </c>
       <c r="I184">
-        <v>1.025146808107595</v>
+        <v>1.043602741011921</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="2">
-        <v>43462</v>
+        <v>43469</v>
       </c>
       <c r="B185">
-        <v>1.097801812149056</v>
+        <v>1.089038705583756</v>
       </c>
       <c r="C185">
-        <v>0.962763567632887</v>
+        <v>0.9689188568629551</v>
       </c>
       <c r="D185">
-        <v>0.865031988650052</v>
+        <v>0.8515185905750103</v>
       </c>
       <c r="E185">
-        <v>0.7620539362571508</v>
+        <v>0.7515018349267196</v>
       </c>
       <c r="F185">
-        <v>0.8836767036450081</v>
+        <v>0.9246398226819355</v>
       </c>
       <c r="G185">
-        <v>0.9963369963369983</v>
+        <v>0.9604316546762608</v>
       </c>
       <c r="H185">
-        <v>0.7050197405527358</v>
+        <v>0.7172923777019345</v>
       </c>
       <c r="I185">
-        <v>1.03665466944497</v>
+        <v>1.026846897587534</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="2">
-        <v>43467</v>
+        <v>43472</v>
       </c>
       <c r="B186">
-        <v>1.097450867789689</v>
+        <v>1.08594543147208</v>
       </c>
       <c r="C186">
-        <v>0.9721714409654975</v>
+        <v>0.9757113992254587</v>
       </c>
       <c r="D186">
-        <v>0.8494793479133762</v>
+        <v>0.8513564634673579</v>
       </c>
       <c r="E186">
-        <v>0.745709615908472</v>
+        <v>0.7342044365489352</v>
       </c>
       <c r="F186">
-        <v>0.8402535657686214</v>
+        <v>0.9172515700036937</v>
       </c>
       <c r="G186">
-        <v>0.9743589743589763</v>
+        <v>0.9712230215827357</v>
       </c>
       <c r="H186">
-        <v>0.6965595036661029</v>
+        <v>0.7224118316268492</v>
       </c>
       <c r="I186">
-        <v>1.047973100966091</v>
+        <v>1.012907162301699</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="2">
-        <v>43468</v>
+        <v>43473</v>
       </c>
       <c r="B187">
-        <v>1.097833716181726</v>
+        <v>1.087277918781725</v>
       </c>
       <c r="C187">
-        <v>0.9481037073760199</v>
+        <v>0.9851712103353791</v>
       </c>
       <c r="D187">
-        <v>0.8408062745937841</v>
+        <v>0.843358192823173</v>
       </c>
       <c r="E187">
-        <v>0.7368564423862708</v>
+        <v>0.722984502466048</v>
       </c>
       <c r="F187">
-        <v>0.8687797147385103</v>
+        <v>0.9021056520132986</v>
       </c>
       <c r="G187">
-        <v>0.9377289377289396</v>
+        <v>0.9820143884892104</v>
       </c>
       <c r="H187">
-        <v>0.6965595036661029</v>
+        <v>0.720705346985211</v>
       </c>
       <c r="I187">
-        <v>1.052992991096797</v>
+        <v>1.007978973059232</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="2">
-        <v>43469</v>
+        <v>43474</v>
       </c>
       <c r="B188">
-        <v>1.095153777437468</v>
+        <v>1.080663071065989</v>
       </c>
       <c r="C188">
-        <v>0.9806575053836731</v>
+        <v>0.9892084679085857</v>
       </c>
       <c r="D188">
-        <v>0.8435634553095804</v>
+        <v>0.8405209684392559</v>
       </c>
       <c r="E188">
-        <v>0.7298193044583673</v>
+        <v>0.716439540917697</v>
       </c>
       <c r="F188">
-        <v>0.7933438985736926</v>
+        <v>0.8673808644255631</v>
       </c>
       <c r="G188">
-        <v>0.97802197802198</v>
+        <v>0.9856115107913687</v>
       </c>
       <c r="H188">
-        <v>0.7112239142695999</v>
+        <v>0.7258248009101257</v>
       </c>
       <c r="I188">
-        <v>1.036086379996211</v>
+        <v>1.011592978503708</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="2">
-        <v>43472</v>
+        <v>43475</v>
       </c>
       <c r="B189">
-        <v>1.09204313425217</v>
+        <v>1.077601522842639</v>
       </c>
       <c r="C189">
-        <v>0.9875323407749383</v>
+        <v>0.9936781521223346</v>
       </c>
       <c r="D189">
-        <v>0.8434028428406991</v>
+        <v>0.8378188499783827</v>
       </c>
       <c r="E189">
-        <v>0.7130209752111141</v>
+        <v>0.7084920876089852</v>
       </c>
       <c r="F189">
-        <v>0.7870047543581615</v>
+        <v>0.8289619504987068</v>
       </c>
       <c r="G189">
-        <v>0.989010989010991</v>
+        <v>0.9856115107913687</v>
       </c>
       <c r="H189">
-        <v>0.7163000564015796</v>
+        <v>0.7235494880546082</v>
       </c>
       <c r="I189">
-        <v>1.022021216139419</v>
+        <v>1.019665821834225</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="2">
-        <v>43473</v>
+        <v>43476</v>
       </c>
       <c r="B190">
-        <v>1.093383103624298</v>
+        <v>1.072477791878172</v>
       </c>
       <c r="C190">
-        <v>0.9971067594156187</v>
+        <v>0.9935327343140107</v>
       </c>
       <c r="D190">
-        <v>0.8354792943758867</v>
+        <v>0.8392239515780369</v>
       </c>
       <c r="E190">
-        <v>0.7021247616453282</v>
+        <v>0.7028821205675415</v>
       </c>
       <c r="F190">
-        <v>0.7740095087163233</v>
+        <v>0.7872183228666416</v>
       </c>
       <c r="G190">
-        <v>1.000000000000002</v>
+        <v>0.9748201438848938</v>
       </c>
       <c r="H190">
-        <v>0.714608009024253</v>
+        <v>0.7286689419795228</v>
       </c>
       <c r="I190">
-        <v>1.017048683462776</v>
+        <v>1.016615038017459</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="2">
-        <v>43474</v>
+        <v>43479</v>
       </c>
       <c r="B191">
-        <v>1.08673111281266</v>
+        <v>1.072826776649745</v>
       </c>
       <c r="C191">
-        <v>1.001192929183385</v>
+        <v>0.9883091735676346</v>
       </c>
       <c r="D191">
-        <v>0.8326685761704633</v>
+        <v>0.8456820146995242</v>
       </c>
       <c r="E191">
-        <v>0.6957686370652865</v>
+        <v>0.6975059021528247</v>
       </c>
       <c r="F191">
-        <v>0.744215530903328</v>
+        <v>0.8156630956778718</v>
       </c>
       <c r="G191">
-        <v>1.003663003663006</v>
+        <v>0.9748201438848938</v>
       </c>
       <c r="H191">
-        <v>0.7196841511562326</v>
+        <v>0.7241183162684875</v>
       </c>
       <c r="I191">
-        <v>1.020695207425648</v>
+        <v>1.014549892049188</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="2">
-        <v>43475</v>
+        <v>43480</v>
       </c>
       <c r="B192">
-        <v>1.083652373660031</v>
+        <v>1.074524111675126</v>
       </c>
       <c r="C192">
-        <v>1.005716764528172</v>
+        <v>0.9989055396531403</v>
       </c>
       <c r="D192">
-        <v>0.8299917016891079</v>
+        <v>0.8480058365758751</v>
       </c>
       <c r="E192">
-        <v>0.6880504857895214</v>
+        <v>0.6923634323648348</v>
       </c>
       <c r="F192">
-        <v>0.7112519809825674</v>
+        <v>0.7850018470631692</v>
       </c>
       <c r="G192">
-        <v>1.003663003663006</v>
+        <v>0.9784172661870523</v>
       </c>
       <c r="H192">
-        <v>0.717428087986464</v>
+        <v>0.7337883959044375</v>
       </c>
       <c r="I192">
-        <v>1.028840689524531</v>
+        <v>1.015206983948184</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="2">
-        <v>43476</v>
+        <v>43481</v>
       </c>
       <c r="B193">
-        <v>1.07849987238387</v>
+        <v>1.072826776649745</v>
       </c>
       <c r="C193">
-        <v>1.005569584953599</v>
+        <v>1.001125074622296</v>
       </c>
       <c r="D193">
-        <v>0.8313836764194128</v>
+        <v>0.8307663207955033</v>
       </c>
       <c r="E193">
-        <v>0.6826023790066285</v>
+        <v>0.6876884598302985</v>
       </c>
       <c r="F193">
-        <v>0.6754358161648176</v>
+        <v>0.8034724787587731</v>
       </c>
       <c r="G193">
-        <v>0.9926739926739946</v>
+        <v>0.9820143884892105</v>
       </c>
       <c r="H193">
-        <v>0.7225042301184437</v>
+        <v>0.7337883959044375</v>
       </c>
       <c r="I193">
-        <v>1.025762455010418</v>
+        <v>1.043978222097062</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="2">
-        <v>43479</v>
+        <v>43482</v>
       </c>
       <c r="B194">
-        <v>1.078850816743237</v>
+        <v>1.075063451776649</v>
       </c>
       <c r="C194">
-        <v>1.000282739709048</v>
+        <v>1.008725068499441</v>
       </c>
       <c r="D194">
-        <v>0.8377814064298527</v>
+        <v>0.8311716385646344</v>
       </c>
       <c r="E194">
-        <v>0.6773812766730227</v>
+        <v>0.6848834763095767</v>
       </c>
       <c r="F194">
-        <v>0.6998415213946116</v>
+        <v>0.803103066124861</v>
       </c>
       <c r="G194">
-        <v>0.9926739926739946</v>
+        <v>0.989208633093527</v>
       </c>
       <c r="H194">
-        <v>0.7179921037789062</v>
+        <v>0.7309442548350404</v>
       </c>
       <c r="I194">
-        <v>1.023678727031634</v>
+        <v>1.040317281516944</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="2">
-        <v>43480</v>
+        <v>43483</v>
       </c>
       <c r="B195">
-        <v>1.080557682491067</v>
+        <v>1.07910850253807</v>
       </c>
       <c r="C195">
-        <v>1.011007482919422</v>
+        <v>1.02202314439223</v>
       </c>
       <c r="D195">
-        <v>0.8400835184838183</v>
+        <v>0.8352248162559445</v>
       </c>
       <c r="E195">
-        <v>0.6723871787887042</v>
+        <v>0.6820784927888549</v>
       </c>
       <c r="F195">
-        <v>0.6735340729001584</v>
+        <v>0.7765053564831913</v>
       </c>
       <c r="G195">
-        <v>0.9963369963369985</v>
+        <v>1.00359712230216</v>
       </c>
       <c r="H195">
-        <v>0.7275803722504234</v>
+        <v>0.7417519908987492</v>
       </c>
       <c r="I195">
-        <v>1.02434173138852</v>
+        <v>1.036233924716042</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="2">
-        <v>43481</v>
+        <v>43486</v>
       </c>
       <c r="B196">
-        <v>1.078850816743237</v>
+        <v>1.078775380710659</v>
       </c>
       <c r="C196">
-        <v>1.013253908005019</v>
+        <v>1.02202314439223</v>
       </c>
       <c r="D196">
-        <v>0.8230050592927698</v>
+        <v>0.8386565067012536</v>
       </c>
       <c r="E196">
-        <v>0.6678470898029601</v>
+        <v>0.6813772469086744</v>
       </c>
       <c r="F196">
-        <v>0.6893819334389857</v>
+        <v>0.7765053564831913</v>
       </c>
       <c r="G196">
-        <v>1.000000000000002</v>
+        <v>1.00359712230216</v>
       </c>
       <c r="H196">
-        <v>0.7275803722504234</v>
+        <v>0.7457337883959051</v>
       </c>
       <c r="I196">
-        <v>1.053371850729304</v>
+        <v>1.033511686848775</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="2">
-        <v>43482</v>
+        <v>43487</v>
       </c>
       <c r="B197">
-        <v>1.081100051046453</v>
+        <v>1.081249999999999</v>
       </c>
       <c r="C197">
-        <v>1.020945977349837</v>
+        <v>1.00755407246399</v>
       </c>
       <c r="D197">
-        <v>0.8234065904649732</v>
+        <v>0.8395752269779506</v>
       </c>
       <c r="E197">
-        <v>0.6651230364115137</v>
+        <v>0.6811434982819476</v>
       </c>
       <c r="F197">
-        <v>0.6890649762282091</v>
+        <v>0.8481714074621347</v>
       </c>
       <c r="G197">
-        <v>1.00732600732601</v>
+        <v>0.9856115107913689</v>
       </c>
       <c r="H197">
-        <v>0.7247602932882125</v>
+        <v>0.7372013651877141</v>
       </c>
       <c r="I197">
-        <v>1.049677969312369</v>
+        <v>1.041302919365437</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="2">
-        <v>43483</v>
+        <v>43488</v>
       </c>
       <c r="B198">
-        <v>1.085167815211843</v>
+        <v>1.077633248730964</v>
       </c>
       <c r="C198">
-        <v>1.03440516212992</v>
+        <v>1.009773607433146</v>
       </c>
       <c r="D198">
-        <v>0.8274219021870066</v>
+        <v>0.84279074794639</v>
       </c>
       <c r="E198">
-        <v>0.6623989830200673</v>
+        <v>0.6799747551483135</v>
       </c>
       <c r="F198">
-        <v>0.6662440570522978</v>
+        <v>0.8005171776874764</v>
       </c>
       <c r="G198">
-        <v>1.021978021978024</v>
+        <v>0.9928057553956853</v>
       </c>
       <c r="H198">
-        <v>0.735476593344614</v>
+        <v>0.7377701934015934</v>
       </c>
       <c r="I198">
-        <v>1.045557870808864</v>
+        <v>1.03139960574486</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="2">
-        <v>43486</v>
+        <v>43489</v>
       </c>
       <c r="B199">
-        <v>1.084832822868811</v>
+        <v>1.077918781725888</v>
       </c>
       <c r="C199">
-        <v>1.03440516212992</v>
+        <v>1.011162730181083</v>
       </c>
       <c r="D199">
-        <v>0.8308215327783282</v>
+        <v>0.8467898832684825</v>
       </c>
       <c r="E199">
-        <v>0.6617179696722056</v>
+        <v>0.6788060120146794</v>
       </c>
       <c r="F199">
-        <v>0.6662440570522978</v>
+        <v>0.7742888806797187</v>
       </c>
       <c r="G199">
-        <v>1.021978021978024</v>
+        <v>0.9784172661870523</v>
       </c>
       <c r="H199">
-        <v>0.7394247038917093</v>
+        <v>0.7411831626848698</v>
       </c>
       <c r="I199">
-        <v>1.042811138473195</v>
+        <v>1.034262649019056</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="2">
-        <v>43487</v>
+        <v>43490</v>
       </c>
       <c r="B200">
-        <v>1.08732133741705</v>
+        <v>1.07122461928934</v>
       </c>
       <c r="C200">
-        <v>1.01976079445985</v>
+        <v>1.01974620765663</v>
       </c>
       <c r="D200">
-        <v>0.8317316701019891</v>
+        <v>0.8484111543450065</v>
       </c>
       <c r="E200">
-        <v>0.6614909652229185</v>
+        <v>0.6783385147612258</v>
       </c>
       <c r="F200">
-        <v>0.7277337559429475</v>
+        <v>0.7894347986701139</v>
       </c>
       <c r="G200">
-        <v>1.003663003663006</v>
+        <v>0.9928057553956854</v>
       </c>
       <c r="H200">
-        <v>0.7309644670050767</v>
+        <v>0.744027303754267</v>
       </c>
       <c r="I200">
-        <v>1.050672475847698</v>
+        <v>1.030789448981508</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="2">
-        <v>43488</v>
+        <v>43493</v>
       </c>
       <c r="B201">
-        <v>1.083684277692701</v>
+        <v>1.071541878172588</v>
       </c>
       <c r="C201">
-        <v>1.022007219545446</v>
+        <v>1.011744401414379</v>
       </c>
       <c r="D201">
-        <v>0.8349171507348023</v>
+        <v>0.8483841331603977</v>
       </c>
       <c r="E201">
-        <v>0.6603559429764824</v>
+        <v>0.6781047661344989</v>
       </c>
       <c r="F201">
-        <v>0.6868462757527732</v>
+        <v>0.8204654599187285</v>
       </c>
       <c r="G201">
-        <v>1.010989010989013</v>
+        <v>0.9892086330935272</v>
       </c>
       <c r="H201">
-        <v>0.7315284827975188</v>
+        <v>0.7423208191126288</v>
       </c>
       <c r="I201">
-        <v>1.040680053040347</v>
+        <v>1.036233924716043</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="2">
-        <v>43489</v>
+        <v>43494</v>
       </c>
       <c r="B202">
-        <v>1.083971413986728</v>
+        <v>1.070352157360406</v>
       </c>
       <c r="C202">
-        <v>1.023413171797294</v>
+        <v>1.010271089408991</v>
       </c>
       <c r="D202">
-        <v>0.8388789249672085</v>
+        <v>0.844303934284479</v>
       </c>
       <c r="E202">
-        <v>0.6592209207300463</v>
+        <v>0.6778710175077721</v>
       </c>
       <c r="F202">
-        <v>0.6643423137876385</v>
+        <v>0.8208348725526405</v>
       </c>
       <c r="G202">
-        <v>0.9963369963369989</v>
+        <v>0.9784172661870525</v>
       </c>
       <c r="H202">
-        <v>0.7349125775521719</v>
+        <v>0.7417519908987493</v>
       </c>
       <c r="I202">
-        <v>1.043568857738207</v>
+        <v>1.042147751807003</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="2">
-        <v>43490</v>
+        <v>43495</v>
       </c>
       <c r="B203">
-        <v>1.077239663093416</v>
+        <v>1.064657360406091</v>
       </c>
       <c r="C203">
-        <v>1.032100639843834</v>
+        <v>1.025980039492415</v>
       </c>
       <c r="D203">
-        <v>0.8404850496560219</v>
+        <v>0.8417369217466494</v>
       </c>
       <c r="E203">
-        <v>0.658766911831472</v>
+        <v>0.6781047661344989</v>
       </c>
       <c r="F203">
-        <v>0.6773375594294768</v>
+        <v>0.8097524935352782</v>
       </c>
       <c r="G203">
-        <v>1.010989010989014</v>
+        <v>0.971223021582736</v>
       </c>
       <c r="H203">
-        <v>0.7377326565143829</v>
+        <v>0.7366325369738347</v>
       </c>
       <c r="I203">
-        <v>1.040064406137525</v>
+        <v>1.056369097906693</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="2">
-        <v>43493</v>
+        <v>43496</v>
       </c>
       <c r="B204">
-        <v>1.077558703420113</v>
+        <v>1.064308375634517</v>
       </c>
       <c r="C204">
-        <v>1.024001890095588</v>
+        <v>1.034800777602596</v>
       </c>
       <c r="D204">
-        <v>0.8404582809112083</v>
+        <v>0.8386565067012537</v>
       </c>
       <c r="E204">
-        <v>0.6585399073821847</v>
+        <v>0.6778710175077721</v>
       </c>
       <c r="F204">
-        <v>0.7039619651347065</v>
+        <v>0.7916512744735863</v>
       </c>
       <c r="G204">
-        <v>1.00732600732601</v>
+        <v>0.9460431654676279</v>
       </c>
       <c r="H204">
-        <v>0.7360406091370564</v>
+        <v>0.7394766780432317</v>
       </c>
       <c r="I204">
-        <v>1.045557870808865</v>
+        <v>1.062658406082794</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="2">
-        <v>43494</v>
+        <v>43497</v>
       </c>
       <c r="B205">
-        <v>1.076362302194998</v>
+        <v>1.071859137055837</v>
       </c>
       <c r="C205">
-        <v>1.022510728616356</v>
+        <v>1.035730686218984</v>
       </c>
       <c r="D205">
-        <v>0.8364162004443615</v>
+        <v>0.8385214007782101</v>
       </c>
       <c r="E205">
-        <v>0.6583129029328976</v>
+        <v>0.6778710175077721</v>
       </c>
       <c r="F205">
-        <v>0.7042789223454831</v>
+        <v>0.79940893978574</v>
       </c>
       <c r="G205">
-        <v>0.996336996336999</v>
+        <v>0.971223021582736</v>
       </c>
       <c r="H205">
-        <v>0.735476593344614</v>
+        <v>0.7491467576791816</v>
       </c>
       <c r="I205">
-        <v>1.051524910020837</v>
+        <v>1.057026189805689</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="2">
-        <v>43495</v>
+        <v>43507</v>
       </c>
       <c r="B206">
-        <v>1.070635528330782</v>
+        <v>1.078918147208122</v>
       </c>
       <c r="C206">
-        <v>1.038409995817001</v>
+        <v>1.036982044727456</v>
       </c>
       <c r="D206">
-        <v>0.8338731696870737</v>
+        <v>0.8287397319498485</v>
       </c>
       <c r="E206">
-        <v>0.6585399073821847</v>
+        <v>0.6774035202543185</v>
       </c>
       <c r="F206">
-        <v>0.6947702060221868</v>
+        <v>0.7643147395640925</v>
       </c>
       <c r="G206">
-        <v>0.9890109890109917</v>
+        <v>0.9532374100719445</v>
       </c>
       <c r="H206">
-        <v>0.7304004512126343</v>
+        <v>0.759385665529011</v>
       </c>
       <c r="I206">
-        <v>1.065874218602008</v>
+        <v>1.062611470947151</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="2">
-        <v>43496</v>
+        <v>43508</v>
       </c>
       <c r="B207">
-        <v>1.070284583971415</v>
+        <v>1.074508248730964</v>
       </c>
       <c r="C207">
-        <v>1.047337598958897</v>
+        <v>1.050349002739977</v>
       </c>
       <c r="D207">
-        <v>0.8308215327783283</v>
+        <v>0.8308473843493296</v>
       </c>
       <c r="E207">
-        <v>0.6583129029328976</v>
+        <v>0.6713260559594212</v>
       </c>
       <c r="F207">
-        <v>0.679239302694136</v>
+        <v>0.7439970446989281</v>
       </c>
       <c r="G207">
-        <v>0.9633699633699659</v>
+        <v>0.9640287769784194</v>
       </c>
       <c r="H207">
-        <v>0.7332205301748452</v>
+        <v>0.7645051194539257</v>
       </c>
       <c r="I207">
-        <v>1.072220117446486</v>
+        <v>1.063127757439219</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="2">
-        <v>43497</v>
+        <v>43509</v>
       </c>
       <c r="B208">
-        <v>1.07787774374681</v>
+        <v>1.076031091370558</v>
       </c>
       <c r="C208">
-        <v>1.048278773606828</v>
+        <v>1.053525233816528</v>
       </c>
       <c r="D208">
-        <v>0.8306876890542605</v>
+        <v>0.8300637699956762</v>
       </c>
       <c r="E208">
-        <v>0.6583129029328976</v>
+        <v>0.6666510834248848</v>
       </c>
       <c r="F208">
-        <v>0.6858954041204435</v>
+        <v>0.7439970446989281</v>
       </c>
       <c r="G208">
-        <v>0.9890109890109917</v>
+        <v>0.9748201438848942</v>
       </c>
       <c r="H208">
-        <v>0.7428087986463624</v>
+        <v>0.7775881683731523</v>
       </c>
       <c r="I208">
-        <v>1.066537222958893</v>
+        <v>1.072702525110298</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="2">
-        <v>43507</v>
+        <v>43510</v>
       </c>
       <c r="B209">
-        <v>1.084976391015825</v>
+        <v>1.075364847715736</v>
       </c>
       <c r="C209">
-        <v>1.049545292577501</v>
+        <v>1.050731681182935</v>
       </c>
       <c r="D209">
-        <v>0.8209974034317531</v>
+        <v>0.8302529182879375</v>
       </c>
       <c r="E209">
-        <v>0.6578588940343232</v>
+        <v>0.6615086136368948</v>
       </c>
       <c r="F209">
-        <v>0.6557844690966717</v>
+        <v>0.7506464721093454</v>
       </c>
       <c r="G209">
-        <v>0.9706959706959734</v>
+        <v>0.9568345323741029</v>
       </c>
       <c r="H209">
-        <v>0.7529610829103218</v>
+        <v>0.7770193401592729</v>
       </c>
       <c r="I209">
-        <v>1.072172759992422</v>
+        <v>1.073969773772646</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="2">
-        <v>43508</v>
+        <v>43511</v>
       </c>
       <c r="B210">
-        <v>1.080541730474733</v>
+        <v>1.073968908629441</v>
       </c>
       <c r="C210">
-        <v>1.063074193998171</v>
+        <v>1.062162286274089</v>
       </c>
       <c r="D210">
-        <v>0.8230853655272103</v>
+        <v>0.8320903588413314</v>
       </c>
       <c r="E210">
-        <v>0.6519567783528557</v>
+        <v>0.6549636520885439</v>
       </c>
       <c r="F210">
-        <v>0.6383518225039617</v>
+        <v>0.7550794237162903</v>
       </c>
       <c r="G210">
-        <v>0.9816849816849844</v>
+        <v>0.9568345323741029</v>
       </c>
       <c r="H210">
-        <v>0.7580372250423015</v>
+        <v>0.7662116040955641</v>
       </c>
       <c r="I210">
-        <v>1.072693691987118</v>
+        <v>1.07589411433399</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="2">
-        <v>43509</v>
+        <v>43514</v>
       </c>
       <c r="B211">
-        <v>1.08207312404288</v>
+        <v>1.074460659898477</v>
       </c>
       <c r="C211">
-        <v>1.066288905758593</v>
+        <v>1.062162286274089</v>
       </c>
       <c r="D211">
-        <v>0.8223090719276172</v>
+        <v>0.8401967142239513</v>
       </c>
       <c r="E211">
-        <v>0.6474166893671116</v>
+        <v>0.6537949089549099</v>
       </c>
       <c r="F211">
-        <v>0.6383518225039617</v>
+        <v>0.7550794237162903</v>
       </c>
       <c r="G211">
-        <v>0.9926739926739954</v>
+        <v>0.9568345323741029</v>
       </c>
       <c r="H211">
-        <v>0.771009588268472</v>
+        <v>0.788395904436861</v>
       </c>
       <c r="I211">
-        <v>1.082354612616026</v>
+        <v>1.068806908851966</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="2">
-        <v>43510</v>
+        <v>43515</v>
       </c>
       <c r="B212">
-        <v>1.081403139356816</v>
+        <v>1.070098350253807</v>
       </c>
       <c r="C212">
-        <v>1.063461508668101</v>
+        <v>1.063754228596794</v>
       </c>
       <c r="D212">
-        <v>0.8224964531413121</v>
+        <v>0.8451956333765669</v>
       </c>
       <c r="E212">
-        <v>0.6424225914827931</v>
+        <v>0.6493536850471003</v>
       </c>
       <c r="F212">
-        <v>0.6440570522979394</v>
+        <v>0.7831547838936083</v>
       </c>
       <c r="G212">
-        <v>0.974358974358977</v>
+        <v>0.9532374100719445</v>
       </c>
       <c r="H212">
-        <v>0.7704455724760298</v>
+        <v>0.7889647326507404</v>
       </c>
       <c r="I212">
-        <v>1.083633263875734</v>
+        <v>1.059560687130386</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="2">
-        <v>43511</v>
+        <v>43516</v>
       </c>
       <c r="B213">
-        <v>1.079999361919348</v>
+        <v>1.065831218274112</v>
       </c>
       <c r="C213">
-        <v>1.075030597858923</v>
+        <v>1.065644660105006</v>
       </c>
       <c r="D213">
-        <v>0.8243167277886341</v>
+        <v>0.842952875054042</v>
       </c>
       <c r="E213">
-        <v>0.6360664669027514</v>
+        <v>0.6449124611392908</v>
       </c>
       <c r="F213">
-        <v>0.6478605388272579</v>
+        <v>0.7842630217953446</v>
       </c>
       <c r="G213">
-        <v>0.974358974358977</v>
+        <v>0.9532374100719445</v>
       </c>
       <c r="H213">
-        <v>0.7597292724196283</v>
+        <v>0.7901023890784993</v>
       </c>
       <c r="I213">
-        <v>1.085574919492328</v>
+        <v>1.062329860133296</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="2">
-        <v>43514</v>
+        <v>43517</v>
       </c>
       <c r="B214">
-        <v>1.080493874425729</v>
+        <v>1.066894035532995</v>
       </c>
       <c r="C214">
-        <v>1.075030597858923</v>
+        <v>1.061886757795159</v>
       </c>
       <c r="D214">
-        <v>0.8323473512327006</v>
+        <v>0.8474113705144829</v>
       </c>
       <c r="E214">
-        <v>0.6349314446563153</v>
+        <v>0.6425749748720226</v>
       </c>
       <c r="F214">
-        <v>0.6478605388272579</v>
+        <v>0.7728112301440702</v>
       </c>
       <c r="G214">
-        <v>0.974358974358977</v>
+        <v>0.9676258992805776</v>
       </c>
       <c r="H214">
-        <v>0.7817258883248736</v>
+        <v>0.7901023890784993</v>
       </c>
       <c r="I214">
-        <v>1.078423943928774</v>
+        <v>1.061531962827372</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="2">
-        <v>43515</v>
+        <v>43518</v>
       </c>
       <c r="B215">
-        <v>1.076107069933641</v>
+        <v>1.063182106598985</v>
       </c>
       <c r="C215">
-        <v>1.076641826885834</v>
+        <v>1.068694607295381</v>
       </c>
       <c r="D215">
-        <v>0.8372995690232085</v>
+        <v>0.8498432771292688</v>
       </c>
       <c r="E215">
-        <v>0.6306183601198584</v>
+        <v>0.6425749748720226</v>
       </c>
       <c r="F215">
-        <v>0.6719492868462752</v>
+        <v>0.7683782785371251</v>
       </c>
       <c r="G215">
-        <v>0.9706959706959732</v>
+        <v>0.9532374100719444</v>
       </c>
       <c r="H215">
-        <v>0.7822899041173157</v>
+        <v>0.8026166097838462</v>
       </c>
       <c r="I215">
-        <v>1.06909452547831</v>
+        <v>1.062658406082794</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="2">
-        <v>43516</v>
+        <v>43521</v>
       </c>
       <c r="B216">
-        <v>1.071815977539562</v>
+        <v>1.060199873096447</v>
       </c>
       <c r="C216">
-        <v>1.07855516135529</v>
+        <v>1.070011021139156</v>
       </c>
       <c r="D216">
-        <v>0.8350777632036834</v>
+        <v>0.8589223951578032</v>
       </c>
       <c r="E216">
-        <v>0.6263052755834014</v>
+        <v>0.643276220752203</v>
       </c>
       <c r="F216">
-        <v>0.6729001584786048</v>
+        <v>0.8093830809013659</v>
       </c>
       <c r="G216">
-        <v>0.9706959706959732</v>
+        <v>0.960431654676261</v>
       </c>
       <c r="H216">
-        <v>0.7834179357022002</v>
+        <v>0.848122866894199</v>
       </c>
       <c r="I216">
-        <v>1.071888615268043</v>
+        <v>1.051018492443443</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="2">
-        <v>43517</v>
+        <v>43522</v>
       </c>
       <c r="B217">
-        <v>1.072884762633998</v>
+        <v>1.060659898477158</v>
       </c>
       <c r="C217">
-        <v>1.074751731296574</v>
+        <v>1.069165301780219</v>
       </c>
       <c r="D217">
-        <v>0.8394946060979199</v>
+        <v>0.8613813229571979</v>
       </c>
       <c r="E217">
-        <v>0.6240352310905294</v>
+        <v>0.6442112152591102</v>
       </c>
       <c r="F217">
-        <v>0.663074484944532</v>
+        <v>0.8274842999630577</v>
       </c>
       <c r="G217">
-        <v>0.985347985347988</v>
+        <v>0.9496402877697863</v>
       </c>
       <c r="H217">
-        <v>0.7834179357022002</v>
+        <v>0.842434584755405</v>
       </c>
       <c r="I217">
-        <v>1.071083538548967</v>
+        <v>1.069041584530179</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="2">
-        <v>43518</v>
+        <v>43523</v>
       </c>
       <c r="B218">
-        <v>1.06915199081164</v>
+        <v>1.060659898477158</v>
       </c>
       <c r="C218">
-        <v>1.081642059274636</v>
+        <v>1.068583630546923</v>
       </c>
       <c r="D218">
-        <v>0.8419037931311398</v>
+        <v>0.8562743190661473</v>
       </c>
       <c r="E218">
-        <v>0.6240352310905294</v>
+        <v>0.6442112152591102</v>
       </c>
       <c r="F218">
-        <v>0.6592709984152134</v>
+        <v>0.8345031400073872</v>
       </c>
       <c r="G218">
-        <v>0.9706959706959732</v>
+        <v>0.9676258992805775</v>
       </c>
       <c r="H218">
-        <v>0.7958262831359283</v>
+        <v>0.8458475540386813</v>
       </c>
       <c r="I218">
-        <v>1.072220117446486</v>
+        <v>1.074298319722144</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="2">
-        <v>43521</v>
+        <v>43524</v>
       </c>
       <c r="B219">
-        <v>1.066153011740685</v>
+        <v>1.063356598984772</v>
       </c>
       <c r="C219">
-        <v>1.082974421739197</v>
+        <v>1.065564297631985</v>
       </c>
       <c r="D219">
-        <v>0.8508980913884946</v>
+        <v>0.8574092088197141</v>
       </c>
       <c r="E219">
-        <v>0.624716244438391</v>
+        <v>0.6430424721254761</v>
       </c>
       <c r="F219">
-        <v>0.6944532488114098</v>
+        <v>0.8226819357222007</v>
       </c>
       <c r="G219">
-        <v>0.9780219780219805</v>
+        <v>0.9820143884892106</v>
       </c>
       <c r="H219">
-        <v>0.8409475465313035</v>
+        <v>0.8424345847554049</v>
       </c>
       <c r="I219">
-        <v>1.060475468838795</v>
+        <v>1.082418098188304</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="2">
-        <v>43522</v>
+        <v>43525</v>
       </c>
       <c r="B220">
-        <v>1.066615620214396</v>
+        <v>1.065022208121827</v>
       </c>
       <c r="C220">
-        <v>1.082118456318651</v>
+        <v>1.072911723736778</v>
       </c>
       <c r="D220">
-        <v>0.8533340471665282</v>
+        <v>0.861165153480328</v>
       </c>
       <c r="E220">
-        <v>0.6256242622355398</v>
+        <v>0.6428087234987493</v>
       </c>
       <c r="F220">
-        <v>0.7099841521394604</v>
+        <v>0.77281123014407</v>
       </c>
       <c r="G220">
-        <v>0.9670329670329696</v>
+        <v>0.9928057553956854</v>
       </c>
       <c r="H220">
-        <v>0.8353073886068817</v>
+        <v>0.8577929465301489</v>
       </c>
       <c r="I220">
-        <v>1.07866073119909</v>
+        <v>1.085281141462499</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="2">
-        <v>43523</v>
+        <v>43528</v>
       </c>
       <c r="B221">
-        <v>1.066615620214396</v>
+        <v>1.063975253807107</v>
       </c>
       <c r="C221">
-        <v>1.081529738020356</v>
+        <v>1.068748182277395</v>
       </c>
       <c r="D221">
-        <v>0.848274754396766</v>
+        <v>0.8652993947254642</v>
       </c>
       <c r="E221">
-        <v>0.6256242622355398</v>
+        <v>0.6428087234987493</v>
       </c>
       <c r="F221">
-        <v>0.7160063391442147</v>
+        <v>0.8178795714813437</v>
       </c>
       <c r="G221">
-        <v>0.9853479853479878</v>
+        <v>0.9784172661870524</v>
       </c>
       <c r="H221">
-        <v>0.8386914833615347</v>
+        <v>0.8674630261660988</v>
       </c>
       <c r="I221">
-        <v>1.083964766054176</v>
+        <v>1.088989017178259</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="2">
-        <v>43524</v>
+        <v>43529</v>
       </c>
       <c r="B222">
-        <v>1.069327462991323</v>
+        <v>1.063531091370558</v>
       </c>
       <c r="C222">
-        <v>1.078473825274605</v>
+        <v>1.067538918397648</v>
       </c>
       <c r="D222">
-        <v>0.8493990416789354</v>
+        <v>0.8687040639861645</v>
       </c>
       <c r="E222">
-        <v>0.6244892399891038</v>
+        <v>0.6428087234987493</v>
       </c>
       <c r="F222">
-        <v>0.7058637083993653</v>
+        <v>0.7979312892500915</v>
       </c>
       <c r="G222">
-        <v>1.000000000000003</v>
+        <v>0.9784172661870524</v>
       </c>
       <c r="H222">
-        <v>0.8353073886068816</v>
+        <v>0.8748577929465313</v>
       </c>
       <c r="I222">
-        <v>1.092157605607122</v>
+        <v>1.090960292875246</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" s="2">
-        <v>43525</v>
+        <v>43530</v>
       </c>
       <c r="B223">
-        <v>1.071002424706484</v>
+        <v>1.065450507614213</v>
       </c>
       <c r="C223">
-        <v>1.08591026693727</v>
+        <v>1.060574170735813</v>
       </c>
       <c r="D223">
-        <v>0.8531198972080196</v>
+        <v>0.8652453523562467</v>
       </c>
       <c r="E223">
-        <v>0.6242622355398165</v>
+        <v>0.6428087234987493</v>
       </c>
       <c r="F223">
-        <v>0.6630744849445318</v>
+        <v>0.8104913188031022</v>
       </c>
       <c r="G223">
-        <v>1.010989010989014</v>
+        <v>0.9676258992805775</v>
       </c>
       <c r="H223">
-        <v>0.8505358150028206</v>
+        <v>0.8885096700796371</v>
       </c>
       <c r="I223">
-        <v>1.095046410304981</v>
+        <v>1.091382709096029</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="2">
-        <v>43528</v>
+        <v>43531</v>
       </c>
       <c r="B224">
-        <v>1.069949591628383</v>
+        <v>1.06822652284264</v>
       </c>
       <c r="C224">
-        <v>1.081696283328426</v>
+        <v>1.0519562522004</v>
       </c>
       <c r="D224">
-        <v>0.8572155151644937</v>
+        <v>0.8531128404669254</v>
       </c>
       <c r="E224">
-        <v>0.6242622355398165</v>
+        <v>0.6430424721254761</v>
       </c>
       <c r="F224">
-        <v>0.7017432646592702</v>
+        <v>0.8526043590690793</v>
       </c>
       <c r="G224">
-        <v>0.9963369963369991</v>
+        <v>0.9496402877697862</v>
       </c>
       <c r="H224">
-        <v>0.8601240834743378</v>
+        <v>0.8896473265073961</v>
       </c>
       <c r="I224">
-        <v>1.098787649175979</v>
+        <v>1.116633812071717</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="2">
-        <v>43529</v>
+        <v>43532</v>
       </c>
       <c r="B225">
-        <v>1.069502935171007</v>
+        <v>1.067750634517767</v>
       </c>
       <c r="C225">
-        <v>1.080472368971446</v>
+        <v>1.049713756524667</v>
       </c>
       <c r="D225">
-        <v>0.8605883770110015</v>
+        <v>0.8490866839602241</v>
       </c>
       <c r="E225">
-        <v>0.6242622355398165</v>
+        <v>0.6439774666323833</v>
       </c>
       <c r="F225">
-        <v>0.6846275752773369</v>
+        <v>0.8585149612116725</v>
       </c>
       <c r="G225">
-        <v>0.9963369963369991</v>
+        <v>0.9424460431654696</v>
       </c>
       <c r="H225">
-        <v>0.8674562887760864</v>
+        <v>0.8503981797497168</v>
       </c>
       <c r="I225">
-        <v>1.100776662246637</v>
+        <v>1.122829249976532</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" s="2">
-        <v>43530</v>
+        <v>43535</v>
       </c>
       <c r="B226">
-        <v>1.071433129147525</v>
+        <v>1.067940989847716</v>
       </c>
       <c r="C226">
-        <v>1.073423241978712</v>
+        <v>1.065108910284865</v>
       </c>
       <c r="D226">
-        <v>0.8571619776748665</v>
+        <v>0.8477626459143961</v>
       </c>
       <c r="E226">
-        <v>0.6242622355398165</v>
+        <v>0.6443280895724735</v>
       </c>
       <c r="F226">
-        <v>0.6954041204437394</v>
+        <v>0.8171407462135196</v>
       </c>
       <c r="G226">
-        <v>0.9853479853479881</v>
+        <v>0.9496402877697862</v>
       </c>
       <c r="H226">
-        <v>0.8809926677946989</v>
+        <v>0.8668941979522197</v>
       </c>
       <c r="I226">
-        <v>1.101202879333206</v>
+        <v>1.123908758096311</v>
       </c>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" s="2">
-        <v>43531</v>
+        <v>43536</v>
       </c>
       <c r="B227">
-        <v>1.074224732006127</v>
+        <v>1.063895939086295</v>
       </c>
       <c r="C227">
-        <v>1.064700915611879</v>
+        <v>1.06825452708598</v>
       </c>
       <c r="D227">
-        <v>0.8451428112535799</v>
+        <v>0.8491137051448329</v>
       </c>
       <c r="E227">
-        <v>0.6244892399891037</v>
+        <v>0.6453799583927442</v>
       </c>
       <c r="F227">
-        <v>0.7315372424722655</v>
+        <v>0.8104913188031022</v>
       </c>
       <c r="G227">
-        <v>0.9670329670329697</v>
+        <v>0.9388489208633112</v>
       </c>
       <c r="H227">
-        <v>0.8821206993795834</v>
+        <v>0.8765642775881696</v>
       </c>
       <c r="I227">
-        <v>1.126681189619245</v>
+        <v>1.128226790575425</v>
       </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="2">
-        <v>43532</v>
+        <v>43537</v>
       </c>
       <c r="B228">
-        <v>1.073746171516081</v>
+        <v>1.063039340101523</v>
       </c>
       <c r="C228">
-        <v>1.062431251646087</v>
+        <v>1.075678488879364</v>
       </c>
       <c r="D228">
-        <v>0.8411542682763602</v>
+        <v>0.8477896670990051</v>
       </c>
       <c r="E228">
-        <v>0.6253972577862524</v>
+        <v>0.6470161987798317</v>
       </c>
       <c r="F228">
-        <v>0.7366085578446901</v>
+        <v>0.7971924639822672</v>
       </c>
       <c r="G228">
-        <v>0.9597069597069624</v>
+        <v>0.9388489208633112</v>
       </c>
       <c r="H228">
-        <v>0.8432036097010723</v>
+        <v>0.8668941979522196</v>
       </c>
       <c r="I228">
-        <v>1.132932373555597</v>
+        <v>1.138317844738571</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" s="2">
-        <v>43535</v>
+        <v>43538</v>
       </c>
       <c r="B229">
-        <v>1.073937595712099</v>
+        <v>1.066291243654822</v>
       </c>
       <c r="C229">
-        <v>1.078012920817388</v>
+        <v>1.074744753478546</v>
       </c>
       <c r="D229">
-        <v>0.8398425997804959</v>
+        <v>0.8504917855598783</v>
       </c>
       <c r="E229">
-        <v>0.6257377644601831</v>
+        <v>0.6491199364203732</v>
       </c>
       <c r="F229">
-        <v>0.7011093502377171</v>
+        <v>0.7547100110823781</v>
       </c>
       <c r="G229">
-        <v>0.9670329670329697</v>
+        <v>0.9460431654676278</v>
       </c>
       <c r="H229">
-        <v>0.8595600676818959</v>
+        <v>0.8566552901023902</v>
       </c>
       <c r="I229">
-        <v>1.134021594999052</v>
+        <v>1.137801558246503</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" s="2">
-        <v>43536</v>
+        <v>43539</v>
       </c>
       <c r="B230">
-        <v>1.069869831546709</v>
+        <v>1.064958756345178</v>
       </c>
       <c r="C230">
-        <v>1.081196647404216</v>
+        <v>1.080102251679958</v>
       </c>
       <c r="D230">
-        <v>0.8411810370211737</v>
+        <v>0.8478166882836137</v>
       </c>
       <c r="E230">
-        <v>0.6267592844819756</v>
+        <v>0.6542624062083632</v>
       </c>
       <c r="F230">
-        <v>0.6954041204437393</v>
+        <v>0.7391946804580708</v>
       </c>
       <c r="G230">
-        <v>0.9560439560439585</v>
+        <v>0.9316546762589947</v>
       </c>
       <c r="H230">
-        <v>0.869148336153413</v>
+        <v>0.8651877133105813</v>
       </c>
       <c r="I230">
-        <v>1.138378480772873</v>
+        <v>1.141180888012766</v>
       </c>
     </row>
     <row r="231" spans="1:9">
       <c r="A231" s="2">
-        <v>43537</v>
+        <v>43542</v>
       </c>
       <c r="B231">
-        <v>1.069008422664626</v>
+        <v>1.066132614213198</v>
       </c>
       <c r="C231">
-        <v>1.088710552000867</v>
+        <v>1.084105068193298</v>
       </c>
       <c r="D231">
-        <v>0.8398693685253097</v>
+        <v>0.8478437094682224</v>
       </c>
       <c r="E231">
-        <v>0.6283483156269859</v>
+        <v>0.6577686356092655</v>
       </c>
       <c r="F231">
-        <v>0.6839936608557836</v>
+        <v>0.7247875877354997</v>
       </c>
       <c r="G231">
-        <v>0.9560439560439585</v>
+        <v>0.9352517985611529</v>
       </c>
       <c r="H231">
-        <v>0.8595600676818959</v>
+        <v>0.8868031854379989</v>
       </c>
       <c r="I231">
-        <v>1.148560333396476</v>
+        <v>1.143199098845396</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="2">
-        <v>43538</v>
+        <v>43543</v>
       </c>
       <c r="B232">
-        <v>1.072278586013273</v>
+        <v>1.065625</v>
       </c>
       <c r="C232">
-        <v>1.087765504206237</v>
+        <v>1.083963477169404</v>
       </c>
       <c r="D232">
-        <v>0.8425462430066651</v>
+        <v>0.8478437094682224</v>
       </c>
       <c r="E232">
-        <v>0.6303913556705709</v>
+        <v>0.6598723732498069</v>
       </c>
       <c r="F232">
-        <v>0.647543581616481</v>
+        <v>0.7439970446989278</v>
       </c>
       <c r="G232">
-        <v>0.9633699633699659</v>
+        <v>0.9388489208633112</v>
       </c>
       <c r="H232">
-        <v>0.8494077834179364</v>
+        <v>0.8850967007963607</v>
       </c>
       <c r="I232">
-        <v>1.14803940140178</v>
+        <v>1.136581244719797</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="2">
-        <v>43539</v>
+        <v>43544</v>
       </c>
       <c r="B233">
-        <v>1.070938616641145</v>
+        <v>1.061008883248731</v>
       </c>
       <c r="C233">
-        <v>1.093187909585263</v>
+        <v>1.080771938955134</v>
       </c>
       <c r="D233">
-        <v>0.8398961372701231</v>
+        <v>0.8498973194984861</v>
       </c>
       <c r="E233">
-        <v>0.6353854535548894</v>
+        <v>0.6622098595170751</v>
       </c>
       <c r="F233">
-        <v>0.6342313787638661</v>
+        <v>0.7794606575544875</v>
       </c>
       <c r="G233">
-        <v>0.9487179487179512</v>
+        <v>0.9136690647482033</v>
       </c>
       <c r="H233">
-        <v>0.8578680203045692</v>
+        <v>0.8845278725824813</v>
       </c>
       <c r="I233">
-        <v>1.151449138094335</v>
+        <v>1.122172158077537</v>
       </c>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="2">
-        <v>43542</v>
+        <v>43545</v>
       </c>
       <c r="B234">
-        <v>1.072119065849924</v>
+        <v>1.063975253807107</v>
       </c>
       <c r="C234">
-        <v>1.097239221032735</v>
+        <v>1.092501033231795</v>
       </c>
       <c r="D234">
-        <v>0.8399229060149367</v>
+        <v>0.8455198875918714</v>
       </c>
       <c r="E234">
-        <v>0.6387905202941976</v>
+        <v>0.6633786026507091</v>
       </c>
       <c r="F234">
-        <v>0.6218700475435809</v>
+        <v>0.7672700406353887</v>
       </c>
       <c r="G234">
-        <v>0.9523809523809549</v>
+        <v>0.9136690647482033</v>
       </c>
       <c r="H234">
-        <v>0.8793006204173723</v>
+        <v>0.8879408418657577</v>
       </c>
       <c r="I234">
-        <v>1.153485508619056</v>
+        <v>1.129775650051628</v>
       </c>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="2">
-        <v>43543</v>
+        <v>43546</v>
       </c>
       <c r="B235">
-        <v>1.071608601327209</v>
+        <v>1.066560913705584</v>
       </c>
       <c r="C235">
-        <v>1.097095914604861</v>
+        <v>1.071771341976763</v>
       </c>
       <c r="D235">
-        <v>0.8399229060149367</v>
+        <v>0.8398184176394285</v>
       </c>
       <c r="E235">
-        <v>0.6408335603377825</v>
+        <v>0.6631448540239824</v>
       </c>
       <c r="F235">
-        <v>0.6383518225039613</v>
+        <v>0.8182489841152557</v>
       </c>
       <c r="G235">
-        <v>0.9560439560439585</v>
+        <v>0.8776978417266205</v>
       </c>
       <c r="H235">
-        <v>0.8776085730400458</v>
+        <v>0.8885096700796372</v>
       </c>
       <c r="I235">
-        <v>1.146808107596135</v>
+        <v>1.149582277292781</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="2">
-        <v>43544</v>
+        <v>43549</v>
       </c>
       <c r="B236">
-        <v>1.066966564573763</v>
+        <v>1.065545685279188</v>
       </c>
       <c r="C236">
-        <v>1.093865710257641</v>
+        <v>1.070872047635812</v>
       </c>
       <c r="D236">
-        <v>0.8419573306207669</v>
+        <v>0.8330901426718539</v>
       </c>
       <c r="E236">
-        <v>0.6431036048306547</v>
+        <v>0.6629111053972555</v>
       </c>
       <c r="F236">
-        <v>0.6687797147385096</v>
+        <v>0.8263760620613215</v>
       </c>
       <c r="G236">
-        <v>0.9304029304029329</v>
+        <v>0.8741007194244622</v>
       </c>
       <c r="H236">
-        <v>0.8770445572476037</v>
+        <v>0.8708759954493756</v>
       </c>
       <c r="I236">
-        <v>1.132269369198711</v>
+        <v>1.162207828780625</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="2">
-        <v>43545</v>
+        <v>43550</v>
       </c>
       <c r="B237">
-        <v>1.069949591628383</v>
+        <v>1.066560913705584</v>
       </c>
       <c r="C237">
-        <v>1.105736904891009</v>
+        <v>1.078563884339267</v>
       </c>
       <c r="D237">
-        <v>0.8376207939609709</v>
+        <v>0.8277399481193246</v>
       </c>
       <c r="E237">
-        <v>0.6442386270770907</v>
+        <v>0.661041116383441</v>
       </c>
       <c r="F237">
-        <v>0.6583201267828835</v>
+        <v>0.7680088659032129</v>
       </c>
       <c r="G237">
-        <v>0.9304029304029329</v>
+        <v>0.8669064748201457</v>
       </c>
       <c r="H237">
-        <v>0.8804286520022567</v>
+        <v>0.8577929465301491</v>
       </c>
       <c r="I237">
-        <v>1.139941276756961</v>
+        <v>1.163897493663756</v>
       </c>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="2">
-        <v>43546</v>
+        <v>43551</v>
       </c>
       <c r="B238">
-        <v>1.072549770290966</v>
+        <v>1.068876903553299</v>
       </c>
       <c r="C238">
-        <v>1.084756069220877</v>
+        <v>1.073554623520947</v>
       </c>
       <c r="D238">
-        <v>0.8319725888053106</v>
+        <v>0.8344682230868992</v>
       </c>
       <c r="E238">
-        <v>0.6440116226278035</v>
+        <v>0.6589373787428996</v>
       </c>
       <c r="F238">
-        <v>0.7020602218700467</v>
+        <v>0.768747691171037</v>
       </c>
       <c r="G238">
-        <v>0.8937728937728961</v>
+        <v>0.8597122302158292</v>
       </c>
       <c r="H238">
-        <v>0.880992667794699</v>
+        <v>0.8640500568828225</v>
       </c>
       <c r="I238">
-        <v>1.15992612237166</v>
+        <v>1.143011358302825</v>
       </c>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="2">
-        <v>43549</v>
+        <v>43552</v>
       </c>
       <c r="B239">
-        <v>1.071528841245534</v>
+        <v>1.069083121827411</v>
       </c>
       <c r="C239">
-        <v>1.083845879746541</v>
+        <v>1.077408195441534</v>
       </c>
       <c r="D239">
-        <v>0.8253071713467351</v>
+        <v>0.8277669693039333</v>
       </c>
       <c r="E239">
-        <v>0.6437846181785163</v>
+        <v>0.6561323952221778</v>
       </c>
       <c r="F239">
-        <v>0.7090332805071307</v>
+        <v>0.7303287772441809</v>
       </c>
       <c r="G239">
-        <v>0.8901098901098925</v>
+        <v>0.8597122302158292</v>
       </c>
       <c r="H239">
-        <v>0.8635081782289912</v>
+        <v>0.8566552901023903</v>
       </c>
       <c r="I239">
-        <v>1.17266527751468</v>
+        <v>1.151318877311555</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" s="2">
-        <v>43550</v>
+        <v>43553</v>
       </c>
       <c r="B240">
-        <v>1.072549770290966</v>
+        <v>1.066497461928934</v>
       </c>
       <c r="C240">
-        <v>1.091630904612143</v>
+        <v>1.084663778720017</v>
       </c>
       <c r="D240">
-        <v>0.820006959873651</v>
+        <v>0.8290910073497612</v>
       </c>
       <c r="E240">
-        <v>0.6419685825842186</v>
+        <v>0.6547299034618169</v>
       </c>
       <c r="F240">
-        <v>0.6589540412044366</v>
+        <v>0.744735869966752</v>
       </c>
       <c r="G240">
-        <v>0.8827838827838852</v>
+        <v>0.8669064748201457</v>
       </c>
       <c r="H240">
-        <v>0.8505358150028208</v>
+        <v>0.8828213879408431</v>
       </c>
       <c r="I240">
-        <v>1.174370145860958</v>
+        <v>1.151131136768985</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="2">
-        <v>43551</v>
+        <v>43556</v>
       </c>
       <c r="B241">
-        <v>1.074878764675856</v>
+        <v>1.065847081218274</v>
       </c>
       <c r="C241">
-        <v>1.086560955582753</v>
+        <v>1.097211804864608</v>
       </c>
       <c r="D241">
-        <v>0.8266723773322264</v>
+        <v>0.846627756160829</v>
       </c>
       <c r="E241">
-        <v>0.6399255425406338</v>
+        <v>0.6533274117014559</v>
       </c>
       <c r="F241">
-        <v>0.6595879556259896</v>
+        <v>0.7532323605467299</v>
       </c>
       <c r="G241">
-        <v>0.8754578754578779</v>
+        <v>0.8956834532374121</v>
       </c>
       <c r="H241">
-        <v>0.8567399887196848</v>
+        <v>0.9055745164960196</v>
       </c>
       <c r="I241">
-        <v>1.153296078802803</v>
+        <v>1.125269877029945</v>
       </c>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" s="2">
-        <v>43552</v>
+        <v>43557</v>
       </c>
       <c r="B242">
-        <v>1.075086140888209</v>
+        <v>1.066894035532995</v>
       </c>
       <c r="C242">
-        <v>1.090461214308953</v>
+        <v>1.097230938786756</v>
       </c>
       <c r="D242">
-        <v>0.8200337286184646</v>
+        <v>0.8560581495892767</v>
       </c>
       <c r="E242">
-        <v>0.6372014891491874</v>
+        <v>0.6512236740609145</v>
       </c>
       <c r="F242">
-        <v>0.626624405705229</v>
+        <v>0.7336534909493897</v>
       </c>
       <c r="G242">
-        <v>0.8754578754578779</v>
+        <v>0.8920863309352537</v>
       </c>
       <c r="H242">
-        <v>0.8494077834179364</v>
+        <v>0.9072810011376579</v>
       </c>
       <c r="I242">
-        <v>1.161678348172002</v>
+        <v>1.130010325729842</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="2">
-        <v>43553</v>
+        <v>43558</v>
       </c>
       <c r="B243">
-        <v>1.072485962225626</v>
+        <v>1.065180837563452</v>
       </c>
       <c r="C243">
-        <v>1.097804700450834</v>
+        <v>1.099588237995377</v>
       </c>
       <c r="D243">
-        <v>0.8213453971143287</v>
+        <v>0.8736219195849534</v>
       </c>
       <c r="E243">
-        <v>0.6358394624534642</v>
+        <v>0.646782450153105</v>
       </c>
       <c r="F243">
-        <v>0.626624405705229</v>
+        <v>0.7598817879571474</v>
       </c>
       <c r="G243">
-        <v>0.8827838827838852</v>
+        <v>0.9064748201438868</v>
       </c>
       <c r="H243">
-        <v>0.8753525098702771</v>
+        <v>0.9186575654152461</v>
       </c>
       <c r="I243">
-        <v>1.161488918355749</v>
+        <v>1.119543790481555</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" s="2">
-        <v>43556</v>
+        <v>43559</v>
       </c>
       <c r="B244">
-        <v>1.072485962225626</v>
+        <v>1.065418781725888</v>
       </c>
       <c r="C244">
-        <v>1.097804700450834</v>
+        <v>1.101880481868695</v>
+      </c>
+      <c r="D244">
+        <v>0.8830252918287925</v>
+      </c>
+      <c r="E244">
+        <v>0.6446787125125637</v>
+      </c>
+      <c r="F244">
+        <v>0.711119320280753</v>
+      </c>
+      <c r="G244">
+        <v>0.9028776978417284</v>
+      </c>
+      <c r="H244">
+        <v>0.9271899886234374</v>
+      </c>
+      <c r="I244">
+        <v>1.109077255233267</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" s="2">
+        <v>43563</v>
+      </c>
+      <c r="B245">
+        <v>1.064562182741117</v>
+      </c>
+      <c r="C245">
+        <v>1.106989239082183</v>
       </c>
     </row>
   </sheetData>
